--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A28D85-AEC7-8C47-B1C1-D8059EBF5142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30811C3-8267-764F-AE2B-973F4B0C28A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Summary!$M$3:$M$10</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$3:$M$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$K$3:$L$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Summary!$M$3:$M$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Summary!$K$3:$L$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Summary!$M$3:$M$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Summary!$K$3:$L$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4437,10 +4446,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$8</c:f>
+              <c:f>Summary!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -4458,16 +4467,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$8</c:f>
+              <c:f>Summary!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4485,6 +4497,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,10 +4536,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$8</c:f>
+              <c:f>Summary!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -4542,16 +4557,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$8</c:f>
+              <c:f>Summary!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4568,7 +4586,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10471,10 +10492,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11870,8 +11891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12061,11 +12082,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>21</v>
@@ -12078,6 +12099,19 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="28">
+      <c r="A9" s="10">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(B9:C9)</f>
+        <v>3</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>187</v>
       </c>
@@ -14127,7 +14161,7 @@
   <dimension ref="A1:IN47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30811C3-8267-764F-AE2B-973F4B0C28A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE6A83-8CBD-ED46-BA05-1286D065F702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Summary!$M$3:$M$10</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Summary!$K$3:$L$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Summary!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Summary!$K$3:$L$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Summary!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Summary!$K$3:$L$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="259">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1374,6 +1365,30 @@
   </si>
   <si>
     <t>https://www.facebook.com/TemasekReviewSingapore/posts/663006891183165</t>
+  </si>
+  <si>
+    <t>Singapore States Times and Alex Tan Facebook Pages Declared as Declared Online Locations Under POFMA</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-mci-06may2020-01.pdf</t>
+  </si>
+  <si>
+    <t>The Minister for Communications and Information has today declared the Singapore States Times’ (SST) and Alex Tan’s Facebook pages Declared Online Locations (DOL) under the Protection from Online Falsehoods and Manipulation Act (POFMA). The Declarations will come into effect on 7 May 2020.
+2. Under the Declarations, the SST’s and Tan’s Facebook pages are required to carry a notice stating that they have been declared DOLs. With the notice, visitors to both Facebook pages will be warned that the pages have a history of communicating falsehoods. The Declaration will also make it an offence for both SST and Tan to derive benefit from operating the Facebook pages, and prohibit the provision of financial support to them for the purposes of supporting, helping or promoting the communication of falsehoods.
+3. The SST’s and Tan’s Facebook pages have repeatedly communicated numerous falsehoods, of which at least three on each page were the subject of POFMA Directions from November 2019 to date. These include falsehoods regarding (1) COVID-19 cases in schools (POFMA Direction issued on 5 May 2020); (2) MOH’s reporting of COVID-19 cases in Singapore (POFMA Direction issued on 18 Apr 2020); (3) payment of salaries for quarantined migrant workers in the context of the COVID-19 situation in Singapore (POFMA Direction issued on 6 Apr 2020); and (4) NUSSU’s FB page and allegations of abuse of Police powers (POFMA Direction issued on 28 Nov 2019).
+SST and Tan have refused to comply with any of the Directions issued to them. In recent months, both Facebook pages have communicated falsehoods regarding the COVID-19 virus situation in Singapore. Both Facebook pages are linked to other websites that are operated by Tan, which derive monetary benefits from these falsehoods at the expense of Singaporeans and our society. This is also the second time that Facebook pages operated by Tan have been declared as DOLs. The “States Times Review” Facebook page, owned by Alex Tan, was declared a DOL on 16 Feb 2020.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TemasekReviewSingapore</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/STRAlexTan/</t>
+  </si>
+  <si>
+    <t>Declared Online Location to take effect from 7 May 2020</t>
+  </si>
+  <si>
+    <t>Alex Tan</t>
   </si>
 </sst>
 </file>
@@ -1592,13 +1607,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,10 +1804,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$199</c:f>
+              <c:f>Summary!$A$34:$A$206</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -2290,16 +2305,37 @@
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$34:$B$199</c:f>
+              <c:f>Summary!$B$34:$B$206</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2796,6 +2832,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2833,10 +2890,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$199</c:f>
+              <c:f>Summary!$A$34:$A$206</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -3334,16 +3391,37 @@
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$34:$C$199</c:f>
+              <c:f>Summary!$C$34:$C$206</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3834,12 +3912,33 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3950,7 +4049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4234,7 +4333,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4688,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +5018,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -5227,7 +5326,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -5638,7 +5737,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -5845,10 +5944,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10492,10 +10591,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11889,10 +11988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
-  <dimension ref="A2:Z199"/>
+  <dimension ref="A2:Z206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11966,7 +12065,7 @@
         <v>19</v>
       </c>
       <c r="Z3" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="28">
@@ -12018,7 +12117,7 @@
         <v>189</v>
       </c>
       <c r="M5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="28">
@@ -12106,11 +12205,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
         <f>SUM(B9:C9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>187</v>
@@ -12164,14 +12263,14 @@
         <v>31</v>
       </c>
       <c r="L18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="W18" s="7">
         <f>SUM(M3:M6)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28">
@@ -12221,7 +12320,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>34</v>
@@ -12291,7 +12390,7 @@
         <v>97</v>
       </c>
       <c r="W26" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="42">
@@ -12305,7 +12404,7 @@
         <v>156</v>
       </c>
       <c r="W27" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28">
@@ -14080,68 +14179,145 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="27">
+      <c r="A194" s="26">
         <v>43954</v>
       </c>
-      <c r="B194" s="28">
-        <v>0</v>
-      </c>
-      <c r="C194" s="28">
+      <c r="B194" s="27">
+        <v>0</v>
+      </c>
+      <c r="C194" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="27">
+      <c r="A195" s="26">
         <v>43955</v>
       </c>
-      <c r="B195" s="28">
-        <v>0</v>
-      </c>
-      <c r="C195" s="28">
+      <c r="B195" s="27">
+        <v>0</v>
+      </c>
+      <c r="C195" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="27">
+      <c r="A196" s="26">
         <v>43956</v>
       </c>
-      <c r="B196" s="28">
-        <v>0</v>
-      </c>
-      <c r="C196" s="28">
+      <c r="B196" s="27">
+        <v>0</v>
+      </c>
+      <c r="C196" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="27">
+      <c r="A197" s="26">
         <v>43957</v>
       </c>
-      <c r="B197" s="28">
-        <v>0</v>
-      </c>
-      <c r="C197" s="28">
-        <v>0</v>
+      <c r="B197" s="27">
+        <v>0</v>
+      </c>
+      <c r="C197" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="27">
+      <c r="A198" s="26">
         <v>43958</v>
       </c>
-      <c r="B198" s="28">
-        <v>0</v>
-      </c>
-      <c r="C198" s="28">
+      <c r="B198" s="27">
+        <v>0</v>
+      </c>
+      <c r="C198" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="27">
+      <c r="A199" s="26">
         <v>43959</v>
       </c>
-      <c r="B199" s="28">
-        <v>0</v>
-      </c>
-      <c r="C199" s="28">
+      <c r="B199" s="27">
+        <v>0</v>
+      </c>
+      <c r="C199" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="26">
+        <v>43960</v>
+      </c>
+      <c r="B200" s="27">
+        <v>0</v>
+      </c>
+      <c r="C200" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="26">
+        <v>43961</v>
+      </c>
+      <c r="B201" s="27">
+        <v>0</v>
+      </c>
+      <c r="C201" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="26">
+        <v>43962</v>
+      </c>
+      <c r="B202" s="27">
+        <v>0</v>
+      </c>
+      <c r="C202" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="26">
+        <v>43963</v>
+      </c>
+      <c r="B203" s="27">
+        <v>0</v>
+      </c>
+      <c r="C203" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="26">
+        <v>43964</v>
+      </c>
+      <c r="B204" s="27">
+        <v>0</v>
+      </c>
+      <c r="C204" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="26">
+        <v>43965</v>
+      </c>
+      <c r="B205" s="27">
+        <v>0</v>
+      </c>
+      <c r="C205" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="26">
+        <v>43966</v>
+      </c>
+      <c r="B206" s="27">
+        <v>0</v>
+      </c>
+      <c r="C206" s="27">
         <v>0</v>
       </c>
     </row>
@@ -14158,11 +14334,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IN47"/>
+  <dimension ref="A1:IN49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -16374,7 +16550,7 @@
       <c r="Q35" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="26" t="s">
+      <c r="R35" s="28" t="s">
         <v>251</v>
       </c>
       <c r="S35" s="19" t="s">
@@ -17069,7 +17245,7 @@
       <c r="Q46" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="26" t="s">
+      <c r="R46" s="28" t="s">
         <v>250</v>
       </c>
       <c r="S46" s="23" t="s">
@@ -17140,6 +17316,118 @@
         <v>66</v>
       </c>
       <c r="U47" s="18">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="90" customHeight="1">
+      <c r="A48" s="5">
+        <v>23</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3">
+        <v>43956</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="U48" s="3">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="90" customHeight="1">
+      <c r="A49" s="5">
+        <v>23</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5">
+        <v>39</v>
+      </c>
+      <c r="D49" s="3">
+        <v>43956</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="U49" s="3">
         <v>43957</v>
       </c>
     </row>
@@ -17276,6 +17564,10 @@
     <hyperlink ref="R45" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
     <hyperlink ref="R46" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
     <hyperlink ref="R35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
+    <hyperlink ref="F48" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
+    <hyperlink ref="F49" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
+    <hyperlink ref="R49" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
+    <hyperlink ref="R48" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/Current Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE6A83-8CBD-ED46-BA05-1286D065F702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8EB97-6538-7E47-9910-96357200B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$V$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="306">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -475,12 +475,6 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>2 Facebook users (user 1)</t>
-  </si>
-  <si>
-    <t>2 Facebook users (user 2)</t>
-  </si>
-  <si>
     <t>There was a false statement contained in a HardwareZone Forum post on the Wuhan coronavirus infection.
 Falsehoods
 At 5.50pm on 26 Jan 2020, a HardwareZone Forum post claimed that a 66 year old man died in Singapore from a newly identified virus that caused him to develop severe pneumonia.
@@ -921,9 +915,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Individuals Named in POFMA Use</t>
-  </si>
-  <si>
     <t>Medium of Communicated Content</t>
   </si>
   <si>
@@ -1385,10 +1376,170 @@
     <t>https://www.facebook.com/STRAlexTan/</t>
   </si>
   <si>
-    <t>Declared Online Location to take effect from 7 May 2020</t>
-  </si>
-  <si>
     <t>Alex Tan</t>
+  </si>
+  <si>
+    <t>Minister for Education Instructs POFMA Office to Issue Correction Directions</t>
+  </si>
+  <si>
+    <t>Minister for Education Instructs POFMA Office to Issue Targeted Correction Direction</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-mci-08may2020-01.pdf</t>
+  </si>
+  <si>
+    <t>The Minister for Communications and Information has directed POFMA Office to order Facebook to disable Singapore users’ access to the Singapore States Times’ (SST) and Alex Tan’s Facebook pages, under Section 34 of the Protection from Online Falsehoods and Manipulation Act (POFMA).
+2. The SST’s and Tan’s Facebook pages have repeatedly conveyed falsehoods and have not complied with any of the POFMA Directions1 that they have been served with. Both pages were named Declared Online Locations (DOL) on 6 May 2020, but they have not complied with the requirement to publish a notice stating that they have been declared DOLs by the stipulated deadline. The notice serves to warn visitors to these pages of the previous falsehoods that they have communicated.
+3. This is the second time that a Disabling Order is issued against Facebook pages operated by Tan, following his non-compliance with the DOL Declarations served2.</t>
+  </si>
+  <si>
+    <t>The Minister for Communications and Information has directed POFMA Office to order Facebook to disable Singapore users’ access to the Singapore States Times’ (SST) and Alex Tan’s Facebook pages, under Section 34 of the Protection from Online Falsehoods and Manipulation Act (POFMA).
+2. The SST’s and Tan’s Facebook pages have repeatedly conveyed falsehoods and have not complied with any of the POFMA Directions1 that they have been served with. Both pages were named Declared Online Locations (DOL) on 6 May 2020, but they have not complied with the requirement to publish a notice stating that they have been declared DOLs by the stipulated deadline. The notice serves to warn visitors to these pages of the previous falsehoods that they have communicated.
+3. This is the second time that a Disabling Order is issued against Facebook pages operated by Tan, following his non-compliance with the DOL Declarations served2.
+1 These include falsehoods regarding (a) COVID-19 cases in schools (POFMA Direction issued on 5 May 2020); (b) MOH’s reporting of COVID-19 cases in Singapore (POFMA Direction issued on 18 Apr 2020); (c) payment of salaries for quarantined migrant workers in the context of the COVID-19 situation in Singapore (POFMA Direction issued on 6 Apr 2020); and (d) NUSSU’s FB page and allegations of abuse of Police powers (POFMA Direction issued on 28 Nov 2019). Clarifications regarding these falsehoods can be found at:
+(a) https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools
+(b) www.gov.sg/article/factually-clarifications-on-falsehoods-posted-by-sst-on-reporting-of-covid-19-cases-in-singapore
+(c) www.gov.sg/article/factually-clarification-on-falsehood-posted-by-sst-on-quarantine-of-foreign-workers
+(d) www.gov.sg/factually/content/corrections-on-falsehoods-posted-by-states-times-review
+2 The “States Times Review” (STR) Facebook page, owned by Alex Tan, was declared a DOL on 16 Feb 2020. STR did not comply with the Declaration, and POFMA Office issued an order to Facebook on 17 Feb 2020 to disable access for Singapore users to the STR Facebook page.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/STRAlexTan</t>
+  </si>
+  <si>
+    <t>Disabling Order yet to take effect</t>
+  </si>
+  <si>
+    <t>Individuals Recipients in POFMA Use</t>
+  </si>
+  <si>
+    <t>Description of Communication</t>
+  </si>
+  <si>
+    <t>SDP Facebook Post 1</t>
+  </si>
+  <si>
+    <t>SDP Facebook Post 2</t>
+  </si>
+  <si>
+    <t>LFL Website</t>
+  </si>
+  <si>
+    <t>2 Facebook users (Anonymous User 1)</t>
+  </si>
+  <si>
+    <t>2 Facebook users (Anonymous User 2)</t>
+  </si>
+  <si>
+    <t>AB-TC City News Website Article</t>
+  </si>
+  <si>
+    <t>States Times Review Facebook Page</t>
+  </si>
+  <si>
+    <t>Facebook User “超静” (“tifinnytara”) Facebook Post</t>
+  </si>
+  <si>
+    <t>States Times Review Facebook Post 1</t>
+  </si>
+  <si>
+    <t>The Online Citizen Website Article 2</t>
+  </si>
+  <si>
+    <t>The Online Citizen Website Article 1</t>
+  </si>
+  <si>
+    <t>Mr Lim Tean Facebook Post 2</t>
+  </si>
+  <si>
+    <t>Mr Lim Tean Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Mr Lim Tean  Facebook Post 3</t>
+  </si>
+  <si>
+    <t>Mr Lim Tean Facebook Post  6</t>
+  </si>
+  <si>
+    <t>States Times Review Facebook Post 2</t>
+  </si>
+  <si>
+    <t>States Times Review Facebook Post 3</t>
+  </si>
+  <si>
+    <t>Singapore States Times Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Singapore States Times Facebook Post 2</t>
+  </si>
+  <si>
+    <t>The Temasek Review Facebook Post 1</t>
+  </si>
+  <si>
+    <t>The Temasek Review Facebook Post 2</t>
+  </si>
+  <si>
+    <t>Singapore States Times Facebook Post 3</t>
+  </si>
+  <si>
+    <t>Mr Alex Tan Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Mr Alex Tan Facebook Page</t>
+  </si>
+  <si>
+    <t>Anonymous User 2 Facebook Post</t>
+  </si>
+  <si>
+    <t>Mr Brad Bowyer Facebook Post 1</t>
+  </si>
+  <si>
+    <t>SDP Website Article 1</t>
+  </si>
+  <si>
+    <t>Kirsten Han Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Yahoo Singapore Facebook Post 1</t>
+  </si>
+  <si>
+    <t>LFL Website Article 1</t>
+  </si>
+  <si>
+    <t>Anonymous User 1 HardwareZone Forum Post</t>
+  </si>
+  <si>
+    <t>Anonymous User 3 Facebook Post</t>
+  </si>
+  <si>
+    <t>Say No to PAP Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Mr Glibert Goh Facebook Post 1</t>
+  </si>
+  <si>
+    <t>The Independent Singapore Website Article 1</t>
+  </si>
+  <si>
+    <t>The Independent Singapore Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Facebook User 'Henryace Ace' Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Mr Sebastian Ying Facebook Post 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Lim Tean Facebook Post 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Lim Tean Facebook Post 5 </t>
+  </si>
+  <si>
+    <t>HardwareZone Forum Post by user  "darksiedluv" 1</t>
+  </si>
+  <si>
+    <t>The Online Citizen Facebook Post 1</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1679,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1615,6 +1766,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3918,7 +4075,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
@@ -4333,7 +4490,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,7 +4845,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5021,7 +5178,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -5326,7 +5483,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -5737,7 +5894,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -5947,7 +6104,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6085,6 +6242,469 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2600"/>
+              <a:t>POFMA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2600" baseline="0"/>
+              <a:t> Use by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not COVID-19 Related</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C75-1347-9491-C2D2B3204FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COVID-19 Related</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C75-1347-9491-C2D2B3204FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="311190864"/>
+        <c:axId val="311414832"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="311190864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311414832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="311414832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311190864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6512,6 +7132,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10549,6 +11209,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10908,6 +12071,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>819855</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>409222</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>105141</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B8A386-E750-3642-80E0-3DD3533B81E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11990,8 +13191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:Z206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12005,16 +13206,16 @@
   <sheetData>
     <row r="2" spans="1:26" ht="42">
       <c r="A2" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>6</v>
@@ -12023,14 +13224,14 @@
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="28">
@@ -12053,19 +13254,19 @@
         <v>17</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M3" s="9">
         <v>26</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y3" s="7">
         <v>19</v>
       </c>
       <c r="Z3" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="28">
@@ -12088,7 +13289,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M4" s="9">
         <v>6</v>
@@ -12114,7 +13315,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M5" s="9">
         <v>3</v>
@@ -12140,10 +13341,10 @@
         <v>17</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14">
@@ -12166,7 +13367,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M7" s="9">
         <v>5</v>
@@ -12191,7 +13392,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
@@ -12205,17 +13406,17 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
         <f>SUM(B9:C9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
@@ -12223,10 +13424,10 @@
     </row>
     <row r="10" spans="1:26" ht="14">
       <c r="K10" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M10" s="9">
         <v>1</v>
@@ -12237,24 +13438,24 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="42">
       <c r="A18" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="7">
         <v>32</v>
@@ -12263,19 +13464,19 @@
         <v>31</v>
       </c>
       <c r="L18" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="W18" s="7">
         <f>SUM(M3:M6)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28">
       <c r="A19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -12296,7 +13497,7 @@
     </row>
     <row r="20" spans="1:23" ht="28">
       <c r="A20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="7">
         <v>6</v>
@@ -12308,7 +13509,7 @@
         <v>6</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W20" s="7">
         <f>SUM(M9:M10)</f>
@@ -12317,7 +13518,7 @@
     </row>
     <row r="21" spans="1:23" ht="28">
       <c r="A21" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="7">
         <v>3</v>
@@ -12331,10 +13532,10 @@
     </row>
     <row r="22" spans="1:23" ht="28">
       <c r="A22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
@@ -12373,10 +13574,10 @@
         <v>2</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="W25" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="28">
@@ -12395,24 +13596,24 @@
     </row>
     <row r="27" spans="1:23" ht="42">
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W27" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28">
       <c r="A33" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>9</v>
@@ -14241,7 +15442,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -14334,90 +15535,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IN49"/>
+  <dimension ref="A1:IO52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="16.33203125" style="5"/>
     <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="20" width="16.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="3" customWidth="1"/>
-    <col min="22" max="248" width="16.33203125" style="1" customWidth="1"/>
-    <col min="249" max="16384" width="16.33203125" style="2"/>
+    <col min="4" max="4" width="16.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
+    <col min="6" max="21" width="16.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="3" customWidth="1"/>
+    <col min="23" max="249" width="16.33203125" style="1" customWidth="1"/>
+    <col min="250" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="50" customHeight="1">
+    <row r="1" spans="1:22" ht="50" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="H1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>205</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>192</v>
-      </c>
       <c r="P1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="T1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="90" customHeight="1">
+        <v>164</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="90" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -14427,60 +15632,63 @@
       <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="18">
         <v>43794</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>213</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H2" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="Q2" s="20"/>
       <c r="R2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="18">
+      <c r="V2" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="90" customHeight="1">
+    <row r="3" spans="1:22" ht="90" customHeight="1">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -14490,60 +15698,63 @@
       <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="18">
         <v>43797</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>215</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>165</v>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="T3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="90" customHeight="1">
+    <row r="4" spans="1:22" ht="90" customHeight="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -14553,50 +15764,50 @@
       <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="18">
         <v>43798</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="J4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>156</v>
+      <c r="P4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="S4" s="20" t="s">
         <v>66</v>
@@ -14604,11 +15815,14 @@
       <c r="T4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="90" customHeight="1">
+    <row r="5" spans="1:22" ht="90" customHeight="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -14618,58 +15832,61 @@
       <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="18">
         <v>43813</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>218</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H5" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R5" s="21" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="T5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="18">
+      <c r="U5" s="19"/>
+      <c r="V5" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="90" customHeight="1">
+    <row r="6" spans="1:22" ht="90" customHeight="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -14679,58 +15896,61 @@
       <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="18">
         <v>43813</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>218</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H6" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R6" s="21" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="T6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="18">
+      <c r="U6" s="19"/>
+      <c r="V6" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="90" customHeight="1">
+    <row r="7" spans="1:22" ht="90" customHeight="1">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -14740,58 +15960,61 @@
       <c r="C7" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="18">
         <v>43813</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>218</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H7" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="T7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="18">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="90" customHeight="1">
+    <row r="8" spans="1:22" ht="90" customHeight="1">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -14801,62 +16024,65 @@
       <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="18">
         <v>43815</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>220</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="L8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="P8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="20" t="s">
-        <v>167</v>
-      </c>
       <c r="Q8" s="20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="T8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="U8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="18">
+      <c r="V8" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="90" customHeight="1">
+    <row r="9" spans="1:22" ht="90" customHeight="1">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -14866,60 +16092,63 @@
       <c r="C9" s="17">
         <v>7</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="18">
         <v>43815</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>220</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H9" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="N9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="O9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="Q9" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="18">
+      <c r="U9" s="20"/>
+      <c r="V9" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="90" customHeight="1">
+    <row r="10" spans="1:22" ht="90" customHeight="1">
       <c r="A10" s="17">
         <v>6</v>
       </c>
@@ -14929,60 +16158,63 @@
       <c r="C10" s="17">
         <v>8</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="18">
         <v>43852</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H10" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="O10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="P10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R10" s="21" t="s">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="T10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="U10" s="18">
+      <c r="V10" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="90" customHeight="1">
+    <row r="11" spans="1:22" ht="90" customHeight="1">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -14992,60 +16224,63 @@
       <c r="C11" s="17">
         <v>9</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="18">
         <v>43852</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H11" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="N11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>169</v>
-      </c>
       <c r="Q11" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="T11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="18">
+      <c r="U11" s="20"/>
+      <c r="V11" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="90" customHeight="1">
+    <row r="12" spans="1:22" ht="90" customHeight="1">
       <c r="A12" s="17">
         <v>6</v>
       </c>
@@ -15055,60 +16290,63 @@
       <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="18">
         <v>43852</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="G12" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H12" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="L12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="N12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="Q12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U12" s="18">
+      <c r="V12" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="90" customHeight="1">
+    <row r="13" spans="1:22" ht="90" customHeight="1">
       <c r="A13" s="17">
         <v>6</v>
       </c>
@@ -15118,60 +16356,63 @@
       <c r="C13" s="17">
         <v>11</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="18">
         <v>43852</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="G13" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="L13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="N13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="P13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="T13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="18">
+      <c r="U13" s="20"/>
+      <c r="V13" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="90" customHeight="1">
+    <row r="14" spans="1:22" ht="90" customHeight="1">
       <c r="A14" s="17">
         <v>7</v>
       </c>
@@ -15179,52 +16420,52 @@
         <v>12</v>
       </c>
       <c r="C14" s="17">
-        <v>8</v>
-      </c>
-      <c r="D14" s="18">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="18">
         <v>43853</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="K14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="N14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>156</v>
+      <c r="P14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="S14" s="20" t="s">
         <v>66</v>
@@ -15232,11 +16473,14 @@
       <c r="T14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="18">
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="90" customHeight="1">
+      <c r="U14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="18">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="90" customHeight="1">
       <c r="A15" s="17">
         <v>8</v>
       </c>
@@ -15244,64 +16488,67 @@
         <v>13</v>
       </c>
       <c r="C15" s="17">
-        <v>12</v>
-      </c>
-      <c r="D15" s="18">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="18">
         <v>43857</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>225</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="N15" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="S15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="T15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="U15" s="18">
+      <c r="U15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="V15" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="90" customHeight="1">
+    <row r="16" spans="1:22" ht="90" customHeight="1">
       <c r="A16" s="17">
         <v>9</v>
       </c>
@@ -15309,62 +16556,65 @@
         <v>14</v>
       </c>
       <c r="C16" s="17">
-        <v>13</v>
-      </c>
-      <c r="D16" s="18">
+        <v>14</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="18">
         <v>43858</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="G16" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="J16" s="19" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O16" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="20"/>
+      <c r="R16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R16" s="21" t="s">
+      <c r="S16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="T16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T16" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="U16" s="18">
+      <c r="U16" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="90" customHeight="1">
+    <row r="17" spans="1:22" ht="90" customHeight="1">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -15372,62 +16622,65 @@
         <v>14</v>
       </c>
       <c r="C17" s="17">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="18">
         <v>43858</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="G17" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H17" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="J17" s="19" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="19" t="s">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R17" s="21" t="s">
+      <c r="S17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="T17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="U17" s="18">
+      <c r="U17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V17" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="90" customHeight="1">
+    <row r="18" spans="1:22" ht="90" customHeight="1">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -15435,62 +16688,65 @@
         <v>15</v>
       </c>
       <c r="C18" s="17">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="18">
         <v>43861</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="G18" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H18" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="L18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="M18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="N18" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="20"/>
+      <c r="R18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R18" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="T18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T18" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="U18" s="18">
+      <c r="U18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V18" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="90" customHeight="1">
+    <row r="19" spans="1:22" ht="90" customHeight="1">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -15498,62 +16754,65 @@
         <v>16</v>
       </c>
       <c r="C19" s="17">
-        <v>16</v>
-      </c>
-      <c r="D19" s="18">
+        <v>17</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="18">
         <v>43861</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H19" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="L19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="N19" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="S19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="T19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T19" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="U19" s="18">
+      <c r="U19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="90" customHeight="1">
+    <row r="20" spans="1:22" ht="90" customHeight="1">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -15561,62 +16820,65 @@
         <v>17</v>
       </c>
       <c r="C20" s="17">
+        <v>18</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="18">
+        <v>43861</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="18">
-        <v>43861</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="N20" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="20"/>
+      <c r="R20" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="S20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="T20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T20" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="U20" s="18">
+      <c r="U20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="90" customHeight="1">
+    <row r="21" spans="1:22" ht="90" customHeight="1">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -15624,62 +16886,65 @@
         <v>18</v>
       </c>
       <c r="C21" s="17">
-        <v>18</v>
-      </c>
-      <c r="D21" s="18">
+        <v>19</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="18">
         <v>43861</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="G21" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H21" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="L21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="N21" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R21" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>165</v>
+      <c r="S21" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="T21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U21" s="18">
+      <c r="V21" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="90" customHeight="1">
+    <row r="22" spans="1:22" ht="90" customHeight="1">
       <c r="A22" s="17">
         <v>11</v>
       </c>
@@ -15687,64 +16952,67 @@
         <v>19</v>
       </c>
       <c r="C22" s="17">
-        <v>18</v>
-      </c>
-      <c r="D22" s="18">
+        <v>19</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="18">
         <v>43861</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="G22" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H22" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="19" t="s">
         <v>66</v>
       </c>
       <c r="T22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="90" customHeight="1">
+    <row r="23" spans="1:22" ht="90" customHeight="1">
       <c r="A23" s="17">
         <v>12</v>
       </c>
@@ -15752,62 +17020,65 @@
         <v>20</v>
       </c>
       <c r="C23" s="17">
-        <v>19</v>
-      </c>
-      <c r="D23" s="18">
+        <v>20</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="18">
         <v>43875</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="G23" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H23" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="M23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="N23" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="20"/>
+      <c r="R23" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>165</v>
+      <c r="S23" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="T23" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U23" s="18">
+      <c r="V23" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="90" customHeight="1">
+    <row r="24" spans="1:22" ht="90" customHeight="1">
       <c r="A24" s="17">
         <v>12</v>
       </c>
@@ -15815,64 +17086,67 @@
         <v>21</v>
       </c>
       <c r="C24" s="17">
-        <v>19</v>
-      </c>
-      <c r="D24" s="18">
+        <v>20</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="18">
         <v>43875</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="G24" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H24" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>125</v>
+      <c r="M24" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="R24" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="19" t="s">
         <v>66</v>
       </c>
       <c r="T24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="90" customHeight="1">
+    <row r="25" spans="1:22" ht="90" customHeight="1">
       <c r="A25" s="17">
         <v>13</v>
       </c>
@@ -15880,60 +17154,63 @@
         <v>22</v>
       </c>
       <c r="C25" s="17">
-        <v>20</v>
-      </c>
-      <c r="D25" s="18">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="18">
         <v>43876</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="J25" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="L25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="M25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20" t="s">
+      <c r="N25" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q25" s="19" t="s">
+      <c r="Q25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>165</v>
+      <c r="S25" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="T25" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U25" s="18">
+      <c r="V25" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="90" customHeight="1">
+    <row r="26" spans="1:22" ht="90" customHeight="1">
       <c r="A26" s="17">
         <v>14</v>
       </c>
@@ -15941,64 +17218,67 @@
         <v>23</v>
       </c>
       <c r="C26" s="17">
-        <v>20</v>
-      </c>
-      <c r="D26" s="18">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="18">
         <v>43878</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="F26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>236</v>
-      </c>
       <c r="G26" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H26" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>125</v>
+      <c r="M26" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="R26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R26" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="19" t="s">
         <v>66</v>
       </c>
       <c r="T26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="90" customHeight="1">
+    <row r="27" spans="1:22" ht="90" customHeight="1">
       <c r="A27" s="17">
         <v>15</v>
       </c>
@@ -16006,58 +17286,61 @@
         <v>24</v>
       </c>
       <c r="C27" s="17">
-        <v>21</v>
-      </c>
-      <c r="D27" s="18">
+        <v>22</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="18">
         <v>43887</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19" t="s">
+      <c r="G27" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J27" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="L27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="M27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="N27" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="O27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R27" s="21" t="s">
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="T27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T27" s="20"/>
-      <c r="U27" s="18">
+      <c r="U27" s="20"/>
+      <c r="V27" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="90" customHeight="1">
+    <row r="28" spans="1:22" ht="90" customHeight="1">
       <c r="A28" s="17">
         <v>15</v>
       </c>
@@ -16065,60 +17348,63 @@
         <v>25</v>
       </c>
       <c r="C28" s="17">
-        <v>22</v>
-      </c>
-      <c r="D28" s="18">
+        <v>23</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="18">
         <v>43887</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19" t="s">
+      <c r="G28" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="L28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="M28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="N28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="N28" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S28" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="20" t="s">
+      <c r="T28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T28" s="20"/>
-      <c r="U28" s="18">
+      <c r="U28" s="20"/>
+      <c r="V28" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="90" customHeight="1">
+    <row r="29" spans="1:22" ht="90" customHeight="1">
       <c r="A29" s="17">
         <v>15</v>
       </c>
@@ -16126,60 +17412,63 @@
         <v>26</v>
       </c>
       <c r="C29" s="17">
-        <v>23</v>
-      </c>
-      <c r="D29" s="18">
+        <v>24</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="18">
         <v>43887</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="L29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="M29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="N29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="N29" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="T29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T29" s="20"/>
-      <c r="U29" s="18">
+      <c r="U29" s="20"/>
+      <c r="V29" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="90" customHeight="1">
+    <row r="30" spans="1:22" ht="90" customHeight="1">
       <c r="A30" s="17">
         <v>16</v>
       </c>
@@ -16187,64 +17476,67 @@
         <v>27</v>
       </c>
       <c r="C30" s="17">
-        <v>24</v>
-      </c>
-      <c r="D30" s="18">
+        <v>25</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="18">
         <v>43908</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="G30" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H30" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J30" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="L30" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="M30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>135</v>
+      <c r="N30" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="O30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R30" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="S30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S30" s="20" t="s">
+      <c r="T30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T30" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="U30" s="18">
+      <c r="U30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V30" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="90" customHeight="1">
+    <row r="31" spans="1:22" ht="90" customHeight="1">
       <c r="A31" s="17">
         <v>16</v>
       </c>
@@ -16252,64 +17544,67 @@
         <v>28</v>
       </c>
       <c r="C31" s="17">
-        <v>25</v>
-      </c>
-      <c r="D31" s="18">
+        <v>26</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" s="18">
         <v>43908</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="G31" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H31" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="L31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>135</v>
+      <c r="N31" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="O31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q31" s="19" t="s">
+      <c r="Q31" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="S31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S31" s="20" t="s">
+      <c r="T31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T31" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="U31" s="18">
+      <c r="U31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V31" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="90" customHeight="1">
+    <row r="32" spans="1:22" ht="90" customHeight="1">
       <c r="A32" s="17">
         <v>16</v>
       </c>
@@ -16317,62 +17612,65 @@
         <v>29</v>
       </c>
       <c r="C32" s="17">
-        <v>26</v>
-      </c>
-      <c r="D32" s="18">
+        <v>27</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="18">
         <v>43908</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="G32" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H32" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J32" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="M32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>135</v>
+      <c r="N32" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="O32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="19" t="s">
+      <c r="Q32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R32" s="21" t="s">
+      <c r="S32" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="T32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T32" s="20"/>
-      <c r="U32" s="18">
+      <c r="U32" s="20"/>
+      <c r="V32" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="90" customHeight="1">
+    <row r="33" spans="1:22" ht="90" customHeight="1">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -16380,64 +17678,67 @@
         <v>29</v>
       </c>
       <c r="C33" s="17">
-        <v>27</v>
-      </c>
-      <c r="D33" s="18">
+        <v>28</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="18">
         <v>43908</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="F33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="G33" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H33" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J33" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="M33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M33" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>135</v>
+      <c r="N33" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="O33" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P33" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="Q33" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R33" s="22" t="s">
+      <c r="S33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="20" t="s">
+      <c r="T33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="20" t="s">
+      <c r="U33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U33" s="18">
+      <c r="V33" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="90" customHeight="1">
+    <row r="34" spans="1:22" ht="90" customHeight="1">
       <c r="A34" s="17">
         <v>17</v>
       </c>
@@ -16445,62 +17746,65 @@
         <v>30</v>
       </c>
       <c r="C34" s="17">
-        <v>28</v>
-      </c>
-      <c r="D34" s="18">
+        <v>29</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="18">
         <v>43922</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>240</v>
-      </c>
       <c r="G34" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H34" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J34" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="L34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="M34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="N34" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O34" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" s="20"/>
+      <c r="R34" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="21" t="s">
+      <c r="S34" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="20" t="s">
+      <c r="T34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="U34" s="18">
+      <c r="U34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="V34" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="90" customHeight="1">
+    <row r="35" spans="1:22" ht="90" customHeight="1">
       <c r="A35" s="17">
         <v>18</v>
       </c>
@@ -16508,60 +17812,63 @@
         <v>31</v>
       </c>
       <c r="C35" s="17">
-        <v>29</v>
-      </c>
-      <c r="D35" s="18">
+        <v>30</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="18">
         <v>43927</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>242</v>
-      </c>
       <c r="G35" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H35" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="L35" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="M35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="N35" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="O35" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="19" t="s">
+      <c r="Q35" s="20"/>
+      <c r="R35" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="S35" s="19" t="s">
+      <c r="S35" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="T35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T35" s="20"/>
-      <c r="U35" s="18">
+      <c r="U35" s="20"/>
+      <c r="V35" s="18">
         <v>43957</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="90" customHeight="1">
+    <row r="36" spans="1:22" ht="90" customHeight="1">
       <c r="A36" s="17">
         <v>18</v>
       </c>
@@ -16569,64 +17876,67 @@
         <v>32</v>
       </c>
       <c r="C36" s="17">
-        <v>29</v>
-      </c>
-      <c r="D36" s="18">
+        <v>30</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="18">
         <v>43927</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>242</v>
-      </c>
       <c r="G36" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H36" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="R36" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R36" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S36" s="20" t="s">
+      <c r="S36" s="19" t="s">
         <v>66</v>
       </c>
       <c r="T36" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V36" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="90" customHeight="1">
+    <row r="37" spans="1:22" ht="90" customHeight="1">
       <c r="A37" s="17">
         <v>19</v>
       </c>
@@ -16634,62 +17944,65 @@
         <v>33</v>
       </c>
       <c r="C37" s="17">
-        <v>30</v>
-      </c>
-      <c r="D37" s="18">
+        <v>31</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="18">
         <v>43938</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="G37" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H37" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="L37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="M37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="N37" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="O37" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="20"/>
+      <c r="R37" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="21" t="s">
+      <c r="S37" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S37" s="20" t="s">
+      <c r="T37" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T37" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="U37" s="18">
+      <c r="U37" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="V37" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="90" customHeight="1">
+    <row r="38" spans="1:22" ht="90" customHeight="1">
       <c r="A38" s="17">
         <v>20</v>
       </c>
@@ -16697,60 +18010,63 @@
         <v>34</v>
       </c>
       <c r="C38" s="17">
-        <v>31</v>
-      </c>
-      <c r="D38" s="18">
+        <v>32</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="18">
         <v>43939</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>246</v>
-      </c>
       <c r="G38" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H38" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="L38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="M38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="N38" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O38" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P38" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="19" t="s">
+      <c r="Q38" s="20"/>
+      <c r="R38" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="21" t="s">
+      <c r="S38" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="S38" s="20" t="s">
+      <c r="T38" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T38" s="20"/>
-      <c r="U38" s="18">
+      <c r="U38" s="20"/>
+      <c r="V38" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="90" customHeight="1">
+    <row r="39" spans="1:22" ht="90" customHeight="1">
       <c r="A39" s="17">
         <v>20</v>
       </c>
@@ -16758,64 +18074,67 @@
         <v>35</v>
       </c>
       <c r="C39" s="17">
-        <v>31</v>
-      </c>
-      <c r="D39" s="18">
+        <v>32</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="18">
         <v>43939</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="F39" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>246</v>
-      </c>
       <c r="G39" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H39" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="L39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>145</v>
+      <c r="M39" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q39" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="R39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S39" s="20" t="s">
+      <c r="S39" s="19" t="s">
         <v>66</v>
       </c>
       <c r="T39" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V39" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="90" customHeight="1">
+    <row r="40" spans="1:22" ht="90" customHeight="1">
       <c r="A40" s="17">
         <v>21</v>
       </c>
@@ -16823,62 +18142,65 @@
         <v>36</v>
       </c>
       <c r="C40" s="17">
-        <v>32</v>
-      </c>
-      <c r="D40" s="18">
+        <v>33</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="18">
         <v>43940</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G40" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H40" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="L40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="M40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="N40" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R40" s="21" t="s">
+      <c r="R40" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S40" s="20" t="s">
+      <c r="T40" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T40" s="20"/>
-      <c r="U40" s="18">
+      <c r="U40" s="20"/>
+      <c r="V40" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="90" customHeight="1">
+    <row r="41" spans="1:22" ht="90" customHeight="1">
       <c r="A41" s="17">
         <v>21</v>
       </c>
@@ -16886,64 +18208,67 @@
         <v>37</v>
       </c>
       <c r="C41" s="17">
-        <v>33</v>
-      </c>
-      <c r="D41" s="18">
+        <v>34</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="18">
         <v>43940</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G41" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H41" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="J41" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="L41" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="M41" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="N41" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N41" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P41" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q41" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="R41" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S41" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S41" s="20" t="s">
+      <c r="T41" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="T41" s="20" t="s">
+      <c r="U41" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U41" s="18">
+      <c r="V41" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="90" customHeight="1">
+    <row r="42" spans="1:22" ht="90" customHeight="1">
       <c r="A42" s="17">
         <v>21</v>
       </c>
@@ -16951,62 +18276,65 @@
         <v>38</v>
       </c>
       <c r="C42" s="17">
-        <v>34</v>
-      </c>
-      <c r="D42" s="18">
+        <v>35</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="18">
         <v>43940</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G42" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H42" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="L42" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="M42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R42" s="21" t="s">
+      <c r="R42" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S42" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S42" s="20" t="s">
+      <c r="T42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T42" s="20"/>
-      <c r="U42" s="18">
+      <c r="U42" s="20"/>
+      <c r="V42" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="90" customHeight="1">
+    <row r="43" spans="1:22" ht="90" customHeight="1">
       <c r="A43" s="17">
         <v>21</v>
       </c>
@@ -17014,62 +18342,65 @@
         <v>39</v>
       </c>
       <c r="C43" s="17">
-        <v>35</v>
-      </c>
-      <c r="D43" s="18">
+        <v>36</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="18">
         <v>43940</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G43" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H43" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="L43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="M43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="N43" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N43" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q43" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R43" s="21" t="s">
+      <c r="R43" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S43" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="S43" s="20" t="s">
+      <c r="T43" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T43" s="20"/>
-      <c r="U43" s="18">
+      <c r="U43" s="20"/>
+      <c r="V43" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="90" customHeight="1">
+    <row r="44" spans="1:22" ht="90" customHeight="1">
       <c r="A44" s="17">
         <v>21</v>
       </c>
@@ -17077,62 +18408,65 @@
         <v>39</v>
       </c>
       <c r="C44" s="17">
-        <v>36</v>
-      </c>
-      <c r="D44" s="18">
+        <v>37</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="18">
         <v>43940</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G44" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="L44" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="M44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="N44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N44" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P44" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q44" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R44" s="21" t="s">
+      <c r="R44" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S44" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="S44" s="20" t="s">
+      <c r="T44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T44" s="20"/>
-      <c r="U44" s="18">
+      <c r="U44" s="20"/>
+      <c r="V44" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="90" customHeight="1">
+    <row r="45" spans="1:22" ht="90" customHeight="1">
       <c r="A45" s="17">
         <v>22</v>
       </c>
@@ -17140,60 +18474,65 @@
         <v>40</v>
       </c>
       <c r="C45" s="17">
-        <v>37</v>
-      </c>
-      <c r="D45" s="18">
+        <v>38</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="18">
         <v>43956</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="F45" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="O45" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="P45" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S45" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="H45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N45" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O45" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="S45" s="23" t="s">
+      <c r="T45" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="T45" s="23"/>
-      <c r="U45" s="18">
+      <c r="U45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V45" s="18">
         <v>43957</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="90" customHeight="1">
+    <row r="46" spans="1:22" ht="90" customHeight="1">
       <c r="A46" s="17">
         <v>22</v>
       </c>
@@ -17201,62 +18540,67 @@
         <v>41</v>
       </c>
       <c r="C46" s="17">
-        <v>37</v>
-      </c>
-      <c r="D46" s="18">
+        <v>39</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" s="18">
         <v>43956</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="F46" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="O46" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="23" t="s">
+      <c r="P46" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="N46" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O46" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q46" s="23" t="s">
+      <c r="R46" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="S46" s="23" t="s">
+      <c r="S46" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="T46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="18">
+      <c r="U46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V46" s="18">
         <v>43957</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="90" customHeight="1">
+    <row r="47" spans="1:22" ht="90" customHeight="1">
       <c r="A47" s="17">
         <v>22</v>
       </c>
@@ -17264,50 +18608,50 @@
         <v>42</v>
       </c>
       <c r="C47" s="17">
-        <v>37</v>
-      </c>
-      <c r="D47" s="18">
+        <v>38</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="18">
         <v>43956</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="J47" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="L47" s="23" t="s">
         <v>17</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="R47" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="S47" s="23" t="s">
         <v>66</v>
@@ -17315,259 +18659,464 @@
       <c r="T47" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V47" s="18">
         <v>43957</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="90" customHeight="1">
-      <c r="A48" s="5">
+    <row r="48" spans="1:22" ht="90" customHeight="1">
+      <c r="A48" s="17">
+        <v>22</v>
+      </c>
+      <c r="B48" s="17">
+        <v>42</v>
+      </c>
+      <c r="C48" s="17">
+        <v>39</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="18">
+        <v>43956</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="5">
-        <v>43</v>
-      </c>
-      <c r="C48" s="5">
-        <v>38</v>
-      </c>
-      <c r="D48" s="3">
-        <v>43956</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="J48" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="M48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="R48" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="U48" s="3">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="90" customHeight="1">
+      <c r="S48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="U48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" s="18">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="90" customHeight="1">
       <c r="A49" s="5">
         <v>23</v>
       </c>
       <c r="B49" s="5">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5">
+        <v>40</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43957</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V49" s="3">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="90" customHeight="1">
+      <c r="A50" s="5">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5">
         <v>44</v>
       </c>
-      <c r="C49" s="5">
-        <v>39</v>
-      </c>
-      <c r="D49" s="3">
-        <v>43956</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C50" s="5">
+        <v>41</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="3">
+        <v>43957</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F49" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="T50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V50" s="3">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="90" customHeight="1">
+      <c r="A51" s="5">
+        <v>24</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5">
+        <v>40</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="J51" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V51" s="3">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="90" customHeight="1">
+      <c r="A52" s="5">
+        <v>24</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5">
+        <v>41</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="E52" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q49" s="1" t="s">
+      <c r="M52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R49" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="S49" s="1" t="s">
+      <c r="S52" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="U49" s="3">
-        <v>43957</v>
+      <c r="U52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V52" s="3">
+        <v>43959</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
+  <autoFilter ref="A1:V52" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N15" r:id="rId21" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N16" r:id="rId24" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N18" r:id="rId27" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G23" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F34" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F35" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F40" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G40" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F31" r:id="rId62" xr:uid="{C77BF435-2B70-374B-8853-2F6E11388B92}"/>
-    <hyperlink ref="F32" r:id="rId63" xr:uid="{C3109B57-5203-E14F-8E09-7131094AE9E9}"/>
-    <hyperlink ref="G31" r:id="rId64" xr:uid="{6D36EFD7-05C4-8B4E-BDDC-F078A54A9A23}"/>
-    <hyperlink ref="G32" r:id="rId65" xr:uid="{F777BEA0-E95A-6A46-BD97-EAE292F258FB}"/>
-    <hyperlink ref="F11" r:id="rId66" xr:uid="{77A7D123-4CE2-9140-8C4D-071A98E918A6}"/>
-    <hyperlink ref="F12" r:id="rId67" xr:uid="{4A88D525-4714-B748-81B1-8A240E32B2A5}"/>
-    <hyperlink ref="F13" r:id="rId68" xr:uid="{ABE73897-F000-A74F-AD5F-A919CEB9E215}"/>
-    <hyperlink ref="G11" r:id="rId69" xr:uid="{311F1861-FABA-B74E-A6D0-4F3B33C9BB55}"/>
-    <hyperlink ref="G12" r:id="rId70" xr:uid="{901F54F2-5ED5-F445-B641-E6004F5A24BF}"/>
-    <hyperlink ref="G13" r:id="rId71" xr:uid="{9AF60CF8-52E9-AC46-AB42-73AE2A80A8F4}"/>
-    <hyperlink ref="F42" r:id="rId72" xr:uid="{ABE1AA1D-BC62-C64C-A146-F147932F62D5}"/>
-    <hyperlink ref="F44" r:id="rId73" xr:uid="{31830744-AEB3-D74E-9516-762CDD194305}"/>
-    <hyperlink ref="G42" r:id="rId74" xr:uid="{3CD0C915-C993-BB4D-8780-FA0EBA234493}"/>
-    <hyperlink ref="G44" r:id="rId75" xr:uid="{12AB9A5B-3101-4C41-8252-31EA63C3B6F4}"/>
-    <hyperlink ref="R5" r:id="rId76" xr:uid="{6FE3C0D7-37BA-434D-9147-062C8E82A35B}"/>
-    <hyperlink ref="R7" r:id="rId77" xr:uid="{9C00E91B-9872-F347-8871-3E0217991519}"/>
-    <hyperlink ref="R6" r:id="rId78" xr:uid="{EFBE1438-27F5-A642-A023-980997CD93D0}"/>
-    <hyperlink ref="F9" r:id="rId79" xr:uid="{E72E23A3-E994-9142-96FF-BB5D0A30F185}"/>
-    <hyperlink ref="G9" r:id="rId80" xr:uid="{89F2634D-8804-F541-8D5D-23E8DB76D9D1}"/>
-    <hyperlink ref="R10" r:id="rId81" xr:uid="{092B3D6F-06CC-544B-AA6B-1486FB2B27B7}"/>
-    <hyperlink ref="R11" r:id="rId82" xr:uid="{B7CD5680-39CD-2745-9D07-93A4872A5A4C}"/>
-    <hyperlink ref="R13" r:id="rId83" xr:uid="{EDDDF3EF-7550-694B-B0E1-81EE194F9943}"/>
-    <hyperlink ref="F17" r:id="rId84" xr:uid="{5FD0607F-D23E-9444-99E0-A5E82454E115}"/>
-    <hyperlink ref="G17" r:id="rId85" xr:uid="{CE89E509-BF31-A44A-84DE-B262E2C67C0D}"/>
-    <hyperlink ref="R15" r:id="rId86" display="https://www.straitstimes.com/singapore/sph-magazines-complies-with-pofma-correction-order-on-false-hardwarezone-post" xr:uid="{4D146908-4BF2-0340-B4B6-E9FEFFE6C81C}"/>
-    <hyperlink ref="R16" r:id="rId87" xr:uid="{6D504C73-AE36-6845-983A-21CD23431635}"/>
-    <hyperlink ref="R17" r:id="rId88" xr:uid="{1F221035-C716-C143-869C-27F3000C5D0E}"/>
-    <hyperlink ref="R19" r:id="rId89" xr:uid="{D63F6B07-01CD-254C-BCE6-62CA30410173}"/>
-    <hyperlink ref="R20" r:id="rId90" xr:uid="{3A58EB72-3D22-594F-A6D1-9C32EFA4F6BD}"/>
-    <hyperlink ref="R28" r:id="rId91" xr:uid="{9674621F-E1F6-C440-9449-E1BB51F943F4}"/>
-    <hyperlink ref="R27" r:id="rId92" xr:uid="{27985132-A60F-444B-9F26-C8927614B6A5}"/>
-    <hyperlink ref="R29" r:id="rId93" xr:uid="{15A2077A-48C6-1D42-BD09-BA5A34E6955B}"/>
-    <hyperlink ref="R30" r:id="rId94" xr:uid="{228D6619-DF37-0F41-8831-63F2CC56C4B8}"/>
-    <hyperlink ref="R31" r:id="rId95" xr:uid="{8DB4BE7A-03C1-F24E-B4E8-73339C316149}"/>
-    <hyperlink ref="R32" r:id="rId96" xr:uid="{051E1BFE-1B2F-B544-99AD-66058FDD395B}"/>
-    <hyperlink ref="R34" r:id="rId97" xr:uid="{1F2EEF91-A65F-5E44-BF1A-1A1851AF3C26}"/>
-    <hyperlink ref="R37" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
-    <hyperlink ref="R38" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
-    <hyperlink ref="R40" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
-    <hyperlink ref="F41" r:id="rId101" xr:uid="{A27253EE-1106-DE42-A88C-4071E7AB3387}"/>
-    <hyperlink ref="G41" r:id="rId102" xr:uid="{22C0C542-02EF-B543-84C7-7F1BA8F48881}"/>
-    <hyperlink ref="F43" r:id="rId103" xr:uid="{C6F76C5A-4F58-DE44-828E-A0B5DB82D62F}"/>
-    <hyperlink ref="G43" r:id="rId104" xr:uid="{BED8DF91-C2CB-FF4F-8716-F08F41E39864}"/>
-    <hyperlink ref="R42" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
-    <hyperlink ref="R43" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
-    <hyperlink ref="R44" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
-    <hyperlink ref="M18" r:id="rId108" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N17" r:id="rId109" display="www.moh.gov.sg" xr:uid="{849D101D-7B60-E64D-A551-2CF875A647C0}"/>
-    <hyperlink ref="N19" r:id="rId110" display="www.moh.gov.sg" xr:uid="{4B2326FF-5AAD-1A4B-9A66-24ED8EA84326}"/>
-    <hyperlink ref="N20" r:id="rId111" display="www.moh.gov.sg" xr:uid="{6F913E4D-12B5-5745-92CC-9E691AEBABB1}"/>
-    <hyperlink ref="M19" r:id="rId112" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{44211A01-CDA6-344A-8F24-32F54AE5D43F}"/>
-    <hyperlink ref="M20" r:id="rId113" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{3C35680F-CDD5-6246-B214-CF4088195F6F}"/>
-    <hyperlink ref="F33" r:id="rId114" xr:uid="{DD6A2808-28CB-DB44-B381-13676C6D2964}"/>
-    <hyperlink ref="G33" r:id="rId115" xr:uid="{2B539462-18F3-994E-B2A2-B25B1B8A6A4C}"/>
-    <hyperlink ref="N37" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="R18" r:id="rId117" xr:uid="{B2B58C13-7524-9145-A132-A1F469973134}"/>
-    <hyperlink ref="R3" r:id="rId118" xr:uid="{9D77ECBF-62F7-B342-926E-ADE0C83DE947}"/>
-    <hyperlink ref="R21" r:id="rId119" xr:uid="{63A00751-EF11-6745-B94A-ED9E93759587}"/>
-    <hyperlink ref="R23" r:id="rId120" xr:uid="{5DDC055A-6376-B846-9259-163A281336C9}"/>
-    <hyperlink ref="R25" r:id="rId121" xr:uid="{51905E69-5344-A04C-BA16-C7BD8A95797C}"/>
-    <hyperlink ref="R9" r:id="rId122" xr:uid="{D4367E80-DD46-5344-A534-5DA794A004E7}"/>
-    <hyperlink ref="F45" r:id="rId123" xr:uid="{1780B637-9397-0043-9D08-D781704A5638}"/>
-    <hyperlink ref="F46:F47" r:id="rId124" display="https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf" xr:uid="{7B007A63-6A55-7944-A27A-367B2EC4382E}"/>
-    <hyperlink ref="G45" r:id="rId125" xr:uid="{F6868888-7896-6349-B0B5-79D5127D440C}"/>
-    <hyperlink ref="G46:G47" r:id="rId126" display="https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools" xr:uid="{51479145-DE4C-0649-ACE9-C601F8022A66}"/>
-    <hyperlink ref="R45" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
-    <hyperlink ref="R46" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
-    <hyperlink ref="R35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
-    <hyperlink ref="F48" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
-    <hyperlink ref="F49" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
-    <hyperlink ref="R49" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
-    <hyperlink ref="R48" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O15" r:id="rId21" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O16" r:id="rId24" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="O18" r:id="rId27" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H23" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G34" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G35" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G40" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H40" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G31" r:id="rId62" xr:uid="{C77BF435-2B70-374B-8853-2F6E11388B92}"/>
+    <hyperlink ref="G32" r:id="rId63" xr:uid="{C3109B57-5203-E14F-8E09-7131094AE9E9}"/>
+    <hyperlink ref="H31" r:id="rId64" xr:uid="{6D36EFD7-05C4-8B4E-BDDC-F078A54A9A23}"/>
+    <hyperlink ref="H32" r:id="rId65" xr:uid="{F777BEA0-E95A-6A46-BD97-EAE292F258FB}"/>
+    <hyperlink ref="G11" r:id="rId66" xr:uid="{77A7D123-4CE2-9140-8C4D-071A98E918A6}"/>
+    <hyperlink ref="G12" r:id="rId67" xr:uid="{4A88D525-4714-B748-81B1-8A240E32B2A5}"/>
+    <hyperlink ref="G13" r:id="rId68" xr:uid="{ABE73897-F000-A74F-AD5F-A919CEB9E215}"/>
+    <hyperlink ref="H11" r:id="rId69" xr:uid="{311F1861-FABA-B74E-A6D0-4F3B33C9BB55}"/>
+    <hyperlink ref="H12" r:id="rId70" xr:uid="{901F54F2-5ED5-F445-B641-E6004F5A24BF}"/>
+    <hyperlink ref="H13" r:id="rId71" xr:uid="{9AF60CF8-52E9-AC46-AB42-73AE2A80A8F4}"/>
+    <hyperlink ref="G42" r:id="rId72" xr:uid="{ABE1AA1D-BC62-C64C-A146-F147932F62D5}"/>
+    <hyperlink ref="G44" r:id="rId73" xr:uid="{31830744-AEB3-D74E-9516-762CDD194305}"/>
+    <hyperlink ref="H42" r:id="rId74" xr:uid="{3CD0C915-C993-BB4D-8780-FA0EBA234493}"/>
+    <hyperlink ref="H44" r:id="rId75" xr:uid="{12AB9A5B-3101-4C41-8252-31EA63C3B6F4}"/>
+    <hyperlink ref="S5" r:id="rId76" xr:uid="{6FE3C0D7-37BA-434D-9147-062C8E82A35B}"/>
+    <hyperlink ref="S7" r:id="rId77" xr:uid="{9C00E91B-9872-F347-8871-3E0217991519}"/>
+    <hyperlink ref="S6" r:id="rId78" xr:uid="{EFBE1438-27F5-A642-A023-980997CD93D0}"/>
+    <hyperlink ref="G9" r:id="rId79" xr:uid="{E72E23A3-E994-9142-96FF-BB5D0A30F185}"/>
+    <hyperlink ref="H9" r:id="rId80" xr:uid="{89F2634D-8804-F541-8D5D-23E8DB76D9D1}"/>
+    <hyperlink ref="S10" r:id="rId81" xr:uid="{092B3D6F-06CC-544B-AA6B-1486FB2B27B7}"/>
+    <hyperlink ref="S11" r:id="rId82" xr:uid="{B7CD5680-39CD-2745-9D07-93A4872A5A4C}"/>
+    <hyperlink ref="S13" r:id="rId83" xr:uid="{EDDDF3EF-7550-694B-B0E1-81EE194F9943}"/>
+    <hyperlink ref="G17" r:id="rId84" xr:uid="{5FD0607F-D23E-9444-99E0-A5E82454E115}"/>
+    <hyperlink ref="H17" r:id="rId85" xr:uid="{CE89E509-BF31-A44A-84DE-B262E2C67C0D}"/>
+    <hyperlink ref="S15" r:id="rId86" display="https://www.straitstimes.com/singapore/sph-magazines-complies-with-pofma-correction-order-on-false-hardwarezone-post" xr:uid="{4D146908-4BF2-0340-B4B6-E9FEFFE6C81C}"/>
+    <hyperlink ref="S16" r:id="rId87" xr:uid="{6D504C73-AE36-6845-983A-21CD23431635}"/>
+    <hyperlink ref="S17" r:id="rId88" xr:uid="{1F221035-C716-C143-869C-27F3000C5D0E}"/>
+    <hyperlink ref="S19" r:id="rId89" xr:uid="{D63F6B07-01CD-254C-BCE6-62CA30410173}"/>
+    <hyperlink ref="S20" r:id="rId90" xr:uid="{3A58EB72-3D22-594F-A6D1-9C32EFA4F6BD}"/>
+    <hyperlink ref="S28" r:id="rId91" xr:uid="{9674621F-E1F6-C440-9449-E1BB51F943F4}"/>
+    <hyperlink ref="S27" r:id="rId92" xr:uid="{27985132-A60F-444B-9F26-C8927614B6A5}"/>
+    <hyperlink ref="S29" r:id="rId93" xr:uid="{15A2077A-48C6-1D42-BD09-BA5A34E6955B}"/>
+    <hyperlink ref="S30" r:id="rId94" xr:uid="{228D6619-DF37-0F41-8831-63F2CC56C4B8}"/>
+    <hyperlink ref="S31" r:id="rId95" xr:uid="{8DB4BE7A-03C1-F24E-B4E8-73339C316149}"/>
+    <hyperlink ref="S32" r:id="rId96" xr:uid="{051E1BFE-1B2F-B544-99AD-66058FDD395B}"/>
+    <hyperlink ref="S34" r:id="rId97" xr:uid="{1F2EEF91-A65F-5E44-BF1A-1A1851AF3C26}"/>
+    <hyperlink ref="S37" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
+    <hyperlink ref="S38" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
+    <hyperlink ref="S40" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
+    <hyperlink ref="G41" r:id="rId101" xr:uid="{A27253EE-1106-DE42-A88C-4071E7AB3387}"/>
+    <hyperlink ref="H41" r:id="rId102" xr:uid="{22C0C542-02EF-B543-84C7-7F1BA8F48881}"/>
+    <hyperlink ref="G43" r:id="rId103" xr:uid="{C6F76C5A-4F58-DE44-828E-A0B5DB82D62F}"/>
+    <hyperlink ref="H43" r:id="rId104" xr:uid="{BED8DF91-C2CB-FF4F-8716-F08F41E39864}"/>
+    <hyperlink ref="S42" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
+    <hyperlink ref="S43" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
+    <hyperlink ref="S44" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
+    <hyperlink ref="N18" r:id="rId108" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O17" r:id="rId109" display="www.moh.gov.sg" xr:uid="{849D101D-7B60-E64D-A551-2CF875A647C0}"/>
+    <hyperlink ref="O19" r:id="rId110" display="www.moh.gov.sg" xr:uid="{4B2326FF-5AAD-1A4B-9A66-24ED8EA84326}"/>
+    <hyperlink ref="O20" r:id="rId111" display="www.moh.gov.sg" xr:uid="{6F913E4D-12B5-5745-92CC-9E691AEBABB1}"/>
+    <hyperlink ref="N19" r:id="rId112" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{44211A01-CDA6-344A-8F24-32F54AE5D43F}"/>
+    <hyperlink ref="N20" r:id="rId113" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{3C35680F-CDD5-6246-B214-CF4088195F6F}"/>
+    <hyperlink ref="G33" r:id="rId114" xr:uid="{DD6A2808-28CB-DB44-B381-13676C6D2964}"/>
+    <hyperlink ref="H33" r:id="rId115" xr:uid="{2B539462-18F3-994E-B2A2-B25B1B8A6A4C}"/>
+    <hyperlink ref="O37" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="S18" r:id="rId117" xr:uid="{B2B58C13-7524-9145-A132-A1F469973134}"/>
+    <hyperlink ref="S3" r:id="rId118" xr:uid="{9D77ECBF-62F7-B342-926E-ADE0C83DE947}"/>
+    <hyperlink ref="S21" r:id="rId119" xr:uid="{63A00751-EF11-6745-B94A-ED9E93759587}"/>
+    <hyperlink ref="S23" r:id="rId120" xr:uid="{5DDC055A-6376-B846-9259-163A281336C9}"/>
+    <hyperlink ref="S25" r:id="rId121" xr:uid="{51905E69-5344-A04C-BA16-C7BD8A95797C}"/>
+    <hyperlink ref="S9" r:id="rId122" xr:uid="{D4367E80-DD46-5344-A534-5DA794A004E7}"/>
+    <hyperlink ref="G45" r:id="rId123" xr:uid="{1780B637-9397-0043-9D08-D781704A5638}"/>
+    <hyperlink ref="G46:G48" r:id="rId124" display="https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf" xr:uid="{7B007A63-6A55-7944-A27A-367B2EC4382E}"/>
+    <hyperlink ref="H45" r:id="rId125" xr:uid="{F6868888-7896-6349-B0B5-79D5127D440C}"/>
+    <hyperlink ref="H46:H48" r:id="rId126" display="https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools" xr:uid="{51479145-DE4C-0649-ACE9-C601F8022A66}"/>
+    <hyperlink ref="S45" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
+    <hyperlink ref="S46" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
+    <hyperlink ref="S35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
+    <hyperlink ref="G49" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
+    <hyperlink ref="G50" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
+    <hyperlink ref="S50" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
+    <hyperlink ref="S49" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
+    <hyperlink ref="G47" r:id="rId134" xr:uid="{F85B3633-7730-CE4F-8AD3-95E5B096245A}"/>
+    <hyperlink ref="H47" r:id="rId135" xr:uid="{F72C2235-0555-C642-B14C-AE2A80A813B8}"/>
+    <hyperlink ref="G51" r:id="rId136" xr:uid="{DD4944F1-F6E4-864C-A8DF-2545C74A9E56}"/>
+    <hyperlink ref="G52" r:id="rId137" xr:uid="{344B5944-BD43-A345-83C7-4C8681290B8E}"/>
+    <hyperlink ref="S51" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
+    <hyperlink ref="S52" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/Current Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8EB97-6538-7E47-9910-96357200B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0482E4F-D6AA-774F-9A88-9D30C6002F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$V$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$3:$M$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$K$3:$L$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$M$3:$M$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Summary!$M$3:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="316">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1407,9 +1409,6 @@
     <t>https://www.facebook.com/STRAlexTan</t>
   </si>
   <si>
-    <t>Disabling Order yet to take effect</t>
-  </si>
-  <si>
     <t>Individuals Recipients in POFMA Use</t>
   </si>
   <si>
@@ -1540,6 +1539,64 @@
   </si>
   <si>
     <t>The Online Citizen Facebook Post 1</t>
+  </si>
+  <si>
+    <t>New Naratif Video 1</t>
+  </si>
+  <si>
+    <t>Minister for Law Instructs POFMA Office to Issue Correction Directions</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-minlaw-13may2020-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually-corrections-on-falsehoods-about-pofma-by-thum-ping-tjin</t>
+  </si>
+  <si>
+    <t>Minister for Law</t>
+  </si>
+  <si>
+    <t>New Naratif</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Mr Thum Ping Tjin</t>
+  </si>
+  <si>
+    <t>1.     A YouTube video by Mr Thum Ping Tjin contains several false and misleading statements.
+Falsehoods
+2.     On 8 May 2020, Mr Thum published a YouTube video episode of The Show by PJ Thum on the New Naratif YouTube channel, claiming, amongst other things, the following.
+a.     Under the Protection from Online Falsehoods and Manipulation Act (POFMA), the definition of “false” means that “even if one bit is found to be wrong or misleading, the whole statement can be considered false. The definition is so broad that the omission of a fact, accidentally or otherwise, is sufficient for something to be considered misleading. The problem is, it’s impossible to include every single fact about anything in the statement. You can’t! And even if you could, anyone could selectively quote it, so that what they quote is misleading. So under this law, every statement can be considered false in some way”.
+b.     POFMA makes all criticisms of the Government illegal.
+c.     There is no recourse in law for the Court to overturn a POFMA direction if it is an abuse of the powers under POFMA.
+d.     POFMA “means that the truth will be whatever the party says it is”.1
+3.     The above are false, for the following reasons:
+POFMA applies only to factual statements that are false (Section 2(2) of POFMA). It does not apply to opinions. If there is a dispute as to whether the statement is false, or whether it is a statement of fact, the dispute can be determined by the Courts. Further, the whole statement will not be considered false, automatically, just because “one bit” of it is false. The Courts have, over centuries, developed criteria for assessing falsehoods. It is untrue to say that “every statement can be considered false in some way” and be subject to POFMA.
+Criticisms which are opinions and not statements of fact are not covered by POFMA (Section 2(2)(a) of POFMA). Criticisms which are based on true facts, are also not covered by POFMA. POFMA only applies to falsehoods. It is untrue (and absurd) to say that POFMA makes all criticisms of the Government illegal. Before and after POFMA came into force, there have been criticisms of the Government (including by Mr Thum), on a regular basis. They have not been the subject of POFMA.
+The Courts have judicial oversight of the exercise of powers under POFMA. It is therefore untrue to say that there can be no recourse in law, when there has been abuse of POFMA powers
+For the above reasons, it is also false for Mr Thum to assert that POFMA “means that the truth will be whatever the party says it is.”1
+4.     Mr Thum also states that POFMA has been used against the “interpretation of statistical data” by the Singapore Democratic Party (SDP). This is also false. The issue was not about interpretation of statistics. The SDP had made a direct, false statement. (See MOM’s clarification in the said SDP case.)  SDP challenged the POFMA directions against it, and the High Court held that there was no basis for the directions to be set aside, because SDP had made false statements of fact. The High Court’s judgment is publicly available.</t>
+  </si>
+  <si>
+    <t>Additional Clarifications
+5.     Contrary to what Mr Thum suggests, people are free to criticise and disagree with the Government.
+6.     POFMA has been used to deal specifically with falsehoods, which suggested that the Government is mismanaging public funds, abusing police power, favouring foreigners over locals, and carrying out judicial executions in an unlawful, brutal manner, among others. The consequences that such falsehoods about public institutions can have on society were extensively set out in the Government’s Green Paper, the Select Committee Report, and the Second Reading speech for POFMA. Those interested can look at this material and form their own views as to whether, as Mr Thum claims, POFMA has been used in a manner inconsistent with government assurances.
+7.     POFMA has enabled these falsehoods to be corrected in a targeted manner. Powers under POFMA are in fact narrower than pre-existing legislation dealing with falsehoods.
+8.     Further, so far, the primary approach has been to issue Correction Directions under POFMA.2 Where a Correction Direction has been issued, the original article remains completely accessible. Readers can read for themselves both the primary piece and the correction, and make up their own minds. Recipients of POFMA directions who put up the Correction Notice can continue to put forward their point of view on the issue, and their original articles also remain available for anyone to read.
+9.     POFMA was used against COVID-19-related falsehoods in 11 of the 18 POFMA cases to date. In 7 of these cases, directions were issued within 24 hours, sometimes in a matter of hours.
+10.     Mr Thum states that the court process takes a long time. But, as the Government has said, POFMA’s Rules provide for the High Court hearing to be held 6 working days after the originating summons is filed in court, which is expedited, compared with the usual process which could take some months.  As the Government has also said, there are no hearing fees for the first three days (if the hearing does take three days), and the Court will have the power to waive any further fees. For individuals, filing fees are lower than ordinary court fees. The Government had also explained that how long the hearing takes, and how long the Courts take to decide, are matters for the Courts; Parliament and the Executive cannot intervene in those.
+11.     Mr Thum also misleadingly uses a video clip of an interview with the Minister for Law to suggest that POFMA can be easily abused by a future government. He  omits the first part of the Minister’s answer, which is that “first of all, there are checks… the courts have oversight of it. So there is a clear oversight mechanism (and) checks.”
+12.     Contrary to what Mr Thum said, the Government did not try to apply the Administration of Justice (Protection) Act retroactively in Mr Li Shengwu’s case. The substantive law applicable to the case was common law contempt, and not the Administration of Justice (Protection) Act.
+13.     Mr Thum claims that “past PAP governments have spread misinformation to silence critics, like in Operation Spectrum.” These are his opinions (and thus not subject to a POFMA Direction).  Similar claims have been refuted elsewhere.
+14.     Public clarifications on POFMA have been put out by the Government, repeatedly. Yet, in the past year, Mr Thum has on multiple occasions repeated falsehoods and misleading statements similar to those in this case. He is clearly aware of what the true scope of POFMA is: when a viewer asked whether his criticisms of the government may be false, he shrugged off the suggestion, stating that “POFMA is supposed to only be used against ‘false statements of facts’,” meaning, his opinions cannot be the subject of POFMA.  Thus his statements (set out in para 2 above), that POFMA can be used in respect of all statements, are entirely cynical, and he obviously knows that they are untrue.
+15.     Under the Correction Directions issued to Mr Thum and New Naratif, the 8 May video can remain accessible to the public. That gives the lie to any suggestion of censorship. It will allow viewers to view his video, and this statement, and reach their own conclusions.
+[1] Mr Thum refers to ‘party’, presumably referring to the ruling party. The Orders under POFMA are made by the Government.
+[2] Two entities have refused to comply with the Correction Directions. Accordingly, their sites were blocked. One was a person who has persistently set up various sites to purvey falsehoods, for financial gain.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AWjPx48lRVM</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1736,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1772,6 +1829,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3004,7 +3064,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -4487,7 +4547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26</c:v>
@@ -4755,7 +4815,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5166,7 +5226,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5440,9 +5500,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$18:$K$27</c:f>
+              <c:f>Summary!$K$18:$K$28</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Minister for Communications and Information</c:v>
                 </c:pt>
@@ -5472,16 +5532,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Minister in charge of the People's Association</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Minister for Law</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$18:$L$27</c:f>
+              <c:f>Summary!$L$18:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5511,6 +5574,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,10 +6167,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6286,478 +6352,15 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2600"/>
-              <a:t>POFMA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2600" baseline="0"/>
-              <a:t> Use by Month</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="2600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Not COVID-19 Related</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>43770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C75-1347-9491-C2D2B3204FAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>COVID-19 Related</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>43770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C75-1347-9491-C2D2B3204FAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
-        <c:axId val="311190864"/>
-        <c:axId val="311414832"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="311190864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="311414832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="311414832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="311190864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6797,7 +6400,7 @@
         <cx:series layoutId="sunburst" uniqueId="{E4287DCA-8BA8-0F4C-B8B9-24E4CBD82CB9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Number of POFMA Uses</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7132,46 +6735,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11209,509 +10772,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11754,10 +10814,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>308429</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12071,44 +11131,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>819855</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>409222</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>105141</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B8A386-E750-3642-80E0-3DD3533B81E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13191,8 +12213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:Z206"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView topLeftCell="A264" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13263,7 +12285,7 @@
         <v>197</v>
       </c>
       <c r="Y3" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="7">
         <v>26</v>
@@ -13403,14 +12425,14 @@
         <v>43952</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
       </c>
       <c r="D9" s="7">
         <f>SUM(B9:C9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>185</v>
@@ -13433,6 +12455,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:26" ht="14">
+      <c r="K11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="17" spans="1:23" ht="56">
       <c r="A17" s="6" t="s">
         <v>3</v>
@@ -13458,7 +12491,7 @@
         <v>148</v>
       </c>
       <c r="B18" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
@@ -13529,6 +12562,13 @@
       <c r="L21" s="7">
         <v>8</v>
       </c>
+      <c r="V21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="W21" s="7">
+        <f>SUM(M11)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="28">
       <c r="A22" s="4" t="s">
@@ -13574,7 +12614,7 @@
         <v>2</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W25" s="13" t="s">
         <v>197</v>
@@ -13591,7 +12631,7 @@
         <v>97</v>
       </c>
       <c r="W26" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="42">
@@ -13605,7 +12645,15 @@
         <v>154</v>
       </c>
       <c r="W27" s="7">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="14">
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28">
@@ -15494,7 +14542,7 @@
         <v>43964</v>
       </c>
       <c r="B204" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C204" s="27">
         <v>0</v>
@@ -15535,11 +14583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO52"/>
+  <dimension ref="A1:IO54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -15565,7 +14613,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -15633,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="18">
         <v>43794</v>
@@ -15699,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" s="18">
         <v>43797</v>
@@ -15765,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="18">
         <v>43798</v>
@@ -15833,7 +14881,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="18">
         <v>43813</v>
@@ -15897,7 +14945,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="18">
         <v>43813</v>
@@ -15961,7 +15009,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="18">
         <v>43813</v>
@@ -16025,7 +15073,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="18">
         <v>43815</v>
@@ -16093,7 +15141,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="18">
         <v>43815</v>
@@ -16159,7 +15207,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="18">
         <v>43852</v>
@@ -16225,7 +15273,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E11" s="18">
         <v>43852</v>
@@ -16291,7 +15339,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="18">
         <v>43852</v>
@@ -16357,7 +15405,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="18">
         <v>43852</v>
@@ -16423,7 +15471,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="18">
         <v>43853</v>
@@ -16491,7 +15539,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" s="18">
         <v>43857</v>
@@ -16559,7 +15607,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" s="18">
         <v>43858</v>
@@ -16580,7 +15628,7 @@
         <v>149</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>17</v>
@@ -16625,7 +15673,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="18">
         <v>43858</v>
@@ -16646,7 +15694,7 @@
         <v>149</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>17</v>
@@ -16691,7 +15739,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="18">
         <v>43861</v>
@@ -16757,7 +15805,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="18">
         <v>43861</v>
@@ -16823,7 +15871,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="18">
         <v>43861</v>
@@ -16889,7 +15937,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="18">
         <v>43861</v>
@@ -16955,7 +16003,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="18">
         <v>43861</v>
@@ -17023,7 +16071,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="18">
         <v>43875</v>
@@ -17089,7 +16137,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="18">
         <v>43875</v>
@@ -17157,7 +16205,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="18">
         <v>43876</v>
@@ -17221,7 +16269,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="18">
         <v>43878</v>
@@ -17289,7 +16337,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" s="18">
         <v>43887</v>
@@ -17351,7 +16399,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E28" s="18">
         <v>43887</v>
@@ -17415,7 +16463,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E29" s="18">
         <v>43887</v>
@@ -17479,7 +16527,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="18">
         <v>43908</v>
@@ -17547,7 +16595,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E31" s="18">
         <v>43908</v>
@@ -17615,7 +16663,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="18">
         <v>43908</v>
@@ -17681,7 +16729,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="18">
         <v>43908</v>
@@ -17749,7 +16797,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E34" s="18">
         <v>43922</v>
@@ -17815,7 +16863,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" s="18">
         <v>43927</v>
@@ -17879,7 +16927,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" s="18">
         <v>43927</v>
@@ -17947,7 +16995,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="18">
         <v>43938</v>
@@ -18013,7 +17061,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" s="18">
         <v>43939</v>
@@ -18077,7 +17125,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" s="18">
         <v>43939</v>
@@ -18145,7 +17193,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E40" s="18">
         <v>43940</v>
@@ -18211,7 +17259,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E41" s="18">
         <v>43940</v>
@@ -18279,7 +17327,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E42" s="18">
         <v>43940</v>
@@ -18345,7 +17393,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="18">
         <v>43940</v>
@@ -18411,7 +17459,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="18">
         <v>43940</v>
@@ -18461,7 +17509,7 @@
       <c r="T44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U44" s="20"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="18">
         <v>43956</v>
       </c>
@@ -18477,7 +17525,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E45" s="18">
         <v>43956</v>
@@ -18522,14 +17570,14 @@
       <c r="S45" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="T45" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V45" s="18">
-        <v>43957</v>
+      <c r="T45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="3">
+        <v>43965</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="90" customHeight="1">
@@ -18543,7 +17591,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E46" s="18">
         <v>43956</v>
@@ -18590,14 +17638,14 @@
       <c r="S46" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="T46" s="23" t="s">
-        <v>67</v>
+      <c r="T46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V46" s="18">
-        <v>43957</v>
+        <v>66</v>
+      </c>
+      <c r="V46" s="3">
+        <v>43965</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="90" customHeight="1">
@@ -18611,7 +17659,7 @@
         <v>38</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E47" s="18">
         <v>43956</v>
@@ -18677,7 +17725,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E48" s="18">
         <v>43956</v>
@@ -18743,7 +17791,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E49" s="3">
         <v>43957</v>
@@ -18782,13 +17830,13 @@
         <v>253</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="V49" s="3">
-        <v>43957</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="90" customHeight="1">
@@ -18841,13 +17889,13 @@
         <v>252</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="V50" s="3">
-        <v>43957</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="90" customHeight="1">
@@ -18861,7 +17909,7 @@
         <v>40</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E51" s="3">
         <v>43959</v>
@@ -18903,13 +17951,13 @@
         <v>260</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="V51" s="3">
-        <v>43959</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="90" customHeight="1">
@@ -18965,13 +18013,143 @@
         <v>252</v>
       </c>
       <c r="T52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V52" s="3">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="90" customHeight="1">
+      <c r="A53" s="5">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5">
+        <v>46</v>
+      </c>
+      <c r="C53" s="5">
+        <v>42</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="3">
+        <v>43964</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S53" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V52" s="3">
-        <v>43959</v>
+      <c r="U53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V53" s="3">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="90" customHeight="1">
+      <c r="A54" s="5">
+        <v>25</v>
+      </c>
+      <c r="B54" s="5">
+        <v>47</v>
+      </c>
+      <c r="C54" s="5">
+        <v>42</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43964</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S54" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V54" s="3">
+        <v>43965</v>
       </c>
     </row>
   </sheetData>
@@ -19117,6 +18295,12 @@
     <hyperlink ref="G52" r:id="rId137" xr:uid="{344B5944-BD43-A345-83C7-4C8681290B8E}"/>
     <hyperlink ref="S51" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
     <hyperlink ref="S52" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
+    <hyperlink ref="G53" r:id="rId140" xr:uid="{DC472B87-C4BF-C740-A8D9-9DB768283F08}"/>
+    <hyperlink ref="G54" r:id="rId141" xr:uid="{78548BB2-095E-2541-948B-E7ABC429FFD4}"/>
+    <hyperlink ref="H53" r:id="rId142" xr:uid="{353685A2-6058-BA48-B8E2-E41188D1FD07}"/>
+    <hyperlink ref="H54" r:id="rId143" xr:uid="{4D128808-5C22-B044-ABAC-7A35F92F7586}"/>
+    <hyperlink ref="S53" r:id="rId144" xr:uid="{95F1F17A-CCFC-3640-8ADC-4DD3981B4E21}"/>
+    <hyperlink ref="S54" r:id="rId145" xr:uid="{24FE65E8-797A-6346-B190-6D4ABA09907C}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0482E4F-D6AA-774F-9A88-9D30C6002F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC78535-AEEE-E449-90A1-57C416A007D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$V$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$V$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Summary!$K$3:$L$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Summary!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Summary!$M$3:$M$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$3:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="317">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -920,9 +918,6 @@
     <t>Medium of Communicated Content</t>
   </si>
   <si>
-    <t>Minister for Education Instructs POFMA Office to Issue Correction Directions and Targeted Correction Direction</t>
-  </si>
-  <si>
     <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf</t>
   </si>
   <si>
@@ -1597,6 +1592,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AWjPx48lRVM</t>
+  </si>
+  <si>
+    <t>Mr Alex Tan Facebook Post 2</t>
+  </si>
+  <si>
+    <t>Unclear whether communication 30 or 31 were the original post</t>
   </si>
 </sst>
 </file>
@@ -4039,7 +4040,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>0</c:v>
@@ -4550,7 +4551,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,7 +4903,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -5226,7 +5227,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5561,7 +5562,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -5960,7 +5961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -6170,7 +6171,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,10 +6358,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6400,7 +6401,7 @@
         <cx:series layoutId="sunburst" uniqueId="{E4287DCA-8BA8-0F4C-B8B9-24E4CBD82CB9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Number of POFMA Uses</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10998,7 +10999,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="12795250" y="114300"/>
-              <a:ext cx="7499350" cy="3378200"/>
+              <a:ext cx="7499350" cy="3390900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12213,8 +12214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:Z206"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12279,7 +12280,7 @@
         <v>183</v>
       </c>
       <c r="M3" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>197</v>
@@ -12288,7 +12289,7 @@
         <v>21</v>
       </c>
       <c r="Z3" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="28">
@@ -12404,11 +12405,11 @@
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>21</v>
@@ -12457,7 +12458,7 @@
     </row>
     <row r="11" spans="1:26" ht="14">
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>183</v>
@@ -12491,7 +12492,7 @@
         <v>148</v>
       </c>
       <c r="B18" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
@@ -12504,7 +12505,7 @@
       </c>
       <c r="W18" s="7">
         <f>SUM(M3:M6)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="28">
@@ -12563,7 +12564,7 @@
         <v>8</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W21" s="7">
         <f>SUM(M11)</f>
@@ -12595,7 +12596,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="28">
@@ -12614,7 +12615,7 @@
         <v>2</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W25" s="13" t="s">
         <v>197</v>
@@ -12645,12 +12646,12 @@
         <v>154</v>
       </c>
       <c r="W27" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="14">
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7">
         <v>2</v>
@@ -14138,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -14583,11 +14584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO54"/>
+  <dimension ref="A1:IO55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -14613,7 +14614,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -14681,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="18">
         <v>43794</v>
@@ -14690,10 +14691,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>11</v>
@@ -14747,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="18">
         <v>43797</v>
@@ -14756,10 +14757,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>14</v>
@@ -14813,7 +14814,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="18">
         <v>43798</v>
@@ -14822,10 +14823,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>14</v>
@@ -14881,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="18">
         <v>43813</v>
@@ -14890,10 +14891,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>19</v>
@@ -14945,7 +14946,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="18">
         <v>43813</v>
@@ -14954,10 +14955,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>19</v>
@@ -15009,7 +15010,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E7" s="18">
         <v>43813</v>
@@ -15018,10 +15019,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>19</v>
@@ -15073,7 +15074,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="18">
         <v>43815</v>
@@ -15082,10 +15083,10 @@
         <v>22</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>23</v>
@@ -15141,7 +15142,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E9" s="18">
         <v>43815</v>
@@ -15150,10 +15151,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>23</v>
@@ -15207,7 +15208,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" s="18">
         <v>43852</v>
@@ -15216,10 +15217,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>14</v>
@@ -15273,7 +15274,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="18">
         <v>43852</v>
@@ -15282,10 +15283,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>14</v>
@@ -15339,7 +15340,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="18">
         <v>43852</v>
@@ -15348,10 +15349,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>14</v>
@@ -15405,7 +15406,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E13" s="18">
         <v>43852</v>
@@ -15414,10 +15415,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>14</v>
@@ -15471,7 +15472,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="18">
         <v>43853</v>
@@ -15480,10 +15481,10 @@
         <v>30</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>31</v>
@@ -15539,7 +15540,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="18">
         <v>43857</v>
@@ -15548,10 +15549,10 @@
         <v>33</v>
       </c>
       <c r="G15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>34</v>
@@ -15607,7 +15608,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" s="18">
         <v>43858</v>
@@ -15616,10 +15617,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>37</v>
@@ -15628,7 +15629,7 @@
         <v>149</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>17</v>
@@ -15673,7 +15674,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="18">
         <v>43858</v>
@@ -15682,10 +15683,10 @@
         <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>37</v>
@@ -15694,7 +15695,7 @@
         <v>149</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>17</v>
@@ -15739,7 +15740,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="18">
         <v>43861</v>
@@ -15748,10 +15749,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>34</v>
@@ -15805,7 +15806,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="18">
         <v>43861</v>
@@ -15814,10 +15815,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>34</v>
@@ -15871,7 +15872,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="18">
         <v>43861</v>
@@ -15880,10 +15881,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>34</v>
@@ -15937,7 +15938,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="18">
         <v>43861</v>
@@ -15946,10 +15947,10 @@
         <v>41</v>
       </c>
       <c r="G21" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>42</v>
@@ -16003,7 +16004,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="18">
         <v>43861</v>
@@ -16012,10 +16013,10 @@
         <v>44</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>42</v>
@@ -16071,7 +16072,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="18">
         <v>43875</v>
@@ -16080,10 +16081,10 @@
         <v>45</v>
       </c>
       <c r="G23" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>34</v>
@@ -16137,7 +16138,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="18">
         <v>43875</v>
@@ -16146,10 +16147,10 @@
         <v>46</v>
       </c>
       <c r="G24" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>34</v>
@@ -16205,7 +16206,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="18">
         <v>43876</v>
@@ -16214,7 +16215,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="19" t="s">
@@ -16269,7 +16270,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="18">
         <v>43878</v>
@@ -16278,10 +16279,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>31</v>
@@ -16337,7 +16338,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="18">
         <v>43887</v>
@@ -16346,7 +16347,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="19" t="s">
@@ -16399,7 +16400,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E28" s="18">
         <v>43887</v>
@@ -16408,7 +16409,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="19" t="s">
@@ -16463,7 +16464,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="18">
         <v>43887</v>
@@ -16472,7 +16473,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="19" t="s">
@@ -16527,7 +16528,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="18">
         <v>43908</v>
@@ -16536,10 +16537,10 @@
         <v>53</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>54</v>
@@ -16595,7 +16596,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="18">
         <v>43908</v>
@@ -16604,10 +16605,10 @@
         <v>53</v>
       </c>
       <c r="G31" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>54</v>
@@ -16663,7 +16664,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E32" s="18">
         <v>43908</v>
@@ -16672,10 +16673,10 @@
         <v>53</v>
       </c>
       <c r="G32" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>54</v>
@@ -16729,7 +16730,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" s="18">
         <v>43908</v>
@@ -16738,10 +16739,10 @@
         <v>53</v>
       </c>
       <c r="G33" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>54</v>
@@ -16797,7 +16798,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34" s="18">
         <v>43922</v>
@@ -16806,10 +16807,10 @@
         <v>57</v>
       </c>
       <c r="G34" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>11</v>
@@ -16863,7 +16864,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="18">
         <v>43927</v>
@@ -16872,10 +16873,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>19</v>
@@ -16884,7 +16885,7 @@
         <v>148</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>59</v>
@@ -16899,21 +16900,23 @@
         <v>140</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q35" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="R35" s="19" t="s">
         <v>97</v>
       </c>
       <c r="S35" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="U35" s="20"/>
       <c r="V35" s="18">
-        <v>43957</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="90" customHeight="1">
@@ -16924,34 +16927,34 @@
         <v>32</v>
       </c>
       <c r="C36" s="17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E36" s="18">
         <v>43927</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>17</v>
@@ -16963,10 +16966,10 @@
         <v>140</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="20" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="R36" s="19" t="s">
         <v>97</v>
@@ -16974,77 +16977,77 @@
       <c r="S36" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="T36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U36" s="20"/>
       <c r="V36" s="18">
-        <v>43956</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="90" customHeight="1">
       <c r="A37" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="17">
         <v>33</v>
       </c>
       <c r="C37" s="17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E37" s="18">
-        <v>43938</v>
+        <v>43927</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>66</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>17</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q37" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="Q37" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="R37" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="21" t="s">
-        <v>90</v>
+      <c r="S37" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="V37" s="18">
         <v>43956</v>
@@ -17052,7 +17055,7 @@
     </row>
     <row r="38" spans="1:22" ht="90" customHeight="1">
       <c r="A38" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="17">
         <v>34</v>
@@ -17064,19 +17067,19 @@
         <v>281</v>
       </c>
       <c r="E38" s="18">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>148</v>
@@ -17085,16 +17088,16 @@
         <v>66</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>144</v>
+      <c r="N38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>75</v>
@@ -17104,12 +17107,14 @@
         <v>97</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="U38" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="V38" s="18">
         <v>43956</v>
       </c>
@@ -17122,22 +17127,22 @@
         <v>35</v>
       </c>
       <c r="C39" s="17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" s="18">
         <v>43939</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>34</v>
@@ -17149,7 +17154,7 @@
         <v>66</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>17</v>
@@ -17161,30 +17166,26 @@
         <v>144</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>176</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q39" s="20"/>
       <c r="R39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S39" s="19" t="s">
-        <v>66</v>
+      <c r="S39" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="U39" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="U39" s="20"/>
       <c r="V39" s="18">
-        <v>43956</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="90" customHeight="1">
       <c r="A40" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="17">
         <v>36</v>
@@ -17193,57 +17194,59 @@
         <v>33</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E40" s="18">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="K40" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="20" t="s">
+      <c r="K40" s="20" t="s">
         <v>66</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>146</v>
+      <c r="N40" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="S40" s="21" t="s">
-        <v>86</v>
+        <v>176</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="U40" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="U40" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="V40" s="18">
         <v>43956</v>
       </c>
@@ -17259,7 +17262,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E41" s="18">
         <v>43940</v>
@@ -17268,10 +17271,10 @@
         <v>62</v>
       </c>
       <c r="G41" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>11</v>
@@ -17280,10 +17283,10 @@
         <v>148</v>
       </c>
       <c r="K41" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="M41" s="19" t="s">
         <v>17</v>
@@ -17303,15 +17306,13 @@
       <c r="R41" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S41" s="20" t="s">
-        <v>66</v>
+      <c r="S41" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="T41" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U41" s="20" t="s">
-        <v>99</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="U41" s="20"/>
       <c r="V41" s="18">
         <v>43956</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E42" s="18">
         <v>43940</v>
@@ -17336,10 +17337,10 @@
         <v>62</v>
       </c>
       <c r="G42" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>11</v>
@@ -17347,14 +17348,14 @@
       <c r="J42" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>92</v>
+      <c r="K42" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="N42" s="19" t="s">
         <v>145</v>
@@ -17371,13 +17372,15 @@
       <c r="R42" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S42" s="21" t="s">
-        <v>94</v>
+      <c r="S42" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="T42" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="U42" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="V42" s="18">
         <v>43956</v>
       </c>
@@ -17393,7 +17396,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E43" s="18">
         <v>43940</v>
@@ -17402,10 +17405,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>11</v>
@@ -17414,13 +17417,13 @@
         <v>148</v>
       </c>
       <c r="K43" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L43" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="M43" s="19" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="N43" s="19" t="s">
         <v>145</v>
@@ -17438,7 +17441,7 @@
         <v>154</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T43" s="20" t="s">
         <v>67</v>
@@ -17453,13 +17456,13 @@
         <v>21</v>
       </c>
       <c r="B44" s="17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="17">
         <v>37</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E44" s="18">
         <v>43940</v>
@@ -17468,10 +17471,10 @@
         <v>62</v>
       </c>
       <c r="G44" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>11</v>
@@ -17482,11 +17485,11 @@
       <c r="K44" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="20" t="s">
         <v>28</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>145</v>
@@ -17504,19 +17507,19 @@
         <v>154</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U44" s="2"/>
+      <c r="U44" s="20"/>
       <c r="V44" s="18">
         <v>43956</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="90" customHeight="1">
       <c r="A45" s="17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="17">
         <v>40</v>
@@ -17525,59 +17528,59 @@
         <v>38</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E45" s="18">
+        <v>43940</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="R45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="T45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="18">
         <v>43956</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="O45" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="P45" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="S45" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U45" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="V45" s="3">
-        <v>43965</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="90" customHeight="1">
@@ -17591,19 +17594,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E46" s="18">
         <v>43956</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G46" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>23</v>
@@ -17612,36 +17615,34 @@
         <v>148</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M46" s="23" t="s">
         <v>17</v>
       </c>
       <c r="N46" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O46" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="O46" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="P46" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="23" t="s">
-        <v>209</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q46" s="23"/>
       <c r="R46" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S46" s="28" t="s">
-        <v>247</v>
+      <c r="S46" s="25" t="s">
+        <v>207</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U46" s="20" t="s">
         <v>66</v>
       </c>
       <c r="V46" s="3">
@@ -17656,62 +17657,64 @@
         <v>42</v>
       </c>
       <c r="C47" s="17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E47" s="18">
         <v>43956</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G47" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="I47" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K47" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>17</v>
       </c>
       <c r="N47" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O47" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="O47" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="P47" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q47" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="R47" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S47" s="23" t="s">
+      <c r="S47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T47" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V47" s="18">
-        <v>43957</v>
+      <c r="V47" s="3">
+        <v>43965</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="90" customHeight="1">
@@ -17719,25 +17722,25 @@
         <v>22</v>
       </c>
       <c r="B48" s="17">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" s="17">
         <v>39</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E48" s="18">
         <v>43956</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G48" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="I48" s="23" t="s">
         <v>23</v>
@@ -17755,10 +17758,10 @@
         <v>17</v>
       </c>
       <c r="N48" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O48" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="O48" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="P48" s="23" t="s">
         <v>114</v>
@@ -17777,66 +17780,73 @@
         <v>66</v>
       </c>
       <c r="V48" s="18">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="90" customHeight="1">
+      <c r="A49" s="17">
+        <v>22</v>
+      </c>
+      <c r="B49" s="17">
+        <v>43</v>
+      </c>
+      <c r="C49" s="17">
+        <v>40</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="18">
+        <v>43956</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V49" s="18">
         <v>43959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="90" customHeight="1">
-      <c r="A49" s="5">
-        <v>23</v>
-      </c>
-      <c r="B49" s="5">
-        <v>43</v>
-      </c>
-      <c r="C49" s="5">
-        <v>40</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E49" s="3">
-        <v>43957</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S49" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V49" s="3">
-        <v>43965</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="90" customHeight="1">
@@ -17850,16 +17860,16 @@
         <v>41</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="E50" s="3">
         <v>43957</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>250</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>31</v>
@@ -17868,16 +17878,16 @@
         <v>150</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>75</v>
@@ -17900,55 +17910,52 @@
     </row>
     <row r="51" spans="1:22" ht="90" customHeight="1">
       <c r="A51" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="5">
         <v>45</v>
       </c>
       <c r="C51" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="E51" s="3">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>163</v>
@@ -17965,13 +17972,13 @@
         <v>24</v>
       </c>
       <c r="B52" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" s="5">
         <v>41</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="E52" s="3">
         <v>43959</v>
@@ -17980,7 +17987,7 @@
         <v>48</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>31</v>
@@ -17998,10 +18005,10 @@
         <v>17</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>114</v>
@@ -18010,7 +18017,7 @@
         <v>97</v>
       </c>
       <c r="S52" s="28" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>163</v>
@@ -18024,7 +18031,7 @@
     </row>
     <row r="53" spans="1:22" ht="90" customHeight="1">
       <c r="A53" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="5">
         <v>46</v>
@@ -18033,52 +18040,49 @@
         <v>42</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="E53" s="3">
-        <v>43964</v>
+        <v>43959</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>308</v>
+        <v>48</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>148</v>
+        <v>31</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S53" s="31" t="s">
-        <v>315</v>
+        <v>97</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>66</v>
@@ -18095,43 +18099,43 @@
         <v>47</v>
       </c>
       <c r="C54" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E54" s="3">
         <v>43964</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="H54" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="I54" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>75</v>
@@ -18140,7 +18144,7 @@
         <v>154</v>
       </c>
       <c r="S54" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>67</v>
@@ -18152,8 +18156,73 @@
         <v>43965</v>
       </c>
     </row>
+    <row r="55" spans="1:22" ht="90" customHeight="1">
+      <c r="A55" s="5">
+        <v>25</v>
+      </c>
+      <c r="B55" s="5">
+        <v>48</v>
+      </c>
+      <c r="C55" s="5">
+        <v>43</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43964</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S55" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V55" s="3">
+        <v>43965</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V52" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
+  <autoFilter ref="A1:V53" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -18207,16 +18276,16 @@
     <hyperlink ref="H34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="G35" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="H35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H38" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G39" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G40" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H40" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G37" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H40" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G41" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H41" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="G31" r:id="rId62" xr:uid="{C77BF435-2B70-374B-8853-2F6E11388B92}"/>
     <hyperlink ref="G32" r:id="rId63" xr:uid="{C3109B57-5203-E14F-8E09-7131094AE9E9}"/>
     <hyperlink ref="H31" r:id="rId64" xr:uid="{6D36EFD7-05C4-8B4E-BDDC-F078A54A9A23}"/>
@@ -18227,10 +18296,10 @@
     <hyperlink ref="H11" r:id="rId69" xr:uid="{311F1861-FABA-B74E-A6D0-4F3B33C9BB55}"/>
     <hyperlink ref="H12" r:id="rId70" xr:uid="{901F54F2-5ED5-F445-B641-E6004F5A24BF}"/>
     <hyperlink ref="H13" r:id="rId71" xr:uid="{9AF60CF8-52E9-AC46-AB42-73AE2A80A8F4}"/>
-    <hyperlink ref="G42" r:id="rId72" xr:uid="{ABE1AA1D-BC62-C64C-A146-F147932F62D5}"/>
-    <hyperlink ref="G44" r:id="rId73" xr:uid="{31830744-AEB3-D74E-9516-762CDD194305}"/>
-    <hyperlink ref="H42" r:id="rId74" xr:uid="{3CD0C915-C993-BB4D-8780-FA0EBA234493}"/>
-    <hyperlink ref="H44" r:id="rId75" xr:uid="{12AB9A5B-3101-4C41-8252-31EA63C3B6F4}"/>
+    <hyperlink ref="G43" r:id="rId72" xr:uid="{ABE1AA1D-BC62-C64C-A146-F147932F62D5}"/>
+    <hyperlink ref="G45" r:id="rId73" xr:uid="{31830744-AEB3-D74E-9516-762CDD194305}"/>
+    <hyperlink ref="H43" r:id="rId74" xr:uid="{3CD0C915-C993-BB4D-8780-FA0EBA234493}"/>
+    <hyperlink ref="H45" r:id="rId75" xr:uid="{12AB9A5B-3101-4C41-8252-31EA63C3B6F4}"/>
     <hyperlink ref="S5" r:id="rId76" xr:uid="{6FE3C0D7-37BA-434D-9147-062C8E82A35B}"/>
     <hyperlink ref="S7" r:id="rId77" xr:uid="{9C00E91B-9872-F347-8871-3E0217991519}"/>
     <hyperlink ref="S6" r:id="rId78" xr:uid="{EFBE1438-27F5-A642-A023-980997CD93D0}"/>
@@ -18253,16 +18322,16 @@
     <hyperlink ref="S31" r:id="rId95" xr:uid="{8DB4BE7A-03C1-F24E-B4E8-73339C316149}"/>
     <hyperlink ref="S32" r:id="rId96" xr:uid="{051E1BFE-1B2F-B544-99AD-66058FDD395B}"/>
     <hyperlink ref="S34" r:id="rId97" xr:uid="{1F2EEF91-A65F-5E44-BF1A-1A1851AF3C26}"/>
-    <hyperlink ref="S37" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
-    <hyperlink ref="S38" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
-    <hyperlink ref="S40" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
-    <hyperlink ref="G41" r:id="rId101" xr:uid="{A27253EE-1106-DE42-A88C-4071E7AB3387}"/>
-    <hyperlink ref="H41" r:id="rId102" xr:uid="{22C0C542-02EF-B543-84C7-7F1BA8F48881}"/>
-    <hyperlink ref="G43" r:id="rId103" xr:uid="{C6F76C5A-4F58-DE44-828E-A0B5DB82D62F}"/>
-    <hyperlink ref="H43" r:id="rId104" xr:uid="{BED8DF91-C2CB-FF4F-8716-F08F41E39864}"/>
-    <hyperlink ref="S42" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
-    <hyperlink ref="S43" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
-    <hyperlink ref="S44" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
+    <hyperlink ref="S38" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
+    <hyperlink ref="S39" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
+    <hyperlink ref="S41" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
+    <hyperlink ref="G42" r:id="rId101" xr:uid="{A27253EE-1106-DE42-A88C-4071E7AB3387}"/>
+    <hyperlink ref="H42" r:id="rId102" xr:uid="{22C0C542-02EF-B543-84C7-7F1BA8F48881}"/>
+    <hyperlink ref="G44" r:id="rId103" xr:uid="{C6F76C5A-4F58-DE44-828E-A0B5DB82D62F}"/>
+    <hyperlink ref="H44" r:id="rId104" xr:uid="{BED8DF91-C2CB-FF4F-8716-F08F41E39864}"/>
+    <hyperlink ref="S43" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
+    <hyperlink ref="S44" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
+    <hyperlink ref="S45" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
     <hyperlink ref="N18" r:id="rId108" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="O17" r:id="rId109" display="www.moh.gov.sg" xr:uid="{849D101D-7B60-E64D-A551-2CF875A647C0}"/>
     <hyperlink ref="O19" r:id="rId110" display="www.moh.gov.sg" xr:uid="{4B2326FF-5AAD-1A4B-9A66-24ED8EA84326}"/>
@@ -18271,36 +18340,38 @@
     <hyperlink ref="N20" r:id="rId113" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{3C35680F-CDD5-6246-B214-CF4088195F6F}"/>
     <hyperlink ref="G33" r:id="rId114" xr:uid="{DD6A2808-28CB-DB44-B381-13676C6D2964}"/>
     <hyperlink ref="H33" r:id="rId115" xr:uid="{2B539462-18F3-994E-B2A2-B25B1B8A6A4C}"/>
-    <hyperlink ref="O37" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O38" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="S18" r:id="rId117" xr:uid="{B2B58C13-7524-9145-A132-A1F469973134}"/>
     <hyperlink ref="S3" r:id="rId118" xr:uid="{9D77ECBF-62F7-B342-926E-ADE0C83DE947}"/>
     <hyperlink ref="S21" r:id="rId119" xr:uid="{63A00751-EF11-6745-B94A-ED9E93759587}"/>
     <hyperlink ref="S23" r:id="rId120" xr:uid="{5DDC055A-6376-B846-9259-163A281336C9}"/>
     <hyperlink ref="S25" r:id="rId121" xr:uid="{51905E69-5344-A04C-BA16-C7BD8A95797C}"/>
     <hyperlink ref="S9" r:id="rId122" xr:uid="{D4367E80-DD46-5344-A534-5DA794A004E7}"/>
-    <hyperlink ref="G45" r:id="rId123" xr:uid="{1780B637-9397-0043-9D08-D781704A5638}"/>
-    <hyperlink ref="G46:G48" r:id="rId124" display="https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf" xr:uid="{7B007A63-6A55-7944-A27A-367B2EC4382E}"/>
-    <hyperlink ref="H45" r:id="rId125" xr:uid="{F6868888-7896-6349-B0B5-79D5127D440C}"/>
-    <hyperlink ref="H46:H48" r:id="rId126" display="https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools" xr:uid="{51479145-DE4C-0649-ACE9-C601F8022A66}"/>
-    <hyperlink ref="S45" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
-    <hyperlink ref="S46" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
+    <hyperlink ref="G46" r:id="rId123" xr:uid="{1780B637-9397-0043-9D08-D781704A5638}"/>
+    <hyperlink ref="G47:G49" r:id="rId124" display="https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf" xr:uid="{7B007A63-6A55-7944-A27A-367B2EC4382E}"/>
+    <hyperlink ref="H46" r:id="rId125" xr:uid="{F6868888-7896-6349-B0B5-79D5127D440C}"/>
+    <hyperlink ref="H47:H49" r:id="rId126" display="https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools" xr:uid="{51479145-DE4C-0649-ACE9-C601F8022A66}"/>
+    <hyperlink ref="S46" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
+    <hyperlink ref="S47" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
     <hyperlink ref="S35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
-    <hyperlink ref="G49" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
-    <hyperlink ref="G50" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
-    <hyperlink ref="S50" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
-    <hyperlink ref="S49" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
-    <hyperlink ref="G47" r:id="rId134" xr:uid="{F85B3633-7730-CE4F-8AD3-95E5B096245A}"/>
-    <hyperlink ref="H47" r:id="rId135" xr:uid="{F72C2235-0555-C642-B14C-AE2A80A813B8}"/>
-    <hyperlink ref="G51" r:id="rId136" xr:uid="{DD4944F1-F6E4-864C-A8DF-2545C74A9E56}"/>
-    <hyperlink ref="G52" r:id="rId137" xr:uid="{344B5944-BD43-A345-83C7-4C8681290B8E}"/>
-    <hyperlink ref="S51" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
-    <hyperlink ref="S52" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
-    <hyperlink ref="G53" r:id="rId140" xr:uid="{DC472B87-C4BF-C740-A8D9-9DB768283F08}"/>
-    <hyperlink ref="G54" r:id="rId141" xr:uid="{78548BB2-095E-2541-948B-E7ABC429FFD4}"/>
-    <hyperlink ref="H53" r:id="rId142" xr:uid="{353685A2-6058-BA48-B8E2-E41188D1FD07}"/>
-    <hyperlink ref="H54" r:id="rId143" xr:uid="{4D128808-5C22-B044-ABAC-7A35F92F7586}"/>
-    <hyperlink ref="S53" r:id="rId144" xr:uid="{95F1F17A-CCFC-3640-8ADC-4DD3981B4E21}"/>
-    <hyperlink ref="S54" r:id="rId145" xr:uid="{24FE65E8-797A-6346-B190-6D4ABA09907C}"/>
+    <hyperlink ref="G50" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
+    <hyperlink ref="G51" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
+    <hyperlink ref="S51" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
+    <hyperlink ref="S50" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
+    <hyperlink ref="G48" r:id="rId134" xr:uid="{F85B3633-7730-CE4F-8AD3-95E5B096245A}"/>
+    <hyperlink ref="H48" r:id="rId135" xr:uid="{F72C2235-0555-C642-B14C-AE2A80A813B8}"/>
+    <hyperlink ref="G52" r:id="rId136" xr:uid="{DD4944F1-F6E4-864C-A8DF-2545C74A9E56}"/>
+    <hyperlink ref="G53" r:id="rId137" xr:uid="{344B5944-BD43-A345-83C7-4C8681290B8E}"/>
+    <hyperlink ref="S52" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
+    <hyperlink ref="S53" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
+    <hyperlink ref="G54" r:id="rId140" xr:uid="{DC472B87-C4BF-C740-A8D9-9DB768283F08}"/>
+    <hyperlink ref="G55" r:id="rId141" xr:uid="{78548BB2-095E-2541-948B-E7ABC429FFD4}"/>
+    <hyperlink ref="H54" r:id="rId142" xr:uid="{353685A2-6058-BA48-B8E2-E41188D1FD07}"/>
+    <hyperlink ref="H55" r:id="rId143" xr:uid="{4D128808-5C22-B044-ABAC-7A35F92F7586}"/>
+    <hyperlink ref="S54" r:id="rId144" xr:uid="{95F1F17A-CCFC-3640-8ADC-4DD3981B4E21}"/>
+    <hyperlink ref="S55" r:id="rId145" xr:uid="{24FE65E8-797A-6346-B190-6D4ABA09907C}"/>
+    <hyperlink ref="G36" r:id="rId146" xr:uid="{B86BF80B-5931-524C-8048-33B06BD21042}"/>
+    <hyperlink ref="H36" r:id="rId147" xr:uid="{B92069D9-4061-E64F-9618-95CA1A09C24F}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/Current Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC78535-AEEE-E449-90A1-57C416A007D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3750CC8-847D-B241-B7D7-F58E73F999B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$V$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$AB$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Summary!$K$3:$L$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Summary!$M$2</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="346">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1404,9 +1404,6 @@
     <t>https://www.facebook.com/STRAlexTan</t>
   </si>
   <si>
-    <t>Individuals Recipients in POFMA Use</t>
-  </si>
-  <si>
     <t>Description of Communication</t>
   </si>
   <si>
@@ -1598,6 +1595,120 @@
   </si>
   <si>
     <t>Unclear whether communication 30 or 31 were the original post</t>
+  </si>
+  <si>
+    <t>National Times Singapore Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Minister for Law Instructs POFMA Office to Issue POFMA Directions</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-minlaw-27may2020-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually270520</t>
+  </si>
+  <si>
+    <t>National Times Singapore Facebook Page</t>
+  </si>
+  <si>
+    <t>1. A post on the NTS Facebook page contains several false and misleading statements. The NTS page is run by Mr Alex Tan, who lives in Australia, and claims to be an Australian citizen.
+Falsehoods
+2. On 15 May 2020, NTS published a post, claiming, amongst other things, the following:
+a. “Every criticism has been outlawed by the Singapore government through its new POFMA1 legislation, where the politicians in power get to decide what is truth.” 
+b. The Minister for Law had issued a POFMA direction to ban a video.
+3. The above are false, for the following reasons:
+• It is false that “politicians in power get to decide what is truth” under POFMA. This had previously been explained when an earlier POFMA direction was issued. POFMA applies only to factual statements that are false (Section 2(2) of POFMA). It does not apply to opinions. If there is a dispute as to whether the statement is false, or whether it is a statement of fact, the dispute can be determined by the Courts. The Courts have, over centuries, developed criteria for assessing falsehoods, and will be the final arbiters of whether there is a falsehood under POFMA.
+• For the reasons above, it is therefore also untrue to say that POFMA outlaws every criticism of the Government. Before and after POFMA came into force, the Government has been regularly criticised on various matters. These criticisms have not been subject to POFMA.
+• The Minister for Law has not issued a POFMA direction to ban any video. The video subject to an earlier POFMA direction remains accessible to the public.</t>
+  </si>
+  <si>
+    <t>Additional Clarifications
+4. Mr Tan repeats falsehoods that were subject to an earlier POFMA direction. In light of that earlier direction, Mr Tan must be aware that these statements are false and tend to undermine the public interest. Yet, he continues to publish falsehoods that distort the public’s understanding of the law and how it has been implemented.
+5. Mr Tan makes serious and baseless allegations about Singapore’s judiciary being biased. These have been brought to the attention of the Attorney-General’s Chambers for assessment on whether the allegations are in contempt of court.
+6. Mr Tan also claims that the Minister for Law faces criminal charges in Malaysia, and that a Malaysian court has made an order against the Minister for Law. These are untrue.
+7. Mr Tan has previously been issued POFMA correction directions in relation to falsehoods conveyed on 6 separate occasions on his previous Facebook pages, the States Times Review and Singapore States Times. This demonstrates a clear pattern of deliberately spreading falsehoods which affect the public interest. The majority of these falsehoods related to the COVID-19 situation, including falsehoods suggesting that Singapore had run out of face masks, that there was an underreporting of COVID-19 cases here by the Government, that there were numerous infections because schools were not closed earlier and that foreign workers were not getting paid during quarantine.
+8. Mr Tan was bound to comply with these correction directions, but has refused to comply. His previous pages were declared as declared online locations (Section 32 of POFMA) and subject to access disabling orders (Section 34 of POFMA) after his repeated non-compliance with the law. Mr Tan remains recalcitrant, and continues to purvey falsehoods, on his latest page.
+[1]  “POFMA” refers to the Protection from Online Falsehoods and Manipulation Act.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NTSingapore/posts/113028490409067</t>
+  </si>
+  <si>
+    <t>Actor Type</t>
+  </si>
+  <si>
+    <t>Private Individual</t>
+  </si>
+  <si>
+    <t>National Times Singapore Facebook Page Made a Declared Online Location Under POFMA</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-mci-28may2020-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NTSingapore</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-mci-30May2020-01.pdf</t>
+  </si>
+  <si>
+    <t>MINISTER FOR COMMUNICATIONS AND INFORMATION DIRECTS POFMA OFFICE TO ISSUE DISABLING ORDER
+The Minister for Communications and Information has directed POFMA Office to order Facebook to disable Singapore users’ access to the National Times Singapore (NTS) Facebook page, under Section 34 of the Protection from Online Falsehoods and Manipulation Act (POFMA).
+2. The NTS Facebook page, which is operated by Mr Alex Tan, has communicated at least three false statements of fact. It has not complied with the POFMA Direction that it was served with for a post published on 15 May 20201. After being notified on 28 May 2020 that it had been declared a Declared Online Location (DOL), the page has not complied with the Declaration’s requirement to publish a notice stating that it has been declared a DOL. The notice serves to warn visitors to the NTS Facebook page of the falsehoods that the page has communicated.
+3. This is the fourth Facebook page operated by Tan to be subject to a Disabling Order2. 
+1 For facts of the case, please refer to Factually article, “Corrections and clarifications regarding Facebook post by National Times Singapore (“NTS”)” (www.gov.sg/article/factually270520)
+2 The “States Times Review” (STR) Facebook page; as well as the “Singapore States Times” (SST) and Alex Tan’s Facebook pages, were declared DOLs on 16 Feb 2020 and 6 May 2020, respectively. All three pages, which are created and operated by Tan, did not comply with the Declarations. POFMA Office thus issued orders to Facebook to disable access for Singapore users to the STR Facebook page; as well as the SST and Tan’s Facebook pages, on 17 Feb 2020 and 7 May 2020, respectively.</t>
+  </si>
+  <si>
+    <t>“NATIONAL TIMES SINGAPORE” FACEBOOK PAGE MADE A DECLARED ONLINE LOCATION UNDER POFMA
+The Minister for Communications and Information has today declared the National Times Singapore (NTS) Facebook page a Declared Online Location (DOL) under the Protection from Online Falsehoods and Manipulation Act (POFMA). The Declaration will come into effect on 29 May 2020.
+2. Under the Declaration, the NTS Facebook page, which is operated by Mr Alex Tan, is required to carry a notice stating that it has been declared a DOL. With the notice, visitors to the Facebook page will be warned that it has a history of communicating falsehoods. The Declaration will also make it an offence for Tan to derive benefit from operating the NTS Facebook page, and will prohibit the provision of financial support to it for the purposes of supporting, helping or promoting the communication of falsehoods.
+3. The NTS Facebook page communicated numerous false statements of fact in a post published on 15 May 20201, at least three of which were the subject of a POFMA Direction. In recent months, Tan has created and operated Facebook pages which sought to derive monetary benefits from falsehoods at the expense of Singaporeans and our society. These pages have been declared DOLs2. So far, neither these pages nor Tan have complied with any of the requirements of the POFMA Directions and Declarations that they have been served with. 
+1 For facts of the case, please refer to Factually article, “Corrections and clarifications regarding Facebook post by National Times Singapore (“NTS”)” (www.gov.sg/article/factually270520)
+2 These pages include (i) the States Times Review Facebook page (declared DOL on 15 Feb 2020); (ii) the Singapore States Times Facebook page (declared DOL on 6 May 2020); and (iii) Alex Tan’s Facebook page (declared DOL on 6 May 2020)</t>
+  </si>
+  <si>
+    <t>Social Media Platform</t>
+  </si>
+  <si>
+    <t>Actor: Media</t>
+  </si>
+  <si>
+    <t>Actor: Private Individual</t>
+  </si>
+  <si>
+    <t>Actor: Political Group or Figure</t>
+  </si>
+  <si>
+    <t>Actor: Civil Society Group or Figure</t>
+  </si>
+  <si>
+    <t>Actor: Social Media Platform</t>
+  </si>
+  <si>
+    <t>Actor: Internet Access Provider</t>
+  </si>
+  <si>
+    <t>Regarding non-compliance in Communication 44</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Political Group or Figure</t>
+  </si>
+  <si>
+    <t>Civil Society Group or Figure</t>
+  </si>
+  <si>
+    <t>Internet Access Provider</t>
+  </si>
+  <si>
+    <t>POFMA uses affecting this actor type</t>
+  </si>
+  <si>
+    <t>Other POFMA uses</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1848,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1832,6 +1943,15 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2022,10 +2142,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$206</c:f>
+              <c:f>Summary!$A$34:$A$224</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="191"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -2544,16 +2664,70 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$34:$B$206</c:f>
+              <c:f>Summary!$B$34:$B$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="191"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3071,6 +3245,60 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3108,10 +3336,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$206</c:f>
+              <c:f>Summary!$A$34:$A$224</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="191"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -3630,16 +3858,70 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$34:$C$206</c:f>
+              <c:f>Summary!$C$34:$C$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="191"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4157,6 +4439,60 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4397,7 +4733,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4487,7 +4823,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4508,6 +4844,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -4548,7 +4885,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
@@ -4596,7 +4933,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4677,7 +5014,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4690,14 +5027,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2600"/>
               <a:t>POFMA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2600" baseline="0"/>
               <a:t> Use by Month</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4714,7 +5051,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4816,7 +5153,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,7 +5296,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5017,7 +5354,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5059,7 +5396,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5147,7 +5484,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5227,19 +5564,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -5294,7 +5631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5353,7 +5690,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5452,7 +5789,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5547,7 +5884,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -5577,7 +5914,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5629,7 +5966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5688,7 +6025,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5882,6 +6219,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4812-1644-B556-69238663D181}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -5939,9 +6296,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$V$18:$V$20</c:f>
+              <c:f>Summary!$V$18:$V$21</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Facebook</c:v>
                 </c:pt>
@@ -5950,23 +6307,29 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HardwareZone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Youtube</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$W$18:$W$20</c:f>
+              <c:f>Summary!$W$18:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6072,287 +6435,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$W$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>POFMA Uses</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$V$26:$V$27</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$W$26:$W$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05E9-154D-A98A-1646BC86D945}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="228742096"/>
-        <c:axId val="276742464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="228742096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="276742464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="276742464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="228742096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -6377,10 +6459,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="2600"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-GB" sz="2600" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000">
                   <a:lumMod val="65000"/>
@@ -6406,7 +6488,24 @@
             </cx:txData>
           </cx:tx>
           <cx:dataLabels pos="ctr">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica Neue"/>
+                  <a:ea typeface="Helvetica Neue"/>
+                  <a:cs typeface="Helvetica Neue"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
           </cx:dataLabels>
           <cx:dataId val="0"/>
         </cx:series>
@@ -6696,46 +6795,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9958,511 +10017,6 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10848,13 +10402,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>493889</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10888,9 +10442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>620890</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10924,7 +10478,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>522111</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10954,15 +10508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:colOff>184149</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112889</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10998,8 +10552,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12795250" y="114300"/>
-              <a:ext cx="7499350" cy="3390900"/>
+              <a:off x="12795249" y="114300"/>
+              <a:ext cx="4881740" cy="4715933"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11032,15 +10586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>6351</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>70556</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11096,42 +10650,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>482600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D94E86C-BF13-8846-8304-D5DD9CD822EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12212,10 +11730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
-  <dimension ref="A2:Z206"/>
+  <dimension ref="A2:AI224"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12227,7 +11745,7 @@
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="42">
+    <row r="2" spans="1:35" ht="42">
       <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
@@ -12257,7 +11775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28">
+    <row r="3" spans="1:35" ht="28">
       <c r="A3" s="10">
         <v>43770</v>
       </c>
@@ -12280,19 +11798,19 @@
         <v>183</v>
       </c>
       <c r="M3" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Y3" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28">
+    <row r="4" spans="1:35" ht="28">
       <c r="A4" s="10">
         <v>43800</v>
       </c>
@@ -12315,10 +11833,13 @@
         <v>189</v>
       </c>
       <c r="M4" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="28">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+    </row>
+    <row r="5" spans="1:35" ht="28">
       <c r="A5" s="10">
         <v>43831</v>
       </c>
@@ -12341,10 +11862,13 @@
         <v>187</v>
       </c>
       <c r="M5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="28">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+    </row>
+    <row r="6" spans="1:35" ht="28">
       <c r="A6" s="10">
         <v>43862</v>
       </c>
@@ -12367,10 +11891,13 @@
         <v>188</v>
       </c>
       <c r="M6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+    </row>
+    <row r="7" spans="1:35" ht="56">
       <c r="A7" s="10">
         <v>43891</v>
       </c>
@@ -12395,8 +11922,17 @@
       <c r="M7" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="28">
+      <c r="AG7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="28">
       <c r="A8" s="10">
         <v>43922</v>
       </c>
@@ -12420,20 +11956,29 @@
       <c r="M8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="28">
+      <c r="AG8" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="28">
       <c r="A9" s="10">
         <v>43952</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
       </c>
       <c r="D9" s="7">
         <f>SUM(B9:C9)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>185</v>
@@ -12445,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" spans="1:35" ht="56">
       <c r="K10" s="9" t="s">
         <v>185</v>
       </c>
@@ -12455,10 +12000,19 @@
       <c r="M10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="14">
+      <c r="AG10" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="42">
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>183</v>
@@ -12466,8 +12020,50 @@
       <c r="M11" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="56">
+      <c r="AG11" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="56">
+      <c r="AG13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="42">
+      <c r="AG14" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="56">
+      <c r="AG16" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="56">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -12486,29 +12082,38 @@
       <c r="W17" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="42">
+      <c r="AG17" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>11</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="42">
       <c r="A18" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="W18" s="7">
         <f>SUM(M3:M6)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="56">
       <c r="A19" s="4" t="s">
         <v>151</v>
       </c>
@@ -12528,13 +12133,22 @@
         <f>SUM(M7:M8)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="28">
+      <c r="AG19" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH19" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="42">
       <c r="A20" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B20" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -12549,13 +12163,22 @@
         <f>SUM(M9:M10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="28">
+      <c r="AG20" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="28">
       <c r="A21" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B21" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>34</v>
@@ -12564,19 +12187,19 @@
         <v>8</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W21" s="7">
         <f>SUM(M11)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="28">
+    <row r="22" spans="1:35" ht="56">
       <c r="A22" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
@@ -12584,8 +12207,17 @@
       <c r="L22" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="28">
+      <c r="AG22" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="28">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
@@ -12598,8 +12230,17 @@
       <c r="L23" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="28">
+      <c r="AG23" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="28">
       <c r="K24" s="7" t="s">
         <v>50</v>
       </c>
@@ -12607,54 +12248,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="42">
+    <row r="25" spans="1:35" ht="28">
       <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="7">
         <v>2</v>
       </c>
-      <c r="V25" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="28">
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+    </row>
+    <row r="26" spans="1:35" ht="28">
       <c r="K26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
       </c>
-      <c r="V26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="W26" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="42">
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
+    </row>
+    <row r="27" spans="1:35" ht="42">
       <c r="K27" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
       </c>
-      <c r="V27" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="W27" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="14">
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="1:35" ht="14">
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28">
@@ -14568,6 +14197,204 @@
         <v>0</v>
       </c>
       <c r="C206" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="26">
+        <v>43967</v>
+      </c>
+      <c r="B207" s="27">
+        <v>0</v>
+      </c>
+      <c r="C207" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="26">
+        <v>43968</v>
+      </c>
+      <c r="B208" s="27">
+        <v>0</v>
+      </c>
+      <c r="C208" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="26">
+        <v>43969</v>
+      </c>
+      <c r="B209" s="27">
+        <v>0</v>
+      </c>
+      <c r="C209" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="26">
+        <v>43970</v>
+      </c>
+      <c r="B210" s="27">
+        <v>0</v>
+      </c>
+      <c r="C210" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="26">
+        <v>43971</v>
+      </c>
+      <c r="B211" s="27">
+        <v>0</v>
+      </c>
+      <c r="C211" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="26">
+        <v>43972</v>
+      </c>
+      <c r="B212" s="27">
+        <v>0</v>
+      </c>
+      <c r="C212" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="26">
+        <v>43973</v>
+      </c>
+      <c r="B213" s="27">
+        <v>0</v>
+      </c>
+      <c r="C213" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="26">
+        <v>43974</v>
+      </c>
+      <c r="B214" s="27">
+        <v>0</v>
+      </c>
+      <c r="C214" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="26">
+        <v>43975</v>
+      </c>
+      <c r="B215" s="27">
+        <v>0</v>
+      </c>
+      <c r="C215" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="26">
+        <v>43976</v>
+      </c>
+      <c r="B216" s="27">
+        <v>0</v>
+      </c>
+      <c r="C216" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="26">
+        <v>43977</v>
+      </c>
+      <c r="B217" s="27">
+        <v>0</v>
+      </c>
+      <c r="C217" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="26">
+        <v>43978</v>
+      </c>
+      <c r="B218" s="27">
+        <v>2</v>
+      </c>
+      <c r="C218" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="26">
+        <v>43979</v>
+      </c>
+      <c r="B219" s="27">
+        <v>1</v>
+      </c>
+      <c r="C219" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="26">
+        <v>43980</v>
+      </c>
+      <c r="B220" s="27">
+        <v>0</v>
+      </c>
+      <c r="C220" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="26">
+        <v>43981</v>
+      </c>
+      <c r="B221" s="27">
+        <v>1</v>
+      </c>
+      <c r="C221" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="26">
+        <v>43982</v>
+      </c>
+      <c r="B222" s="27">
+        <v>0</v>
+      </c>
+      <c r="C222" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="26">
+        <v>43983</v>
+      </c>
+      <c r="B223" s="27">
+        <v>0</v>
+      </c>
+      <c r="C223" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="26">
+        <v>43984</v>
+      </c>
+      <c r="B224" s="27">
+        <v>0</v>
+      </c>
+      <c r="C224" s="27">
         <v>0</v>
       </c>
     </row>
@@ -14584,11 +14411,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO55"/>
+  <dimension ref="A1:IL59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -14597,13 +14424,13 @@
     <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="30" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="21" width="16.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="3" customWidth="1"/>
-    <col min="23" max="249" width="16.33203125" style="1" customWidth="1"/>
-    <col min="250" max="16384" width="16.33203125" style="2"/>
+    <col min="6" max="27" width="16.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="3" customWidth="1"/>
+    <col min="29" max="246" width="16.33203125" style="1" customWidth="1"/>
+    <col min="247" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="50" customHeight="1">
+    <row r="1" spans="1:28" ht="50" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
@@ -14614,7 +14441,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
@@ -14643,35 +14470,53 @@
       <c r="M1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="90" customHeight="1">
+    <row r="2" spans="1:28" ht="90" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -14682,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="18">
         <v>43794</v>
@@ -14711,33 +14556,43 @@
       <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="18">
+      <c r="AB2" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="90" customHeight="1">
+    <row r="3" spans="1:28" ht="90" customHeight="1">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -14748,7 +14603,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="18">
         <v>43797</v>
@@ -14777,33 +14632,45 @@
       <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="23">
+        <v>1</v>
+      </c>
+      <c r="O3" s="23">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20" t="s">
+      <c r="W3" s="19"/>
+      <c r="X3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="Y3" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="18">
+      <c r="AB3" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="90" customHeight="1">
+    <row r="4" spans="1:28" ht="90" customHeight="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -14814,7 +14681,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="18">
         <v>43798</v>
@@ -14843,35 +14710,43 @@
       <c r="M4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="U4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="V4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="W4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="Z4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="AA4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="18">
+      <c r="AB4" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="90" customHeight="1">
+    <row r="5" spans="1:28" ht="90" customHeight="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -14882,7 +14757,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="18">
         <v>43813</v>
@@ -14911,31 +14786,41 @@
       <c r="M5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="U5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="V5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20" t="s">
+      <c r="W5" s="19"/>
+      <c r="X5" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="Y5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="Z5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="18">
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="90" customHeight="1">
+    <row r="6" spans="1:28" ht="90" customHeight="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -14946,7 +14831,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="18">
         <v>43813</v>
@@ -14975,31 +14860,41 @@
       <c r="M6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23">
+        <v>1</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20" t="s">
+      <c r="W6" s="19"/>
+      <c r="X6" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="Y6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="18">
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="90" customHeight="1">
+    <row r="7" spans="1:28" ht="90" customHeight="1">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -15010,7 +14905,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" s="18">
         <v>43813</v>
@@ -15039,31 +14934,41 @@
       <c r="M7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="23">
+        <v>1</v>
+      </c>
+      <c r="P7" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="U7" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="V7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20" t="s">
+      <c r="W7" s="19"/>
+      <c r="X7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="Y7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="Z7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="18">
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="90" customHeight="1">
+    <row r="8" spans="1:28" ht="90" customHeight="1">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -15074,7 +14979,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="18">
         <v>43815</v>
@@ -15103,35 +15008,45 @@
       <c r="M8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="V8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="W8" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="X8" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="Y8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="AA8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="18">
+      <c r="AB8" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="90" customHeight="1">
+    <row r="9" spans="1:28" ht="90" customHeight="1">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -15142,7 +15057,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="18">
         <v>43815</v>
@@ -15171,33 +15086,43 @@
       <c r="M9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="23"/>
+      <c r="O9" s="23">
+        <v>1</v>
+      </c>
+      <c r="P9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="V9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="W9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="X9" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="Y9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="Z9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="18">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="90" customHeight="1">
+    <row r="10" spans="1:28" ht="90" customHeight="1">
       <c r="A10" s="17">
         <v>6</v>
       </c>
@@ -15208,7 +15133,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="18">
         <v>43852</v>
@@ -15237,33 +15162,41 @@
       <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="U10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="V10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20" t="s">
+      <c r="W10" s="19"/>
+      <c r="X10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="Z10" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="AA10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="V10" s="18">
+      <c r="AB10" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="90" customHeight="1">
+    <row r="11" spans="1:28" ht="90" customHeight="1">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -15274,7 +15207,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="18">
         <v>43852</v>
@@ -15303,33 +15236,43 @@
       <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="23">
+        <v>1</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="U11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="W11" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="X11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="Y11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="Z11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="18">
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="90" customHeight="1">
+    <row r="12" spans="1:28" ht="90" customHeight="1">
       <c r="A12" s="17">
         <v>6</v>
       </c>
@@ -15340,7 +15283,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="18">
         <v>43852</v>
@@ -15369,33 +15312,41 @@
       <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20" t="s">
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="AA12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="18">
+      <c r="AB12" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="90" customHeight="1">
+    <row r="13" spans="1:28" ht="90" customHeight="1">
       <c r="A13" s="17">
         <v>6</v>
       </c>
@@ -15406,7 +15357,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="18">
         <v>43852</v>
@@ -15435,33 +15386,41 @@
       <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="23">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="U13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="V13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="W13" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="X13" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="Y13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="Z13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U13" s="20"/>
-      <c r="V13" s="18">
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="90" customHeight="1">
+    <row r="14" spans="1:28" ht="90" customHeight="1">
       <c r="A14" s="17">
         <v>7</v>
       </c>
@@ -15472,7 +15431,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="18">
         <v>43853</v>
@@ -15501,35 +15460,43 @@
       <c r="M14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23">
+        <v>1</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="T14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="U14" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="W14" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="X14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="Y14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="Z14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="AA14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V14" s="18">
+      <c r="AB14" s="18">
         <v>43959</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="90" customHeight="1">
+    <row r="15" spans="1:28" ht="90" customHeight="1">
       <c r="A15" s="17">
         <v>8</v>
       </c>
@@ -15540,7 +15507,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="18">
         <v>43857</v>
@@ -15569,35 +15536,45 @@
       <c r="M15" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="23">
+        <v>1</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23">
+        <v>1</v>
+      </c>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="W15" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="Y15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="Z15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="AA15" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="V15" s="18">
+      <c r="AB15" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="90" customHeight="1">
+    <row r="16" spans="1:28" ht="90" customHeight="1">
       <c r="A16" s="17">
         <v>9</v>
       </c>
@@ -15608,7 +15585,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="18">
         <v>43858</v>
@@ -15629,7 +15606,7 @@
         <v>149</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>17</v>
@@ -15637,33 +15614,41 @@
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23">
+        <v>1</v>
+      </c>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="U16" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="V16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="19" t="s">
+      <c r="W16" s="20"/>
+      <c r="X16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="Y16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="Z16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="AA16" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="V16" s="18">
+      <c r="AB16" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="90" customHeight="1">
+    <row r="17" spans="1:28" ht="90" customHeight="1">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -15674,7 +15659,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="18">
         <v>43858</v>
@@ -15695,7 +15680,7 @@
         <v>149</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>17</v>
@@ -15703,33 +15688,41 @@
       <c r="M17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="U17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="V17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19" t="s">
+      <c r="W17" s="20"/>
+      <c r="X17" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="Y17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="Z17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="AA17" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="V17" s="18">
+      <c r="AB17" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="90" customHeight="1">
+    <row r="18" spans="1:28" ht="90" customHeight="1">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -15740,7 +15733,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="18">
         <v>43861</v>
@@ -15769,33 +15762,41 @@
       <c r="M18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="23">
+        <v>1</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="U18" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="V18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19" t="s">
+      <c r="W18" s="20"/>
+      <c r="X18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="Y18" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="Z18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="AA18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="V18" s="18">
+      <c r="AB18" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="90" customHeight="1">
+    <row r="19" spans="1:28" ht="90" customHeight="1">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -15806,7 +15807,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="18">
         <v>43861</v>
@@ -15835,33 +15836,43 @@
       <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="23"/>
+      <c r="O19" s="23">
+        <v>1</v>
+      </c>
+      <c r="P19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="U19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="V19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="19" t="s">
+      <c r="W19" s="20"/>
+      <c r="X19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="Y19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="Z19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="AA19" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="V19" s="18">
+      <c r="AB19" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="90" customHeight="1">
+    <row r="20" spans="1:28" ht="90" customHeight="1">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -15872,7 +15883,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20" s="18">
         <v>43861</v>
@@ -15901,33 +15912,43 @@
       <c r="M20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="23"/>
+      <c r="O20" s="23">
+        <v>1</v>
+      </c>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="U20" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="V20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="19" t="s">
+      <c r="W20" s="20"/>
+      <c r="X20" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="Y20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="Z20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="AA20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="18">
+      <c r="AB20" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="90" customHeight="1">
+    <row r="21" spans="1:28" ht="90" customHeight="1">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -15938,7 +15959,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="18">
         <v>43861</v>
@@ -15967,33 +15988,45 @@
       <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="23">
+        <v>1</v>
+      </c>
+      <c r="O21" s="23">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="U21" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="V21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19" t="s">
+      <c r="W21" s="19"/>
+      <c r="X21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="Y21" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="Z21" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="AA21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V21" s="18">
+      <c r="AB21" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="90" customHeight="1">
+    <row r="22" spans="1:28" ht="90" customHeight="1">
       <c r="A22" s="17">
         <v>11</v>
       </c>
@@ -16004,7 +16037,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="18">
         <v>43861</v>
@@ -16033,35 +16066,43 @@
       <c r="M22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23">
+        <v>1</v>
+      </c>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="U22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="V22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="W22" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="19" t="s">
+      <c r="X22" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="19" t="s">
+      <c r="Y22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="Z22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="AA22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="18">
+      <c r="AB22" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="90" customHeight="1">
+    <row r="23" spans="1:28" ht="90" customHeight="1">
       <c r="A23" s="17">
         <v>12</v>
       </c>
@@ -16072,7 +16113,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="18">
         <v>43875</v>
@@ -16101,33 +16142,45 @@
       <c r="M23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="U23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="V23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="19" t="s">
+      <c r="W23" s="20"/>
+      <c r="X23" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="Y23" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="T23" s="19" t="s">
+      <c r="Z23" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="AA23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V23" s="18">
+      <c r="AB23" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="90" customHeight="1">
+    <row r="24" spans="1:28" ht="90" customHeight="1">
       <c r="A24" s="17">
         <v>12</v>
       </c>
@@ -16138,7 +16191,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E24" s="18">
         <v>43875</v>
@@ -16167,35 +16220,43 @@
       <c r="M24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23">
+        <v>1</v>
+      </c>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="U24" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="V24" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="W24" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="R24" s="19" t="s">
+      <c r="X24" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="Y24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="Z24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="AA24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V24" s="18">
+      <c r="AB24" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="90" customHeight="1">
+    <row r="25" spans="1:28" ht="90" customHeight="1">
       <c r="A25" s="17">
         <v>13</v>
       </c>
@@ -16206,7 +16267,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="18">
         <v>43876</v>
@@ -16233,33 +16294,45 @@
       <c r="M25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="23">
+        <v>1</v>
+      </c>
+      <c r="O25" s="23">
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20" t="s">
+      <c r="U25" s="20"/>
+      <c r="V25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="W25" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="R25" s="19" t="s">
+      <c r="X25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="Y25" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="T25" s="19" t="s">
+      <c r="Z25" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="19" t="s">
+      <c r="AA25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="18">
+      <c r="AB25" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="90" customHeight="1">
+    <row r="26" spans="1:28" ht="90" customHeight="1">
       <c r="A26" s="17">
         <v>14</v>
       </c>
@@ -16270,7 +16343,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="18">
         <v>43878</v>
@@ -16299,35 +16372,43 @@
       <c r="M26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23">
+        <v>1</v>
+      </c>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="U26" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="V26" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="W26" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="R26" s="19" t="s">
+      <c r="X26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S26" s="19" t="s">
+      <c r="Y26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="Z26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U26" s="20" t="s">
+      <c r="AA26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V26" s="18">
+      <c r="AB26" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="90" customHeight="1">
+    <row r="27" spans="1:28" ht="90" customHeight="1">
       <c r="A27" s="17">
         <v>15</v>
       </c>
@@ -16338,7 +16419,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="18">
         <v>43887</v>
@@ -16365,31 +16446,41 @@
       <c r="M27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="23">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="U27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="V27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20" t="s">
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S27" s="21" t="s">
+      <c r="Y27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T27" s="20" t="s">
+      <c r="Z27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U27" s="20"/>
-      <c r="V27" s="18">
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="90" customHeight="1">
+    <row r="28" spans="1:28" ht="90" customHeight="1">
       <c r="A28" s="17">
         <v>15</v>
       </c>
@@ -16400,7 +16491,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="18">
         <v>43887</v>
@@ -16427,33 +16518,41 @@
       <c r="M28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="U28" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="V28" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="W28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="R28" s="20" t="s">
+      <c r="X28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="Y28" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="Z28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U28" s="20"/>
-      <c r="V28" s="18">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="90" customHeight="1">
+    <row r="29" spans="1:28" ht="90" customHeight="1">
       <c r="A29" s="17">
         <v>15</v>
       </c>
@@ -16464,7 +16563,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29" s="18">
         <v>43887</v>
@@ -16491,33 +16590,41 @@
       <c r="M29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="23">
+        <v>1</v>
+      </c>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="U29" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="V29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="W29" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="X29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S29" s="21" t="s">
+      <c r="Y29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="Z29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U29" s="20"/>
-      <c r="V29" s="18">
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="90" customHeight="1">
+    <row r="30" spans="1:28" ht="90" customHeight="1">
       <c r="A30" s="17">
         <v>16</v>
       </c>
@@ -16528,7 +16635,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="18">
         <v>43908</v>
@@ -16557,35 +16664,43 @@
       <c r="M30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23">
+        <v>1</v>
+      </c>
+      <c r="T30" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="U30" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="V30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="W30" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="X30" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="21" t="s">
+      <c r="Y30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="Z30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="AA30" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="V30" s="18">
+      <c r="AB30" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="90" customHeight="1">
+    <row r="31" spans="1:28" ht="90" customHeight="1">
       <c r="A31" s="17">
         <v>16</v>
       </c>
@@ -16596,7 +16711,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E31" s="18">
         <v>43908</v>
@@ -16625,35 +16740,43 @@
       <c r="M31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="U31" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="V31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="W31" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="R31" s="19" t="s">
+      <c r="X31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="21" t="s">
+      <c r="Y31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="Z31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U31" s="20" t="s">
+      <c r="AA31" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="V31" s="18">
+      <c r="AB31" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="90" customHeight="1">
+    <row r="32" spans="1:28" ht="90" customHeight="1">
       <c r="A32" s="17">
         <v>16</v>
       </c>
@@ -16664,7 +16787,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="18">
         <v>43908</v>
@@ -16693,33 +16816,43 @@
       <c r="M32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="23"/>
+      <c r="O32" s="23">
+        <v>1</v>
+      </c>
+      <c r="P32" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="U32" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="P32" s="20" t="s">
+      <c r="V32" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="W32" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="R32" s="19" t="s">
+      <c r="X32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S32" s="21" t="s">
+      <c r="Y32" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="T32" s="20" t="s">
+      <c r="Z32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="18">
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="90" customHeight="1">
+    <row r="33" spans="1:28" ht="90" customHeight="1">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -16730,7 +16863,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E33" s="18">
         <v>43908</v>
@@ -16759,35 +16892,45 @@
       <c r="M33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="23"/>
+      <c r="O33" s="23">
+        <v>1</v>
+      </c>
+      <c r="P33" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="20" t="s">
+      <c r="U33" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="P33" s="20" t="s">
+      <c r="V33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="W33" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="R33" s="20" t="s">
+      <c r="X33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="Y33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T33" s="20" t="s">
+      <c r="Z33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U33" s="20" t="s">
+      <c r="AA33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V33" s="18">
+      <c r="AB33" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="90" customHeight="1">
+    <row r="34" spans="1:28" ht="90" customHeight="1">
       <c r="A34" s="17">
         <v>17</v>
       </c>
@@ -16798,7 +16941,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E34" s="18">
         <v>43922</v>
@@ -16827,33 +16970,41 @@
       <c r="M34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="U34" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="P34" s="20" t="s">
+      <c r="V34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="19" t="s">
+      <c r="W34" s="20"/>
+      <c r="X34" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S34" s="21" t="s">
+      <c r="Y34" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="Z34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U34" s="20" t="s">
+      <c r="AA34" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="V34" s="18">
+      <c r="AB34" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="90" customHeight="1">
+    <row r="35" spans="1:28" ht="90" customHeight="1">
       <c r="A35" s="17">
         <v>18</v>
       </c>
@@ -16864,7 +17015,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="18">
         <v>43927</v>
@@ -16893,33 +17044,45 @@
       <c r="M35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="23">
+        <v>1</v>
+      </c>
+      <c r="O35" s="23">
+        <v>1</v>
+      </c>
+      <c r="P35" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="U35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="V35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="R35" s="19" t="s">
+      <c r="W35" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="Y35" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="T35" s="19" t="s">
+      <c r="Z35" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U35" s="20"/>
-      <c r="V35" s="18">
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="18">
         <v>43967</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="90" customHeight="1">
+    <row r="36" spans="1:28" ht="90" customHeight="1">
       <c r="A36" s="17">
         <v>18</v>
       </c>
@@ -16930,7 +17093,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E36" s="18">
         <v>43927</v>
@@ -16959,33 +17122,45 @@
       <c r="M36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="23">
+        <v>1</v>
+      </c>
+      <c r="O36" s="23">
+        <v>1</v>
+      </c>
+      <c r="P36" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="U36" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="P36" s="20" t="s">
+      <c r="V36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q36" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="R36" s="19" t="s">
+      <c r="W36" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="X36" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S36" s="19" t="s">
+      <c r="Y36" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T36" s="19" t="s">
+      <c r="Z36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="U36" s="20"/>
-      <c r="V36" s="18">
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="18">
         <v>43967</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="90" customHeight="1">
+    <row r="37" spans="1:28" ht="90" customHeight="1">
       <c r="A37" s="17">
         <v>18</v>
       </c>
@@ -16996,7 +17171,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="18">
         <v>43927</v>
@@ -17025,35 +17200,43 @@
       <c r="M37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23">
+        <v>1</v>
+      </c>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="U37" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="V37" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="W37" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="R37" s="19" t="s">
+      <c r="X37" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="19" t="s">
+      <c r="Y37" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="Z37" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="20" t="s">
+      <c r="AA37" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V37" s="18">
+      <c r="AB37" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="90" customHeight="1">
+    <row r="38" spans="1:28" ht="90" customHeight="1">
       <c r="A38" s="17">
         <v>19</v>
       </c>
@@ -17064,7 +17247,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="18">
         <v>43938</v>
@@ -17093,33 +17276,41 @@
       <c r="M38" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="23">
+        <v>1</v>
+      </c>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="U38" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="V38" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="19" t="s">
+      <c r="W38" s="20"/>
+      <c r="X38" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S38" s="21" t="s">
+      <c r="Y38" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="T38" s="20" t="s">
+      <c r="Z38" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="U38" s="20" t="s">
+      <c r="AA38" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="V38" s="18">
+      <c r="AB38" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="90" customHeight="1">
+    <row r="39" spans="1:28" ht="90" customHeight="1">
       <c r="A39" s="17">
         <v>20</v>
       </c>
@@ -17130,7 +17321,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E39" s="18">
         <v>43939</v>
@@ -17159,31 +17350,43 @@
       <c r="M39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="23">
+        <v>1</v>
+      </c>
+      <c r="O39" s="23">
+        <v>1</v>
+      </c>
+      <c r="P39" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="U39" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="P39" s="20" t="s">
+      <c r="V39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="19" t="s">
+      <c r="W39" s="20"/>
+      <c r="X39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S39" s="21" t="s">
+      <c r="Y39" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="T39" s="20" t="s">
+      <c r="Z39" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="U39" s="20"/>
-      <c r="V39" s="18">
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="18">
         <v>43965</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="90" customHeight="1">
+    <row r="40" spans="1:28" ht="90" customHeight="1">
       <c r="A40" s="17">
         <v>20</v>
       </c>
@@ -17194,7 +17397,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E40" s="18">
         <v>43939</v>
@@ -17223,35 +17426,43 @@
       <c r="M40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23">
+        <v>1</v>
+      </c>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="20" t="s">
+      <c r="U40" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="20" t="s">
+      <c r="V40" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="W40" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="R40" s="19" t="s">
+      <c r="X40" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S40" s="19" t="s">
+      <c r="Y40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T40" s="20" t="s">
+      <c r="Z40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U40" s="20" t="s">
+      <c r="AA40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V40" s="18">
+      <c r="AB40" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="90" customHeight="1">
+    <row r="41" spans="1:28" ht="90" customHeight="1">
       <c r="A41" s="17">
         <v>21</v>
       </c>
@@ -17262,7 +17473,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41" s="18">
         <v>43940</v>
@@ -17291,33 +17502,43 @@
       <c r="M41" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="23"/>
+      <c r="O41" s="23">
+        <v>1</v>
+      </c>
+      <c r="P41" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="U41" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="P41" s="20" t="s">
+      <c r="V41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="W41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R41" s="20" t="s">
+      <c r="X41" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S41" s="21" t="s">
+      <c r="Y41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T41" s="20" t="s">
+      <c r="Z41" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U41" s="20"/>
-      <c r="V41" s="18">
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="90" customHeight="1">
+    <row r="42" spans="1:28" ht="90" customHeight="1">
       <c r="A42" s="17">
         <v>21</v>
       </c>
@@ -17328,7 +17549,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E42" s="18">
         <v>43940</v>
@@ -17357,35 +17578,43 @@
       <c r="M42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="23">
+        <v>1</v>
+      </c>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="U42" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="P42" s="20" t="s">
+      <c r="V42" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q42" s="20" t="s">
+      <c r="W42" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R42" s="20" t="s">
+      <c r="X42" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S42" s="20" t="s">
+      <c r="Y42" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T42" s="20" t="s">
+      <c r="Z42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="20" t="s">
+      <c r="AA42" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V42" s="18">
+      <c r="AB42" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="90" customHeight="1">
+    <row r="43" spans="1:28" ht="90" customHeight="1">
       <c r="A43" s="17">
         <v>21</v>
       </c>
@@ -17396,7 +17625,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E43" s="18">
         <v>43940</v>
@@ -17425,33 +17654,41 @@
       <c r="M43" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23">
+        <v>1</v>
+      </c>
+      <c r="T43" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="U43" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="P43" s="20" t="s">
+      <c r="V43" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="W43" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R43" s="20" t="s">
+      <c r="X43" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S43" s="21" t="s">
+      <c r="Y43" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="T43" s="20" t="s">
+      <c r="Z43" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U43" s="20"/>
-      <c r="V43" s="18">
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="90" customHeight="1">
+    <row r="44" spans="1:28" ht="90" customHeight="1">
       <c r="A44" s="17">
         <v>21</v>
       </c>
@@ -17462,7 +17699,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E44" s="18">
         <v>43940</v>
@@ -17491,33 +17728,41 @@
       <c r="M44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="23">
+        <v>1</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="U44" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="P44" s="20" t="s">
+      <c r="V44" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="W44" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R44" s="20" t="s">
+      <c r="X44" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S44" s="21" t="s">
+      <c r="Y44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T44" s="20" t="s">
+      <c r="Z44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U44" s="20"/>
-      <c r="V44" s="18">
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="90" customHeight="1">
+    <row r="45" spans="1:28" ht="90" customHeight="1">
       <c r="A45" s="17">
         <v>21</v>
       </c>
@@ -17528,7 +17773,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" s="18">
         <v>43940</v>
@@ -17557,33 +17802,41 @@
       <c r="M45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="23">
+        <v>1</v>
+      </c>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="O45" s="19" t="s">
+      <c r="U45" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="P45" s="20" t="s">
+      <c r="V45" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="W45" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R45" s="20" t="s">
+      <c r="X45" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="S45" s="21" t="s">
+      <c r="Y45" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T45" s="20" t="s">
+      <c r="Z45" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="V45" s="18">
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="18">
         <v>43956</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="90" customHeight="1">
+    <row r="46" spans="1:28" ht="90" customHeight="1">
       <c r="A46" s="17">
         <v>22</v>
       </c>
@@ -17594,7 +17847,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E46" s="18">
         <v>43956</v>
@@ -17623,33 +17876,42 @@
       <c r="M46" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+      <c r="T46" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="U46" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="P46" s="23" t="s">
+      <c r="V46" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23" t="s">
+      <c r="W46" s="23"/>
+      <c r="X46" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S46" s="25" t="s">
+      <c r="Y46" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="Z46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U46" s="20" t="s">
+      <c r="AA46" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V46" s="3">
+      <c r="AB46" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="90" customHeight="1">
+    <row r="47" spans="1:28" ht="90" customHeight="1">
       <c r="A47" s="17">
         <v>22</v>
       </c>
@@ -17660,7 +17922,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E47" s="18">
         <v>43956</v>
@@ -17689,35 +17951,44 @@
       <c r="M47" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="U47" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="P47" s="23" t="s">
+      <c r="V47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q47" s="23" t="s">
+      <c r="W47" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="R47" s="23" t="s">
+      <c r="X47" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S47" s="28" t="s">
+      <c r="Y47" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="Z47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="AA47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V47" s="3">
+      <c r="AB47" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="90" customHeight="1">
+    <row r="48" spans="1:28" ht="90" customHeight="1">
       <c r="A48" s="17">
         <v>22</v>
       </c>
@@ -17728,7 +17999,7 @@
         <v>39</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E48" s="18">
         <v>43956</v>
@@ -17757,33 +18028,41 @@
       <c r="M48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="23" t="s">
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23">
+        <v>1</v>
+      </c>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="23" t="s">
+      <c r="U48" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="P48" s="23" t="s">
+      <c r="V48" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23" t="s">
+      <c r="W48" s="23"/>
+      <c r="X48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S48" s="23" t="s">
+      <c r="Y48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="T48" s="23" t="s">
+      <c r="Z48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="U48" s="23" t="s">
+      <c r="AA48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="V48" s="18">
+      <c r="AB48" s="18">
         <v>43957</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="90" customHeight="1">
+    <row r="49" spans="1:28" ht="90" customHeight="1">
       <c r="A49" s="17">
         <v>22</v>
       </c>
@@ -17794,7 +18073,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E49" s="18">
         <v>43956</v>
@@ -17823,33 +18102,41 @@
       <c r="M49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="23" t="s">
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23">
+        <v>1</v>
+      </c>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="U49" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="P49" s="23" t="s">
+      <c r="V49" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S49" s="23" t="s">
+      <c r="Y49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="T49" s="23" t="s">
+      <c r="Z49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="U49" s="23" t="s">
+      <c r="AA49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="V49" s="18">
+      <c r="AB49" s="18">
         <v>43959</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="90" customHeight="1">
+    <row r="50" spans="1:28" ht="90" customHeight="1">
       <c r="A50" s="5">
         <v>23</v>
       </c>
@@ -17860,7 +18147,7 @@
         <v>41</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E50" s="3">
         <v>43957</v>
@@ -17886,29 +18173,38 @@
       <c r="M50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="V50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S50" s="28" t="s">
+      <c r="Y50" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="AA50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V50" s="3">
+      <c r="AB50" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="90" customHeight="1">
+    <row r="51" spans="1:28" ht="90" customHeight="1">
       <c r="A51" s="5">
         <v>23</v>
       </c>
@@ -17945,29 +18241,38 @@
       <c r="M51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S51" s="28" t="s">
+      <c r="Y51" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="Z51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V51" s="3">
+      <c r="AB51" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="90" customHeight="1">
+    <row r="52" spans="1:28" ht="90" customHeight="1">
       <c r="A52" s="5">
         <v>24</v>
       </c>
@@ -17978,7 +18283,7 @@
         <v>41</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="3">
         <v>43959</v>
@@ -18004,32 +18309,35 @@
       <c r="M52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S52" s="28" t="s">
+      <c r="Y52" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="Z52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="AA52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V52" s="3">
+      <c r="AB52" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="90" customHeight="1">
+    <row r="53" spans="1:28" ht="90" customHeight="1">
       <c r="A53" s="5">
         <v>24</v>
       </c>
@@ -18066,32 +18374,35 @@
       <c r="M53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S53" s="28" t="s">
+      <c r="Y53" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="Z53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="AA53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V53" s="3">
+      <c r="AB53" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="90" customHeight="1">
+    <row r="54" spans="1:28" ht="90" customHeight="1">
       <c r="A54" s="5">
         <v>25</v>
       </c>
@@ -18102,22 +18413,22 @@
         <v>43</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E54" s="3">
         <v>43964</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="H54" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="I54" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>148</v>
@@ -18126,37 +18437,43 @@
         <v>66</v>
       </c>
       <c r="L54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="V54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y54" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S54" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="T54" s="1" t="s">
+      <c r="Z54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="AA54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V54" s="3">
+      <c r="AB54" s="3">
         <v>43965</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="90" customHeight="1">
+    <row r="55" spans="1:28" ht="90" customHeight="1">
       <c r="A55" s="5">
         <v>25</v>
       </c>
@@ -18167,62 +18484,346 @@
         <v>43</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E55" s="3">
         <v>43964</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="H55" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="I55" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="V55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y55" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="90" customHeight="1">
+      <c r="A56" s="5">
+        <v>26</v>
+      </c>
+      <c r="B56" s="5">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5">
+        <v>44</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="3">
+        <v>43978</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S55" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U55" s="1" t="s">
+      <c r="Y56" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V55" s="3">
-        <v>43965</v>
+      <c r="AB56" s="3">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="90" customHeight="1">
+      <c r="A57" s="5">
+        <v>26</v>
+      </c>
+      <c r="B57" s="5">
+        <v>50</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43978</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y57" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="90" customHeight="1">
+      <c r="A58" s="5">
+        <v>27</v>
+      </c>
+      <c r="B58" s="5">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="3">
+        <v>43979</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y58" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="90" customHeight="1">
+      <c r="A59" s="5">
+        <v>28</v>
+      </c>
+      <c r="B59" s="5">
+        <v>52</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43981</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y59" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>43983</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V53" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
+  <autoFilter ref="A1:AB59" xr:uid="{DAB8538B-38B8-3C4C-A1A7-E633EC0D30DC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -18245,13 +18846,13 @@
     <hyperlink ref="H14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="G15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="H15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O15" r:id="rId21" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="U15" r:id="rId21" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="G16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="H16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="O16" r:id="rId24" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="U16" r:id="rId24" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="O18" r:id="rId27" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="U18" r:id="rId27" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="G19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="H19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="G20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
@@ -18300,78 +18901,88 @@
     <hyperlink ref="G45" r:id="rId73" xr:uid="{31830744-AEB3-D74E-9516-762CDD194305}"/>
     <hyperlink ref="H43" r:id="rId74" xr:uid="{3CD0C915-C993-BB4D-8780-FA0EBA234493}"/>
     <hyperlink ref="H45" r:id="rId75" xr:uid="{12AB9A5B-3101-4C41-8252-31EA63C3B6F4}"/>
-    <hyperlink ref="S5" r:id="rId76" xr:uid="{6FE3C0D7-37BA-434D-9147-062C8E82A35B}"/>
-    <hyperlink ref="S7" r:id="rId77" xr:uid="{9C00E91B-9872-F347-8871-3E0217991519}"/>
-    <hyperlink ref="S6" r:id="rId78" xr:uid="{EFBE1438-27F5-A642-A023-980997CD93D0}"/>
+    <hyperlink ref="Y5" r:id="rId76" xr:uid="{6FE3C0D7-37BA-434D-9147-062C8E82A35B}"/>
+    <hyperlink ref="Y7" r:id="rId77" xr:uid="{9C00E91B-9872-F347-8871-3E0217991519}"/>
+    <hyperlink ref="Y6" r:id="rId78" xr:uid="{EFBE1438-27F5-A642-A023-980997CD93D0}"/>
     <hyperlink ref="G9" r:id="rId79" xr:uid="{E72E23A3-E994-9142-96FF-BB5D0A30F185}"/>
     <hyperlink ref="H9" r:id="rId80" xr:uid="{89F2634D-8804-F541-8D5D-23E8DB76D9D1}"/>
-    <hyperlink ref="S10" r:id="rId81" xr:uid="{092B3D6F-06CC-544B-AA6B-1486FB2B27B7}"/>
-    <hyperlink ref="S11" r:id="rId82" xr:uid="{B7CD5680-39CD-2745-9D07-93A4872A5A4C}"/>
-    <hyperlink ref="S13" r:id="rId83" xr:uid="{EDDDF3EF-7550-694B-B0E1-81EE194F9943}"/>
+    <hyperlink ref="Y10" r:id="rId81" xr:uid="{092B3D6F-06CC-544B-AA6B-1486FB2B27B7}"/>
+    <hyperlink ref="Y11" r:id="rId82" xr:uid="{B7CD5680-39CD-2745-9D07-93A4872A5A4C}"/>
+    <hyperlink ref="Y13" r:id="rId83" xr:uid="{EDDDF3EF-7550-694B-B0E1-81EE194F9943}"/>
     <hyperlink ref="G17" r:id="rId84" xr:uid="{5FD0607F-D23E-9444-99E0-A5E82454E115}"/>
     <hyperlink ref="H17" r:id="rId85" xr:uid="{CE89E509-BF31-A44A-84DE-B262E2C67C0D}"/>
-    <hyperlink ref="S15" r:id="rId86" display="https://www.straitstimes.com/singapore/sph-magazines-complies-with-pofma-correction-order-on-false-hardwarezone-post" xr:uid="{4D146908-4BF2-0340-B4B6-E9FEFFE6C81C}"/>
-    <hyperlink ref="S16" r:id="rId87" xr:uid="{6D504C73-AE36-6845-983A-21CD23431635}"/>
-    <hyperlink ref="S17" r:id="rId88" xr:uid="{1F221035-C716-C143-869C-27F3000C5D0E}"/>
-    <hyperlink ref="S19" r:id="rId89" xr:uid="{D63F6B07-01CD-254C-BCE6-62CA30410173}"/>
-    <hyperlink ref="S20" r:id="rId90" xr:uid="{3A58EB72-3D22-594F-A6D1-9C32EFA4F6BD}"/>
-    <hyperlink ref="S28" r:id="rId91" xr:uid="{9674621F-E1F6-C440-9449-E1BB51F943F4}"/>
-    <hyperlink ref="S27" r:id="rId92" xr:uid="{27985132-A60F-444B-9F26-C8927614B6A5}"/>
-    <hyperlink ref="S29" r:id="rId93" xr:uid="{15A2077A-48C6-1D42-BD09-BA5A34E6955B}"/>
-    <hyperlink ref="S30" r:id="rId94" xr:uid="{228D6619-DF37-0F41-8831-63F2CC56C4B8}"/>
-    <hyperlink ref="S31" r:id="rId95" xr:uid="{8DB4BE7A-03C1-F24E-B4E8-73339C316149}"/>
-    <hyperlink ref="S32" r:id="rId96" xr:uid="{051E1BFE-1B2F-B544-99AD-66058FDD395B}"/>
-    <hyperlink ref="S34" r:id="rId97" xr:uid="{1F2EEF91-A65F-5E44-BF1A-1A1851AF3C26}"/>
-    <hyperlink ref="S38" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
-    <hyperlink ref="S39" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
-    <hyperlink ref="S41" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
+    <hyperlink ref="Y15" r:id="rId86" display="https://www.straitstimes.com/singapore/sph-magazines-complies-with-pofma-correction-order-on-false-hardwarezone-post" xr:uid="{4D146908-4BF2-0340-B4B6-E9FEFFE6C81C}"/>
+    <hyperlink ref="Y16" r:id="rId87" xr:uid="{6D504C73-AE36-6845-983A-21CD23431635}"/>
+    <hyperlink ref="Y17" r:id="rId88" xr:uid="{1F221035-C716-C143-869C-27F3000C5D0E}"/>
+    <hyperlink ref="Y19" r:id="rId89" xr:uid="{D63F6B07-01CD-254C-BCE6-62CA30410173}"/>
+    <hyperlink ref="Y20" r:id="rId90" xr:uid="{3A58EB72-3D22-594F-A6D1-9C32EFA4F6BD}"/>
+    <hyperlink ref="Y28" r:id="rId91" xr:uid="{9674621F-E1F6-C440-9449-E1BB51F943F4}"/>
+    <hyperlink ref="Y27" r:id="rId92" xr:uid="{27985132-A60F-444B-9F26-C8927614B6A5}"/>
+    <hyperlink ref="Y29" r:id="rId93" xr:uid="{15A2077A-48C6-1D42-BD09-BA5A34E6955B}"/>
+    <hyperlink ref="Y30" r:id="rId94" xr:uid="{228D6619-DF37-0F41-8831-63F2CC56C4B8}"/>
+    <hyperlink ref="Y31" r:id="rId95" xr:uid="{8DB4BE7A-03C1-F24E-B4E8-73339C316149}"/>
+    <hyperlink ref="Y32" r:id="rId96" xr:uid="{051E1BFE-1B2F-B544-99AD-66058FDD395B}"/>
+    <hyperlink ref="Y34" r:id="rId97" xr:uid="{1F2EEF91-A65F-5E44-BF1A-1A1851AF3C26}"/>
+    <hyperlink ref="Y38" r:id="rId98" xr:uid="{F385D4F4-95B4-5146-94A6-F3AB02F9EB5C}"/>
+    <hyperlink ref="Y39" r:id="rId99" xr:uid="{4BCB1EA4-EDB2-6143-9B02-23DF306133D2}"/>
+    <hyperlink ref="Y41" r:id="rId100" xr:uid="{B7B46520-DD05-9643-A9E2-53C8A303E955}"/>
     <hyperlink ref="G42" r:id="rId101" xr:uid="{A27253EE-1106-DE42-A88C-4071E7AB3387}"/>
     <hyperlink ref="H42" r:id="rId102" xr:uid="{22C0C542-02EF-B543-84C7-7F1BA8F48881}"/>
     <hyperlink ref="G44" r:id="rId103" xr:uid="{C6F76C5A-4F58-DE44-828E-A0B5DB82D62F}"/>
     <hyperlink ref="H44" r:id="rId104" xr:uid="{BED8DF91-C2CB-FF4F-8716-F08F41E39864}"/>
-    <hyperlink ref="S43" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
-    <hyperlink ref="S44" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
-    <hyperlink ref="S45" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
-    <hyperlink ref="N18" r:id="rId108" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O17" r:id="rId109" display="www.moh.gov.sg" xr:uid="{849D101D-7B60-E64D-A551-2CF875A647C0}"/>
-    <hyperlink ref="O19" r:id="rId110" display="www.moh.gov.sg" xr:uid="{4B2326FF-5AAD-1A4B-9A66-24ED8EA84326}"/>
-    <hyperlink ref="O20" r:id="rId111" display="www.moh.gov.sg" xr:uid="{6F913E4D-12B5-5745-92CC-9E691AEBABB1}"/>
-    <hyperlink ref="N19" r:id="rId112" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{44211A01-CDA6-344A-8F24-32F54AE5D43F}"/>
-    <hyperlink ref="N20" r:id="rId113" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{3C35680F-CDD5-6246-B214-CF4088195F6F}"/>
+    <hyperlink ref="Y43" r:id="rId105" location="post126374114" display="https://forums.hardwarezone.com.sg/eat-drink-man-woman-16/%5Bfake-news%5D-taiwan-talk-show-expose-ho-ching-salary-nt%24-2-1-billion-6258383.html - post126374114" xr:uid="{81C8E78A-8066-5845-968A-836981EBDBCE}"/>
+    <hyperlink ref="Y44" r:id="rId106" xr:uid="{F5A95A35-97ED-FE4B-B6F0-C220849C659F}"/>
+    <hyperlink ref="Y45" r:id="rId107" xr:uid="{0FC1314E-4FCA-EC41-B405-CF78AB3C8DB8}"/>
+    <hyperlink ref="T18" r:id="rId108" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="U17" r:id="rId109" display="www.moh.gov.sg" xr:uid="{849D101D-7B60-E64D-A551-2CF875A647C0}"/>
+    <hyperlink ref="U19" r:id="rId110" display="www.moh.gov.sg" xr:uid="{4B2326FF-5AAD-1A4B-9A66-24ED8EA84326}"/>
+    <hyperlink ref="U20" r:id="rId111" display="www.moh.gov.sg" xr:uid="{6F913E4D-12B5-5745-92CC-9E691AEBABB1}"/>
+    <hyperlink ref="T19" r:id="rId112" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{44211A01-CDA6-344A-8F24-32F54AE5D43F}"/>
+    <hyperlink ref="T20" r:id="rId113" display="https://ab-tc.com/singapore-coronavirus-cases/" xr:uid="{3C35680F-CDD5-6246-B214-CF4088195F6F}"/>
     <hyperlink ref="G33" r:id="rId114" xr:uid="{DD6A2808-28CB-DB44-B381-13676C6D2964}"/>
     <hyperlink ref="H33" r:id="rId115" xr:uid="{2B539462-18F3-994E-B2A2-B25B1B8A6A4C}"/>
-    <hyperlink ref="O38" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="S18" r:id="rId117" xr:uid="{B2B58C13-7524-9145-A132-A1F469973134}"/>
-    <hyperlink ref="S3" r:id="rId118" xr:uid="{9D77ECBF-62F7-B342-926E-ADE0C83DE947}"/>
-    <hyperlink ref="S21" r:id="rId119" xr:uid="{63A00751-EF11-6745-B94A-ED9E93759587}"/>
-    <hyperlink ref="S23" r:id="rId120" xr:uid="{5DDC055A-6376-B846-9259-163A281336C9}"/>
-    <hyperlink ref="S25" r:id="rId121" xr:uid="{51905E69-5344-A04C-BA16-C7BD8A95797C}"/>
-    <hyperlink ref="S9" r:id="rId122" xr:uid="{D4367E80-DD46-5344-A534-5DA794A004E7}"/>
+    <hyperlink ref="U38" r:id="rId116" display="www.moh.gov.sg" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Y18" r:id="rId117" xr:uid="{B2B58C13-7524-9145-A132-A1F469973134}"/>
+    <hyperlink ref="Y3" r:id="rId118" xr:uid="{9D77ECBF-62F7-B342-926E-ADE0C83DE947}"/>
+    <hyperlink ref="Y21" r:id="rId119" xr:uid="{63A00751-EF11-6745-B94A-ED9E93759587}"/>
+    <hyperlink ref="Y23" r:id="rId120" xr:uid="{5DDC055A-6376-B846-9259-163A281336C9}"/>
+    <hyperlink ref="Y25" r:id="rId121" xr:uid="{51905E69-5344-A04C-BA16-C7BD8A95797C}"/>
+    <hyperlink ref="Y9" r:id="rId122" xr:uid="{D4367E80-DD46-5344-A534-5DA794A004E7}"/>
     <hyperlink ref="G46" r:id="rId123" xr:uid="{1780B637-9397-0043-9D08-D781704A5638}"/>
     <hyperlink ref="G47:G49" r:id="rId124" display="https://www.pofmaoffice.gov.sg/documents/media-releases/2020/May/pofma-pr-moe-05may2020-01.pdf" xr:uid="{7B007A63-6A55-7944-A27A-367B2EC4382E}"/>
     <hyperlink ref="H46" r:id="rId125" xr:uid="{F6868888-7896-6349-B0B5-79D5127D440C}"/>
     <hyperlink ref="H47:H49" r:id="rId126" display="https://www.gov.sg/article/factually-clarifications-on-falsehood-posted-by-sst-on-covid-19-cases-in-schools" xr:uid="{51479145-DE4C-0649-ACE9-C601F8022A66}"/>
-    <hyperlink ref="S46" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
-    <hyperlink ref="S47" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
-    <hyperlink ref="S35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
+    <hyperlink ref="Y46" r:id="rId127" xr:uid="{07578BD0-F7F7-1A4E-A062-C751F49B8647}"/>
+    <hyperlink ref="Y47" r:id="rId128" xr:uid="{D5FB1B51-E808-D34D-A24F-78E9BFAB6BEE}"/>
+    <hyperlink ref="Y35" r:id="rId129" xr:uid="{2CAD78F9-A088-ED41-8470-4F42ACFA32BB}"/>
     <hyperlink ref="G50" r:id="rId130" xr:uid="{DC2A7287-5C35-7F4B-A148-5113F19473B2}"/>
     <hyperlink ref="G51" r:id="rId131" xr:uid="{797A1328-AEA3-CC46-93D8-6929F70E4191}"/>
-    <hyperlink ref="S51" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
-    <hyperlink ref="S50" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
+    <hyperlink ref="Y51" r:id="rId132" xr:uid="{5049747F-60C1-0F4C-8E41-B47B63DEF567}"/>
+    <hyperlink ref="Y50" r:id="rId133" xr:uid="{25D90A37-25B9-7F4B-9445-31E0E000288E}"/>
     <hyperlink ref="G48" r:id="rId134" xr:uid="{F85B3633-7730-CE4F-8AD3-95E5B096245A}"/>
     <hyperlink ref="H48" r:id="rId135" xr:uid="{F72C2235-0555-C642-B14C-AE2A80A813B8}"/>
     <hyperlink ref="G52" r:id="rId136" xr:uid="{DD4944F1-F6E4-864C-A8DF-2545C74A9E56}"/>
     <hyperlink ref="G53" r:id="rId137" xr:uid="{344B5944-BD43-A345-83C7-4C8681290B8E}"/>
-    <hyperlink ref="S52" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
-    <hyperlink ref="S53" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
+    <hyperlink ref="Y52" r:id="rId138" xr:uid="{B483AB6B-F9D6-3B4A-809C-AABF0CF1C540}"/>
+    <hyperlink ref="Y53" r:id="rId139" xr:uid="{40B3EA47-1813-AF4C-8BE4-9B407A325961}"/>
     <hyperlink ref="G54" r:id="rId140" xr:uid="{DC472B87-C4BF-C740-A8D9-9DB768283F08}"/>
     <hyperlink ref="G55" r:id="rId141" xr:uid="{78548BB2-095E-2541-948B-E7ABC429FFD4}"/>
     <hyperlink ref="H54" r:id="rId142" xr:uid="{353685A2-6058-BA48-B8E2-E41188D1FD07}"/>
     <hyperlink ref="H55" r:id="rId143" xr:uid="{4D128808-5C22-B044-ABAC-7A35F92F7586}"/>
-    <hyperlink ref="S54" r:id="rId144" xr:uid="{95F1F17A-CCFC-3640-8ADC-4DD3981B4E21}"/>
-    <hyperlink ref="S55" r:id="rId145" xr:uid="{24FE65E8-797A-6346-B190-6D4ABA09907C}"/>
+    <hyperlink ref="Y54" r:id="rId144" xr:uid="{95F1F17A-CCFC-3640-8ADC-4DD3981B4E21}"/>
+    <hyperlink ref="Y55" r:id="rId145" xr:uid="{24FE65E8-797A-6346-B190-6D4ABA09907C}"/>
     <hyperlink ref="G36" r:id="rId146" xr:uid="{B86BF80B-5931-524C-8048-33B06BD21042}"/>
     <hyperlink ref="H36" r:id="rId147" xr:uid="{B92069D9-4061-E64F-9618-95CA1A09C24F}"/>
+    <hyperlink ref="G56" r:id="rId148" xr:uid="{E03A3683-3EF3-194F-898F-BCFC04162534}"/>
+    <hyperlink ref="G57" r:id="rId149" xr:uid="{4D61A976-4C71-754E-94A6-096C83BE2373}"/>
+    <hyperlink ref="H56" r:id="rId150" xr:uid="{06577D2B-5AEE-5D48-A253-ABAA8CAC10CC}"/>
+    <hyperlink ref="H57" r:id="rId151" xr:uid="{60AB26D8-5F63-6F44-9435-64796E0A55DB}"/>
+    <hyperlink ref="Y56" r:id="rId152" xr:uid="{F477D571-E9AE-B142-9249-F5F6E1EE8325}"/>
+    <hyperlink ref="Y57" r:id="rId153" xr:uid="{3EFC4137-8962-2744-946B-6FDB82DBE1C3}"/>
+    <hyperlink ref="G58" r:id="rId154" xr:uid="{2FB42973-293B-2E4F-8C84-D77069F6816A}"/>
+    <hyperlink ref="Y58" r:id="rId155" xr:uid="{59E40C6F-81B9-104F-97B4-7FFB78B36BA7}"/>
+    <hyperlink ref="G59" r:id="rId156" xr:uid="{8A50D71A-AF38-7849-8F0F-C57576E51093}"/>
+    <hyperlink ref="Y59" r:id="rId157" xr:uid="{6210BCEB-3ADD-A647-9461-C7FE0C122845}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/Current Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3750CC8-847D-B241-B7D7-F58E73F999B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E46513-3847-834A-8B15-36AD537E2E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="25320" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -24,19 +24,11 @@
     <definedName name="_xlchart.v1.2" hidden="1">Summary!$M$3:$M$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="356">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1709,6 +1701,43 @@
   </si>
   <si>
     <t>Other POFMA uses</t>
+  </si>
+  <si>
+    <t>State News Singapore Facebook post 1</t>
+  </si>
+  <si>
+    <t>Mr Alex Tan Facebook Post 3</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/June/pofma-pr-mfa-29Jun2020-01.pdf</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister for Foreign Affairs Instructs POFMA Office to Issue Correction Directions</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister for Foreign Affairs</t>
+  </si>
+  <si>
+    <t>States News Singapore Facebook Page</t>
+  </si>
+  <si>
+    <t>There is a false statement of fact contained in a Facebook post by State News Singapore (SNS) on the cross-border travel arrangements between Singapore and Malaysia.
+Falsehood
+2. On 27 June 2020, SNS published a Facebook post stating that “[d]espite Lee Hsien Loong personally calling Malaysia Prime Minister Muhyiddin Yassin requesting Malaysia to open up daily commute, the Malaysian authorities refused to accede to his request”. This is false.
+Facts
+3. We wish to clarify that the telephone call between the two Prime Ministers was initiated at the request of Prime Minister Muhyiddin. As Prime Minister Muhyiddin has publicly stated, he proposed that the Singapore Government consider a daily cross-border commuting arrangement.
+4. The Singapore Government is committed to discussing the gradual and phased resumption of cross-border travel with Malaysia, subject to mutually agreed public health protocols, to preserve the public health and safety of citizens of both countries. Singapore and Malaysia are working on the Periodic Commuting Arrangement and the Reciprocal Green Lane, and officials on both sides will continue discussions on other proposals to gradually facilitate more cross-border movement of people, while taking into account the medical resources available in both countries.
+Related link
+5. For more details, please refer to the press statement dated 27 June 2020 issued by the Ministry of Foreign Affairs on Prime Minister Lee Hsien Loong’s telephone call with Malaysian Prime Minister Tan Sri Muhyiddin Yassin: https://www.mfa.gov.sg/Newsroom/Press-Statements-Transcripts-and-Photos/2020/06/20200627---S-M-RGLPCA</t>
+  </si>
+  <si>
+    <t>This false statement of fact was shared by Mr Tan’s Facebook page'</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually290620</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/permalink.php?story_fbid=134162414987297&amp;id=108794737524065</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1877,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1952,6 +1981,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2142,10 +2177,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$224</c:f>
+              <c:f>Summary!$A$34:$A$256</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -2718,16 +2753,112 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$34:$B$224</c:f>
+              <c:f>Summary!$B$34:$B$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3299,6 +3430,102 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3336,10 +3563,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$224</c:f>
+              <c:f>Summary!$A$34:$A$256</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -3912,16 +4139,112 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$34:$C$224</c:f>
+              <c:f>Summary!$C$34:$C$256</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="223"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,6 +4816,102 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4888,7 +5307,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,10 +5519,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$9</c:f>
+              <c:f>Summary!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -5124,16 +5543,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$9</c:f>
+              <c:f>Summary!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5154,6 +5576,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5190,10 +5615,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$9</c:f>
+              <c:f>Summary!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -5214,16 +5639,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$9</c:f>
+              <c:f>Summary!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5244,6 +5672,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,13 +5995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -5838,9 +6269,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$18:$K$28</c:f>
+              <c:f>Summary!$K$18:$K$29</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Minister for Communications and Information</c:v>
                 </c:pt>
@@ -5873,16 +6304,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Minister for Law</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Alternate Authority for the Minister for Foreign Affairs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$18:$L$28</c:f>
+              <c:f>Summary!$L$18:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -5915,6 +6349,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6321,7 +6758,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -10573,7 +11010,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -11730,10 +12167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
-  <dimension ref="A2:AI224"/>
+  <dimension ref="A2:AI256"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11798,7 +12235,7 @@
         <v>183</v>
       </c>
       <c r="M3" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>197</v>
@@ -11807,7 +12244,7 @@
         <v>25</v>
       </c>
       <c r="Z3" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="28">
@@ -11833,7 +12270,7 @@
         <v>189</v>
       </c>
       <c r="M4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG4" s="33"/>
       <c r="AH4" s="34"/>
@@ -11960,10 +12397,10 @@
         <v>340</v>
       </c>
       <c r="AH8" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI8" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="28">
@@ -11991,6 +12428,19 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="56">
+      <c r="A10" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(B10:C10)</f>
+        <v>3</v>
+      </c>
       <c r="K10" s="9" t="s">
         <v>185</v>
       </c>
@@ -12024,10 +12474,10 @@
         <v>341</v>
       </c>
       <c r="AH11" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI11" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="56">
@@ -12046,10 +12496,10 @@
         <v>342</v>
       </c>
       <c r="AH14" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="56">
@@ -12086,10 +12536,10 @@
         <v>332</v>
       </c>
       <c r="AH17" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="42">
@@ -12097,7 +12547,7 @@
         <v>148</v>
       </c>
       <c r="B18" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
@@ -12110,7 +12560,7 @@
       </c>
       <c r="W18" s="7">
         <f>SUM(M3:M6)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="56">
@@ -12148,7 +12598,7 @@
         <v>149</v>
       </c>
       <c r="B20" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -12170,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="AI20" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="28">
@@ -12237,7 +12687,7 @@
         <v>4</v>
       </c>
       <c r="AI23" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="28">
@@ -12286,6 +12736,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="1:35" ht="42">
+      <c r="K29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3</v>
+      </c>
+    </row>
     <row r="33" spans="1:3" ht="28">
       <c r="A33" s="12" t="s">
         <v>192</v>
@@ -14395,6 +14853,358 @@
         <v>0</v>
       </c>
       <c r="C224" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="26">
+        <v>43985</v>
+      </c>
+      <c r="B225" s="27">
+        <v>0</v>
+      </c>
+      <c r="C225" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="26">
+        <v>43986</v>
+      </c>
+      <c r="B226" s="27">
+        <v>0</v>
+      </c>
+      <c r="C226" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="26">
+        <v>43987</v>
+      </c>
+      <c r="B227" s="27">
+        <v>0</v>
+      </c>
+      <c r="C227" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="26">
+        <v>43988</v>
+      </c>
+      <c r="B228" s="27">
+        <v>0</v>
+      </c>
+      <c r="C228" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="26">
+        <v>43989</v>
+      </c>
+      <c r="B229" s="27">
+        <v>0</v>
+      </c>
+      <c r="C229" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="26">
+        <v>43990</v>
+      </c>
+      <c r="B230" s="27">
+        <v>0</v>
+      </c>
+      <c r="C230" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="26">
+        <v>43991</v>
+      </c>
+      <c r="B231" s="27">
+        <v>0</v>
+      </c>
+      <c r="C231" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="26">
+        <v>43992</v>
+      </c>
+      <c r="B232" s="27">
+        <v>0</v>
+      </c>
+      <c r="C232" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="26">
+        <v>43993</v>
+      </c>
+      <c r="B233" s="27">
+        <v>0</v>
+      </c>
+      <c r="C233" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="26">
+        <v>43994</v>
+      </c>
+      <c r="B234" s="27">
+        <v>0</v>
+      </c>
+      <c r="C234" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="26">
+        <v>43995</v>
+      </c>
+      <c r="B235" s="27">
+        <v>0</v>
+      </c>
+      <c r="C235" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="26">
+        <v>43996</v>
+      </c>
+      <c r="B236" s="27">
+        <v>0</v>
+      </c>
+      <c r="C236" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="26">
+        <v>43997</v>
+      </c>
+      <c r="B237" s="27">
+        <v>0</v>
+      </c>
+      <c r="C237" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="26">
+        <v>43998</v>
+      </c>
+      <c r="B238" s="27">
+        <v>0</v>
+      </c>
+      <c r="C238" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="26">
+        <v>43999</v>
+      </c>
+      <c r="B239" s="27">
+        <v>0</v>
+      </c>
+      <c r="C239" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="26">
+        <v>44000</v>
+      </c>
+      <c r="B240" s="27">
+        <v>0</v>
+      </c>
+      <c r="C240" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="26">
+        <v>44001</v>
+      </c>
+      <c r="B241" s="27">
+        <v>0</v>
+      </c>
+      <c r="C241" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="26">
+        <v>44002</v>
+      </c>
+      <c r="B242" s="27">
+        <v>0</v>
+      </c>
+      <c r="C242" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="26">
+        <v>44003</v>
+      </c>
+      <c r="B243" s="27">
+        <v>0</v>
+      </c>
+      <c r="C243" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="26">
+        <v>44004</v>
+      </c>
+      <c r="B244" s="27">
+        <v>0</v>
+      </c>
+      <c r="C244" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="26">
+        <v>44005</v>
+      </c>
+      <c r="B245" s="27">
+        <v>0</v>
+      </c>
+      <c r="C245" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="26">
+        <v>44006</v>
+      </c>
+      <c r="B246" s="27">
+        <v>0</v>
+      </c>
+      <c r="C246" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="26">
+        <v>44007</v>
+      </c>
+      <c r="B247" s="27">
+        <v>0</v>
+      </c>
+      <c r="C247" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="26">
+        <v>44008</v>
+      </c>
+      <c r="B248" s="27">
+        <v>0</v>
+      </c>
+      <c r="C248" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="26">
+        <v>44009</v>
+      </c>
+      <c r="B249" s="27">
+        <v>0</v>
+      </c>
+      <c r="C249" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="26">
+        <v>44010</v>
+      </c>
+      <c r="B250" s="27">
+        <v>0</v>
+      </c>
+      <c r="C250" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="26">
+        <v>44011</v>
+      </c>
+      <c r="B251" s="27">
+        <v>0</v>
+      </c>
+      <c r="C251" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="26">
+        <v>44012</v>
+      </c>
+      <c r="B252" s="27">
+        <v>0</v>
+      </c>
+      <c r="C252" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="26">
+        <v>44013</v>
+      </c>
+      <c r="B253" s="27">
+        <v>0</v>
+      </c>
+      <c r="C253" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="26">
+        <v>44014</v>
+      </c>
+      <c r="B254" s="27">
+        <v>0</v>
+      </c>
+      <c r="C254" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="26">
+        <v>44015</v>
+      </c>
+      <c r="B255" s="27">
+        <v>0</v>
+      </c>
+      <c r="C255" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="26">
+        <v>44016</v>
+      </c>
+      <c r="B256" s="27">
+        <v>0</v>
+      </c>
+      <c r="C256" s="27">
         <v>0</v>
       </c>
     </row>
@@ -14411,11 +15221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL59"/>
+  <dimension ref="A1:IL63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -18820,6 +19630,266 @@
       </c>
       <c r="AB59" s="3">
         <v>43983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="90" customHeight="1">
+      <c r="A60" s="5">
+        <v>29</v>
+      </c>
+      <c r="B60" s="5">
+        <v>53</v>
+      </c>
+      <c r="C60" s="5">
+        <v>46</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44011</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y60" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="90" customHeight="1">
+      <c r="A61" s="5">
+        <v>29</v>
+      </c>
+      <c r="B61" s="5">
+        <v>54</v>
+      </c>
+      <c r="C61" s="5">
+        <v>47</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44011</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W61" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y61" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="90" customHeight="1">
+      <c r="A62" s="5">
+        <v>29</v>
+      </c>
+      <c r="B62" s="5">
+        <v>55</v>
+      </c>
+      <c r="C62" s="5">
+        <v>46</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44011</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y62" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="90" customHeight="1">
+      <c r="A63" s="5">
+        <v>29</v>
+      </c>
+      <c r="B63" s="5">
+        <v>55</v>
+      </c>
+      <c r="C63" s="5">
+        <v>47</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44011</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y63" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>44012</v>
       </c>
     </row>
   </sheetData>
@@ -18983,6 +20053,18 @@
     <hyperlink ref="Y58" r:id="rId155" xr:uid="{59E40C6F-81B9-104F-97B4-7FFB78B36BA7}"/>
     <hyperlink ref="G59" r:id="rId156" xr:uid="{8A50D71A-AF38-7849-8F0F-C57576E51093}"/>
     <hyperlink ref="Y59" r:id="rId157" xr:uid="{6210BCEB-3ADD-A647-9461-C7FE0C122845}"/>
+    <hyperlink ref="G60" r:id="rId158" xr:uid="{4D437078-1F42-8C44-8EB0-3E43264A94A7}"/>
+    <hyperlink ref="G61" r:id="rId159" xr:uid="{C130B244-44DC-4A4D-B45F-1589DC004989}"/>
+    <hyperlink ref="G62" r:id="rId160" xr:uid="{AF00C3A5-BA86-104C-8C5A-9B487C2216B1}"/>
+    <hyperlink ref="G63" r:id="rId161" xr:uid="{10156291-E9D5-B44C-A8D0-F60A62115092}"/>
+    <hyperlink ref="H62" r:id="rId162" xr:uid="{DCA2E969-7DD6-5548-99E9-5CF9ECF64DF3}"/>
+    <hyperlink ref="H63" r:id="rId163" xr:uid="{E89394EA-0197-9248-83AC-1B7690D40C55}"/>
+    <hyperlink ref="H61" r:id="rId164" xr:uid="{06162DD5-8791-9444-9175-823F62E7DCFA}"/>
+    <hyperlink ref="H60" r:id="rId165" xr:uid="{2B75CAAB-9A44-0545-816E-447DC06A269E}"/>
+    <hyperlink ref="Y62" r:id="rId166" xr:uid="{A1F605BB-4DA7-F943-B0DB-8FAEAA7314FA}"/>
+    <hyperlink ref="Y63" r:id="rId167" xr:uid="{A3E88775-5CCA-6340-9BA5-54529D858E75}"/>
+    <hyperlink ref="Y61" r:id="rId168" xr:uid="{2E6FFEF5-8053-9343-8683-EC1DDC85F388}"/>
+    <hyperlink ref="Y60" r:id="rId169" xr:uid="{776DC2D4-CFEB-BA41-9BDE-8943F4A64C17}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D549EFE-5C8A-234A-9E58-9C503D707DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D8D07-2019-024C-AA90-C00394D54819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="25320" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="25320" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$AB$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$17:$L$27</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Summary!$K$3:$K$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Summary!$L$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Summary!$L$3:$L$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$32:$L$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="417">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1882,6 +1879,81 @@
   </si>
   <si>
     <t>Inaccessible (Access Blocking / Disabling Order)</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister for Manpower Instructs POFMA Office to Issue Correction Directions</t>
+  </si>
+  <si>
+    <t>NUSS Youtube Video 1</t>
+  </si>
+  <si>
+    <t>The Online Citizen Facebook Post 3</t>
+  </si>
+  <si>
+    <t>New Naratif Website Article 1</t>
+  </si>
+  <si>
+    <t>The Online Citizen Facebook Post 4</t>
+  </si>
+  <si>
+    <t>https://newnaratif.com/podcast/an-interview-with-dr-paul-tambyah/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/story.php?story_fbid=1731909766960521&amp;id=14440041382</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2020/July/pofma-pr-mom-05jul2020-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually050720a</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister for Manpower</t>
+  </si>
+  <si>
+    <t>NUSS</t>
+  </si>
+  <si>
+    <t>Channel News Asia</t>
+  </si>
+  <si>
+    <t>Channel News Asia Website Article 1</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/news/singapore/ge2020-focus-on-public-health-could-have-been-lost-paul-tambyah-12899558</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/?v=573567893340493</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=35E4sohNUqI</t>
+  </si>
+  <si>
+    <t>False statements were made in a video, “NUSS Pre-General Election Forum 2020”, published by NUSS on 3 July 2020 on YouTube; a Facebook post and videos titled “Dr Paul Tambyah reveals MOM’s role in outbreak of COVID-19 within dormitories”, published by TOC on 4 July 2020; a video titled “TOC GE2020 Livestream – Afternoon session 2 July 2020”, published by TOC on 2 July 2020 on Facebook; an online article “GE2020: Focus on public health could have been lost in March amid talk of early election, suggests SDP’s Paul Tambyah”, published by CNA on 4 July 2020; and an audio recording titled “An Interview with Dr Paul Tambyah”, published by New Naratif on 5 July 2020.
+Falsehoods
+The NUSS forum video, TOC’s Facebook post and videos, CNA online article and New Naratif audio recording featured the following claims by Dr Paul Tambyah:
+MOM issued a statement to all the employers that if they brought their foreign workers for COVID-19 testing, they would lose their work pass privileges.
+MOM actively discouraged the testing of workers.
+MOM made these decisions without consulting public health medical professionals or MOH.
+The statements above are false for the following reasons:
+In its advisory to employers, MOM did not say that employers could not bring their workers for testing. Neither did MOM actively discourage the testing of workers. What MOM said was: “Do not send workers to hospitals unless it is a medical emergency. If the worker is unwell, employers should send him to a general practitioner to seek medical attention, who will make a proper assessment on whether the worker needs to be sent to the hospital.”
+The MOM advisory also did not state that employers who brought their workers for testing would lose their work pass privileges. What MOM said was: “Our hospitals are working hard to ensure that medical emergencies are handled promptly. We encourage you to be socially responsible and only send workers to the hospital if it is a medical emergency as doing so otherwise will deny immediate treatment to those who need it. Employers who act irresponsibly by misusing medical facility may have their work pass privileges suspended.”
+The Multi-Ministry Taskforce, led by the Ministers and staffed by senior public officials and medical professionals, was set up in Jan 2020 to direct the national whole-of-government response to COVID-19, to ensure smooth coordination across Ministries and all affected sectors.
+Decisions made on the management of foreign workers and advisories, including the decision to issue the above MOM advisory to employers, were guided by MOH and its medical professionals, based on the prevailing scientific evidence and local situation.
+In a Facebook post [1] on 25 April 2020, Minister for Manpower Mrs Josephine Teo clarified that the MOM advisory was “to ask employers not to send their workers who are healthy for testing” at hospitals, that “Our regular doctors are better able to pick up early signs and order tests if necessary”, and that the advisory was sent out at the request of MOH. As the Minister’s Facebook post was published before Dr Paul Tambyah’s remarks, Dr Tambyah could have easily verified beforehand what the correct facts were.
+[1] https://www.facebook.com/Josephine.LM.Teo/posts/3731207726953495</t>
+  </si>
+  <si>
+    <t>Additional Clarifications
+On 8 February 2020, Changi General Hospital (CGH) informed MOH that an employer in the construction industry was sending all his workers to the CGH A&amp;E Department to be tested for COVID-19 though the workers exhibited no symptoms and were well. The employer also asked for memos from CGH to certify that the workers were not infected with COVID-19 and were fit to work. The hospital was concerned that this would trigger a flood of well workers being sent to A&amp;E Departments, distracting hospitals from the care and treatment of ill patients who required their attention. On 12 February 2020, MOH, MOM and other agencies jointly issued an advisory to the industry to advise that there was no need to prevent workers who were residing in the dormitory from working if they are not unwell.
+Subsequently, the hospitals informed MOH that employers were still sending workers who were healthy for testing. MOH then informed MOM, and a further advisory was sent out on 19 February 2020 to advise employers not to send their workers who were healthy for testing, to ensure that medical facilities and resources were focused on unwell individuals who needed medical treatment. This advice was based on the prevailing scientific evidence at that time, which was also in line with MOH’s risk-based approach to prioritise testing and care for those who are of high risk.
+The same advice was given to all in Singapore, citizens as well as residents: If unwell, even with mild respiratory symptoms, see a general practitioner immediately, who will decide on the course of treatment.</t>
+  </si>
+  <si>
+    <t>"The NUSS forum video, TOC’s Facebook post and videos, CNA online article and New Naratif audio recording featured the following claims by Dr Paul Tambyah (…)"</t>
+  </si>
+  <si>
+    <t>Alternate Authority for Minister for Manpower</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2376,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$33</c:f>
+              <c:f>Summary!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2325,10 +2397,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$257</c:f>
+              <c:f>Summary!$A$49:$A$278</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -3000,16 +3072,34 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$34:$B$257</c:f>
+              <c:f>Summary!$B$49:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3680,6 +3770,24 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3696,7 +3804,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$C$33</c:f>
+              <c:f>Summary!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3717,10 +3825,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$34:$A$257</c:f>
+              <c:f>Summary!$A$49:$A$278</c:f>
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmmm\ yyyy;@</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>43794</c:v>
                 </c:pt>
@@ -4392,16 +4500,34 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$34:$C$257</c:f>
+              <c:f>Summary!$C$49:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="230"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5072,6 +5198,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5338,7 +5482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$X$3</c:f>
+              <c:f>Summary!$AL$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5446,7 +5590,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$Y$2:$Z$2</c:f>
+              <c:f>Summary!$AM$2:$AN$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5460,7 +5604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$Y$3:$Z$3</c:f>
+              <c:f>Summary!$AM$3:$AN$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5468,7 +5612,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,7 +6004,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6129,7 +6273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$17</c:f>
+              <c:f>Summary!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6208,7 +6352,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$18:$A$22</c:f>
+              <c:f>Summary!$A$33:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6231,7 +6375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$18:$B$22</c:f>
+              <c:f>Summary!$B$33:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6248,7 +6392,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,14 +6603,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -6487,7 +6631,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$L$17</c:f>
+              <c:f>Summary!$L$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6506,54 +6650,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$18:$K$32</c:f>
+              <c:f>Summary!$K$33:$K$48</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Alternate Authority for Minister for Manpower</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Alternate Authority for Minister of Education</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Alternate Authority for Minister of National Development</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Alternate Authority for the Minister for Foreign Affairs</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Alternate Authority for the Minister in PMO (NPTD)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Minister for Communications and Information</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Minister for Education</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Minister for Finance</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Minister for Health</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Minister for Home Affairs</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Minister for Law</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Minister for Manpower</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Minister for National Development</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Minister for Trade and Industry</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Minister for Transport</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Minister in charge of the People's Association</c:v>
                 </c:pt>
               </c:strCache>
@@ -6561,53 +6766,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$18:$L$32</c:f>
+              <c:f>Summary!$L$33:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -6660,14 +6868,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6726,7 +6934,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6844,7 +7052,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$L$2</c:f>
+              <c:f>Summary!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6867,6 +7075,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7987-E444-9719-694372A56D52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6882,6 +7095,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7987-E444-9719-694372A56D52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6897,6 +7115,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7987-E444-9719-694372A56D52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6912,6 +7135,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7987-E444-9719-694372A56D52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6968,7 +7196,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$3:$K$6</c:f>
+              <c:f>Summary!$Y$3:$Y$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6988,21 +7216,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$3:$L$6</c:f>
+              <c:f>Summary!$Z$3:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10399,15 +10627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>439964</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>155222</xdr:rowOff>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10434,14 +10662,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>20864</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>70555</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>741841</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
@@ -10471,15 +10699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>26307</xdr:colOff>
+      <xdr:colOff>26308</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23586</xdr:rowOff>
+      <xdr:rowOff>23587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>671286</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10508,14 +10736,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>288571</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>141112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10543,15 +10771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>417285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10578,16 +10806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>326569</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145341</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>145142</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>562427</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11687,10 +11915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
-  <dimension ref="A2:AI271"/>
+  <dimension ref="A2:AN286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11703,7 +11931,7 @@
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" ht="70">
+    <row r="2" spans="1:40" ht="70">
       <c r="A2" s="6" t="s">
         <v>188</v>
       </c>
@@ -11716,165 +11944,165 @@
       <c r="D2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="28">
+    <row r="3" spans="1:40" ht="28">
       <c r="A3" s="10">
         <v>43770</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM(B34:B39)</f>
+        <f>SUM(B49:B54)</f>
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM(C34:C39)</f>
+        <f>SUM(C49:C54)</f>
         <v>0</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" si="0">SUM(B3:C3)</f>
         <v>3</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9">
-        <v>46</v>
-      </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="9">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="AM3" s="7">
         <f>SUM(B3:B11)</f>
         <v>37</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="AN3" s="7">
         <f>SUM(C3:C11)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="14">
       <c r="A4" s="10">
         <v>43800</v>
       </c>
       <c r="B4" s="7">
-        <f>SUM(B40:B70)</f>
+        <f>SUM(B55:B85)</f>
         <v>4</v>
       </c>
       <c r="C4" s="7">
-        <f>SUM(C40:C70)</f>
+        <f>SUM(C55:C85)</f>
         <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9">
-        <v>8</v>
+      <c r="Z4" s="9">
+        <v>10</v>
       </c>
       <c r="AG4" s="31"/>
       <c r="AH4" s="32"/>
       <c r="AI4" s="32"/>
     </row>
-    <row r="5" spans="1:35" ht="14">
+    <row r="5" spans="1:40" ht="28">
       <c r="A5" s="10">
         <v>43831</v>
       </c>
       <c r="B5" s="7">
-        <f>SUM(B71:B101)</f>
+        <f>SUM(B86:B116)</f>
         <v>5</v>
       </c>
       <c r="C5" s="7">
-        <f>SUM(C71:C101)</f>
+        <f>SUM(C86:C116)</f>
         <v>7</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="9">
+      <c r="Z5" s="9">
         <v>2</v>
       </c>
       <c r="AG5" s="31"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
     </row>
-    <row r="6" spans="1:35" ht="14">
+    <row r="6" spans="1:40" ht="14">
       <c r="A6" s="10">
         <v>43862</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(B102:B130)</f>
+        <f>SUM(B117:B145)</f>
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <f>SUM(C102:C130)</f>
+        <f>SUM(C117:C145)</f>
         <v>4</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="L6" s="9">
-        <v>2</v>
+      <c r="Z6" s="9">
+        <v>3</v>
       </c>
       <c r="AG6" s="31"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
     </row>
-    <row r="7" spans="1:35" ht="42">
+    <row r="7" spans="1:40" ht="56">
       <c r="A7" s="10">
         <v>43891</v>
       </c>
       <c r="B7" s="7">
-        <f>SUM(B131:B161)</f>
+        <f>SUM(B146:B176)</f>
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f>SUM(C131:C161)</f>
+        <f>SUM(C146:C176)</f>
         <v>3</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="Y7" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="L7" s="9">
-        <f>SUM(L3:L6)</f>
-        <v>58</v>
+      <c r="Z7" s="9">
+        <f>SUM(Z3:Z6)</f>
+        <v>63</v>
       </c>
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
       <c r="AI7" s="31"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:40">
       <c r="A8" s="10">
         <v>43922</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(B162:B192)</f>
+        <f>SUM(B177:B207)</f>
         <v>4</v>
       </c>
       <c r="C8" s="7">
@@ -11890,7 +12118,7 @@
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:40">
       <c r="A9" s="10">
         <v>43952</v>
       </c>
@@ -11910,7 +12138,7 @@
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:40">
       <c r="A10" s="10">
         <v>43983</v>
       </c>
@@ -11930,7 +12158,7 @@
       <c r="AH10" s="31"/>
       <c r="AI10" s="31"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:40">
       <c r="A11" s="10">
         <v>44013</v>
       </c>
@@ -11938,11 +12166,11 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
         <f>B11+C11</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
@@ -11950,414 +12178,269 @@
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:40">
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:40">
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:40">
       <c r="AG14" s="31"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:40">
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:40">
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
       <c r="AI16" s="31"/>
     </row>
-    <row r="17" spans="1:35" ht="56">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+    <row r="17" spans="1:35">
       <c r="AG17" s="31"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
     </row>
-    <row r="18" spans="1:35" ht="42">
-      <c r="A18" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L18" s="7">
-        <v>2</v>
-      </c>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
+    <row r="18" spans="1:35">
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
     </row>
-    <row r="19" spans="1:35" ht="56">
-      <c r="A19" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="7">
-        <v>5</v>
-      </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="32"/>
+    <row r="19" spans="1:35">
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
       <c r="AI19" s="31"/>
     </row>
-    <row r="20" spans="1:35" ht="42">
-      <c r="A20" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B20" s="7">
-        <v>4</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L20" s="7">
-        <v>3</v>
-      </c>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
+    <row r="20" spans="1:35">
       <c r="AG20" s="31"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
     </row>
-    <row r="21" spans="1:35" ht="42">
-      <c r="A21" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B21" s="7">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L21" s="7">
-        <v>5</v>
-      </c>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
+    <row r="21" spans="1:35">
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
     </row>
-    <row r="22" spans="1:35" ht="42">
-      <c r="A22" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B22" s="7">
-        <v>48</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="7">
-        <v>8</v>
-      </c>
+    <row r="22" spans="1:35">
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
       <c r="AI22" s="31"/>
     </row>
-    <row r="23" spans="1:35" ht="28">
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7">
-        <v>4</v>
-      </c>
+    <row r="23" spans="1:35">
       <c r="AG23" s="31"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
     </row>
-    <row r="24" spans="1:35" ht="14">
-      <c r="K24" s="7" t="s">
+    <row r="32" spans="1:35" ht="56">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+    </row>
+    <row r="33" spans="1:23" ht="42">
+      <c r="A33" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L33" s="7">
+        <v>5</v>
+      </c>
+      <c r="V33" s="31"/>
+      <c r="W33" s="32"/>
+    </row>
+    <row r="34" spans="1:23" ht="42">
+      <c r="A34" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L34" s="7">
+        <v>2</v>
+      </c>
+      <c r="V34" s="31"/>
+      <c r="W34" s="32"/>
+    </row>
+    <row r="35" spans="1:23" ht="56">
+      <c r="A35" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L35" s="7">
+        <v>5</v>
+      </c>
+      <c r="V35" s="31"/>
+      <c r="W35" s="32"/>
+    </row>
+    <row r="36" spans="1:23" ht="42">
+      <c r="A36" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" s="7">
+        <v>3</v>
+      </c>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+    </row>
+    <row r="37" spans="1:23" ht="42">
+      <c r="A37" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="7">
+        <v>53</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="42">
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="28">
+      <c r="K39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="14">
+      <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L40" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" ht="14">
-      <c r="K25" s="7" t="s">
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+    </row>
+    <row r="41" spans="1:23" ht="14">
+      <c r="K41" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L41" s="7">
         <v>8</v>
       </c>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-    </row>
-    <row r="26" spans="1:35" ht="28">
-      <c r="K26" s="7" t="s">
+      <c r="V41" s="31"/>
+      <c r="W41" s="32"/>
+    </row>
+    <row r="42" spans="1:23" ht="28">
+      <c r="K42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L42" s="7">
         <v>7</v>
       </c>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-    </row>
-    <row r="27" spans="1:35" ht="14">
-      <c r="K27" s="7" t="s">
+      <c r="V42" s="31"/>
+      <c r="W42" s="32"/>
+    </row>
+    <row r="43" spans="1:23" ht="14">
+      <c r="K43" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L43" s="7">
         <v>4</v>
       </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="32"/>
-    </row>
-    <row r="28" spans="1:35" ht="28">
-      <c r="K28" s="7" t="s">
+    </row>
+    <row r="44" spans="1:23" ht="28">
+      <c r="K44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L44" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="28">
-      <c r="K29" s="7" t="s">
+    <row r="45" spans="1:23" ht="28">
+      <c r="K45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L45" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="28">
-      <c r="K30" s="7" t="s">
+    <row r="46" spans="1:23" ht="28">
+      <c r="K46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L46" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="28">
-      <c r="K31" s="7" t="s">
+    <row r="47" spans="1:23" ht="28">
+      <c r="K47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L47" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="42">
-      <c r="K32" s="7" t="s">
+    <row r="48" spans="1:23" ht="42">
+      <c r="A48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L48" s="7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28">
-      <c r="A33" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8">
-        <v>43794</v>
-      </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8">
-        <v>43795</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8">
-        <v>43796</v>
-      </c>
-      <c r="B36" s="9">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8">
-        <v>43797</v>
-      </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8">
-        <v>43798</v>
-      </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="8">
-        <v>43799</v>
-      </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8">
-        <v>43800</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8">
-        <v>43801</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8">
-        <v>43802</v>
-      </c>
-      <c r="B42" s="9">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8">
-        <v>43803</v>
-      </c>
-      <c r="B43" s="9">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8">
-        <v>43804</v>
-      </c>
-      <c r="B44" s="9">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8">
-        <v>43805</v>
-      </c>
-      <c r="B45" s="9">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8">
-        <v>43806</v>
-      </c>
-      <c r="B46" s="9">
-        <v>0</v>
-      </c>
-      <c r="C46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8">
-        <v>43807</v>
-      </c>
-      <c r="B47" s="9">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="8">
-        <v>43808</v>
-      </c>
-      <c r="B48" s="9">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8">
-        <v>43809</v>
+        <v>43794</v>
       </c>
       <c r="B49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -12365,7 +12448,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8">
-        <v>43810</v>
+        <v>43795</v>
       </c>
       <c r="B50" s="9">
         <v>0</v>
@@ -12376,7 +12459,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8">
-        <v>43811</v>
+        <v>43796</v>
       </c>
       <c r="B51" s="9">
         <v>0</v>
@@ -12387,10 +12470,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8">
-        <v>43812</v>
+        <v>43797</v>
       </c>
       <c r="B52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -12398,10 +12481,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8">
-        <v>43813</v>
+        <v>43798</v>
       </c>
       <c r="B53" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -12409,7 +12492,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="8">
-        <v>43814</v>
+        <v>43799</v>
       </c>
       <c r="B54" s="9">
         <v>0</v>
@@ -12420,10 +12503,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8">
-        <v>43815</v>
+        <v>43800</v>
       </c>
       <c r="B55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -12431,7 +12514,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8">
-        <v>43816</v>
+        <v>43801</v>
       </c>
       <c r="B56" s="9">
         <v>0</v>
@@ -12442,7 +12525,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8">
-        <v>43817</v>
+        <v>43802</v>
       </c>
       <c r="B57" s="9">
         <v>0</v>
@@ -12453,7 +12536,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="8">
-        <v>43818</v>
+        <v>43803</v>
       </c>
       <c r="B58" s="9">
         <v>0</v>
@@ -12464,7 +12547,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8">
-        <v>43819</v>
+        <v>43804</v>
       </c>
       <c r="B59" s="9">
         <v>0</v>
@@ -12475,7 +12558,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8">
-        <v>43820</v>
+        <v>43805</v>
       </c>
       <c r="B60" s="9">
         <v>0</v>
@@ -12486,7 +12569,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="8">
-        <v>43821</v>
+        <v>43806</v>
       </c>
       <c r="B61" s="9">
         <v>0</v>
@@ -12497,7 +12580,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="8">
-        <v>43822</v>
+        <v>43807</v>
       </c>
       <c r="B62" s="9">
         <v>0</v>
@@ -12508,7 +12591,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="8">
-        <v>43823</v>
+        <v>43808</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -12519,7 +12602,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8">
-        <v>43824</v>
+        <v>43809</v>
       </c>
       <c r="B64" s="9">
         <v>0</v>
@@ -12530,7 +12613,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8">
-        <v>43825</v>
+        <v>43810</v>
       </c>
       <c r="B65" s="9">
         <v>0</v>
@@ -12541,7 +12624,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8">
-        <v>43826</v>
+        <v>43811</v>
       </c>
       <c r="B66" s="9">
         <v>0</v>
@@ -12552,7 +12635,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8">
-        <v>43827</v>
+        <v>43812</v>
       </c>
       <c r="B67" s="9">
         <v>0</v>
@@ -12563,10 +12646,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8">
-        <v>43828</v>
+        <v>43813</v>
       </c>
       <c r="B68" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -12574,7 +12657,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8">
-        <v>43829</v>
+        <v>43814</v>
       </c>
       <c r="B69" s="9">
         <v>0</v>
@@ -12585,10 +12668,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8">
-        <v>43830</v>
+        <v>43815</v>
       </c>
       <c r="B70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -12596,7 +12679,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8">
-        <v>43831</v>
+        <v>43816</v>
       </c>
       <c r="B71" s="9">
         <v>0</v>
@@ -12607,7 +12690,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8">
-        <v>43832</v>
+        <v>43817</v>
       </c>
       <c r="B72" s="9">
         <v>0</v>
@@ -12618,7 +12701,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8">
-        <v>43833</v>
+        <v>43818</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -12629,7 +12712,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8">
-        <v>43834</v>
+        <v>43819</v>
       </c>
       <c r="B74" s="9">
         <v>0</v>
@@ -12640,7 +12723,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8">
-        <v>43835</v>
+        <v>43820</v>
       </c>
       <c r="B75" s="9">
         <v>0</v>
@@ -12651,7 +12734,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8">
-        <v>43836</v>
+        <v>43821</v>
       </c>
       <c r="B76" s="9">
         <v>0</v>
@@ -12662,7 +12745,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8">
-        <v>43837</v>
+        <v>43822</v>
       </c>
       <c r="B77" s="9">
         <v>0</v>
@@ -12673,7 +12756,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8">
-        <v>43838</v>
+        <v>43823</v>
       </c>
       <c r="B78" s="9">
         <v>0</v>
@@ -12684,7 +12767,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8">
-        <v>43839</v>
+        <v>43824</v>
       </c>
       <c r="B79" s="9">
         <v>0</v>
@@ -12695,7 +12778,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8">
-        <v>43840</v>
+        <v>43825</v>
       </c>
       <c r="B80" s="9">
         <v>0</v>
@@ -12706,7 +12789,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8">
-        <v>43841</v>
+        <v>43826</v>
       </c>
       <c r="B81" s="9">
         <v>0</v>
@@ -12717,7 +12800,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="8">
-        <v>43842</v>
+        <v>43827</v>
       </c>
       <c r="B82" s="9">
         <v>0</v>
@@ -12728,7 +12811,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="8">
-        <v>43843</v>
+        <v>43828</v>
       </c>
       <c r="B83" s="9">
         <v>0</v>
@@ -12739,7 +12822,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8">
-        <v>43844</v>
+        <v>43829</v>
       </c>
       <c r="B84" s="9">
         <v>0</v>
@@ -12750,7 +12833,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8">
-        <v>43845</v>
+        <v>43830</v>
       </c>
       <c r="B85" s="9">
         <v>0</v>
@@ -12761,7 +12844,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8">
-        <v>43846</v>
+        <v>43831</v>
       </c>
       <c r="B86" s="9">
         <v>0</v>
@@ -12772,7 +12855,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8">
-        <v>43847</v>
+        <v>43832</v>
       </c>
       <c r="B87" s="9">
         <v>0</v>
@@ -12783,7 +12866,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8">
-        <v>43848</v>
+        <v>43833</v>
       </c>
       <c r="B88" s="9">
         <v>0</v>
@@ -12794,7 +12877,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8">
-        <v>43849</v>
+        <v>43834</v>
       </c>
       <c r="B89" s="9">
         <v>0</v>
@@ -12805,7 +12888,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8">
-        <v>43850</v>
+        <v>43835</v>
       </c>
       <c r="B90" s="9">
         <v>0</v>
@@ -12816,7 +12899,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8">
-        <v>43851</v>
+        <v>43836</v>
       </c>
       <c r="B91" s="9">
         <v>0</v>
@@ -12827,10 +12910,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8">
-        <v>43852</v>
+        <v>43837</v>
       </c>
       <c r="B92" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -12838,10 +12921,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8">
-        <v>43853</v>
+        <v>43838</v>
       </c>
       <c r="B93" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -12849,7 +12932,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8">
-        <v>43854</v>
+        <v>43839</v>
       </c>
       <c r="B94" s="9">
         <v>0</v>
@@ -12860,7 +12943,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8">
-        <v>43855</v>
+        <v>43840</v>
       </c>
       <c r="B95" s="9">
         <v>0</v>
@@ -12871,7 +12954,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="8">
-        <v>43856</v>
+        <v>43841</v>
       </c>
       <c r="B96" s="9">
         <v>0</v>
@@ -12882,29 +12965,29 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8">
-        <v>43857</v>
+        <v>43842</v>
       </c>
       <c r="B97" s="9">
         <v>0</v>
       </c>
       <c r="C97" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="8">
-        <v>43858</v>
+        <v>43843</v>
       </c>
       <c r="B98" s="9">
         <v>0</v>
       </c>
       <c r="C98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8">
-        <v>43859</v>
+        <v>43844</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -12915,7 +12998,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8">
-        <v>43860</v>
+        <v>43845</v>
       </c>
       <c r="B100" s="9">
         <v>0</v>
@@ -12926,18 +13009,18 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8">
-        <v>43861</v>
+        <v>43846</v>
       </c>
       <c r="B101" s="9">
         <v>0</v>
       </c>
       <c r="C101" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8">
-        <v>43862</v>
+        <v>43847</v>
       </c>
       <c r="B102" s="9">
         <v>0</v>
@@ -12948,7 +13031,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8">
-        <v>43863</v>
+        <v>43848</v>
       </c>
       <c r="B103" s="9">
         <v>0</v>
@@ -12959,7 +13042,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8">
-        <v>43864</v>
+        <v>43849</v>
       </c>
       <c r="B104" s="9">
         <v>0</v>
@@ -12970,7 +13053,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8">
-        <v>43865</v>
+        <v>43850</v>
       </c>
       <c r="B105" s="9">
         <v>0</v>
@@ -12981,7 +13064,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8">
-        <v>43866</v>
+        <v>43851</v>
       </c>
       <c r="B106" s="9">
         <v>0</v>
@@ -12992,10 +13075,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8">
-        <v>43867</v>
+        <v>43852</v>
       </c>
       <c r="B107" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -13003,10 +13086,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8">
-        <v>43868</v>
+        <v>43853</v>
       </c>
       <c r="B108" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -13014,7 +13097,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8">
-        <v>43869</v>
+        <v>43854</v>
       </c>
       <c r="B109" s="9">
         <v>0</v>
@@ -13025,7 +13108,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8">
-        <v>43870</v>
+        <v>43855</v>
       </c>
       <c r="B110" s="9">
         <v>0</v>
@@ -13036,7 +13119,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="8">
-        <v>43871</v>
+        <v>43856</v>
       </c>
       <c r="B111" s="9">
         <v>0</v>
@@ -13047,29 +13130,29 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8">
-        <v>43872</v>
+        <v>43857</v>
       </c>
       <c r="B112" s="9">
         <v>0</v>
       </c>
       <c r="C112" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8">
-        <v>43873</v>
+        <v>43858</v>
       </c>
       <c r="B113" s="9">
         <v>0</v>
       </c>
       <c r="C113" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8">
-        <v>43874</v>
+        <v>43859</v>
       </c>
       <c r="B114" s="9">
         <v>0</v>
@@ -13080,29 +13163,29 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="8">
-        <v>43875</v>
+        <v>43860</v>
       </c>
       <c r="B115" s="9">
         <v>0</v>
       </c>
       <c r="C115" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8">
-        <v>43876</v>
+        <v>43861</v>
       </c>
       <c r="B116" s="9">
         <v>0</v>
       </c>
       <c r="C116" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8">
-        <v>43877</v>
+        <v>43862</v>
       </c>
       <c r="B117" s="9">
         <v>0</v>
@@ -13113,18 +13196,18 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8">
-        <v>43878</v>
+        <v>43863</v>
       </c>
       <c r="B118" s="9">
         <v>0</v>
       </c>
       <c r="C118" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8">
-        <v>43879</v>
+        <v>43864</v>
       </c>
       <c r="B119" s="9">
         <v>0</v>
@@ -13135,7 +13218,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8">
-        <v>43880</v>
+        <v>43865</v>
       </c>
       <c r="B120" s="9">
         <v>0</v>
@@ -13146,7 +13229,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8">
-        <v>43881</v>
+        <v>43866</v>
       </c>
       <c r="B121" s="9">
         <v>0</v>
@@ -13157,7 +13240,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8">
-        <v>43882</v>
+        <v>43867</v>
       </c>
       <c r="B122" s="9">
         <v>0</v>
@@ -13168,7 +13251,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8">
-        <v>43883</v>
+        <v>43868</v>
       </c>
       <c r="B123" s="9">
         <v>0</v>
@@ -13179,7 +13262,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8">
-        <v>43884</v>
+        <v>43869</v>
       </c>
       <c r="B124" s="9">
         <v>0</v>
@@ -13190,7 +13273,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8">
-        <v>43885</v>
+        <v>43870</v>
       </c>
       <c r="B125" s="9">
         <v>0</v>
@@ -13201,7 +13284,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8">
-        <v>43886</v>
+        <v>43871</v>
       </c>
       <c r="B126" s="9">
         <v>0</v>
@@ -13212,10 +13295,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8">
-        <v>43887</v>
+        <v>43872</v>
       </c>
       <c r="B127" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -13223,7 +13306,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8">
-        <v>43888</v>
+        <v>43873</v>
       </c>
       <c r="B128" s="9">
         <v>0</v>
@@ -13234,7 +13317,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8">
-        <v>43889</v>
+        <v>43874</v>
       </c>
       <c r="B129" s="9">
         <v>0</v>
@@ -13245,29 +13328,29 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="8">
-        <v>43890</v>
+        <v>43875</v>
       </c>
       <c r="B130" s="9">
         <v>0</v>
       </c>
       <c r="C130" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="8">
-        <v>43891</v>
+        <v>43876</v>
       </c>
       <c r="B131" s="9">
         <v>0</v>
       </c>
       <c r="C131" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="8">
-        <v>43892</v>
+        <v>43877</v>
       </c>
       <c r="B132" s="9">
         <v>0</v>
@@ -13278,18 +13361,18 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8">
-        <v>43893</v>
+        <v>43878</v>
       </c>
       <c r="B133" s="9">
         <v>0</v>
       </c>
       <c r="C133" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="8">
-        <v>43894</v>
+        <v>43879</v>
       </c>
       <c r="B134" s="9">
         <v>0</v>
@@ -13300,7 +13383,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8">
-        <v>43895</v>
+        <v>43880</v>
       </c>
       <c r="B135" s="9">
         <v>0</v>
@@ -13311,7 +13394,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="8">
-        <v>43896</v>
+        <v>43881</v>
       </c>
       <c r="B136" s="9">
         <v>0</v>
@@ -13322,7 +13405,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="8">
-        <v>43897</v>
+        <v>43882</v>
       </c>
       <c r="B137" s="9">
         <v>0</v>
@@ -13333,7 +13416,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="8">
-        <v>43898</v>
+        <v>43883</v>
       </c>
       <c r="B138" s="9">
         <v>0</v>
@@ -13344,7 +13427,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="8">
-        <v>43899</v>
+        <v>43884</v>
       </c>
       <c r="B139" s="9">
         <v>0</v>
@@ -13355,7 +13438,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="8">
-        <v>43900</v>
+        <v>43885</v>
       </c>
       <c r="B140" s="9">
         <v>0</v>
@@ -13366,7 +13449,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="8">
-        <v>43901</v>
+        <v>43886</v>
       </c>
       <c r="B141" s="9">
         <v>0</v>
@@ -13377,10 +13460,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="8">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="B142" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -13388,7 +13471,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="8">
-        <v>43903</v>
+        <v>43888</v>
       </c>
       <c r="B143" s="9">
         <v>0</v>
@@ -13399,7 +13482,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="8">
-        <v>43904</v>
+        <v>43889</v>
       </c>
       <c r="B144" s="9">
         <v>0</v>
@@ -13410,7 +13493,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="8">
-        <v>43905</v>
+        <v>43890</v>
       </c>
       <c r="B145" s="9">
         <v>0</v>
@@ -13421,7 +13504,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="8">
-        <v>43906</v>
+        <v>43891</v>
       </c>
       <c r="B146" s="9">
         <v>0</v>
@@ -13432,7 +13515,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="8">
-        <v>43907</v>
+        <v>43892</v>
       </c>
       <c r="B147" s="9">
         <v>0</v>
@@ -13443,18 +13526,18 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="8">
-        <v>43908</v>
+        <v>43893</v>
       </c>
       <c r="B148" s="9">
         <v>0</v>
       </c>
       <c r="C148" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="8">
-        <v>43909</v>
+        <v>43894</v>
       </c>
       <c r="B149" s="9">
         <v>0</v>
@@ -13465,7 +13548,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="8">
-        <v>43910</v>
+        <v>43895</v>
       </c>
       <c r="B150" s="9">
         <v>0</v>
@@ -13476,7 +13559,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="8">
-        <v>43911</v>
+        <v>43896</v>
       </c>
       <c r="B151" s="9">
         <v>0</v>
@@ -13487,7 +13570,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="8">
-        <v>43912</v>
+        <v>43897</v>
       </c>
       <c r="B152" s="9">
         <v>0</v>
@@ -13498,7 +13581,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="8">
-        <v>43913</v>
+        <v>43898</v>
       </c>
       <c r="B153" s="9">
         <v>0</v>
@@ -13509,7 +13592,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="8">
-        <v>43914</v>
+        <v>43899</v>
       </c>
       <c r="B154" s="9">
         <v>0</v>
@@ -13520,7 +13603,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="8">
-        <v>43915</v>
+        <v>43900</v>
       </c>
       <c r="B155" s="9">
         <v>0</v>
@@ -13531,7 +13614,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="8">
-        <v>43916</v>
+        <v>43901</v>
       </c>
       <c r="B156" s="9">
         <v>0</v>
@@ -13542,7 +13625,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8">
-        <v>43917</v>
+        <v>43902</v>
       </c>
       <c r="B157" s="9">
         <v>0</v>
@@ -13553,7 +13636,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="8">
-        <v>43918</v>
+        <v>43903</v>
       </c>
       <c r="B158" s="9">
         <v>0</v>
@@ -13564,7 +13647,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="8">
-        <v>43919</v>
+        <v>43904</v>
       </c>
       <c r="B159" s="9">
         <v>0</v>
@@ -13575,7 +13658,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="8">
-        <v>43920</v>
+        <v>43905</v>
       </c>
       <c r="B160" s="9">
         <v>0</v>
@@ -13586,7 +13669,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="8">
-        <v>43921</v>
+        <v>43906</v>
       </c>
       <c r="B161" s="9">
         <v>0</v>
@@ -13597,29 +13680,29 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="8">
-        <v>43922</v>
+        <v>43907</v>
       </c>
       <c r="B162" s="9">
         <v>0</v>
       </c>
       <c r="C162" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="8">
-        <v>43923</v>
+        <v>43908</v>
       </c>
       <c r="B163" s="9">
         <v>0</v>
       </c>
       <c r="C163" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="8">
-        <v>43924</v>
+        <v>43909</v>
       </c>
       <c r="B164" s="9">
         <v>0</v>
@@ -13630,7 +13713,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="8">
-        <v>43925</v>
+        <v>43910</v>
       </c>
       <c r="B165" s="9">
         <v>0</v>
@@ -13641,7 +13724,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="8">
-        <v>43926</v>
+        <v>43911</v>
       </c>
       <c r="B166" s="9">
         <v>0</v>
@@ -13652,18 +13735,18 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="8">
-        <v>43927</v>
+        <v>43912</v>
       </c>
       <c r="B167" s="9">
         <v>0</v>
       </c>
       <c r="C167" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="8">
-        <v>43928</v>
+        <v>43913</v>
       </c>
       <c r="B168" s="9">
         <v>0</v>
@@ -13674,7 +13757,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="8">
-        <v>43929</v>
+        <v>43914</v>
       </c>
       <c r="B169" s="9">
         <v>0</v>
@@ -13685,7 +13768,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="8">
-        <v>43930</v>
+        <v>43915</v>
       </c>
       <c r="B170" s="9">
         <v>0</v>
@@ -13696,7 +13779,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="8">
-        <v>43931</v>
+        <v>43916</v>
       </c>
       <c r="B171" s="9">
         <v>0</v>
@@ -13707,7 +13790,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="8">
-        <v>43932</v>
+        <v>43917</v>
       </c>
       <c r="B172" s="9">
         <v>0</v>
@@ -13718,7 +13801,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="8">
-        <v>43933</v>
+        <v>43918</v>
       </c>
       <c r="B173" s="9">
         <v>0</v>
@@ -13729,7 +13812,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="8">
-        <v>43934</v>
+        <v>43919</v>
       </c>
       <c r="B174" s="9">
         <v>0</v>
@@ -13740,7 +13823,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="8">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="B175" s="9">
         <v>0</v>
@@ -13751,7 +13834,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="8">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="B176" s="9">
         <v>0</v>
@@ -13762,43 +13845,43 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8">
-        <v>43937</v>
+        <v>43922</v>
       </c>
       <c r="B177" s="9">
         <v>0</v>
       </c>
       <c r="C177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8">
-        <v>43938</v>
+        <v>43923</v>
       </c>
       <c r="B178" s="9">
         <v>0</v>
       </c>
       <c r="C178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="8">
-        <v>43939</v>
+        <v>43924</v>
       </c>
       <c r="B179" s="9">
         <v>0</v>
       </c>
       <c r="C179" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="8">
-        <v>43940</v>
+        <v>43925</v>
       </c>
       <c r="B180" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C180" s="9">
         <v>0</v>
@@ -13806,7 +13889,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="8">
-        <v>43941</v>
+        <v>43926</v>
       </c>
       <c r="B181" s="9">
         <v>0</v>
@@ -13817,18 +13900,18 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="8">
-        <v>43942</v>
+        <v>43927</v>
       </c>
       <c r="B182" s="9">
         <v>0</v>
       </c>
       <c r="C182" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="8">
-        <v>43943</v>
+        <v>43928</v>
       </c>
       <c r="B183" s="9">
         <v>0</v>
@@ -13839,7 +13922,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8">
-        <v>43944</v>
+        <v>43929</v>
       </c>
       <c r="B184" s="9">
         <v>0</v>
@@ -13850,7 +13933,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="8">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="B185" s="9">
         <v>0</v>
@@ -13861,7 +13944,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="8">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="B186" s="9">
         <v>0</v>
@@ -13872,7 +13955,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="8">
-        <v>43947</v>
+        <v>43932</v>
       </c>
       <c r="B187" s="9">
         <v>0</v>
@@ -13883,7 +13966,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="8">
-        <v>43948</v>
+        <v>43933</v>
       </c>
       <c r="B188" s="9">
         <v>0</v>
@@ -13894,7 +13977,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="8">
-        <v>43949</v>
+        <v>43934</v>
       </c>
       <c r="B189" s="9">
         <v>0</v>
@@ -13905,7 +13988,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="8">
-        <v>43950</v>
+        <v>43935</v>
       </c>
       <c r="B190" s="9">
         <v>0</v>
@@ -13916,7 +13999,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="8">
-        <v>43951</v>
+        <v>43936</v>
       </c>
       <c r="B191" s="9">
         <v>0</v>
@@ -13927,7 +14010,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="8">
-        <v>43952</v>
+        <v>43937</v>
       </c>
       <c r="B192" s="9">
         <v>0</v>
@@ -13938,183 +14021,183 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B193" s="9">
+        <v>0</v>
+      </c>
+      <c r="C193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="8">
+        <v>43939</v>
+      </c>
+      <c r="B194" s="9">
+        <v>0</v>
+      </c>
+      <c r="C194" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="8">
+        <v>43940</v>
+      </c>
+      <c r="B195" s="9">
+        <v>4</v>
+      </c>
+      <c r="C195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B196" s="9">
+        <v>0</v>
+      </c>
+      <c r="C196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="8">
+        <v>43942</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0</v>
+      </c>
+      <c r="C197" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B198" s="9">
+        <v>0</v>
+      </c>
+      <c r="C198" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="8">
+        <v>43944</v>
+      </c>
+      <c r="B199" s="9">
+        <v>0</v>
+      </c>
+      <c r="C199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="8">
+        <v>43945</v>
+      </c>
+      <c r="B200" s="9">
+        <v>0</v>
+      </c>
+      <c r="C200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="8">
+        <v>43946</v>
+      </c>
+      <c r="B201" s="9">
+        <v>0</v>
+      </c>
+      <c r="C201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="8">
+        <v>43947</v>
+      </c>
+      <c r="B202" s="9">
+        <v>0</v>
+      </c>
+      <c r="C202" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B203" s="9">
+        <v>0</v>
+      </c>
+      <c r="C203" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="8">
+        <v>43949</v>
+      </c>
+      <c r="B204" s="9">
+        <v>0</v>
+      </c>
+      <c r="C204" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="8">
+        <v>43950</v>
+      </c>
+      <c r="B205" s="9">
+        <v>0</v>
+      </c>
+      <c r="C205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B206" s="9">
+        <v>0</v>
+      </c>
+      <c r="C206" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="8">
+        <v>43952</v>
+      </c>
+      <c r="B207" s="9">
+        <v>0</v>
+      </c>
+      <c r="C207" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="8">
         <v>43953</v>
       </c>
-      <c r="B193" s="9">
-        <v>0</v>
-      </c>
-      <c r="C193" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="24">
-        <v>43954</v>
-      </c>
-      <c r="B194" s="25">
-        <v>0</v>
-      </c>
-      <c r="C194" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="24">
-        <v>43955</v>
-      </c>
-      <c r="B195" s="25">
-        <v>0</v>
-      </c>
-      <c r="C195" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="24">
-        <v>43956</v>
-      </c>
-      <c r="B196" s="25">
-        <v>0</v>
-      </c>
-      <c r="C196" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="24">
-        <v>43957</v>
-      </c>
-      <c r="B197" s="25">
-        <v>0</v>
-      </c>
-      <c r="C197" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="24">
-        <v>43958</v>
-      </c>
-      <c r="B198" s="25">
-        <v>0</v>
-      </c>
-      <c r="C198" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="24">
-        <v>43959</v>
-      </c>
-      <c r="B199" s="25">
-        <v>0</v>
-      </c>
-      <c r="C199" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="24">
-        <v>43960</v>
-      </c>
-      <c r="B200" s="25">
-        <v>0</v>
-      </c>
-      <c r="C200" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="24">
-        <v>43961</v>
-      </c>
-      <c r="B201" s="25">
-        <v>0</v>
-      </c>
-      <c r="C201" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="24">
-        <v>43962</v>
-      </c>
-      <c r="B202" s="25">
-        <v>0</v>
-      </c>
-      <c r="C202" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="24">
-        <v>43963</v>
-      </c>
-      <c r="B203" s="25">
-        <v>0</v>
-      </c>
-      <c r="C203" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="24">
-        <v>43964</v>
-      </c>
-      <c r="B204" s="25">
-        <v>2</v>
-      </c>
-      <c r="C204" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="24">
-        <v>43965</v>
-      </c>
-      <c r="B205" s="25">
-        <v>0</v>
-      </c>
-      <c r="C205" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="24">
-        <v>43966</v>
-      </c>
-      <c r="B206" s="25">
-        <v>0</v>
-      </c>
-      <c r="C206" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="24">
-        <v>43967</v>
-      </c>
-      <c r="B207" s="25">
-        <v>0</v>
-      </c>
-      <c r="C207" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="24">
-        <v>43968</v>
-      </c>
-      <c r="B208" s="25">
-        <v>0</v>
-      </c>
-      <c r="C208" s="25">
+      <c r="B208" s="9">
+        <v>0</v>
+      </c>
+      <c r="C208" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="24">
-        <v>43969</v>
+        <v>43954</v>
       </c>
       <c r="B209" s="25">
         <v>0</v>
@@ -14125,7 +14208,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="24">
-        <v>43970</v>
+        <v>43955</v>
       </c>
       <c r="B210" s="25">
         <v>0</v>
@@ -14136,29 +14219,29 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="24">
-        <v>43971</v>
+        <v>43956</v>
       </c>
       <c r="B211" s="25">
         <v>0</v>
       </c>
       <c r="C211" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="24">
-        <v>43972</v>
+        <v>43957</v>
       </c>
       <c r="B212" s="25">
         <v>0</v>
       </c>
       <c r="C212" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="24">
-        <v>43973</v>
+        <v>43958</v>
       </c>
       <c r="B213" s="25">
         <v>0</v>
@@ -14169,18 +14252,18 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="24">
-        <v>43974</v>
+        <v>43959</v>
       </c>
       <c r="B214" s="25">
         <v>0</v>
       </c>
       <c r="C214" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="24">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="B215" s="25">
         <v>0</v>
@@ -14191,7 +14274,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="24">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="B216" s="25">
         <v>0</v>
@@ -14202,7 +14285,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="24">
-        <v>43977</v>
+        <v>43962</v>
       </c>
       <c r="B217" s="25">
         <v>0</v>
@@ -14213,10 +14296,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="24">
-        <v>43978</v>
+        <v>43963</v>
       </c>
       <c r="B218" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C218" s="25">
         <v>0</v>
@@ -14224,10 +14307,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="24">
-        <v>43979</v>
+        <v>43964</v>
       </c>
       <c r="B219" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" s="25">
         <v>0</v>
@@ -14235,7 +14318,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="24">
-        <v>43980</v>
+        <v>43965</v>
       </c>
       <c r="B220" s="25">
         <v>0</v>
@@ -14246,10 +14329,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="24">
-        <v>43981</v>
+        <v>43966</v>
       </c>
       <c r="B221" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="25">
         <v>0</v>
@@ -14257,7 +14340,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="24">
-        <v>43982</v>
+        <v>43967</v>
       </c>
       <c r="B222" s="25">
         <v>0</v>
@@ -14268,7 +14351,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="24">
-        <v>43983</v>
+        <v>43968</v>
       </c>
       <c r="B223" s="25">
         <v>0</v>
@@ -14279,7 +14362,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="24">
-        <v>43984</v>
+        <v>43969</v>
       </c>
       <c r="B224" s="25">
         <v>0</v>
@@ -14290,7 +14373,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="24">
-        <v>43985</v>
+        <v>43970</v>
       </c>
       <c r="B225" s="25">
         <v>0</v>
@@ -14301,7 +14384,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="24">
-        <v>43986</v>
+        <v>43971</v>
       </c>
       <c r="B226" s="25">
         <v>0</v>
@@ -14312,7 +14395,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="24">
-        <v>43987</v>
+        <v>43972</v>
       </c>
       <c r="B227" s="25">
         <v>0</v>
@@ -14323,7 +14406,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="24">
-        <v>43988</v>
+        <v>43973</v>
       </c>
       <c r="B228" s="25">
         <v>0</v>
@@ -14334,7 +14417,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="24">
-        <v>43989</v>
+        <v>43974</v>
       </c>
       <c r="B229" s="25">
         <v>0</v>
@@ -14345,7 +14428,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="24">
-        <v>43990</v>
+        <v>43975</v>
       </c>
       <c r="B230" s="25">
         <v>0</v>
@@ -14356,7 +14439,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="24">
-        <v>43991</v>
+        <v>43976</v>
       </c>
       <c r="B231" s="25">
         <v>0</v>
@@ -14367,7 +14450,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="24">
-        <v>43992</v>
+        <v>43977</v>
       </c>
       <c r="B232" s="25">
         <v>0</v>
@@ -14378,10 +14461,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="24">
-        <v>43993</v>
+        <v>43978</v>
       </c>
       <c r="B233" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C233" s="25">
         <v>0</v>
@@ -14389,10 +14472,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="24">
-        <v>43994</v>
+        <v>43979</v>
       </c>
       <c r="B234" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" s="25">
         <v>0</v>
@@ -14400,7 +14483,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="24">
-        <v>43995</v>
+        <v>43980</v>
       </c>
       <c r="B235" s="25">
         <v>0</v>
@@ -14411,10 +14494,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="24">
-        <v>43996</v>
+        <v>43981</v>
       </c>
       <c r="B236" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" s="25">
         <v>0</v>
@@ -14422,7 +14505,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="24">
-        <v>43997</v>
+        <v>43982</v>
       </c>
       <c r="B237" s="25">
         <v>0</v>
@@ -14433,7 +14516,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="24">
-        <v>43998</v>
+        <v>43983</v>
       </c>
       <c r="B238" s="25">
         <v>0</v>
@@ -14444,7 +14527,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="24">
-        <v>43999</v>
+        <v>43984</v>
       </c>
       <c r="B239" s="25">
         <v>0</v>
@@ -14455,7 +14538,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="24">
-        <v>44000</v>
+        <v>43985</v>
       </c>
       <c r="B240" s="25">
         <v>0</v>
@@ -14466,7 +14549,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="24">
-        <v>44001</v>
+        <v>43986</v>
       </c>
       <c r="B241" s="25">
         <v>0</v>
@@ -14477,7 +14560,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="24">
-        <v>44002</v>
+        <v>43987</v>
       </c>
       <c r="B242" s="25">
         <v>0</v>
@@ -14488,7 +14571,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="24">
-        <v>44003</v>
+        <v>43988</v>
       </c>
       <c r="B243" s="25">
         <v>0</v>
@@ -14499,7 +14582,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="24">
-        <v>44004</v>
+        <v>43989</v>
       </c>
       <c r="B244" s="25">
         <v>0</v>
@@ -14510,7 +14593,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="24">
-        <v>44005</v>
+        <v>43990</v>
       </c>
       <c r="B245" s="25">
         <v>0</v>
@@ -14521,7 +14604,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="24">
-        <v>44006</v>
+        <v>43991</v>
       </c>
       <c r="B246" s="25">
         <v>0</v>
@@ -14532,7 +14615,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="24">
-        <v>44007</v>
+        <v>43992</v>
       </c>
       <c r="B247" s="25">
         <v>0</v>
@@ -14543,7 +14626,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="24">
-        <v>44008</v>
+        <v>43993</v>
       </c>
       <c r="B248" s="25">
         <v>0</v>
@@ -14554,7 +14637,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="24">
-        <v>44009</v>
+        <v>43994</v>
       </c>
       <c r="B249" s="25">
         <v>0</v>
@@ -14565,7 +14648,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="24">
-        <v>44010</v>
+        <v>43995</v>
       </c>
       <c r="B250" s="25">
         <v>0</v>
@@ -14576,18 +14659,18 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="24">
-        <v>44011</v>
+        <v>43996</v>
       </c>
       <c r="B251" s="25">
         <v>0</v>
       </c>
       <c r="C251" s="25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="24">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="B252" s="25">
         <v>0</v>
@@ -14598,7 +14681,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="24">
-        <v>44013</v>
+        <v>43998</v>
       </c>
       <c r="B253" s="25">
         <v>0</v>
@@ -14609,10 +14692,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="24">
-        <v>44014</v>
+        <v>43999</v>
       </c>
       <c r="B254" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C254" s="25">
         <v>0</v>
@@ -14620,10 +14703,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="24">
-        <v>44015</v>
+        <v>44000</v>
       </c>
       <c r="B255" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C255" s="25">
         <v>0</v>
@@ -14631,10 +14714,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="24">
-        <v>44016</v>
+        <v>44001</v>
       </c>
       <c r="B256" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C256" s="25">
         <v>0</v>
@@ -14642,7 +14725,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="24">
-        <v>44017</v>
+        <v>44002</v>
       </c>
       <c r="B257" s="25">
         <v>0</v>
@@ -14653,7 +14736,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="24">
-        <v>44018</v>
+        <v>44003</v>
       </c>
       <c r="B258" s="25">
         <v>0</v>
@@ -14664,7 +14747,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="24">
-        <v>44019</v>
+        <v>44004</v>
       </c>
       <c r="B259" s="25">
         <v>0</v>
@@ -14675,7 +14758,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="24">
-        <v>44020</v>
+        <v>44005</v>
       </c>
       <c r="B260" s="25">
         <v>0</v>
@@ -14686,7 +14769,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="24">
-        <v>44021</v>
+        <v>44006</v>
       </c>
       <c r="B261" s="25">
         <v>0</v>
@@ -14697,7 +14780,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="24">
-        <v>44022</v>
+        <v>44007</v>
       </c>
       <c r="B262" s="25">
         <v>0</v>
@@ -14708,7 +14791,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="24">
-        <v>44023</v>
+        <v>44008</v>
       </c>
       <c r="B263" s="25">
         <v>0</v>
@@ -14719,7 +14802,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="24">
-        <v>44024</v>
+        <v>44009</v>
       </c>
       <c r="B264" s="25">
         <v>0</v>
@@ -14730,7 +14813,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="24">
-        <v>44025</v>
+        <v>44010</v>
       </c>
       <c r="B265" s="25">
         <v>0</v>
@@ -14741,18 +14824,18 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="24">
-        <v>44026</v>
+        <v>44011</v>
       </c>
       <c r="B266" s="25">
         <v>0</v>
       </c>
       <c r="C266" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="24">
-        <v>44027</v>
+        <v>44012</v>
       </c>
       <c r="B267" s="25">
         <v>0</v>
@@ -14763,7 +14846,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="24">
-        <v>44028</v>
+        <v>44013</v>
       </c>
       <c r="B268" s="25">
         <v>0</v>
@@ -14774,10 +14857,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="24">
-        <v>44029</v>
+        <v>44014</v>
       </c>
       <c r="B269" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C269" s="25">
         <v>0</v>
@@ -14785,10 +14868,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="24">
-        <v>44030</v>
+        <v>44015</v>
       </c>
       <c r="B270" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C270" s="25">
         <v>0</v>
@@ -14796,23 +14879,188 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="24">
+        <v>44016</v>
+      </c>
+      <c r="B271" s="25">
+        <v>6</v>
+      </c>
+      <c r="C271" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="24">
+        <v>44017</v>
+      </c>
+      <c r="B272" s="25">
+        <v>0</v>
+      </c>
+      <c r="C272" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="24">
+        <v>44018</v>
+      </c>
+      <c r="B273" s="25">
+        <v>0</v>
+      </c>
+      <c r="C273" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="24">
+        <v>44019</v>
+      </c>
+      <c r="B274" s="25">
+        <v>0</v>
+      </c>
+      <c r="C274" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="24">
+        <v>44020</v>
+      </c>
+      <c r="B275" s="25">
+        <v>0</v>
+      </c>
+      <c r="C275" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="24">
+        <v>44021</v>
+      </c>
+      <c r="B276" s="25">
+        <v>0</v>
+      </c>
+      <c r="C276" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="24">
+        <v>44022</v>
+      </c>
+      <c r="B277" s="25">
+        <v>0</v>
+      </c>
+      <c r="C277" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="24">
+        <v>44023</v>
+      </c>
+      <c r="B278" s="25">
+        <v>0</v>
+      </c>
+      <c r="C278" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="24">
+        <v>44024</v>
+      </c>
+      <c r="B279" s="25">
+        <v>0</v>
+      </c>
+      <c r="C279" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="24">
+        <v>44025</v>
+      </c>
+      <c r="B280" s="25">
+        <v>0</v>
+      </c>
+      <c r="C280" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="24">
+        <v>44026</v>
+      </c>
+      <c r="B281" s="25">
+        <v>0</v>
+      </c>
+      <c r="C281" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="24">
+        <v>44027</v>
+      </c>
+      <c r="B282" s="25">
+        <v>0</v>
+      </c>
+      <c r="C282" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="24">
+        <v>44028</v>
+      </c>
+      <c r="B283" s="25">
+        <v>0</v>
+      </c>
+      <c r="C283" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="24">
+        <v>44029</v>
+      </c>
+      <c r="B284" s="25">
+        <v>0</v>
+      </c>
+      <c r="C284" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="24">
+        <v>44030</v>
+      </c>
+      <c r="B285" s="25">
+        <v>0</v>
+      </c>
+      <c r="C285" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="24">
         <v>44031</v>
       </c>
-      <c r="B271" s="25">
-        <v>0</v>
-      </c>
-      <c r="C271" s="25">
+      <c r="B286" s="25">
+        <v>0</v>
+      </c>
+      <c r="C286" s="25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K17:L27" xr:uid="{591065A4-CD1B-7B44-91AD-0C9D61807EC3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K18:L32">
-      <sortCondition ref="K17:K32"/>
+  <autoFilter ref="K32:L42" xr:uid="{591065A4-CD1B-7B44-91AD-0C9D61807EC3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K33:L48">
+      <sortCondition ref="K32:K48"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B23">
-    <sortCondition ref="B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:B38">
+    <sortCondition ref="B32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14821,11 +15069,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL76"/>
+  <dimension ref="A1:IL81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W76" sqref="W76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
@@ -20347,6 +20595,349 @@
       </c>
       <c r="AB76" s="3">
         <v>44017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="90" customHeight="1">
+      <c r="A77" s="5">
+        <v>34</v>
+      </c>
+      <c r="B77" s="5">
+        <v>68</v>
+      </c>
+      <c r="C77" s="5">
+        <v>59</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P77" s="1">
+        <v>1</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y77" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="90" customHeight="1">
+      <c r="A78" s="5">
+        <v>34</v>
+      </c>
+      <c r="B78" s="5">
+        <v>69</v>
+      </c>
+      <c r="C78" s="5">
+        <v>60</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y78" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="90" customHeight="1">
+      <c r="A79" s="5">
+        <v>34</v>
+      </c>
+      <c r="B79" s="5">
+        <v>70</v>
+      </c>
+      <c r="C79" s="5">
+        <v>61</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y79" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="90" customHeight="1">
+      <c r="A80" s="5">
+        <v>34</v>
+      </c>
+      <c r="B80" s="5">
+        <v>71</v>
+      </c>
+      <c r="C80" s="5">
+        <v>62</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y80" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="90" customHeight="1">
+      <c r="A81" s="5">
+        <v>34</v>
+      </c>
+      <c r="B81" s="5">
+        <v>72</v>
+      </c>
+      <c r="C81" s="5">
+        <v>63</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <v>1</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y81" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>44023</v>
       </c>
     </row>
   </sheetData>
@@ -20556,6 +21147,21 @@
     <hyperlink ref="Y71" r:id="rId201" xr:uid="{357DD4C2-EADE-6949-8A7D-8A1195BAB8CF}"/>
     <hyperlink ref="G76" r:id="rId202" xr:uid="{420E69B2-DD92-214A-97C2-F92799ADB795}"/>
     <hyperlink ref="H76" r:id="rId203" xr:uid="{22A00F31-E2B1-9E43-BE35-ED6C34EE46D4}"/>
+    <hyperlink ref="Y81" r:id="rId204" xr:uid="{4C1E2310-10DC-1F46-BE22-BC38C8BC027A}"/>
+    <hyperlink ref="Y79" r:id="rId205" xr:uid="{E72F8F02-6FD2-FA49-9F36-1F5F7EC7139A}"/>
+    <hyperlink ref="G77" r:id="rId206" xr:uid="{BB34EA85-5DAB-9F42-AEAB-BB29CA7864A3}"/>
+    <hyperlink ref="H77" r:id="rId207" xr:uid="{2CB51C20-4F92-914C-AA2A-4EAAF0316146}"/>
+    <hyperlink ref="G78" r:id="rId208" xr:uid="{F2390CE6-93A9-764D-AAFA-D7D6FEEE107F}"/>
+    <hyperlink ref="G79" r:id="rId209" xr:uid="{BC0C21DC-E603-634A-9BFD-3257E3E53835}"/>
+    <hyperlink ref="G80" r:id="rId210" xr:uid="{419B6804-4E04-7F49-8E10-3698FA58D8AF}"/>
+    <hyperlink ref="G81" r:id="rId211" xr:uid="{AE284992-CED8-2744-8AF2-9807E279BC9F}"/>
+    <hyperlink ref="H78" r:id="rId212" xr:uid="{DCE215AE-B711-534F-84CA-2DE0CEE5D648}"/>
+    <hyperlink ref="H79" r:id="rId213" xr:uid="{60571ED6-3911-2847-A9A6-1DF70715F3AB}"/>
+    <hyperlink ref="H80" r:id="rId214" xr:uid="{FAC8EF36-871D-1A4D-8C66-0B90D5C62144}"/>
+    <hyperlink ref="H81" r:id="rId215" xr:uid="{40B8B2AB-01F0-D348-BCCA-7CC1E34FD88E}"/>
+    <hyperlink ref="Y80" r:id="rId216" xr:uid="{92563367-DF2C-AE46-88A8-326329B59C8E}"/>
+    <hyperlink ref="Y78" r:id="rId217" xr:uid="{38C99C2C-688D-6540-8E7F-5C986A27A2AE}"/>
+    <hyperlink ref="Y77" r:id="rId218" xr:uid="{F4473198-1AE8-0947-9E03-9C29599D2A46}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkx/Google Drive/POFMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D8D07-2019-024C-AA90-C00394D54819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD44D42-C42E-B74C-9006-2ED228B38242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="25320" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$AB$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$K$32:$L$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$AC$63:$AD$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="443">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -829,9 +829,6 @@
     <t>Regarding non-compliance in Communication 2</t>
   </si>
   <si>
-    <t>Minister in charge of the People's Association</t>
-  </si>
-  <si>
     <t>Minister</t>
   </si>
   <si>
@@ -1851,12 +1848,6 @@
     <t>Reporting / resharing of SDP claims</t>
   </si>
   <si>
-    <t>Alternate Authority for Minister of National Development</t>
-  </si>
-  <si>
-    <t>Alternate Authority for Minister of Education</t>
-  </si>
-  <si>
     <t>Communications Subject to POFMA uses</t>
   </si>
   <si>
@@ -1953,7 +1944,94 @@
     <t>"The NUSS forum video, TOC’s Facebook post and videos, CNA online article and New Naratif audio recording featured the following claims by Dr Paul Tambyah (…)"</t>
   </si>
   <si>
-    <t>Alternate Authority for Minister for Manpower</t>
+    <t>Alternate Authority for Minister for Manpower (Aubeck Kam)</t>
+  </si>
+  <si>
+    <t>Alternate Authority for Minister of National Development (Ow Foong Pheng)</t>
+  </si>
+  <si>
+    <t>Minister for Communications and Information (S Iswaran)</t>
+  </si>
+  <si>
+    <t>Minister for Education (Ong Ye Kung)</t>
+  </si>
+  <si>
+    <t>Minister for Finance (Heng Swee Keat)</t>
+  </si>
+  <si>
+    <t>Minister for Health (Gan Kim Yong)</t>
+  </si>
+  <si>
+    <t>Minister for Home Affairs (K Shanmugam)</t>
+  </si>
+  <si>
+    <t>Minister for Law (K Shanmugam)</t>
+  </si>
+  <si>
+    <t>Minister for Manpower (Josephine Teo)</t>
+  </si>
+  <si>
+    <t>Minister for National Development (Lawrence Wong)</t>
+  </si>
+  <si>
+    <t>Minister for Trade and Industry (Chan Chun Sing)</t>
+  </si>
+  <si>
+    <t>Minister for Transport (Khaw Boon Wan)</t>
+  </si>
+  <si>
+    <t>Minister in charge of the People's Association (Chan Chung Sing)</t>
+  </si>
+  <si>
+    <t>Alternate Authority for Minister of Education (Lai Chung Han)</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister for Foreign Affairs (Chee Wee Kiong)</t>
+  </si>
+  <si>
+    <t>Alternate Authority for the Minister in PMO (NPTD) (Leo Yip)</t>
+  </si>
+  <si>
+    <t>S Iswaran (Minister for Communications and Information)</t>
+  </si>
+  <si>
+    <t>Ong Ye Kung (Minister for Education)</t>
+  </si>
+  <si>
+    <t>Heng Swee Keat (Minister for Finance)</t>
+  </si>
+  <si>
+    <t>Gan Kim Yong (Minister for Health)</t>
+  </si>
+  <si>
+    <t>K Shanmugam (Minister for Home Affairs and Minister for Law)</t>
+  </si>
+  <si>
+    <t>Josephine Teo (Minister for Manpower)</t>
+  </si>
+  <si>
+    <t>Lawrence Wong (Minister for National Development)</t>
+  </si>
+  <si>
+    <t>Chan Chun Sing (Minister for Trade and Industry and Minister in charge of the PA)</t>
+  </si>
+  <si>
+    <t>Khaw Boon Wan (Minister for Transport)</t>
+  </si>
+  <si>
+    <t>Perm Sec Aubeck Kam (Alternate Authority for Minister for Manpower)</t>
+  </si>
+  <si>
+    <t>Perm Sec Chee Wee Kiong (Alternate Authority for the Minister for Foreign Affairs)</t>
+  </si>
+  <si>
+    <t>Perm Sec Lai Chung Han (Alternate Authority for Minister of Education)</t>
+  </si>
+  <si>
+    <t>Perm Sec Leo Yip (Alternate Authority for the Minister in PMO (NPTD))</t>
+  </si>
+  <si>
+    <t>Perm Sec Ow Foong Pheng (Alternate Authority for Minister of National Development)</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2093,7 +2171,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2163,16 +2241,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,12 +2277,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -3380,7 +3516,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -5609,7 +5745,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
@@ -5887,7 +6023,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6389,10 +6525,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6714,52 +6850,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Alternate Authority for Minister for Manpower</c:v>
+                  <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Alternate Authority for Minister of Education</c:v>
+                  <c:v>Alternate Authority for Minister of Education (Lai Chung Han)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alternate Authority for Minister of National Development</c:v>
+                  <c:v>Alternate Authority for Minister of National Development (Ow Foong Pheng)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Alternate Authority for the Minister for Foreign Affairs</c:v>
+                  <c:v>Alternate Authority for the Minister for Foreign Affairs (Chee Wee Kiong)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Alternate Authority for the Minister in PMO (NPTD)</c:v>
+                  <c:v>Alternate Authority for the Minister in PMO (NPTD) (Leo Yip)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Minister for Communications and Information</c:v>
+                  <c:v>Minister for Communications and Information (S Iswaran)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Minister for Education</c:v>
+                  <c:v>Minister for Education (Ong Ye Kung)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Minister for Finance</c:v>
+                  <c:v>Minister for Finance (Heng Swee Keat)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Minister for Health</c:v>
+                  <c:v>Minister for Health (Gan Kim Yong)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Minister for Home Affairs</c:v>
+                  <c:v>Minister for Home Affairs (K Shanmugam)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Minister for Law</c:v>
+                  <c:v>Minister for Law (K Shanmugam)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Minister for Manpower</c:v>
+                  <c:v>Minister for Manpower (Josephine Teo)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Minister for National Development</c:v>
+                  <c:v>Minister for National Development (Lawrence Wong)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Minister for Trade and Industry</c:v>
+                  <c:v>Minister for Trade and Industry (Chan Chun Sing)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Minister for Transport</c:v>
+                  <c:v>Minister for Transport (Khaw Boon Wan)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Minister in charge of the People's Association</c:v>
+                  <c:v>Minister in charge of the People's Association (Chan Chung Sing)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6807,7 +6943,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -6846,6 +6982,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7306,6 +7453,371 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$AD$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of POFMA Uses requested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$AC$46:$AC$59</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Perm Sec Lai Chung Han (Alternate Authority for Minister of Education)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perm Sec Chee Wee Kiong (Alternate Authority for the Minister for Foreign Affairs)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perm Sec Aubeck Kam (Alternate Authority for Minister for Manpower)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perm Sec Leo Yip (Alternate Authority for the Minister in PMO (NPTD))</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Perm Sec Ow Foong Pheng (Alternate Authority for Minister of National Development)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Khaw Boon Wan (Minister for Transport)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lawrence Wong (Minister for National Development)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ong Ye Kung (Minister for Education)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chan Chun Sing (Minister for Trade and Industry and Minister in charge of the PA)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Heng Swee Keat (Minister for Finance)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Josephine Teo (Minister for Manpower)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gan Kim Yong (Minister for Health)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>S Iswaran (Minister for Communications and Information)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>K Shanmugam (Minister for Home Affairs and Minister for Law)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$AD$46:$AD$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34BA-CD45-9F78-D20529D79432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="312264288"/>
+        <c:axId val="312428944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312264288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312428944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312428944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="312264288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -7529,6 +8041,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10622,6 +11174,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10701,13 +11758,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>26308</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23587</xdr:rowOff>
+      <xdr:rowOff>23586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>239889</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10737,13 +11794,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>288571</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
+      <xdr:rowOff>141113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>471714</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>141111</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10773,13 +11830,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>139698</xdr:rowOff>
+      <xdr:rowOff>139697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>564444</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>417285</xdr:rowOff>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10835,6 +11892,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286F84E7-DC65-F844-BD99-65D5591C694A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11917,48 +13012,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN286"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L48"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:C286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="70">
+    <row r="2" spans="1:40" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AN2" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="28">
+    </row>
+    <row r="3" spans="1:40" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>43770</v>
       </c>
@@ -11981,18 +13077,18 @@
         <v>48</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM3" s="7">
         <f>SUM(B3:B11)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AN3" s="7">
         <f>SUM(C3:C11)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14">
+    <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>43800</v>
       </c>
@@ -12014,11 +13110,11 @@
       <c r="Z4" s="9">
         <v>10</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-    </row>
-    <row r="5" spans="1:40" ht="28">
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+    </row>
+    <row r="5" spans="1:40" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>43831</v>
       </c>
@@ -12035,22 +13131,21 @@
         <v>12</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z5" s="9">
         <v>2</v>
       </c>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-    </row>
-    <row r="6" spans="1:40" ht="14">
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+    </row>
+    <row r="6" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>43862</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(B117:B145)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7">
         <f>SUM(C117:C145)</f>
@@ -12058,19 +13153,19 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z6" s="9">
         <v>3</v>
       </c>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-    </row>
-    <row r="7" spans="1:40" ht="56">
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+    </row>
+    <row r="7" spans="1:40" ht="56" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>43891</v>
       </c>
@@ -12086,18 +13181,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Y7" s="36" t="s">
-        <v>390</v>
+      <c r="Y7" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="Z7" s="9">
         <f>SUM(Z3:Z6)</f>
         <v>63</v>
       </c>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>43922</v>
       </c>
@@ -12112,13 +13207,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>43952</v>
       </c>
@@ -12132,13 +13227,13 @@
         <f>SUM(B9:C9)</f>
         <v>12</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>43983</v>
       </c>
@@ -12152,13 +13247,13 @@
         <f>SUM(B10:C10)</f>
         <v>3</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>44013</v>
       </c>
@@ -12172,270 +13267,294 @@
         <f>B11+C11</f>
         <v>17</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-    </row>
-    <row r="17" spans="1:35">
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-    </row>
-    <row r="32" spans="1:35" ht="56">
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+    </row>
+    <row r="32" spans="1:35" ht="56" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-    </row>
-    <row r="33" spans="1:23" ht="42">
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B33" s="7">
+        <v>389</v>
+      </c>
+      <c r="B33" s="9">
         <v>1</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L33" s="7">
         <v>5</v>
       </c>
-      <c r="V33" s="31"/>
-      <c r="W33" s="32"/>
-    </row>
-    <row r="34" spans="1:23" ht="42">
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
+    </row>
+    <row r="34" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B34" s="7">
+        <v>392</v>
+      </c>
+      <c r="B34" s="9">
         <v>4</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="L34" s="7">
         <v>2</v>
       </c>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
-    </row>
-    <row r="35" spans="1:23" ht="56">
+      <c r="V34" s="29"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B35" s="7">
+        <v>391</v>
+      </c>
+      <c r="B35" s="9">
         <v>4</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="L35" s="7">
         <v>5</v>
       </c>
-      <c r="V35" s="31"/>
-      <c r="W35" s="32"/>
-    </row>
-    <row r="36" spans="1:23" ht="42">
+      <c r="V35" s="29"/>
+      <c r="W35" s="30"/>
+    </row>
+    <row r="36" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B36" s="7">
-        <v>10</v>
+        <v>390</v>
+      </c>
+      <c r="B36" s="9">
+        <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="L36" s="7">
         <v>3</v>
       </c>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-    </row>
-    <row r="37" spans="1:23" ht="42">
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+    </row>
+    <row r="37" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="7">
-        <v>53</v>
+        <v>388</v>
+      </c>
+      <c r="B37" s="9">
+        <v>51</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="L37" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="42">
+    <row r="38" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="K38" s="7" t="s">
-        <v>31</v>
+        <v>415</v>
       </c>
       <c r="L38" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="28">
+    <row r="39" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K39" s="7" t="s">
-        <v>23</v>
+        <v>416</v>
       </c>
       <c r="L39" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14">
+    <row r="40" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="L40" s="7">
         <v>6</v>
       </c>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-    </row>
-    <row r="41" spans="1:23" ht="14">
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="L41" s="7">
         <v>8</v>
       </c>
-      <c r="V41" s="31"/>
-      <c r="W41" s="32"/>
-    </row>
-    <row r="42" spans="1:23" ht="28">
+      <c r="V41" s="29"/>
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K42" s="7" t="s">
-        <v>14</v>
+        <v>419</v>
       </c>
       <c r="L42" s="7">
         <v>7</v>
       </c>
-      <c r="V42" s="31"/>
-      <c r="W42" s="32"/>
-    </row>
-    <row r="43" spans="1:23" ht="14">
+      <c r="V42" s="29"/>
+      <c r="W42" s="30"/>
+    </row>
+    <row r="43" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K43" s="7" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="L43" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="28">
+    <row r="44" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K44" s="7" t="s">
-        <v>19</v>
+        <v>421</v>
       </c>
       <c r="L44" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="28">
+    <row r="45" spans="1:30" ht="56" x14ac:dyDescent="0.15">
       <c r="K45" s="7" t="s">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="L45" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="28">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="K46" s="7" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="L46" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="28">
+      <c r="AC46" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="K47" s="7" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="42">
+      <c r="AC47" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>177</v>
+        <v>425</v>
       </c>
       <c r="L48" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="AC48" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>43794</v>
       </c>
@@ -12445,8 +13564,14 @@
       <c r="C49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="AC49" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD49" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="56" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <v>43795</v>
       </c>
@@ -12456,8 +13581,14 @@
       <c r="C50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="AC50" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>43796</v>
       </c>
@@ -12467,8 +13598,14 @@
       <c r="C51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="AC51" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <v>43797</v>
       </c>
@@ -12478,8 +13615,14 @@
       <c r="C52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="AC52" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>43798</v>
       </c>
@@ -12489,8 +13632,14 @@
       <c r="C53" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="AC53" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="56" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <v>43799</v>
       </c>
@@ -12500,8 +13649,14 @@
       <c r="C54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="AC54" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <v>43800</v>
       </c>
@@ -12511,8 +13666,14 @@
       <c r="C55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="AC55" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD55" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <v>43801</v>
       </c>
@@ -12522,8 +13683,14 @@
       <c r="C56" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="AC56" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
         <v>43802</v>
       </c>
@@ -12533,8 +13700,14 @@
       <c r="C57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="AC57" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
         <v>43803</v>
       </c>
@@ -12544,8 +13717,14 @@
       <c r="C58" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="AC58" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD58" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="42" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>43804</v>
       </c>
@@ -12555,8 +13734,14 @@
       <c r="C59" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="AC59" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <v>43805</v>
       </c>
@@ -12566,8 +13751,10 @@
       <c r="C60" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>43806</v>
       </c>
@@ -12577,8 +13764,10 @@
       <c r="C61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>43807</v>
       </c>
@@ -12588,8 +13777,10 @@
       <c r="C62" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>43808</v>
       </c>
@@ -12599,8 +13790,10 @@
       <c r="C63" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <v>43809</v>
       </c>
@@ -12610,8 +13803,10 @@
       <c r="C64" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <v>43810</v>
       </c>
@@ -12621,8 +13816,10 @@
       <c r="C65" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <v>43811</v>
       </c>
@@ -12632,8 +13829,10 @@
       <c r="C66" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>43812</v>
       </c>
@@ -12643,8 +13842,10 @@
       <c r="C67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A68" s="8">
         <v>43813</v>
       </c>
@@ -12654,8 +13855,10 @@
       <c r="C68" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A69" s="8">
         <v>43814</v>
       </c>
@@ -12666,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
         <v>43815</v>
       </c>
@@ -12677,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
         <v>43816</v>
       </c>
@@ -12688,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A72" s="8">
         <v>43817</v>
       </c>
@@ -12699,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <v>43818</v>
       </c>
@@ -12710,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
         <v>43819</v>
       </c>
@@ -12721,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <v>43820</v>
       </c>
@@ -12732,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
         <v>43821</v>
       </c>
@@ -12743,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
         <v>43822</v>
       </c>
@@ -12754,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
         <v>43823</v>
       </c>
@@ -12765,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <v>43824</v>
       </c>
@@ -12776,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <v>43825</v>
       </c>
@@ -12787,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <v>43826</v>
       </c>
@@ -12798,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
         <v>43827</v>
       </c>
@@ -12809,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <v>43828</v>
       </c>
@@ -12820,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <v>43829</v>
       </c>
@@ -12831,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <v>43830</v>
       </c>
@@ -12842,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="8">
         <v>43831</v>
       </c>
@@ -12853,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
         <v>43832</v>
       </c>
@@ -12864,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="8">
         <v>43833</v>
       </c>
@@ -12875,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="8">
         <v>43834</v>
       </c>
@@ -12886,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>43835</v>
       </c>
@@ -12897,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="8">
         <v>43836</v>
       </c>
@@ -12908,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="8">
         <v>43837</v>
       </c>
@@ -12919,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
         <v>43838</v>
       </c>
@@ -12930,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="8">
         <v>43839</v>
       </c>
@@ -12941,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="8">
         <v>43840</v>
       </c>
@@ -12952,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>43841</v>
       </c>
@@ -12963,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="8">
         <v>43842</v>
       </c>
@@ -12974,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="8">
         <v>43843</v>
       </c>
@@ -12985,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="8">
         <v>43844</v>
       </c>
@@ -12996,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="8">
         <v>43845</v>
       </c>
@@ -13007,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="8">
         <v>43846</v>
       </c>
@@ -13018,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="8">
         <v>43847</v>
       </c>
@@ -13029,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="8">
         <v>43848</v>
       </c>
@@ -13040,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="8">
         <v>43849</v>
       </c>
@@ -13051,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="8">
         <v>43850</v>
       </c>
@@ -13062,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="8">
         <v>43851</v>
       </c>
@@ -13073,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="8">
         <v>43852</v>
       </c>
@@ -13084,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="8">
         <v>43853</v>
       </c>
@@ -13095,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="8">
         <v>43854</v>
       </c>
@@ -13106,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="8">
         <v>43855</v>
       </c>
@@ -13117,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="8">
         <v>43856</v>
       </c>
@@ -13128,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="8">
         <v>43857</v>
       </c>
@@ -13139,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="8">
         <v>43858</v>
       </c>
@@ -13150,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="8">
         <v>43859</v>
       </c>
@@ -13161,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="8">
         <v>43860</v>
       </c>
@@ -13172,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="8">
         <v>43861</v>
       </c>
@@ -13183,7 +14386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>43862</v>
       </c>
@@ -13194,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="8">
         <v>43863</v>
       </c>
@@ -13205,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>43864</v>
       </c>
@@ -13216,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="8">
         <v>43865</v>
       </c>
@@ -13227,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>43866</v>
       </c>
@@ -13238,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="8">
         <v>43867</v>
       </c>
@@ -13249,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="8">
         <v>43868</v>
       </c>
@@ -13260,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="8">
         <v>43869</v>
       </c>
@@ -13271,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
         <v>43870</v>
       </c>
@@ -13282,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="8">
         <v>43871</v>
       </c>
@@ -13293,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="8">
         <v>43872</v>
       </c>
@@ -13304,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="8">
         <v>43873</v>
       </c>
@@ -13315,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="8">
         <v>43874</v>
       </c>
@@ -13326,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="8">
         <v>43875</v>
       </c>
@@ -13337,7 +14540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="8">
         <v>43876</v>
       </c>
@@ -13348,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="8">
         <v>43877</v>
       </c>
@@ -13359,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="8">
         <v>43878</v>
       </c>
@@ -13370,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="8">
         <v>43879</v>
       </c>
@@ -13381,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="8">
         <v>43880</v>
       </c>
@@ -13392,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="8">
         <v>43881</v>
       </c>
@@ -13403,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="8">
         <v>43882</v>
       </c>
@@ -13414,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="8">
         <v>43883</v>
       </c>
@@ -13425,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="8">
         <v>43884</v>
       </c>
@@ -13436,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="8">
         <v>43885</v>
       </c>
@@ -13447,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="8">
         <v>43886</v>
       </c>
@@ -13458,18 +14661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="8">
         <v>43887</v>
       </c>
       <c r="B142" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="8">
         <v>43888</v>
       </c>
@@ -13480,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="8">
         <v>43889</v>
       </c>
@@ -13491,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="8">
         <v>43890</v>
       </c>
@@ -13502,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="8">
         <v>43891</v>
       </c>
@@ -13513,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="8">
         <v>43892</v>
       </c>
@@ -13524,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="8">
         <v>43893</v>
       </c>
@@ -13535,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="8">
         <v>43894</v>
       </c>
@@ -13546,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="8">
         <v>43895</v>
       </c>
@@ -13557,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="8">
         <v>43896</v>
       </c>
@@ -13568,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="8">
         <v>43897</v>
       </c>
@@ -13579,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="8">
         <v>43898</v>
       </c>
@@ -13590,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="8">
         <v>43899</v>
       </c>
@@ -13601,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="8">
         <v>43900</v>
       </c>
@@ -13612,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="8">
         <v>43901</v>
       </c>
@@ -13623,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="8">
         <v>43902</v>
       </c>
@@ -13634,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="8">
         <v>43903</v>
       </c>
@@ -13645,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="8">
         <v>43904</v>
       </c>
@@ -13656,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="8">
         <v>43905</v>
       </c>
@@ -13667,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="8">
         <v>43906</v>
       </c>
@@ -13678,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="8">
         <v>43907</v>
       </c>
@@ -13689,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="8">
         <v>43908</v>
       </c>
@@ -13700,7 +14903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="8">
         <v>43909</v>
       </c>
@@ -13711,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="8">
         <v>43910</v>
       </c>
@@ -13722,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="8">
         <v>43911</v>
       </c>
@@ -13733,7 +14936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="8">
         <v>43912</v>
       </c>
@@ -13744,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="8">
         <v>43913</v>
       </c>
@@ -13755,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="8">
         <v>43914</v>
       </c>
@@ -13766,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="8">
         <v>43915</v>
       </c>
@@ -13777,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="8">
         <v>43916</v>
       </c>
@@ -13788,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="8">
         <v>43917</v>
       </c>
@@ -13799,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="8">
         <v>43918</v>
       </c>
@@ -13810,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="8">
         <v>43919</v>
       </c>
@@ -13821,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="8">
         <v>43920</v>
       </c>
@@ -13832,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="8">
         <v>43921</v>
       </c>
@@ -13843,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="8">
         <v>43922</v>
       </c>
@@ -13854,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="8">
         <v>43923</v>
       </c>
@@ -13865,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="8">
         <v>43924</v>
       </c>
@@ -13876,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="8">
         <v>43925</v>
       </c>
@@ -13887,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="8">
         <v>43926</v>
       </c>
@@ -13898,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="8">
         <v>43927</v>
       </c>
@@ -13909,7 +15112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="8">
         <v>43928</v>
       </c>
@@ -13920,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="8">
         <v>43929</v>
       </c>
@@ -13931,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="8">
         <v>43930</v>
       </c>
@@ -13942,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="8">
         <v>43931</v>
       </c>
@@ -13953,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="8">
         <v>43932</v>
       </c>
@@ -13964,7 +15167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="8">
         <v>43933</v>
       </c>
@@ -13975,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="8">
         <v>43934</v>
       </c>
@@ -13986,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="8">
         <v>43935</v>
       </c>
@@ -13997,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="8">
         <v>43936</v>
       </c>
@@ -14008,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="8">
         <v>43937</v>
       </c>
@@ -14019,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="8">
         <v>43938</v>
       </c>
@@ -14030,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="8">
         <v>43939</v>
       </c>
@@ -14041,7 +15244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="8">
         <v>43940</v>
       </c>
@@ -14052,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="8">
         <v>43941</v>
       </c>
@@ -14063,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="8">
         <v>43942</v>
       </c>
@@ -14074,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="8">
         <v>43943</v>
       </c>
@@ -14085,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="8">
         <v>43944</v>
       </c>
@@ -14096,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="8">
         <v>43945</v>
       </c>
@@ -14107,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="8">
         <v>43946</v>
       </c>
@@ -14118,7 +15321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="8">
         <v>43947</v>
       </c>
@@ -14129,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="8">
         <v>43948</v>
       </c>
@@ -14140,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="8">
         <v>43949</v>
       </c>
@@ -14151,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="8">
         <v>43950</v>
       </c>
@@ -14162,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="8">
         <v>43951</v>
       </c>
@@ -14173,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="8">
         <v>43952</v>
       </c>
@@ -14184,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="8">
         <v>43953</v>
       </c>
@@ -14195,872 +15398,867 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="24">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="23">
         <v>43954</v>
       </c>
-      <c r="B209" s="25">
-        <v>0</v>
-      </c>
-      <c r="C209" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="24">
+      <c r="B209" s="24">
+        <v>0</v>
+      </c>
+      <c r="C209" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="23">
         <v>43955</v>
       </c>
-      <c r="B210" s="25">
-        <v>0</v>
-      </c>
-      <c r="C210" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="24">
+      <c r="B210" s="24">
+        <v>0</v>
+      </c>
+      <c r="C210" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="23">
         <v>43956</v>
       </c>
-      <c r="B211" s="25">
-        <v>0</v>
-      </c>
-      <c r="C211" s="25">
+      <c r="B211" s="24">
+        <v>0</v>
+      </c>
+      <c r="C211" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="24">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="23">
         <v>43957</v>
       </c>
-      <c r="B212" s="25">
-        <v>0</v>
-      </c>
-      <c r="C212" s="25">
+      <c r="B212" s="24">
+        <v>0</v>
+      </c>
+      <c r="C212" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="24">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="23">
         <v>43958</v>
       </c>
-      <c r="B213" s="25">
-        <v>0</v>
-      </c>
-      <c r="C213" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="24">
+      <c r="B213" s="24">
+        <v>0</v>
+      </c>
+      <c r="C213" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="23">
         <v>43959</v>
       </c>
-      <c r="B214" s="25">
-        <v>0</v>
-      </c>
-      <c r="C214" s="25">
+      <c r="B214" s="24">
+        <v>0</v>
+      </c>
+      <c r="C214" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="24">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="23">
         <v>43960</v>
       </c>
-      <c r="B215" s="25">
-        <v>0</v>
-      </c>
-      <c r="C215" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="24">
+      <c r="B215" s="24">
+        <v>0</v>
+      </c>
+      <c r="C215" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="23">
         <v>43961</v>
       </c>
-      <c r="B216" s="25">
-        <v>0</v>
-      </c>
-      <c r="C216" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="24">
+      <c r="B216" s="24">
+        <v>0</v>
+      </c>
+      <c r="C216" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="23">
         <v>43962</v>
       </c>
-      <c r="B217" s="25">
-        <v>0</v>
-      </c>
-      <c r="C217" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="24">
+      <c r="B217" s="24">
+        <v>0</v>
+      </c>
+      <c r="C217" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="23">
         <v>43963</v>
       </c>
-      <c r="B218" s="25">
-        <v>0</v>
-      </c>
-      <c r="C218" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="24">
+      <c r="B218" s="24">
+        <v>0</v>
+      </c>
+      <c r="C218" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="23">
         <v>43964</v>
       </c>
-      <c r="B219" s="25">
+      <c r="B219" s="24">
         <v>2</v>
       </c>
-      <c r="C219" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="24">
+      <c r="C219" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="23">
         <v>43965</v>
       </c>
-      <c r="B220" s="25">
-        <v>0</v>
-      </c>
-      <c r="C220" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="24">
+      <c r="B220" s="24">
+        <v>0</v>
+      </c>
+      <c r="C220" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="23">
         <v>43966</v>
       </c>
-      <c r="B221" s="25">
-        <v>0</v>
-      </c>
-      <c r="C221" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="24">
+      <c r="B221" s="24">
+        <v>0</v>
+      </c>
+      <c r="C221" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="23">
         <v>43967</v>
       </c>
-      <c r="B222" s="25">
-        <v>0</v>
-      </c>
-      <c r="C222" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="24">
+      <c r="B222" s="24">
+        <v>0</v>
+      </c>
+      <c r="C222" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="23">
         <v>43968</v>
       </c>
-      <c r="B223" s="25">
-        <v>0</v>
-      </c>
-      <c r="C223" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="24">
+      <c r="B223" s="24">
+        <v>0</v>
+      </c>
+      <c r="C223" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="23">
         <v>43969</v>
       </c>
-      <c r="B224" s="25">
-        <v>0</v>
-      </c>
-      <c r="C224" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="24">
+      <c r="B224" s="24">
+        <v>0</v>
+      </c>
+      <c r="C224" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="23">
         <v>43970</v>
       </c>
-      <c r="B225" s="25">
-        <v>0</v>
-      </c>
-      <c r="C225" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="24">
+      <c r="B225" s="24">
+        <v>0</v>
+      </c>
+      <c r="C225" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="23">
         <v>43971</v>
       </c>
-      <c r="B226" s="25">
-        <v>0</v>
-      </c>
-      <c r="C226" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="24">
+      <c r="B226" s="24">
+        <v>0</v>
+      </c>
+      <c r="C226" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="23">
         <v>43972</v>
       </c>
-      <c r="B227" s="25">
-        <v>0</v>
-      </c>
-      <c r="C227" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="24">
+      <c r="B227" s="24">
+        <v>0</v>
+      </c>
+      <c r="C227" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="23">
         <v>43973</v>
       </c>
-      <c r="B228" s="25">
-        <v>0</v>
-      </c>
-      <c r="C228" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="24">
+      <c r="B228" s="24">
+        <v>0</v>
+      </c>
+      <c r="C228" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="23">
         <v>43974</v>
       </c>
-      <c r="B229" s="25">
-        <v>0</v>
-      </c>
-      <c r="C229" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="24">
+      <c r="B229" s="24">
+        <v>0</v>
+      </c>
+      <c r="C229" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="23">
         <v>43975</v>
       </c>
-      <c r="B230" s="25">
-        <v>0</v>
-      </c>
-      <c r="C230" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="24">
+      <c r="B230" s="24">
+        <v>0</v>
+      </c>
+      <c r="C230" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="23">
         <v>43976</v>
       </c>
-      <c r="B231" s="25">
-        <v>0</v>
-      </c>
-      <c r="C231" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="24">
+      <c r="B231" s="24">
+        <v>0</v>
+      </c>
+      <c r="C231" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="23">
         <v>43977</v>
       </c>
-      <c r="B232" s="25">
-        <v>0</v>
-      </c>
-      <c r="C232" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="24">
+      <c r="B232" s="24">
+        <v>0</v>
+      </c>
+      <c r="C232" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="23">
         <v>43978</v>
       </c>
-      <c r="B233" s="25">
+      <c r="B233" s="24">
         <v>2</v>
       </c>
-      <c r="C233" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="24">
+      <c r="C233" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="23">
         <v>43979</v>
       </c>
-      <c r="B234" s="25">
+      <c r="B234" s="24">
         <v>1</v>
       </c>
-      <c r="C234" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="24">
+      <c r="C234" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="23">
         <v>43980</v>
       </c>
-      <c r="B235" s="25">
-        <v>0</v>
-      </c>
-      <c r="C235" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="24">
+      <c r="B235" s="24">
+        <v>0</v>
+      </c>
+      <c r="C235" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="23">
         <v>43981</v>
       </c>
-      <c r="B236" s="25">
+      <c r="B236" s="24">
         <v>1</v>
       </c>
-      <c r="C236" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="24">
+      <c r="C236" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="23">
         <v>43982</v>
       </c>
-      <c r="B237" s="25">
-        <v>0</v>
-      </c>
-      <c r="C237" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="24">
+      <c r="B237" s="24">
+        <v>0</v>
+      </c>
+      <c r="C237" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="23">
         <v>43983</v>
       </c>
-      <c r="B238" s="25">
-        <v>0</v>
-      </c>
-      <c r="C238" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="24">
+      <c r="B238" s="24">
+        <v>0</v>
+      </c>
+      <c r="C238" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="23">
         <v>43984</v>
       </c>
-      <c r="B239" s="25">
-        <v>0</v>
-      </c>
-      <c r="C239" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="24">
+      <c r="B239" s="24">
+        <v>0</v>
+      </c>
+      <c r="C239" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="23">
         <v>43985</v>
       </c>
-      <c r="B240" s="25">
-        <v>0</v>
-      </c>
-      <c r="C240" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="24">
+      <c r="B240" s="24">
+        <v>0</v>
+      </c>
+      <c r="C240" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="23">
         <v>43986</v>
       </c>
-      <c r="B241" s="25">
-        <v>0</v>
-      </c>
-      <c r="C241" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="24">
+      <c r="B241" s="24">
+        <v>0</v>
+      </c>
+      <c r="C241" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="23">
         <v>43987</v>
       </c>
-      <c r="B242" s="25">
-        <v>0</v>
-      </c>
-      <c r="C242" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="24">
+      <c r="B242" s="24">
+        <v>0</v>
+      </c>
+      <c r="C242" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="23">
         <v>43988</v>
       </c>
-      <c r="B243" s="25">
-        <v>0</v>
-      </c>
-      <c r="C243" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="24">
+      <c r="B243" s="24">
+        <v>0</v>
+      </c>
+      <c r="C243" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="23">
         <v>43989</v>
       </c>
-      <c r="B244" s="25">
-        <v>0</v>
-      </c>
-      <c r="C244" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="24">
+      <c r="B244" s="24">
+        <v>0</v>
+      </c>
+      <c r="C244" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="23">
         <v>43990</v>
       </c>
-      <c r="B245" s="25">
-        <v>0</v>
-      </c>
-      <c r="C245" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="24">
+      <c r="B245" s="24">
+        <v>0</v>
+      </c>
+      <c r="C245" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="23">
         <v>43991</v>
       </c>
-      <c r="B246" s="25">
-        <v>0</v>
-      </c>
-      <c r="C246" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="24">
+      <c r="B246" s="24">
+        <v>0</v>
+      </c>
+      <c r="C246" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="23">
         <v>43992</v>
       </c>
-      <c r="B247" s="25">
-        <v>0</v>
-      </c>
-      <c r="C247" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="24">
+      <c r="B247" s="24">
+        <v>0</v>
+      </c>
+      <c r="C247" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="23">
         <v>43993</v>
       </c>
-      <c r="B248" s="25">
-        <v>0</v>
-      </c>
-      <c r="C248" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="24">
+      <c r="B248" s="24">
+        <v>0</v>
+      </c>
+      <c r="C248" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="23">
         <v>43994</v>
       </c>
-      <c r="B249" s="25">
-        <v>0</v>
-      </c>
-      <c r="C249" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="24">
+      <c r="B249" s="24">
+        <v>0</v>
+      </c>
+      <c r="C249" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="23">
         <v>43995</v>
       </c>
-      <c r="B250" s="25">
-        <v>0</v>
-      </c>
-      <c r="C250" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="24">
+      <c r="B250" s="24">
+        <v>0</v>
+      </c>
+      <c r="C250" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="23">
         <v>43996</v>
       </c>
-      <c r="B251" s="25">
-        <v>0</v>
-      </c>
-      <c r="C251" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="24">
+      <c r="B251" s="24">
+        <v>0</v>
+      </c>
+      <c r="C251" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="23">
         <v>43997</v>
       </c>
-      <c r="B252" s="25">
-        <v>0</v>
-      </c>
-      <c r="C252" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="24">
+      <c r="B252" s="24">
+        <v>0</v>
+      </c>
+      <c r="C252" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="23">
         <v>43998</v>
       </c>
-      <c r="B253" s="25">
-        <v>0</v>
-      </c>
-      <c r="C253" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="24">
+      <c r="B253" s="24">
+        <v>0</v>
+      </c>
+      <c r="C253" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="23">
         <v>43999</v>
       </c>
-      <c r="B254" s="25">
-        <v>0</v>
-      </c>
-      <c r="C254" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="24">
+      <c r="B254" s="24">
+        <v>0</v>
+      </c>
+      <c r="C254" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="23">
         <v>44000</v>
       </c>
-      <c r="B255" s="25">
-        <v>0</v>
-      </c>
-      <c r="C255" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="24">
+      <c r="B255" s="24">
+        <v>0</v>
+      </c>
+      <c r="C255" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="23">
         <v>44001</v>
       </c>
-      <c r="B256" s="25">
-        <v>0</v>
-      </c>
-      <c r="C256" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="24">
+      <c r="B256" s="24">
+        <v>0</v>
+      </c>
+      <c r="C256" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="23">
         <v>44002</v>
       </c>
-      <c r="B257" s="25">
-        <v>0</v>
-      </c>
-      <c r="C257" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="24">
+      <c r="B257" s="24">
+        <v>0</v>
+      </c>
+      <c r="C257" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="23">
         <v>44003</v>
       </c>
-      <c r="B258" s="25">
-        <v>0</v>
-      </c>
-      <c r="C258" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="24">
+      <c r="B258" s="24">
+        <v>0</v>
+      </c>
+      <c r="C258" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="23">
         <v>44004</v>
       </c>
-      <c r="B259" s="25">
-        <v>0</v>
-      </c>
-      <c r="C259" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="24">
+      <c r="B259" s="24">
+        <v>0</v>
+      </c>
+      <c r="C259" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="23">
         <v>44005</v>
       </c>
-      <c r="B260" s="25">
-        <v>0</v>
-      </c>
-      <c r="C260" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="24">
+      <c r="B260" s="24">
+        <v>0</v>
+      </c>
+      <c r="C260" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="23">
         <v>44006</v>
       </c>
-      <c r="B261" s="25">
-        <v>0</v>
-      </c>
-      <c r="C261" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="24">
+      <c r="B261" s="24">
+        <v>0</v>
+      </c>
+      <c r="C261" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="23">
         <v>44007</v>
       </c>
-      <c r="B262" s="25">
-        <v>0</v>
-      </c>
-      <c r="C262" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="24">
+      <c r="B262" s="24">
+        <v>0</v>
+      </c>
+      <c r="C262" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="23">
         <v>44008</v>
       </c>
-      <c r="B263" s="25">
-        <v>0</v>
-      </c>
-      <c r="C263" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="24">
+      <c r="B263" s="24">
+        <v>0</v>
+      </c>
+      <c r="C263" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="23">
         <v>44009</v>
       </c>
-      <c r="B264" s="25">
-        <v>0</v>
-      </c>
-      <c r="C264" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="24">
+      <c r="B264" s="24">
+        <v>0</v>
+      </c>
+      <c r="C264" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="23">
         <v>44010</v>
       </c>
-      <c r="B265" s="25">
-        <v>0</v>
-      </c>
-      <c r="C265" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="24">
+      <c r="B265" s="24">
+        <v>0</v>
+      </c>
+      <c r="C265" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="23">
         <v>44011</v>
       </c>
-      <c r="B266" s="25">
-        <v>0</v>
-      </c>
-      <c r="C266" s="25">
+      <c r="B266" s="24">
+        <v>0</v>
+      </c>
+      <c r="C266" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="24">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="23">
         <v>44012</v>
       </c>
-      <c r="B267" s="25">
-        <v>0</v>
-      </c>
-      <c r="C267" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="24">
+      <c r="B267" s="24">
+        <v>0</v>
+      </c>
+      <c r="C267" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="23">
         <v>44013</v>
       </c>
-      <c r="B268" s="25">
-        <v>0</v>
-      </c>
-      <c r="C268" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="24">
+      <c r="B268" s="24">
+        <v>0</v>
+      </c>
+      <c r="C268" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="23">
         <v>44014</v>
       </c>
-      <c r="B269" s="25">
+      <c r="B269" s="24">
         <v>2</v>
       </c>
-      <c r="C269" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="24">
+      <c r="C269" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="23">
         <v>44015</v>
       </c>
-      <c r="B270" s="25">
+      <c r="B270" s="24">
         <v>4</v>
       </c>
-      <c r="C270" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="24">
+      <c r="C270" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="23">
         <v>44016</v>
       </c>
-      <c r="B271" s="25">
+      <c r="B271" s="24">
         <v>6</v>
       </c>
-      <c r="C271" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="24">
+      <c r="C271" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="23">
         <v>44017</v>
       </c>
-      <c r="B272" s="25">
-        <v>0</v>
-      </c>
-      <c r="C272" s="25">
+      <c r="B272" s="24">
+        <v>0</v>
+      </c>
+      <c r="C272" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="24">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="23">
         <v>44018</v>
       </c>
-      <c r="B273" s="25">
-        <v>0</v>
-      </c>
-      <c r="C273" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="24">
+      <c r="B273" s="24">
+        <v>0</v>
+      </c>
+      <c r="C273" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="23">
         <v>44019</v>
       </c>
-      <c r="B274" s="25">
-        <v>0</v>
-      </c>
-      <c r="C274" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="24">
+      <c r="B274" s="24">
+        <v>0</v>
+      </c>
+      <c r="C274" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="23">
         <v>44020</v>
       </c>
-      <c r="B275" s="25">
-        <v>0</v>
-      </c>
-      <c r="C275" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="24">
+      <c r="B275" s="24">
+        <v>0</v>
+      </c>
+      <c r="C275" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="23">
         <v>44021</v>
       </c>
-      <c r="B276" s="25">
-        <v>0</v>
-      </c>
-      <c r="C276" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="24">
+      <c r="B276" s="24">
+        <v>0</v>
+      </c>
+      <c r="C276" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="23">
         <v>44022</v>
       </c>
-      <c r="B277" s="25">
-        <v>0</v>
-      </c>
-      <c r="C277" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="24">
+      <c r="B277" s="24">
+        <v>0</v>
+      </c>
+      <c r="C277" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="23">
         <v>44023</v>
       </c>
-      <c r="B278" s="25">
-        <v>0</v>
-      </c>
-      <c r="C278" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="24">
+      <c r="B278" s="24">
+        <v>0</v>
+      </c>
+      <c r="C278" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="23">
         <v>44024</v>
       </c>
-      <c r="B279" s="25">
-        <v>0</v>
-      </c>
-      <c r="C279" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="24">
+      <c r="B279" s="24">
+        <v>0</v>
+      </c>
+      <c r="C279" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="23">
         <v>44025</v>
       </c>
-      <c r="B280" s="25">
-        <v>0</v>
-      </c>
-      <c r="C280" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="24">
+      <c r="B280" s="24">
+        <v>0</v>
+      </c>
+      <c r="C280" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="23">
         <v>44026</v>
       </c>
-      <c r="B281" s="25">
-        <v>0</v>
-      </c>
-      <c r="C281" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="24">
+      <c r="B281" s="24">
+        <v>0</v>
+      </c>
+      <c r="C281" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="23">
         <v>44027</v>
       </c>
-      <c r="B282" s="25">
-        <v>0</v>
-      </c>
-      <c r="C282" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="24">
+      <c r="B282" s="24">
+        <v>0</v>
+      </c>
+      <c r="C282" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="23">
         <v>44028</v>
       </c>
-      <c r="B283" s="25">
-        <v>0</v>
-      </c>
-      <c r="C283" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="24">
+      <c r="B283" s="24">
+        <v>0</v>
+      </c>
+      <c r="C283" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="23">
         <v>44029</v>
       </c>
-      <c r="B284" s="25">
-        <v>0</v>
-      </c>
-      <c r="C284" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="24">
+      <c r="B284" s="24">
+        <v>0</v>
+      </c>
+      <c r="C284" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="23">
         <v>44030</v>
       </c>
-      <c r="B285" s="25">
-        <v>0</v>
-      </c>
-      <c r="C285" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="24">
+      <c r="B285" s="24">
+        <v>0</v>
+      </c>
+      <c r="C285" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="23">
         <v>44031</v>
       </c>
-      <c r="B286" s="25">
-        <v>0</v>
-      </c>
-      <c r="C286" s="25">
+      <c r="B286" s="24">
+        <v>0</v>
+      </c>
+      <c r="C286" s="24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K32:L42" xr:uid="{591065A4-CD1B-7B44-91AD-0C9D61807EC3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K33:L48">
-      <sortCondition ref="K32:K48"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:B38">
-    <sortCondition ref="B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC46:AD59">
+    <sortCondition ref="AC45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15071,16 +16269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IL81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.33203125" style="5"/>
     <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
     <col min="6" max="27" width="16.33203125" style="1" customWidth="1"/>
     <col min="28" max="28" width="16.33203125" style="3" customWidth="1"/>
@@ -15088,7 +16286,7 @@
     <col min="247" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="50" customHeight="1">
+    <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
@@ -15099,7 +16297,7 @@
         <v>114</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>0</v>
@@ -15126,25 +16324,25 @@
         <v>5</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="28" t="s">
         <v>320</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>321</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>7</v>
@@ -15153,7 +16351,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>111</v>
@@ -15171,10 +16369,10 @@
         <v>153</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="90" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -15184,8 +16382,8 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>276</v>
+      <c r="D2" s="25" t="s">
+        <v>275</v>
       </c>
       <c r="E2" s="16">
         <v>43794</v>
@@ -15194,10 +16392,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>11</v>
@@ -15250,7 +16448,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="90" customHeight="1">
+    <row r="3" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -15260,8 +16458,8 @@
       <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>259</v>
+      <c r="D3" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="E3" s="16">
         <v>43797</v>
@@ -15270,10 +16468,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>14</v>
@@ -15319,7 +16517,7 @@
         <v>159</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA3" s="17" t="s">
         <v>66</v>
@@ -15328,7 +16526,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" customHeight="1">
+    <row r="4" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -15338,8 +16536,8 @@
       <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>259</v>
+      <c r="D4" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="E4" s="16">
         <v>43798</v>
@@ -15348,10 +16546,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -15404,7 +16602,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="90" customHeight="1">
+    <row r="5" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -15414,8 +16612,8 @@
       <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>251</v>
+      <c r="D5" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="E5" s="16">
         <v>43813</v>
@@ -15424,10 +16622,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>19</v>
@@ -15478,7 +16676,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="90" customHeight="1">
+    <row r="6" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -15488,8 +16686,8 @@
       <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>252</v>
+      <c r="D6" s="25" t="s">
+        <v>251</v>
       </c>
       <c r="E6" s="16">
         <v>43813</v>
@@ -15498,10 +16696,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>19</v>
@@ -15552,7 +16750,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="90" customHeight="1">
+    <row r="7" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -15562,8 +16760,8 @@
       <c r="C7" s="15">
         <v>5</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>277</v>
+      <c r="D7" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="E7" s="16">
         <v>43813</v>
@@ -15572,10 +16770,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>19</v>
@@ -15626,7 +16824,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="90" customHeight="1">
+    <row r="8" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -15636,8 +16834,8 @@
       <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>263</v>
+      <c r="D8" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="E8" s="16">
         <v>43815</v>
@@ -15646,10 +16844,10 @@
         <v>22</v>
       </c>
       <c r="G8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>23</v>
@@ -15704,7 +16902,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="90" customHeight="1">
+    <row r="9" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -15714,8 +16912,8 @@
       <c r="C9" s="15">
         <v>7</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>262</v>
+      <c r="D9" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E9" s="16">
         <v>43815</v>
@@ -15724,10 +16922,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>23</v>
@@ -15780,7 +16978,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="90" customHeight="1">
+    <row r="10" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -15790,8 +16988,8 @@
       <c r="C10" s="15">
         <v>8</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>280</v>
+      <c r="D10" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="E10" s="16">
         <v>43852</v>
@@ -15800,10 +16998,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>14</v>
@@ -15845,7 +17043,7 @@
         <v>72</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA10" s="17" t="s">
         <v>100</v>
@@ -15854,7 +17052,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="90" customHeight="1">
+    <row r="11" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -15864,8 +17062,8 @@
       <c r="C11" s="15">
         <v>9</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>278</v>
+      <c r="D11" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="E11" s="16">
         <v>43852</v>
@@ -15874,10 +17072,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>14</v>
@@ -15930,7 +17128,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="90" customHeight="1">
+    <row r="12" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -15940,8 +17138,8 @@
       <c r="C12" s="15">
         <v>10</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>261</v>
+      <c r="D12" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="E12" s="16">
         <v>43852</v>
@@ -15950,10 +17148,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>14</v>
@@ -16004,7 +17202,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="90" customHeight="1">
+    <row r="13" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>6</v>
       </c>
@@ -16014,8 +17212,8 @@
       <c r="C13" s="15">
         <v>11</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>279</v>
+      <c r="D13" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="E13" s="16">
         <v>43852</v>
@@ -16024,10 +17222,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>14</v>
@@ -16078,7 +17276,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="90" customHeight="1">
+    <row r="14" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -16088,8 +17286,8 @@
       <c r="C14" s="15">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>253</v>
+      <c r="D14" s="25" t="s">
+        <v>252</v>
       </c>
       <c r="E14" s="16">
         <v>43853</v>
@@ -16098,16 +17296,16 @@
         <v>30</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>66</v>
@@ -16154,7 +17352,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="90" customHeight="1">
+    <row r="15" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>8</v>
       </c>
@@ -16164,8 +17362,8 @@
       <c r="C15" s="15">
         <v>13</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>281</v>
+      <c r="D15" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="E15" s="16">
         <v>43857</v>
@@ -16174,10 +17372,10 @@
         <v>33</v>
       </c>
       <c r="G15" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>34</v>
@@ -16232,7 +17430,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="90" customHeight="1">
+    <row r="16" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>9</v>
       </c>
@@ -16242,8 +17440,8 @@
       <c r="C16" s="15">
         <v>14</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>275</v>
+      <c r="D16" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="E16" s="16">
         <v>43858</v>
@@ -16252,10 +17450,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>37</v>
@@ -16264,7 +17462,7 @@
         <v>148</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>17</v>
@@ -16306,7 +17504,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="90" customHeight="1">
+    <row r="17" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -16316,8 +17514,8 @@
       <c r="C17" s="15">
         <v>15</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>282</v>
+      <c r="D17" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="E17" s="16">
         <v>43858</v>
@@ -16326,10 +17524,10 @@
         <v>36</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>37</v>
@@ -16338,7 +17536,7 @@
         <v>148</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>17</v>
@@ -16380,7 +17578,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="90" customHeight="1">
+    <row r="18" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -16390,8 +17588,8 @@
       <c r="C18" s="15">
         <v>16</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>256</v>
+      <c r="D18" s="25" t="s">
+        <v>255</v>
       </c>
       <c r="E18" s="16">
         <v>43861</v>
@@ -16400,10 +17598,10 @@
         <v>38</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>34</v>
@@ -16454,7 +17652,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="90" customHeight="1">
+    <row r="19" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -16464,8 +17662,8 @@
       <c r="C19" s="15">
         <v>17</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>264</v>
+      <c r="D19" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="E19" s="16">
         <v>43861</v>
@@ -16474,10 +17672,10 @@
         <v>38</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>34</v>
@@ -16530,7 +17728,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="90" customHeight="1">
+    <row r="20" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>10</v>
       </c>
@@ -16540,8 +17738,8 @@
       <c r="C20" s="15">
         <v>18</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>283</v>
+      <c r="D20" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="E20" s="16">
         <v>43861</v>
@@ -16550,10 +17748,10 @@
         <v>38</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>34</v>
@@ -16606,7 +17804,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="90" customHeight="1">
+    <row r="21" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>11</v>
       </c>
@@ -16616,8 +17814,8 @@
       <c r="C21" s="15">
         <v>19</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>266</v>
+      <c r="D21" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="E21" s="16">
         <v>43861</v>
@@ -16626,10 +17824,10 @@
         <v>41</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>42</v>
@@ -16675,7 +17873,7 @@
         <v>159</v>
       </c>
       <c r="Z21" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA21" s="17" t="s">
         <v>66</v>
@@ -16684,7 +17882,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="90" customHeight="1">
+    <row r="22" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>11</v>
       </c>
@@ -16694,8 +17892,8 @@
       <c r="C22" s="15">
         <v>19</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>266</v>
+      <c r="D22" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="E22" s="16">
         <v>43861</v>
@@ -16704,10 +17902,10 @@
         <v>44</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>42</v>
@@ -16760,7 +17958,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="90" customHeight="1">
+    <row r="23" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>12</v>
       </c>
@@ -16770,8 +17968,8 @@
       <c r="C23" s="15">
         <v>20</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>267</v>
+      <c r="D23" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="E23" s="16">
         <v>43875</v>
@@ -16780,10 +17978,10 @@
         <v>45</v>
       </c>
       <c r="G23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>34</v>
@@ -16829,7 +18027,7 @@
         <v>159</v>
       </c>
       <c r="Z23" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA23" s="17" t="s">
         <v>66</v>
@@ -16838,7 +18036,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="90" customHeight="1">
+    <row r="24" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>12</v>
       </c>
@@ -16848,8 +18046,8 @@
       <c r="C24" s="15">
         <v>20</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>267</v>
+      <c r="D24" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="E24" s="16">
         <v>43875</v>
@@ -16858,10 +18056,10 @@
         <v>46</v>
       </c>
       <c r="G24" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>34</v>
@@ -16914,7 +18112,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="90" customHeight="1">
+    <row r="25" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>13</v>
       </c>
@@ -16924,8 +18122,8 @@
       <c r="C25" s="15">
         <v>21</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>257</v>
+      <c r="D25" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="E25" s="16">
         <v>43876</v>
@@ -16934,7 +18132,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="17" t="s">
@@ -16981,7 +18179,7 @@
         <v>159</v>
       </c>
       <c r="Z25" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA25" s="17" t="s">
         <v>66</v>
@@ -16990,7 +18188,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="90" customHeight="1">
+    <row r="26" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>14</v>
       </c>
@@ -17000,8 +18198,8 @@
       <c r="C26" s="15">
         <v>21</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>257</v>
+      <c r="D26" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="E26" s="16">
         <v>43878</v>
@@ -17010,16 +18208,16 @@
         <v>48</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>66</v>
@@ -17066,7 +18264,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="90" customHeight="1">
+    <row r="27" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>15</v>
       </c>
@@ -17076,8 +18274,8 @@
       <c r="C27" s="15">
         <v>22</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>284</v>
+      <c r="D27" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="E27" s="16">
         <v>43887</v>
@@ -17086,7 +18284,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="17" t="s">
@@ -17138,7 +18336,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="90" customHeight="1">
+    <row r="28" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>15</v>
       </c>
@@ -17148,8 +18346,8 @@
       <c r="C28" s="15">
         <v>23</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>285</v>
+      <c r="D28" s="25" t="s">
+        <v>284</v>
       </c>
       <c r="E28" s="16">
         <v>43887</v>
@@ -17158,7 +18356,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="17" t="s">
@@ -17210,18 +18408,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="90" customHeight="1">
+    <row r="29" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>15</v>
       </c>
       <c r="B29" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="15">
         <v>24</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>286</v>
+      <c r="D29" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E29" s="16">
         <v>43887</v>
@@ -17230,7 +18428,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="17" t="s">
@@ -17282,18 +18480,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="90" customHeight="1">
+    <row r="30" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>16</v>
       </c>
       <c r="B30" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="15">
         <v>25</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>287</v>
+      <c r="D30" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="E30" s="16">
         <v>43908</v>
@@ -17302,10 +18500,10 @@
         <v>53</v>
       </c>
       <c r="G30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>54</v>
@@ -17349,7 +18547,7 @@
         <v>87</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA30" s="18" t="s">
         <v>154</v>
@@ -17358,18 +18556,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="90" customHeight="1">
+    <row r="31" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>16</v>
       </c>
       <c r="B31" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="15">
         <v>26</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>288</v>
+      <c r="D31" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="E31" s="16">
         <v>43908</v>
@@ -17378,10 +18576,10 @@
         <v>53</v>
       </c>
       <c r="G31" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>54</v>
@@ -17425,7 +18623,7 @@
         <v>87</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA31" s="18" t="s">
         <v>154</v>
@@ -17434,18 +18632,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="90" customHeight="1">
+    <row r="32" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>16</v>
       </c>
       <c r="B32" s="15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="15">
         <v>27</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>289</v>
+      <c r="D32" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="E32" s="16">
         <v>43908</v>
@@ -17454,10 +18652,10 @@
         <v>53</v>
       </c>
       <c r="G32" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>54</v>
@@ -17510,18 +18708,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="90" customHeight="1">
+    <row r="33" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>16</v>
       </c>
       <c r="B33" s="15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="15">
         <v>28</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>290</v>
+      <c r="D33" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="E33" s="16">
         <v>43908</v>
@@ -17530,10 +18728,10 @@
         <v>53</v>
       </c>
       <c r="G33" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>54</v>
@@ -17588,18 +18786,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="90" customHeight="1">
+    <row r="34" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>17</v>
       </c>
       <c r="B34" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="15">
         <v>29</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>258</v>
+      <c r="D34" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E34" s="16">
         <v>43922</v>
@@ -17608,10 +18806,10 @@
         <v>57</v>
       </c>
       <c r="G34" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>11</v>
@@ -17662,18 +18860,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="90" customHeight="1">
+    <row r="35" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>18</v>
       </c>
       <c r="B35" s="15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="15">
         <v>30</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>268</v>
+      <c r="D35" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="E35" s="16">
         <v>43927</v>
@@ -17682,10 +18880,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>19</v>
@@ -17724,34 +18922,34 @@
         <v>65</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X35" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Y35" s="26" t="s">
-        <v>237</v>
+      <c r="Y35" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA35" s="18"/>
       <c r="AB35" s="16">
         <v>43967</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="90" customHeight="1">
+    <row r="36" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>18</v>
       </c>
       <c r="B36" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="15">
         <v>31</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>273</v>
+      <c r="D36" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="E36" s="16">
         <v>43927</v>
@@ -17760,10 +18958,10 @@
         <v>18</v>
       </c>
       <c r="G36" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>19</v>
@@ -17802,7 +19000,7 @@
         <v>65</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X36" s="17" t="s">
         <v>97</v>
@@ -17811,25 +19009,25 @@
         <v>66</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA36" s="18"/>
       <c r="AB36" s="16">
         <v>43967</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="90" customHeight="1">
+    <row r="37" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>18</v>
       </c>
       <c r="B37" s="15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="15">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>268</v>
+      <c r="D37" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="E37" s="16">
         <v>43927</v>
@@ -17838,10 +19036,10 @@
         <v>60</v>
       </c>
       <c r="G37" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>19</v>
@@ -17894,18 +19092,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="90" customHeight="1">
+    <row r="38" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>19</v>
       </c>
       <c r="B38" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="15">
         <v>32</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>270</v>
+      <c r="D38" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="E38" s="16">
         <v>43938</v>
@@ -17914,10 +19112,10 @@
         <v>13</v>
       </c>
       <c r="G38" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>14</v>
@@ -17968,18 +19166,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="90" customHeight="1">
+    <row r="39" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>20</v>
       </c>
       <c r="B39" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="15">
         <v>33</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>269</v>
+      <c r="D39" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="E39" s="16">
         <v>43939</v>
@@ -17988,10 +19186,10 @@
         <v>45</v>
       </c>
       <c r="G39" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>34</v>
@@ -18037,25 +19235,25 @@
         <v>91</v>
       </c>
       <c r="Z39" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA39" s="18"/>
       <c r="AB39" s="16">
         <v>43965</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="90" customHeight="1">
+    <row r="40" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>20</v>
       </c>
       <c r="B40" s="15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="15">
         <v>33</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>269</v>
+      <c r="D40" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="E40" s="16">
         <v>43939</v>
@@ -18064,16 +19262,16 @@
         <v>46</v>
       </c>
       <c r="G40" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>34</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K40" s="18" t="s">
         <v>66</v>
@@ -18120,18 +19318,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="90" customHeight="1">
+    <row r="41" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>21</v>
       </c>
       <c r="B41" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="15">
         <v>34</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>265</v>
+      <c r="D41" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="E41" s="16">
         <v>43940</v>
@@ -18140,10 +19338,10 @@
         <v>62</v>
       </c>
       <c r="G41" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>11</v>
@@ -18196,18 +19394,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="90" customHeight="1">
+    <row r="42" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>21</v>
       </c>
       <c r="B42" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="15">
         <v>35</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>271</v>
+      <c r="D42" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="E42" s="16">
         <v>43940</v>
@@ -18216,10 +19414,10 @@
         <v>62</v>
       </c>
       <c r="G42" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>11</v>
@@ -18272,18 +19470,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="90" customHeight="1">
+    <row r="43" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>21</v>
       </c>
       <c r="B43" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="15">
         <v>36</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>291</v>
+      <c r="D43" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="E43" s="16">
         <v>43940</v>
@@ -18292,10 +19490,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>11</v>
@@ -18346,18 +19544,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="90" customHeight="1">
+    <row r="44" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>21</v>
       </c>
       <c r="B44" s="15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="15">
         <v>37</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>292</v>
+      <c r="D44" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="E44" s="16">
         <v>43940</v>
@@ -18366,10 +19564,10 @@
         <v>62</v>
       </c>
       <c r="G44" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>11</v>
@@ -18420,18 +19618,18 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="90" customHeight="1">
+    <row r="45" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>21</v>
       </c>
       <c r="B45" s="15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="15">
         <v>38</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>260</v>
+      <c r="D45" s="25" t="s">
+        <v>259</v>
       </c>
       <c r="E45" s="16">
         <v>43940</v>
@@ -18440,10 +19638,10 @@
         <v>62</v>
       </c>
       <c r="G45" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>11</v>
@@ -18494,30 +19692,30 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="90" customHeight="1">
+    <row r="46" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>22</v>
       </c>
       <c r="B46" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="15">
         <v>39</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>272</v>
+      <c r="D46" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="E46" s="16">
         <v>43956</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G46" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>23</v>
@@ -18544,10 +19742,10 @@
         <v>1</v>
       </c>
       <c r="T46" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U46" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="V46" s="21" t="s">
         <v>75</v>
@@ -18556,11 +19754,11 @@
       <c r="X46" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Y46" s="23" t="s">
-        <v>197</v>
+      <c r="Y46" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA46" s="18" t="s">
         <v>66</v>
@@ -18569,30 +19767,30 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="90" customHeight="1">
+    <row r="47" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>22</v>
       </c>
       <c r="B47" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="15">
         <v>40</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>303</v>
+      <c r="D47" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="E47" s="16">
         <v>43956</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G47" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>23</v>
@@ -18619,25 +19817,25 @@
         <v>1</v>
       </c>
       <c r="T47" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U47" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="V47" s="21" t="s">
         <v>74</v>
       </c>
       <c r="W47" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X47" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Y47" s="26" t="s">
-        <v>236</v>
+      <c r="Y47" s="35" t="s">
+        <v>235</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA47" s="1" t="s">
         <v>66</v>
@@ -18646,30 +19844,30 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="90" customHeight="1">
+    <row r="48" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
         <v>22</v>
       </c>
       <c r="B48" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="15">
         <v>39</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>272</v>
+      <c r="D48" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="E48" s="16">
         <v>43956</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G48" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>23</v>
@@ -18695,10 +19893,10 @@
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U48" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="V48" s="21" t="s">
         <v>113</v>
@@ -18720,30 +19918,30 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="90" customHeight="1">
+    <row r="49" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
         <v>22</v>
       </c>
       <c r="B49" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="15">
         <v>40</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>303</v>
+      <c r="D49" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="E49" s="16">
         <v>43956</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G49" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>23</v>
@@ -18769,10 +19967,10 @@
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U49" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="V49" s="21" t="s">
         <v>113</v>
@@ -18794,27 +19992,27 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="90" customHeight="1">
+    <row r="50" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>23</v>
       </c>
       <c r="B50" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="5">
         <v>41</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>274</v>
+      <c r="D50" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="E50" s="3">
         <v>43957</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>31</v>
@@ -18823,7 +20021,7 @@
         <v>149</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>66</v>
@@ -18841,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>75</v>
@@ -18849,11 +20047,11 @@
       <c r="X50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y50" s="26" t="s">
-        <v>242</v>
+      <c r="Y50" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>66</v>
@@ -18862,27 +20060,27 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="90" customHeight="1">
+    <row r="51" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>23</v>
       </c>
       <c r="B51" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="5">
         <v>42</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E51" s="3">
         <v>43957</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>31</v>
@@ -18909,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>75</v>
@@ -18917,11 +20115,11 @@
       <c r="X51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y51" s="26" t="s">
-        <v>241</v>
+      <c r="Y51" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA51" s="1" t="s">
         <v>66</v>
@@ -18930,18 +20128,18 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="90" customHeight="1">
+    <row r="52" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>24</v>
       </c>
       <c r="B52" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="5">
         <v>41</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>274</v>
+      <c r="D52" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="E52" s="3">
         <v>43959</v>
@@ -18949,14 +20147,14 @@
       <c r="F52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>246</v>
+      <c r="G52" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>66</v>
@@ -18971,10 +20169,10 @@
         <v>1</v>
       </c>
       <c r="T52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U52" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>113</v>
@@ -18982,11 +20180,11 @@
       <c r="X52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y52" s="26" t="s">
-        <v>249</v>
+      <c r="Y52" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA52" s="1" t="s">
         <v>66</v>
@@ -18995,17 +20193,17 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="90" customHeight="1">
+    <row r="53" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>24</v>
       </c>
       <c r="B53" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="5">
         <v>42</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E53" s="3">
@@ -19014,14 +20212,14 @@
       <c r="F53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="26" t="s">
-        <v>246</v>
+      <c r="G53" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>66</v>
@@ -19036,10 +20234,10 @@
         <v>1</v>
       </c>
       <c r="T53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>113</v>
@@ -19047,11 +20245,11 @@
       <c r="X53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y53" s="26" t="s">
-        <v>241</v>
+      <c r="Y53" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA53" s="1" t="s">
         <v>66</v>
@@ -19060,33 +20258,33 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="90" customHeight="1">
+    <row r="54" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>25</v>
       </c>
       <c r="B54" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="5">
         <v>43</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>369</v>
+      <c r="D54" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="E54" s="3">
         <v>43964</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="H54" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="I54" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>147</v>
@@ -19095,10 +20293,10 @@
         <v>66</v>
       </c>
       <c r="L54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -19107,10 +20305,10 @@
         <v>1</v>
       </c>
       <c r="T54" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>75</v>
@@ -19118,8 +20316,8 @@
       <c r="X54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y54" s="29" t="s">
-        <v>302</v>
+      <c r="Y54" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>67</v>
@@ -19131,45 +20329,45 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="90" customHeight="1">
+    <row r="55" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>25</v>
       </c>
       <c r="B55" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5">
         <v>43</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>369</v>
+      <c r="D55" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="E55" s="3">
         <v>43964</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="H55" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="I55" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
@@ -19178,10 +20376,10 @@
         <v>1</v>
       </c>
       <c r="T55" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>75</v>
@@ -19189,8 +20387,8 @@
       <c r="X55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y55" s="29" t="s">
-        <v>302</v>
+      <c r="Y55" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>67</v>
@@ -19202,33 +20400,33 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="90" customHeight="1">
+    <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>26</v>
       </c>
       <c r="B56" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="5">
         <v>44</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>305</v>
+      <c r="D56" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="E56" s="3">
         <v>43978</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="H56" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>147</v>
@@ -19237,7 +20435,7 @@
         <v>43</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>17</v>
@@ -19252,10 +20450,10 @@
         <v>1</v>
       </c>
       <c r="T56" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>75</v>
@@ -19263,11 +20461,11 @@
       <c r="X56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y56" s="29" t="s">
-        <v>312</v>
+      <c r="Y56" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA56" s="1" t="s">
         <v>66</v>
@@ -19276,33 +20474,33 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="90" customHeight="1">
+    <row r="57" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>26</v>
       </c>
       <c r="B57" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="5">
         <v>44</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>305</v>
+      <c r="D57" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="E57" s="3">
         <v>43978</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="H57" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="H57" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>148</v>
@@ -19317,25 +20515,25 @@
         <v>1</v>
       </c>
       <c r="T57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U57" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y57" s="29" t="s">
-        <v>312</v>
+      <c r="Y57" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA57" s="1" t="s">
         <v>66</v>
@@ -19344,27 +20542,27 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="90" customHeight="1">
+    <row r="58" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>27</v>
       </c>
       <c r="B58" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="5">
         <v>45</v>
       </c>
-      <c r="D58" s="28" t="s">
-        <v>309</v>
+      <c r="D58" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="E58" s="3">
         <v>43979</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>314</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>315</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>31</v>
@@ -19376,7 +20574,7 @@
         <v>43</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>17</v>
@@ -19391,7 +20589,7 @@
         <v>1</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>75</v>
@@ -19399,11 +20597,11 @@
       <c r="X58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y58" s="29" t="s">
-        <v>316</v>
+      <c r="Y58" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA58" s="1" t="s">
         <v>66</v>
@@ -19412,18 +20610,18 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="90" customHeight="1">
+    <row r="59" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>28</v>
       </c>
       <c r="B59" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="5">
         <v>45</v>
       </c>
-      <c r="D59" s="28" t="s">
-        <v>309</v>
+      <c r="D59" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="E59" s="3">
         <v>43981</v>
@@ -19431,20 +20629,20 @@
       <c r="F59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="29" t="s">
-        <v>317</v>
+      <c r="G59" s="27" t="s">
+        <v>316</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>17</v>
@@ -19459,7 +20657,7 @@
         <v>1</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>75</v>
@@ -19467,11 +20665,11 @@
       <c r="X59" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y59" s="29" t="s">
-        <v>316</v>
+      <c r="Y59" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA59" s="1" t="s">
         <v>66</v>
@@ -19480,33 +20678,33 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="90" customHeight="1">
+    <row r="60" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>29</v>
       </c>
       <c r="B60" s="5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="5">
         <v>46</v>
       </c>
-      <c r="D60" s="28" t="s">
-        <v>327</v>
+      <c r="D60" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="E60" s="3">
         <v>44011</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>147</v>
@@ -19515,7 +20713,7 @@
         <v>43</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>17</v>
@@ -19530,7 +20728,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>75</v>
@@ -19538,8 +20736,8 @@
       <c r="X60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y60" s="26" t="s">
-        <v>336</v>
+      <c r="Y60" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>77</v>
@@ -19551,33 +20749,33 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="90" customHeight="1">
+    <row r="61" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>29</v>
       </c>
       <c r="B61" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="5">
         <v>47</v>
       </c>
-      <c r="D61" s="28" t="s">
-        <v>328</v>
+      <c r="D61" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="E61" s="3">
         <v>44011</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>147</v>
@@ -19598,19 +20796,19 @@
         <v>1</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W61" s="33" t="s">
-        <v>334</v>
+      <c r="W61" s="31" t="s">
+        <v>333</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y61" s="26" t="s">
-        <v>336</v>
+      <c r="Y61" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>77</v>
@@ -19622,33 +20820,33 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="90" customHeight="1">
+    <row r="62" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>29</v>
       </c>
       <c r="B62" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="5">
         <v>46</v>
       </c>
-      <c r="D62" s="28" t="s">
-        <v>327</v>
+      <c r="D62" s="26" t="s">
+        <v>326</v>
       </c>
       <c r="E62" s="3">
         <v>44011</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G62" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>148</v>
@@ -19660,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>113</v>
@@ -19668,8 +20866,8 @@
       <c r="X62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y62" s="26" t="s">
-        <v>336</v>
+      <c r="Y62" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>77</v>
@@ -19681,33 +20879,33 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="90" customHeight="1">
+    <row r="63" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>29</v>
       </c>
       <c r="B63" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="5">
         <v>47</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>328</v>
+      <c r="D63" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="E63" s="3">
         <v>44011</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>148</v>
@@ -19719,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>113</v>
@@ -19727,8 +20925,8 @@
       <c r="X63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y63" s="26" t="s">
-        <v>336</v>
+      <c r="Y63" s="35" t="s">
+        <v>335</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>77</v>
@@ -19740,39 +20938,39 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="90" customHeight="1">
+    <row r="64" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>30</v>
       </c>
       <c r="B64" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="5">
         <v>48</v>
       </c>
-      <c r="D64" s="28" t="s">
-        <v>337</v>
+      <c r="D64" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="E64" s="3">
         <v>44014</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G64" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="H64" s="29" t="s">
-        <v>340</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>17</v>
@@ -19784,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>75</v>
@@ -19792,8 +20990,8 @@
       <c r="X64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y64" s="29" t="s">
-        <v>345</v>
+      <c r="Y64" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>67</v>
@@ -19805,33 +21003,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="90" customHeight="1">
+    <row r="65" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>30</v>
       </c>
       <c r="B65" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="5">
         <v>49</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>368</v>
+      <c r="D65" s="26" t="s">
+        <v>367</v>
       </c>
       <c r="E65" s="3">
         <v>44014</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="H65" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="H65" s="29" t="s">
-        <v>340</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>147</v>
@@ -19840,7 +21038,7 @@
         <v>24</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -19849,19 +21047,19 @@
         <v>1</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y65" s="29" t="s">
-        <v>346</v>
+      <c r="Y65" s="27" t="s">
+        <v>345</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>67</v>
@@ -19873,39 +21071,39 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="90" customHeight="1">
+    <row r="66" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>31</v>
       </c>
       <c r="B66" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="5">
         <v>50</v>
       </c>
-      <c r="D66" s="28" t="s">
-        <v>348</v>
+      <c r="D66" s="26" t="s">
+        <v>347</v>
       </c>
       <c r="E66" s="3">
         <v>44015</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G66" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H66" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="I66" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>17</v>
@@ -19914,16 +21112,16 @@
         <v>1</v>
       </c>
       <c r="T66" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>152</v>
@@ -19935,45 +21133,45 @@
         <v>65</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB66" s="3">
         <v>44017</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="90" customHeight="1">
+    <row r="67" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>31</v>
       </c>
       <c r="B67" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="5">
         <v>51</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>349</v>
+      <c r="D67" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="E67" s="3">
         <v>44015</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G67" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H67" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="I67" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>17</v>
@@ -19982,16 +21180,16 @@
         <v>1</v>
       </c>
       <c r="T67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>152</v>
@@ -20003,45 +21201,45 @@
         <v>65</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB67" s="3">
         <v>44017</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="90" customHeight="1">
+    <row r="68" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>31</v>
       </c>
       <c r="B68" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="5">
         <v>52</v>
       </c>
-      <c r="D68" s="28" t="s">
-        <v>350</v>
+      <c r="D68" s="26" t="s">
+        <v>349</v>
       </c>
       <c r="E68" s="3">
         <v>44015</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G68" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H68" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="I68" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>17</v>
@@ -20050,16 +21248,16 @@
         <v>1</v>
       </c>
       <c r="T68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>152</v>
@@ -20071,45 +21269,45 @@
         <v>65</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB68" s="3">
         <v>44017</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="90" customHeight="1">
+    <row r="69" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>31</v>
       </c>
       <c r="B69" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="5">
         <v>53</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>367</v>
+      <c r="D69" s="26" t="s">
+        <v>366</v>
       </c>
       <c r="E69" s="3">
         <v>44015</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G69" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="H69" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="I69" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>17</v>
@@ -20121,22 +21319,22 @@
         <v>1</v>
       </c>
       <c r="T69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U69" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y69" s="29" t="s">
-        <v>375</v>
+      <c r="Y69" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>67</v>
@@ -20148,33 +21346,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="90" customHeight="1">
+    <row r="70" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>32</v>
       </c>
       <c r="B70" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="5">
         <v>54</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>363</v>
+      <c r="D70" s="26" t="s">
+        <v>362</v>
       </c>
       <c r="E70" s="3">
         <v>44016</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G70" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H70" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="I70" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>147</v>
@@ -20189,19 +21387,19 @@
         <v>1</v>
       </c>
       <c r="T70" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y70" s="29" t="s">
-        <v>379</v>
+        <v>385</v>
+      </c>
+      <c r="Y70" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>67</v>
@@ -20213,33 +21411,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="90" customHeight="1">
+    <row r="71" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>32</v>
       </c>
       <c r="B71" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="5">
         <v>55</v>
       </c>
-      <c r="D71" s="28" t="s">
-        <v>364</v>
+      <c r="D71" s="26" t="s">
+        <v>363</v>
       </c>
       <c r="E71" s="3">
         <v>44016</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="I71" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>147</v>
@@ -20254,19 +21452,19 @@
         <v>1</v>
       </c>
       <c r="T71" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U71" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y71" s="29" t="s">
-        <v>380</v>
+        <v>385</v>
+      </c>
+      <c r="Y71" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>67</v>
@@ -20278,39 +21476,39 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="90" customHeight="1">
+    <row r="72" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>32</v>
       </c>
       <c r="B72" s="5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="5">
         <v>56</v>
       </c>
-      <c r="D72" s="28" t="s">
-        <v>365</v>
+      <c r="D72" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="E72" s="3">
         <v>44016</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G72" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H72" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="I72" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>17</v>
@@ -20322,16 +21520,16 @@
         <v>1</v>
       </c>
       <c r="T72" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y72" s="29" t="s">
-        <v>378</v>
+      <c r="Y72" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>77</v>
@@ -20343,33 +21541,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="90" customHeight="1">
+    <row r="73" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>32</v>
       </c>
       <c r="B73" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="5">
         <v>57</v>
       </c>
-      <c r="D73" s="28" t="s">
-        <v>366</v>
+      <c r="D73" s="26" t="s">
+        <v>365</v>
       </c>
       <c r="E73" s="3">
         <v>44016</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H73" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="I73" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>147</v>
@@ -20387,16 +21585,16 @@
         <v>1</v>
       </c>
       <c r="T73" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y73" s="29" t="s">
-        <v>381</v>
+      <c r="Y73" s="27" t="s">
+        <v>380</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>67</v>
@@ -20408,39 +21606,39 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="90" customHeight="1">
+    <row r="74" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>32</v>
       </c>
       <c r="B74" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="5">
         <v>58</v>
       </c>
-      <c r="D74" s="28" t="s">
-        <v>367</v>
+      <c r="D74" s="26" t="s">
+        <v>366</v>
       </c>
       <c r="E74" s="3">
         <v>44016</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G74" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="I74" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>17</v>
@@ -20452,19 +21650,19 @@
         <v>1</v>
       </c>
       <c r="T74" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U74" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y74" s="29" t="s">
-        <v>361</v>
+        <v>384</v>
+      </c>
+      <c r="Y74" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>67</v>
@@ -20476,33 +21674,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="90" customHeight="1">
+    <row r="75" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>32</v>
       </c>
       <c r="B75" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="26" t="s">
         <v>376</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>377</v>
       </c>
       <c r="E75" s="3">
         <v>44016</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G75" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H75" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="I75" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>148</v>
@@ -20517,16 +21715,16 @@
         <v>1</v>
       </c>
       <c r="T75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="U75" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Y75" s="28" t="s">
-        <v>377</v>
+      <c r="Y75" s="26" t="s">
+        <v>376</v>
       </c>
       <c r="Z75" s="1" t="s">
         <v>66</v>
@@ -20538,33 +21736,33 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="90" customHeight="1">
+    <row r="76" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>33</v>
       </c>
       <c r="B76" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="5">
         <v>51</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>349</v>
+      <c r="D76" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="E76" s="3">
         <v>44016</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="G76" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>148</v>
@@ -20579,7 +21777,7 @@
         <v>1</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>113</v>
@@ -20591,69 +21789,69 @@
         <v>65</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB76" s="3">
         <v>44017</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="90" customHeight="1">
+    <row r="77" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>34</v>
       </c>
       <c r="B77" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="5">
         <v>59</v>
       </c>
-      <c r="D77" s="28" t="s">
-        <v>398</v>
+      <c r="D77" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="E77" s="3">
         <v>44017</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>405</v>
+        <v>394</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P77" s="1">
         <v>1</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y77" s="29" t="s">
-        <v>412</v>
+      <c r="Y77" s="27" t="s">
+        <v>409</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>67</v>
@@ -20665,33 +21863,33 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="90" customHeight="1">
+    <row r="78" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>34</v>
       </c>
       <c r="B78" s="5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="5">
         <v>60</v>
       </c>
-      <c r="D78" s="28" t="s">
-        <v>399</v>
+      <c r="D78" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="E78" s="3">
         <v>44017</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>405</v>
+        <v>394</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>147</v>
@@ -20706,22 +21904,22 @@
         <v>1</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y78" s="29" t="s">
-        <v>411</v>
+      <c r="Y78" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="Z78" s="1" t="s">
         <v>67</v>
@@ -20733,33 +21931,33 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="90" customHeight="1">
+    <row r="79" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>34</v>
       </c>
       <c r="B79" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="5">
         <v>61</v>
       </c>
-      <c r="D79" s="28" t="s">
-        <v>401</v>
+      <c r="D79" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="E79" s="3">
         <v>44017</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>405</v>
+        <v>394</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>147</v>
@@ -20774,22 +21972,22 @@
         <v>1</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="X79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y79" s="29" t="s">
-        <v>403</v>
+      <c r="Y79" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="Z79" s="1" t="s">
         <v>67</v>
@@ -20801,39 +21999,39 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="90" customHeight="1">
+    <row r="80" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>34</v>
       </c>
       <c r="B80" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="5">
         <v>62</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>409</v>
+      <c r="D80" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="E80" s="3">
         <v>44017</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>405</v>
+        <v>394</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>21</v>
@@ -20842,22 +22040,22 @@
         <v>1</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y80" s="29" t="s">
-        <v>410</v>
+      <c r="Y80" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="Z80" s="1" t="s">
         <v>67</v>
@@ -20869,39 +22067,39 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="90" customHeight="1">
+    <row r="81" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>34</v>
       </c>
       <c r="B81" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" s="5">
         <v>63</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>400</v>
+      <c r="D81" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="E81" s="3">
         <v>44017</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H81" s="29" t="s">
-        <v>405</v>
+        <v>394</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>21</v>
@@ -20913,22 +22111,22 @@
         <v>1</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="X81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y81" s="29" t="s">
-        <v>402</v>
+      <c r="Y81" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="Z81" s="1" t="s">
         <v>67</v>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v15:04:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F0F2C9-1D48-234B-9DF6-46C4968AC511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBC974-9413-2545-B174-60C08B1BA9BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -2747,7 +2747,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="5400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2760,7 +2760,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="5400" b="1">
+              <a:rPr lang="en-GB" sz="3600" b="1">
                 <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
@@ -2768,14 +2768,14 @@
               <a:t>POFMA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="5400" b="1" baseline="0">
+              <a:rPr lang="en-GB" sz="3600" b="1" baseline="0">
                 <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t> Use by Month</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="5400" b="1">
+            <a:endParaRPr lang="en-GB" sz="3600" b="1">
               <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
               <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
               <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
@@ -2796,7 +2796,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="5400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9314,8 +9314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="L33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9583,7 +9583,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="26"/>
       <c r="AH12" s="26"/>
@@ -11151,9 +11151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IL87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W83" sqref="W83"/>
+      <selection pane="bottomLeft" activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v15:04:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBC974-9413-2545-B174-60C08B1BA9BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D7465-D70E-DE4A-B5F5-764BDBD50974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2124,7 +2124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2200,6 +2200,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2241,7 +2247,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2348,6 +2354,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2617,7 +2626,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -2889,13 +2898,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2904,7 +2913,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -3000,13 +3009,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -9315,7 +9324,7 @@
   <dimension ref="A2:AN287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9360,17 +9369,14 @@
       <c r="A3" s="9">
         <v>43770</v>
       </c>
-      <c r="B3" s="7">
-        <f>SUM(B49:B54)</f>
+      <c r="B3" s="36">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
-        <f>SUM(C49:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D8" si="0">SUM(B3:C3)</f>
-        <v>0</v>
+      <c r="D3" s="36">
+        <v>3</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>17</v>
@@ -9383,7 +9389,7 @@
       </c>
       <c r="AM3" s="7">
         <f>SUM(B3:B11)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AN3" s="7">
         <v>24</v>
@@ -9393,17 +9399,14 @@
       <c r="A4" s="9">
         <v>43800</v>
       </c>
-      <c r="B4" s="7">
-        <f>SUM(B55:B85)</f>
+      <c r="B4" s="36">
+        <v>4</v>
+      </c>
+      <c r="C4" s="36">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
-        <f>SUM(C55:C85)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D4" s="36">
+        <v>4</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>21</v>
@@ -9419,17 +9422,14 @@
       <c r="A5" s="9">
         <v>43831</v>
       </c>
-      <c r="B5" s="7">
-        <f>SUM(B86:B116)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(C86:C116)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B5" s="36">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7</v>
+      </c>
+      <c r="D5" s="36">
+        <v>12</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>178</v>
@@ -9445,16 +9445,14 @@
       <c r="A6" s="9">
         <v>43862</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
-        <f>SUM(C117:C145)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="C6" s="36">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36">
+        <v>6</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>295</v>
@@ -9470,17 +9468,14 @@
       <c r="A7" s="9">
         <v>43891</v>
       </c>
-      <c r="B7" s="7">
-        <f>SUM(B146:B176)</f>
+      <c r="B7" s="36">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
-        <f>SUM(C146:C176)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C7" s="36">
+        <v>3</v>
+      </c>
+      <c r="D7" s="36">
+        <v>3</v>
       </c>
       <c r="Y7" s="30" t="s">
         <v>385</v>
@@ -9497,16 +9492,14 @@
       <c r="A8" s="9">
         <v>43922</v>
       </c>
-      <c r="B8" s="7">
-        <f>SUM(B177:B207)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="D8" s="36">
+        <v>11</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -9518,14 +9511,13 @@
       <c r="A9" s="9">
         <v>43952</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="36">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="36">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
-        <f>SUM(B9:C9)</f>
+      <c r="D9" s="36">
         <v>12</v>
       </c>
       <c r="K9" s="29"/>
@@ -9538,14 +9530,13 @@
       <c r="A10" s="9">
         <v>43983</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="36">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="36">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <f>SUM(B10:C10)</f>
+      <c r="D10" s="36">
         <v>3</v>
       </c>
       <c r="K10" s="29"/>
@@ -9558,14 +9549,13 @@
       <c r="A11" s="9">
         <v>44013</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="36">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="36">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <f>B11+C11</f>
+      <c r="D11" s="36">
         <v>17</v>
       </c>
       <c r="K11" s="26"/>
@@ -11152,8 +11142,8 @@
   <dimension ref="A1:IL87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M84" sqref="M84"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v15:04:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v07:05:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D7465-D70E-DE4A-B5F5-764BDBD50974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD888A2-AD7A-A344-AC69-780169E9FA43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="458">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1986,48 +1986,6 @@
     <t>Alternate Authority for the Minister in PMO (NPTD) (Leo Yip)</t>
   </si>
   <si>
-    <t>S Iswaran (Minister for Communications and Information)</t>
-  </si>
-  <si>
-    <t>Ong Ye Kung (Minister for Education)</t>
-  </si>
-  <si>
-    <t>Heng Swee Keat (Minister for Finance)</t>
-  </si>
-  <si>
-    <t>Gan Kim Yong (Minister for Health)</t>
-  </si>
-  <si>
-    <t>K Shanmugam (Minister for Home Affairs and Minister for Law)</t>
-  </si>
-  <si>
-    <t>Josephine Teo (Minister for Manpower)</t>
-  </si>
-  <si>
-    <t>Lawrence Wong (Minister for National Development)</t>
-  </si>
-  <si>
-    <t>Chan Chun Sing (Minister for Trade and Industry and Minister in charge of the PA)</t>
-  </si>
-  <si>
-    <t>Khaw Boon Wan (Minister for Transport)</t>
-  </si>
-  <si>
-    <t>Perm Sec Aubeck Kam (Alternate Authority for Minister for Manpower)</t>
-  </si>
-  <si>
-    <t>Perm Sec Chee Wee Kiong (Alternate Authority for the Minister for Foreign Affairs)</t>
-  </si>
-  <si>
-    <t>Perm Sec Lai Chung Han (Alternate Authority for Minister of Education)</t>
-  </si>
-  <si>
-    <t>Perm Sec Leo Yip (Alternate Authority for the Minister in PMO (NPTD))</t>
-  </si>
-  <si>
-    <t>Perm Sec Ow Foong Pheng (Alternate Authority for Minister of National Development)</t>
-  </si>
-  <si>
     <t>Goh Meng Seng Facebook Post 1</t>
   </si>
   <si>
@@ -2115,6 +2073,146 @@
   </si>
   <si>
     <t>https://www.facebook.com/permalink.php?story_fbid=279105497107999&amp;id=106022737749610</t>
+  </si>
+  <si>
+    <t>Singapore Incidents Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Singapore Incidents Instagram Post 1</t>
+  </si>
+  <si>
+    <t>Minister for Transport Instructs POFMA Office to Issue Correction Direction</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2021/May/pofma-pr-mot-07May2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually070521</t>
+  </si>
+  <si>
+    <t>Singapore Incidents</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION
+FROM ONLINE FALSEHOODS AND MANIPULATION ACT ON
+FALSEHOODS ABOUT ARRIVAL OF TRAVELLERS FROM SOUTH ASIA
+**************************************************************
+The Ministry of Transport (MOT) is aware of a video circulating on social media
+showing a large number of travellers from South Asia arriving at Changi Airport,
+purportedly on 5 May 2021, despite current travel restrictions. The information in the
+video is false.
+2. The Minister for Transport has instructed the POFMA Office to issue a
+Correction Direction (CD) to Singapore Incidents in relation to its Facebook and
+Instagram posts on 5 May 2021, both of which contained the video. Singapore
+Incidents will be required to carry a correction notice on its Facebook and Instagram
+pages, stating that the posts contain falsehoods.
+Corrections and clarifications regarding falsehoods posted by SG Incidents
+3. On 5 May 2021 at 21:42 hrs, Singapore Incidents published a video on its
+Facebook page, showing a large group of travellers from South Asia arriving at Changi
+Airport Terminal 1. The video contained a watermark which states the date of the video
+as 5 May 2021 and the location as Changi Airport. The same video was published at
+21:44 hrs on the Singapore Incidents Instagram page.
+4. The information in the video is false:
+a. First, the video showed passengers arriving at Changi Airport Terminal
+1, and a clock indicating the time as 14:53 hrs. There were no flights
+from South Asia (India, Bangladesh, Nepal, Pakistan and Sri Lanka) that
+arrived at any terminal in Changi Airport between 08:00 hrs and 15:30
+hrs on 5 May 2021.
+b. Second, in the video, passengers were seen walking past a renovation
+hoarding at gate hold rooms D42/43 in Terminal 1. This hoarding was
+removed on 5 April 2021, establishing that the video was taken before 5
+April 2021.
+Additional Clarifications
+5. From 23 April 2021, 23:59 hrs, all long-term visit pass holders and short-term
+visitors with recent travel history to India are not allowed entry into or transit through
+Singapore. With effect from 1 May 2021, 23:59 hrs, this border control measure was
+extended to all long-term visit pass holders and short-term visitors with recent travel
+history to Bangladesh, Nepal, Pakistan and Sri Lanka.
+6. While there are still passenger flights arriving in Singapore from South Asia,
+these flights carry primarily returning Singapore citizens and Permanent Residents,
+cargo, or fly in empty to pick up passengers in Singapore who are returning to South
+Asia. For example, on 5 May 2021, there were 5 passenger flights arriving in
+Singapore from South Asia, carrying a total of 50 passengers, all of whom were
+returning Singapore citizens or Permanent Residents. The breakdown of passengers
+on these flights is as follows:
+Breakdown of passenger flights arriving from South Asia on 5 May
+7. All passengers arriving on these flights from the above-mentioned countries are
+currently subject to stringent border control and health measures. At Changi Airport,
+these passengers are escorted through the airport, separate from other passengers
+arriving from other countries.
+Flight
+Number Origin Actual Time
+of Arrival Terminal Actual Pax
+Load
+IX688 Chennai 0529 1 7
+IX682 Tiruchirappalli 1630 1 14
+AI346 Bangalore 1914 1 28
+SQ469 Colombo 0702 3 0
+MI411 Kathmandu 2002 3 1
+TOTAL 50
+8. For the facts of the case, please refer to the Factually article “Corrections and
+Clarifications Regarding Falsehoods About Arrival of Travellers from South Asia” at
+https://www.gov.sg/article/factually070521
+9. We are aware of other similar videos spreading on social media. We urge
+members of the public not to spread unverified information and to rely on information
+from trusted official websites and social media pages.
+Ministry of Transport
+7 May 2021</t>
+  </si>
+  <si>
+    <t>Falsehoods
+A Facebook and an Instagram post containing a video showing a large group of travellers from South Asia arriving at Changi Airport Terminal 1 has been circulating. The video, published on the Singapore Incidents’ Facebook and Instagram posts on 5 May 2021, contained a watermark indicating the date of the video as 5 May 2021 and the location as Changi Airport. There are also other similar videos spreading on social media.
+This video, viewed in the light of the Government's public statements on the restrictions on entry by non-Singapore Citizens or Permanent Residents with recent travel history to India, Bangladesh, Nepal, Pakistan and Sri Lanka, implied that the Government’s current restrictions on entry were not in effect, or that the travel ban was not being properly enforced, or enforced at all, by the Government.
+The information in the video is false. The video was not filmed on 5 May 2021.
+Clarifications
+The video showed travellers from South Asia arriving at Changi Airport Terminal 1, and a clock indicating the time as 14:53 hrs. According to flight records, there were no flights from South Asia (India, Bangladesh, Nepal, Pakistan and Sri Lanka) that arrived at any terminal in Changi Airport between 08:00 hrs and 15:30 hrs on 5 May 2021.
+In the video, passengers were seen walking past a renovation hoarding at gate hold room D42/43 in Terminal 1. This hoarding had been removed on 5 April 2021, establishing that the video was taken before 5 April 2021.
+As the Government announced previously, all long-term pass holders and short-term visitors with recent travel history to India are not allowed entry into or transit through Singapore with effect from 23 April 2021, 23:59 hrs. This border control measure was extended to all long-term pass holders and short-term visitors with recent travel history to Bangladesh, Nepal, Pakistan and Sri Lanka with effect from 1 May 2021, 23:59 hrs.
+While there are still passenger flights arriving in Singapore from South Asia, these flights carry primarily returning Singapore citizens and Permanent Residents, cargo, or fly in empty to pick up passengers in Singapore who are returning to South Asia. For example, on 5 May 2021, there were 5 passenger flights arriving in Singapore from South Asia, carrying a total of 50 passengers, all of whom were returning Singapore citizens or Permanent Residents. The breakdown of passengers on these flights is as follows:
+Breakdown of passenger flights arriving from South Asia on 5 May
+Flight Number
+Origin
+Actual Time of Arrival
+Terminal
+Actual Pax Load
+IX688
+Chennai
+0529
+1
+7
+IX682
+Tiruchirappalli
+1630
+1
+14
+AI346
+Bangalore
+1914
+1
+28
+SQ469
+Colombo
+0702
+3
+0
+MI411
+Kathmandu
+2002
+3
+1
+TOTAL
+50
+All passengers arriving from the above-mentioned countries are currently subject to the stringent border health measures. At Changi Airport, these passengers are escorted through the airport, separately from passengers arriving from other countries. 
+We urge members of the public not to spread unverified information and to rely on information from trusted official websites and social media pages.</t>
+  </si>
+  <si>
+    <t>(Primary in that Singapore Incidents included the edited veresion with the watermark, but were not the original source of the videos) The POFMA Office press release indicates that the inclusion of a watermark indicating that the video was recorded on 5 May was misleading. Singapore Incidents has indicated that the "This video was taken from these 2 links which are posted on the 5th May 2021 at 19:00 and 19:35 respectively." One of these videos did not have the watermark — so it was likely included by Singapore Incidents when they republished it.</t>
+  </si>
+  <si>
+    <t>Minister for Transport (S Iswaran)</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2727,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,10 +2952,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$12</c:f>
+              <c:f>Summary!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -2888,15 +2986,18 @@
                 <c:pt idx="9">
                   <c:v>44287</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44317</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$12</c:f>
+              <c:f>Summary!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2923,6 +3024,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,10 +3063,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$12</c:f>
+              <c:f>Summary!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -2993,15 +3097,18 @@
                 <c:pt idx="9">
                   <c:v>44287</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44317</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$12</c:f>
+              <c:f>Summary!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3031,6 +3138,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +3528,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,9 +3846,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$33:$K$48</c:f>
+              <c:f>Summary!$K$33:$K$49</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
@@ -3787,15 +3897,18 @@
                 <c:pt idx="15">
                   <c:v>Minister in charge of the People's Association (Chan Chung Sing)</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>Minister for Transport (S Iswaran)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$33:$L$48</c:f>
+              <c:f>Summary!$L$33:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3843,6 +3956,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,6 +4294,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4233,9 +4364,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$Y$3:$Y$6</c:f>
+              <c:f>Summary!$Y$3:$Y$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Facebook</c:v>
                 </c:pt>
@@ -4248,17 +4379,20 @@
                 <c:pt idx="3">
                   <c:v>Youtube</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Instagram</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$Z$3:$Z$6</c:f>
+              <c:f>Summary!$Z$3:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -4268,6 +4402,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,371 +4480,6 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$AD$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of POFMA Uses requested</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$AC$46:$AC$59</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Perm Sec Lai Chung Han (Alternate Authority for Minister of Education)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Perm Sec Chee Wee Kiong (Alternate Authority for the Minister for Foreign Affairs)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Perm Sec Aubeck Kam (Alternate Authority for Minister for Manpower)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Perm Sec Leo Yip (Alternate Authority for the Minister in PMO (NPTD))</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Perm Sec Ow Foong Pheng (Alternate Authority for Minister of National Development)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Khaw Boon Wan (Minister for Transport)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Lawrence Wong (Minister for National Development)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ong Ye Kung (Minister for Education)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Chan Chun Sing (Minister for Trade and Industry and Minister in charge of the PA)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Heng Swee Keat (Minister for Finance)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Josephine Teo (Minister for Manpower)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Gan Kim Yong (Minister for Health)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>S Iswaran (Minister for Communications and Information)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>K Shanmugam (Minister for Home Affairs and Minister for Law)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$AD$46:$AD$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34BA-CD45-9F78-D20529D79432}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="312264288"/>
-        <c:axId val="312428944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="312264288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="312428944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="312428944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312264288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4891,46 +4663,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7521,511 +7253,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8067,15 +7294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>26308</xdr:colOff>
+      <xdr:colOff>26307</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>23586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>239889</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8175,15 +7402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>326569</xdr:colOff>
+      <xdr:colOff>326568</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>562427</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>522111</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8203,44 +7430,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286F84E7-DC65-F844-BD99-65D5591C694A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9323,8 +8512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="B3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9382,17 +8571,18 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B11)</f>
+        <f>SUM(B3:B13)</f>
         <v>36</v>
       </c>
       <c r="AN3" s="7">
-        <v>24</v>
+        <f>SUM(C3:C12)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9464,7 +8654,7 @@
       <c r="AH6" s="26"/>
       <c r="AI6" s="26"/>
     </row>
-    <row r="7" spans="1:40" ht="56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>43891</v>
       </c>
@@ -9477,18 +8667,17 @@
       <c r="D7" s="36">
         <v>3</v>
       </c>
-      <c r="Y7" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z7" s="8">
-        <f>SUM(Z3:Z6)</f>
-        <v>69</v>
+      <c r="Y7" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
       <c r="AI7" s="25"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>43922</v>
       </c>
@@ -9503,6 +8692,13 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
+      <c r="Y8" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z8" s="8">
+        <f>SUM(Z3:Z7)</f>
+        <v>71</v>
+      </c>
       <c r="AG8" s="25"/>
       <c r="AH8" s="26"/>
       <c r="AI8" s="26"/>
@@ -9580,6 +8776,19 @@
       <c r="AI12" s="26"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <f>B13+C13</f>
+        <v>1</v>
+      </c>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
       <c r="AI13" s="25"/>
@@ -9719,7 +8928,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9790,49 +8999,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="56" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="K45" s="7" t="s">
         <v>420</v>
       </c>
       <c r="L45" s="7">
         <v>2</v>
       </c>
-      <c r="AC45" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD45" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+    </row>
+    <row r="46" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="K46" s="7" t="s">
         <v>421</v>
       </c>
       <c r="L46" s="7">
         <v>2</v>
       </c>
-      <c r="AC46" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD46" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+    </row>
+    <row r="47" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K47" s="7" t="s">
         <v>422</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
       </c>
-      <c r="AC47" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD47" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+    </row>
+    <row r="48" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -9842,133 +9039,91 @@
       <c r="L48" s="7">
         <v>3</v>
       </c>
-      <c r="AC48" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD48" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+    </row>
+    <row r="49" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
-      <c r="AC49" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="AD49" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="56" x14ac:dyDescent="0.15">
+      <c r="K49" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
-      <c r="AC50" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD50" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
-      <c r="AC51" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
-      <c r="AC52" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD52" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
-      <c r="AC53" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD53" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="56" x14ac:dyDescent="0.15">
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
-      <c r="AC54" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD54" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="26"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
-      <c r="AC55" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD55" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
-      <c r="AC56" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="AD56" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
-      <c r="AC57" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD57" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
-      <c r="AC58" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD58" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="33"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
-      <c r="AC59" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD59" s="7">
-        <v>11</v>
-      </c>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
@@ -11139,11 +10294,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL87"/>
+  <dimension ref="A1:IL89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17021,7 +16176,7 @@
         <v>64</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E82" s="3">
         <v>44301</v>
@@ -17030,10 +16185,10 @@
         <v>38</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>34</v>
@@ -17042,7 +16197,7 @@
         <v>147</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>17</v>
@@ -17054,22 +16209,22 @@
         <v>1</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y82" s="23" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="Z82" s="1" t="s">
         <v>67</v>
@@ -17092,7 +16247,7 @@
         <v>65</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E83" s="3">
         <v>44301</v>
@@ -17101,10 +16256,10 @@
         <v>38</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>34</v>
@@ -17113,10 +16268,10 @@
         <v>147</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>17</v>
@@ -17128,22 +16283,22 @@
         <v>1</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V83" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y83" s="23" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="Z83" s="1" t="s">
         <v>67</v>
@@ -17166,7 +16321,7 @@
         <v>66</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="E84" s="3">
         <v>44301</v>
@@ -17175,10 +16330,10 @@
         <v>38</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>34</v>
@@ -17187,7 +16342,7 @@
         <v>147</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>17</v>
@@ -17199,22 +16354,22 @@
         <v>1</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X84" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y84" s="23" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="Z84" s="1" t="s">
         <v>67</v>
@@ -17237,7 +16392,7 @@
         <v>67</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E85" s="3">
         <v>44301</v>
@@ -17246,10 +16401,10 @@
         <v>38</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>34</v>
@@ -17258,10 +16413,10 @@
         <v>147</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>17</v>
@@ -17273,22 +16428,22 @@
         <v>1</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y85" s="23" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="Z85" s="1" t="s">
         <v>67</v>
@@ -17311,7 +16466,7 @@
         <v>68</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E86" s="3">
         <v>44301</v>
@@ -17320,10 +16475,10 @@
         <v>38</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>34</v>
@@ -17332,7 +16487,7 @@
         <v>147</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>17</v>
@@ -17341,22 +16496,22 @@
         <v>1</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y86" s="23" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>67</v>
@@ -17379,7 +16534,7 @@
         <v>69</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E87" s="3">
         <v>44301</v>
@@ -17388,10 +16543,10 @@
         <v>38</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>34</v>
@@ -17400,7 +16555,7 @@
         <v>147</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>21</v>
@@ -17409,22 +16564,22 @@
         <v>1</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y87" s="23" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="Z87" s="1" t="s">
         <v>67</v>
@@ -17434,6 +16589,142 @@
       </c>
       <c r="AB87" s="3">
         <v>44301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>36</v>
+      </c>
+      <c r="B88" s="5">
+        <v>75</v>
+      </c>
+      <c r="C88" s="5">
+        <v>70</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44323</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="1">
+        <v>1</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <v>36</v>
+      </c>
+      <c r="B89" s="5">
+        <v>75</v>
+      </c>
+      <c r="C89" s="5">
+        <v>71</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44323</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>44323</v>
       </c>
     </row>
   </sheetData>
@@ -17674,6 +16965,10 @@
     <hyperlink ref="Y82" r:id="rId232" xr:uid="{403C997E-3576-D54A-9D3E-02419DE3282C}"/>
     <hyperlink ref="Y83" r:id="rId233" xr:uid="{FB4AE0EB-9DD7-7349-BA0D-1AC16CC2FE36}"/>
     <hyperlink ref="Y85" r:id="rId234" xr:uid="{56AC72DD-B1A1-264C-965C-2AC7AB34060D}"/>
+    <hyperlink ref="G88" r:id="rId235" xr:uid="{D446FDF8-1962-AD48-BFEE-63CD2C96076B}"/>
+    <hyperlink ref="H88" r:id="rId236" xr:uid="{082228DA-ECE6-0A45-A859-C1AD513681B9}"/>
+    <hyperlink ref="G89" r:id="rId237" xr:uid="{60C5A936-D480-394B-81AE-258DFE857F7E}"/>
+    <hyperlink ref="H89" r:id="rId238" xr:uid="{DB0C961B-C43E-2249-A662-02348D1EF3BC}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v07:05:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v20:05:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD888A2-AD7A-A344-AC69-780169E9FA43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CFFE08-EA6A-6A4D-A392-6C872CFFD3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="469">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2213,6 +2213,51 @@
   </si>
   <si>
     <t>Minister for Transport (S Iswaran)</t>
+  </si>
+  <si>
+    <t>Facebook General Correction Direction</t>
+  </si>
+  <si>
+    <t>Twitter General Correction Direction</t>
+  </si>
+  <si>
+    <t>HardwareZone General Correction Direction</t>
+  </si>
+  <si>
+    <t>Minister for Health Instructs POFMA Office to Issue General Correction Directions</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2021/May/pofma-pr-moh-20May2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually200521</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>FOR IMMEDIATE REPORTING
+ISSUANCE OF GENERAL CORRECTION DIRECTIONS UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT ON FALSEHOODS ON “SINGAPORE” STRAIN
+The Ministry of Health (MOH) is aware of a false statement circulating online by multiple media outlets and social media platforms, which implies that a new, previously unknown variant of COVID-19 originated in Singapore and/or risks spreading to India from Singapore.
+2. The Minister for Health has instructed the POFMA Office to issue General Correction Directions 1 to Facebook, Twitter and SPH Magazines Pte Ltd (HardwareZone forum). Facebook, Twitter and SPH Magazines are required to carry the Correction Notice to all end-users in Singapore who use Facebook, Twitter and HardwareZone.com.
+Corrections and clarifications regarding falsehoods on “Singapore” strain
+3. There is no new “Singapore” variant of COVID-19. Neither is there evidence of any COVID-19 variant that is ‘extremely dangerous for kids’. The strain that is prevalent in many of the COVID-19 cases detected in Singapore in recent weeks is the B.1.617.2 variant, which originated from India. The existence and spread of the B.1.617.2 variant within India predates the detection of the variant in Singapore, and this has been publicly known and reported by various media sources from as early as 5 May 2021.
+4. For facts of the case, please refer to the Factually article “Corrections and Clarifications Regarding Falsehoods on “Singapore” Strain” at https://www.gov.sg/article/factually200521.
+5. We advise members of the public not to speculate and/or spread unfounded rumors. Please visit www.moh.gov.sg for latest information on COVID-19.
+MINISTRY OF HEALTH 20 MAY 2021
+For media queries, please contact:
+1 A General Correction Direction is a Direction issued to prescribed Internet Intermediaries, prescribed telecom and broadcast licensees, and/or prescribed permit holders of the Newspaper and Printing Presses Act that would require them to communicate, publish, broadcast or transmit a correction notice to their users in Singapore.</t>
+  </si>
+  <si>
+    <t>There is a false statement circulating online by multiple media outlets and social media platforms, which implies that a new, previously unknown variant of COVID-19 originated in Singapore and/or risks spreading to India from Singapore.
+Facts
+This is false. There is no new “Singapore” variant of COVID 19. Neither is there evidence of any COVID-19 variant that is ‘extremely dangerous for kids’. The strain that is prevalent in many of the COVID-19 cases detected in Singapore in recent weeks is the B.1.617.2 variant, which originated from India. The existence and spread of the B.1.617.2 variant within India predates the detection of the variant in Singapore, and this has been publicly known and reported by various media sources from as early as 5 May 2021.</t>
+  </si>
+  <si>
+    <t>An unknown number of statements on this platform</t>
+  </si>
+  <si>
+    <t>Minister for Health (Ong Ye Kung)</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2390,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2455,6 +2500,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2727,7 +2775,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,7 +3188,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,7 +3564,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -3846,9 +3894,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$33:$K$49</c:f>
+              <c:f>Summary!$K$33:$K$50</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
@@ -3900,15 +3948,18 @@
                 <c:pt idx="16">
                   <c:v>Minister for Transport (S Iswaran)</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Minister for Health (Ong Ye Kung)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$33:$L$49</c:f>
+              <c:f>Summary!$L$33:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3959,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,6 +4362,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2870-C04E-9A3A-0C494AAE7070}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8512,8 +8571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="B3:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8581,8 +8640,8 @@
         <v>36</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C12)</f>
-        <v>38</v>
+        <f>SUM(C3:C13)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -8783,11 +8842,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
         <f>B13+C13</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -8864,7 +8923,7 @@
         <v>387</v>
       </c>
       <c r="B33" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>411</v>
@@ -9055,10 +9114,16 @@
       <c r="AC49" s="26"/>
       <c r="AD49" s="26"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
+      <c r="K50" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
     </row>
@@ -10294,11 +10359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL89"/>
+  <dimension ref="A1:IL92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O88" sqref="O88"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16725,6 +16790,210 @@
       </c>
       <c r="AB89" s="3">
         <v>44323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>37</v>
+      </c>
+      <c r="B90" s="5">
+        <v>76</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E90" s="3">
+        <v>44336</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <v>37</v>
+      </c>
+      <c r="B91" s="5">
+        <v>77</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E91" s="3">
+        <v>44336</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>37</v>
+      </c>
+      <c r="B92" s="5">
+        <v>78</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E92" s="3">
+        <v>44336</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>1</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>44336</v>
       </c>
     </row>
   </sheetData>
@@ -16969,6 +17238,12 @@
     <hyperlink ref="H88" r:id="rId236" xr:uid="{082228DA-ECE6-0A45-A859-C1AD513681B9}"/>
     <hyperlink ref="G89" r:id="rId237" xr:uid="{60C5A936-D480-394B-81AE-258DFE857F7E}"/>
     <hyperlink ref="H89" r:id="rId238" xr:uid="{DB0C961B-C43E-2249-A662-02348D1EF3BC}"/>
+    <hyperlink ref="G90" r:id="rId239" xr:uid="{30DE19A1-E5BC-A34F-BAB1-65E64DB45045}"/>
+    <hyperlink ref="G91" r:id="rId240" xr:uid="{DB41043E-44FF-C54C-BA3E-7B32E91A4CC5}"/>
+    <hyperlink ref="G92" r:id="rId241" xr:uid="{DDEC23E7-648E-B040-8074-E6110B87B210}"/>
+    <hyperlink ref="H90" r:id="rId242" xr:uid="{C423525A-EE1E-5E4E-8129-C264C414A6ED}"/>
+    <hyperlink ref="H91" r:id="rId243" xr:uid="{776861D6-7F95-8540-B3B0-3D32C0C87795}"/>
+    <hyperlink ref="H92" r:id="rId244" xr:uid="{FE1A8354-2932-AD4B-9C5C-F95B0FF67343}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v20:05:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v21:05:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CFFE08-EA6A-6A4D-A392-6C872CFFD3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28F566-249C-DC4F-997F-C98EEB5C97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="493">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2258,6 +2258,101 @@
   </si>
   <si>
     <t>Minister for Health (Ong Ye Kung)</t>
+  </si>
+  <si>
+    <t>72 (unknown number)</t>
+  </si>
+  <si>
+    <t>73 (unknown number)</t>
+  </si>
+  <si>
+    <t>74 (unknown number)</t>
+  </si>
+  <si>
+    <t>PRESS RELEASE
+ISSUANCE OF CORRECTION DIRECTIONS AND TARGETED CORRECTION
+DIRECTION UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT 2019 ON FALSEHOODS REGARDING ALLEGED POLICE BULLYING
+The Ministry of Home Affairs is aware of falsehoods circulated online in an Instagram story by user “@nichology”. These falsehoods were also shared by The Online Citizen Asia and Singapore Uncensored on their online platforms.
+2. The Minister for Home Affairs has instructed the POFMA Office to issue Correction Directions to:
+(i) Instagram user @nichology for his Instagram story on 18 May 2021, alleging that Police officers had taunted and reprimanded an elderly woman for not wearing a mask;
+(ii) Singapore Uncensored for posts dated 18 May 2021, sharing an article on the abovementioned Instagram story by @nichology; and
+(iii) The Online Citizen Asia for posts dated 18 May 2021, sharing the abovementioned Instagram story by @nichology.
+3. They will all be required to carry the correction notice as new posts.
+4. The Minister for Home Affairs has also instructed the POFMA Office to issue a
+Targeted Correction Direction to Facebook, Inc., for the falsehoods which have been communicated in Singapore by means of Facebook. Facebook, Inc. will be required to communicate a correction notice to Facebook users in Singapore who had accessed the falsehoods.
+Clarifications Regarding Falsehoods
+5. The Instagram story on 18 May 2021 alleged that four Police officers, who had “cluster[ed around] an elderly auntie that took off her mask because she was feeling breathless”, “continued to tell her off to the extent [that] someone had to come and salvage the situation” and “taunt[ed]” the elderly woman. The Instagram story also claimed that the Police officers had abused their authority.
+6. These allegations are wholly false, and there is no basis for the claim that the Police abused their authority. The Police had responded to an incident on 17 May 2021 at 6.43pm, at Block 743 Yishun Avenue 5. An 85-year-old woman, who did not have a mask on, appeared to be lost at the said location. Police officers attended to the elderly woman to help her find
+her way home. With the help of a member of the public, it was subsequently established that the elderly woman resided in a nearby block and her domestic helper was contacted to bring her home.
+7. As the incident took place during dinner time, the Police officers also bought food for the elderly woman. No further police assistance was required after the elderly woman was handed over to her domestic helper safely.
+8. For the facts of the case, please refer to the Factually article “Clarifications on Online Posts Alleging Police Bullying” at https://www.gov.sg/article/factually210521.
+9. Members of the public are advised not to participate in the spreading of unverified information and to be responsible when posting or sharing any information online.
+MINISTRY OF HOME AFFAIRS 21 MAY 2021</t>
+  </si>
+  <si>
+    <t>CLARIFICATIONS ON ONLINE POSTS ALLEGING POLICE BULLYING
+False statements that Police officers had reprimanded and taunted an elderly woman have been circulating.
+On 18 May 2021, Instagram user @nichology published an Instagram story, which contained falsehoods that the Police severely reprimanded and taunted an elderly woman. These falsehoods were reproduced by The Online Citizen Asia and Singapore Uncensored. 
+The Instagram story alleged that four Police officers, who had “cluster[ed around] an elderly auntie that took off her mask because she was feeling breathless”, “continued to tell her off to the extent [that] someone had to come and salvage the situation” and “taunt[ed]” the elderly woman. The Instagram story also claimed that the Police had abused their authority.
+These allegations are false, and there is no basis for the claim that the Police abused their authority. To clarify, the Police had responded to the incident on 17 May 2021 at 6.43pm, at Block 743 Yishun Avenue 5, as an 85-year-old woman, who did not have a mask on, appeared to be lost at the said location. Police officers attended to the elderly woman to help her find her way home. With the help of a member of the public, it was subsequently established that the elderly woman resided in a nearby block and her domestic helper was contacted to bring her home.
+As the incident took place during dinner time, the Police officers were concerned that the elderly woman might have been hungry and bought food for her as well. No further Police assistance was required after the elderly woman was handed over to her domestic helper safely.</t>
+  </si>
+  <si>
+    <t>Minister for Home Affairs Instructs POFMA Office to Issue Correction Directions and Targeted Correction Directions…</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2021/May/pofma-pr-mha-21May2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually210521</t>
+  </si>
+  <si>
+    <t>Instagram User</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instagram User's instagram Story 1</t>
+  </si>
+  <si>
+    <t>"The Minister for Home Affairs has also instructed the POFMA Office to issue a Targeted Correction Direction to Facebook, Inc., for the falsehoods which have been communicated in Singapore by means of Facebook. Facebook, Inc. will be required to communicate a correction notice to Facebook users in Singapore who had accessed the falsehoods."</t>
+  </si>
+  <si>
+    <t>"These falsehoods were also shared by The Online Citizen Asia and Singapore Uncensored on their online platforms."</t>
+  </si>
+  <si>
+    <t>"Instagram user @nichology for his Instagram story on 18 May 2021, alleging that Police officers had taunted and reprimanded an elderly woman for not wearing a mask"</t>
+  </si>
+  <si>
+    <t>Inaccessible (Expired)</t>
+  </si>
+  <si>
+    <t>Content was conveyed via Instagram stories, which automatically expire and become inaccessible after a set time.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SingaporeUncensored/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/theonlinecitizen/posts/10159515963966383</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CPAoquVnWzL/</t>
+  </si>
+  <si>
+    <t>Singapore Uncensored Website Article 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore Uncensored Facebook Post 2 </t>
+  </si>
+  <si>
+    <t>https://singaporeuncensored.com/guy-not-happy-with-police-confronting-auntie-for-taking-off-her-mask/</t>
+  </si>
+  <si>
+    <t>76 and 78</t>
+  </si>
+  <si>
+    <t>The Online Citizen Facebook Post 5</t>
+  </si>
+  <si>
+    <t>The Online Citizen Instagram Post 1</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2485,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2503,6 +2598,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2772,7 +2870,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
@@ -3074,7 +3172,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3573,10 +3671,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,7 +4086,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -4368,6 +4466,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4423,9 +4536,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$Y$3:$Y$7</c:f>
+              <c:f>Summary!$Y$3:$Y$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Facebook</c:v>
                 </c:pt>
@@ -4441,28 +4554,34 @@
                 <c:pt idx="4">
                   <c:v>Instagram</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Twitter</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$Z$3:$Z$7</c:f>
+              <c:f>Summary!$Z$3:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8571,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8630,14 +8749,14 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
         <f>SUM(B3:B13)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="7">
         <f>SUM(C3:C13)</f>
@@ -8661,7 +8780,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -8684,7 +8803,7 @@
         <v>178</v>
       </c>
       <c r="Z5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG5" s="25"/>
       <c r="AH5" s="26"/>
@@ -8730,13 +8849,13 @@
         <v>453</v>
       </c>
       <c r="Z7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
       <c r="AI7" s="25"/>
     </row>
-    <row r="8" spans="1:40" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>43922</v>
       </c>
@@ -8751,18 +8870,17 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="Y8" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z8" s="8">
-        <f>SUM(Z3:Z7)</f>
-        <v>71</v>
+      <c r="Y8" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1</v>
       </c>
       <c r="AG8" s="25"/>
       <c r="AH8" s="26"/>
       <c r="AI8" s="26"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="56" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>43952</v>
       </c>
@@ -8777,6 +8895,13 @@
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
+      <c r="Y9" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z9" s="8">
+        <f>SUM(Z3:Z8)</f>
+        <v>79</v>
+      </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
       <c r="AI9" s="26"/>
@@ -8839,14 +8964,14 @@
         <v>44317</v>
       </c>
       <c r="B13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
       </c>
       <c r="D13" s="7">
         <f>B13+C13</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -8971,7 +9096,7 @@
         <v>388</v>
       </c>
       <c r="B36" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>425</v>
@@ -8987,7 +9112,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9037,7 +9162,7 @@
         <v>417</v>
       </c>
       <c r="L42" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V42" s="25"/>
       <c r="W42" s="26"/>
@@ -10359,11 +10484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL92"/>
+  <dimension ref="A1:IL98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C93:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15803,7 +15928,7 @@
       <c r="M75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="1">
+      <c r="Q75" s="1">
         <v>1</v>
       </c>
       <c r="T75" s="1" t="s">
@@ -15865,7 +15990,7 @@
       <c r="M76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R76" s="1">
+      <c r="Q76" s="1">
         <v>1</v>
       </c>
       <c r="T76" s="1" t="s">
@@ -16800,7 +16925,7 @@
         <v>76</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>65</v>
+        <v>469</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>458</v>
@@ -16868,7 +16993,7 @@
         <v>77</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>459</v>
@@ -16936,7 +17061,7 @@
         <v>78</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>65</v>
+        <v>471</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>460</v>
@@ -16994,6 +17119,414 @@
       </c>
       <c r="AB92" s="3">
         <v>44336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>38</v>
+      </c>
+      <c r="B93" s="5">
+        <v>79</v>
+      </c>
+      <c r="C93" s="5">
+        <v>75</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>38</v>
+      </c>
+      <c r="B94" s="5">
+        <v>80</v>
+      </c>
+      <c r="C94" s="5">
+        <v>76</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E94" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="1">
+        <v>1</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y94" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>38</v>
+      </c>
+      <c r="B95" s="5">
+        <v>80</v>
+      </c>
+      <c r="C95" s="5">
+        <v>77</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E95" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" s="1">
+        <v>1</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y95" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>38</v>
+      </c>
+      <c r="B96" s="5">
+        <v>81</v>
+      </c>
+      <c r="C96" s="5">
+        <v>78</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E96" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y96" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>38</v>
+      </c>
+      <c r="B97" s="5">
+        <v>81</v>
+      </c>
+      <c r="C97" s="5">
+        <v>79</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E97" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y97" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>38</v>
+      </c>
+      <c r="B98" s="5">
+        <v>82</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>1</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>44340</v>
       </c>
     </row>
   </sheetData>
@@ -17244,6 +17777,22 @@
     <hyperlink ref="H90" r:id="rId242" xr:uid="{C423525A-EE1E-5E4E-8129-C264C414A6ED}"/>
     <hyperlink ref="H91" r:id="rId243" xr:uid="{776861D6-7F95-8540-B3B0-3D32C0C87795}"/>
     <hyperlink ref="H92" r:id="rId244" xr:uid="{FE1A8354-2932-AD4B-9C5C-F95B0FF67343}"/>
+    <hyperlink ref="G93" r:id="rId245" xr:uid="{50EA4C8B-FD98-9141-9159-C85A93C0C65C}"/>
+    <hyperlink ref="H93" r:id="rId246" xr:uid="{E2C3BAAD-84A6-2B40-A9F7-4C94C3078864}"/>
+    <hyperlink ref="Y94" r:id="rId247" xr:uid="{ACB4540C-ECC8-2445-93DA-D5091BE2308B}"/>
+    <hyperlink ref="Y96" r:id="rId248" xr:uid="{47A2490A-B859-3541-AED3-C104365F0989}"/>
+    <hyperlink ref="Y97" r:id="rId249" xr:uid="{A774087E-14CD-FB46-B37C-0047C79FC8BD}"/>
+    <hyperlink ref="Y95" r:id="rId250" xr:uid="{325BE8E7-FF4C-4C47-B8D4-01C7AEC80FC7}"/>
+    <hyperlink ref="G94" r:id="rId251" xr:uid="{C979B07E-A135-4142-B28D-9378523824CB}"/>
+    <hyperlink ref="G95" r:id="rId252" xr:uid="{ACA2D75E-6779-194A-B95B-9215CACE8625}"/>
+    <hyperlink ref="G96" r:id="rId253" xr:uid="{441E7784-4029-F748-8B5D-0E96689B0F48}"/>
+    <hyperlink ref="G97" r:id="rId254" xr:uid="{4D2A3BA0-EC91-9B48-B0DB-BB5D98740E7A}"/>
+    <hyperlink ref="H94" r:id="rId255" xr:uid="{0ADC1BA9-FC52-384E-AB47-7B70B497A4C5}"/>
+    <hyperlink ref="H95" r:id="rId256" xr:uid="{53D340C6-1BD3-8140-AA17-6AE10E5DE995}"/>
+    <hyperlink ref="H96" r:id="rId257" xr:uid="{ECA91360-0E31-F248-BB14-282D616AEE11}"/>
+    <hyperlink ref="H97" r:id="rId258" xr:uid="{C7CD036F-3F06-A843-B4E8-1C129A44A208}"/>
+    <hyperlink ref="G98" r:id="rId259" xr:uid="{12307BFE-4152-7E47-8CAE-F9C887B600EE}"/>
+    <hyperlink ref="H98" r:id="rId260" xr:uid="{92F9F7B7-53F6-3D49-A588-D6509EEDAC3A}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v21:05:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v15:08:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28F566-249C-DC4F-997F-C98EEB5C97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FF1CF-5EFE-074B-8E1B-7D9A2F994CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="498">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2354,6 +2354,62 @@
   <si>
     <t>The Online Citizen Instagram Post 1</t>
   </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/documents/media-releases/2021/Aug/pofma-pr-moh-15Aug2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually150821</t>
+  </si>
+  <si>
+    <t>FOR IMMEDIATE REPORTING
+ISSUANCE OF GENERAL CORRECTION DIRECTION UNDER THE
+PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION
+ACT ON FALSEHOODS ON ALLEGED DEATH OF THREE-YEAROLD GIRL FROM COVID-19
+The Ministry of Health (MOH) is aware of a false statement circulating online in
+a Facebook post by a user, Eileen Loh, on 14 August 2021, about a three-year-old
+preschooler who had allegedly passed away from COVID-19 at KK Women’s and
+Children’s Hospital (KKH), and that the death was deliberately not reported.
+2. The Minister for Health has instructed the POFMA Office to issue a General
+Correction Direction1
+to Facebook. Facebook is required to carry the Correction Notice
+to all end-users in Singapore who use Facebook.
+3. The Government takes a serious view of the deliberate communication of these
+false statements, and criminal investigations under POFMA will be conducted.
+Corrections and clarifications regarding falsehoods on the alleged death of a
+three-year-old from COVID-19
+4. As of 14 August, there has been no case of any child that has died from COVID19 at KK Women’s and Children’s Hospital (KKH) or any other hospital in Singapore.
+Additional clarifications
+5. The post also claimed that the “Delta Plus” variant of COVID-19 is now present
+in Singapore. As of 14 August, MOH has not identified the “Delta Plus” variant in any
+of Singapore’s known COVID-19 cases.
+6. For facts of the case, please refer to the Factually article “Corrections and
+Clarifications Regarding Falsehoods on alleged death of three-year-old girl from
+COVID-19 at https://www.gov.sg/article/factually150821
+7. We urge the public not to spread unsubstantiated information, which may cause
+public alarm. Please visit www.moh.gov.sg for latest updates on the COVID-19
+situation.
+1 A General Correction Direction is a Direction issued to prescribed Internet Intermediaries, prescribed
+telecom and broadcast licensees, and/or prescribed permit holders of the Newspaper and Printing
+Presses Act that would require them to communicate, publish, broadcast or transmit a correction notice
+to their users in Singapore. In this case, Facebook will be required to display a correction notice with a
+link to the facts to all Singapore Facebook users. This is to inform them that there was such a blatant
+fabrication circulating on the platform, which they may have come across.</t>
+  </si>
+  <si>
+    <t>There was a false statement contained in a Facebook post by a user, Eileen Loh, on 14 Aug 2021, about a three-year-old preschooler who had allegedly passed away from COVID-19 at KK Women’s and Children’s Hospital (KKH), and that the death was deliberately not reported.
+Here are the facts.
+Fact: As of 14 August, there has been no case of any child that has died from COVID-19 at KK Women’s and Children’s Hospital (KKH) or any other hospital in Singapore.
+Additional Clarifications
+The post also claimed that the “Delta Plus” variant of COVID-19 is now present in Singapore.
+Fact: As of 14 August, MOH has not identified the “Delta Plus” variant in any of Singapore’s known COVID-19 cases.
+We urge the public not to spread unsubstantiated information which may cause public alarm. Please visit www.moh.gov.sg for latest updates on the COVID-19 situation.</t>
+  </si>
+  <si>
+    <t>"The Ministry of Health (MOH) is aware of a false statement circulating online in
+a Facebook post by a user, Eileen Loh, on 14 August 2021, about a three-year-old
+preschooler who had allegedly passed away from COVID-19 at KK Women’s and
+Children’s Hospital (KKH), and that the death was deliberately not reported. "</t>
+  </si>
 </sst>
 </file>
 
@@ -2362,7 +2418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2444,6 +2500,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2485,7 +2547,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2601,6 +2663,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2873,7 +2941,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,10 +3166,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$13</c:f>
+              <c:f>Summary!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3135,15 +3203,18 @@
                 <c:pt idx="10">
                   <c:v>44317</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$13</c:f>
+              <c:f>Summary!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3173,6 +3244,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,10 +3283,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$13</c:f>
+              <c:f>Summary!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3246,15 +3320,18 @@
                 <c:pt idx="10">
                   <c:v>44317</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$13</c:f>
+              <c:f>Summary!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3287,6 +3364,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,7 +3742,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -4110,7 +4190,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,6 +4560,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0EAB-6447-80F0-7F853093EC08}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4567,7 +4652,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
@@ -8690,8 +8775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="W40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8749,7 +8834,7 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
@@ -8759,8 +8844,7 @@
         <v>40</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C13)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -8900,7 +8984,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -8978,6 +9062,19 @@
       <c r="AI13" s="25"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A14" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>SUM(B14:C14)</f>
+        <v>1</v>
+      </c>
       <c r="AG14" s="25"/>
       <c r="AH14" s="26"/>
       <c r="AI14" s="26"/>
@@ -9048,7 +9145,7 @@
         <v>387</v>
       </c>
       <c r="B33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>411</v>
@@ -9247,7 +9344,7 @@
         <v>468</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
@@ -10484,11 +10581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL98"/>
+  <dimension ref="A1:IL99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C93:C97"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17527,6 +17624,74 @@
       </c>
       <c r="AB98" s="3">
         <v>44340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>39</v>
+      </c>
+      <c r="B99" s="5">
+        <v>83</v>
+      </c>
+      <c r="C99" s="5">
+        <v>80</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="3">
+        <v>44423</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>44426</v>
       </c>
     </row>
   </sheetData>
@@ -17793,6 +17958,8 @@
     <hyperlink ref="H97" r:id="rId258" xr:uid="{C7CD036F-3F06-A843-B4E8-1C129A44A208}"/>
     <hyperlink ref="G98" r:id="rId259" xr:uid="{12307BFE-4152-7E47-8CAE-F9C887B600EE}"/>
     <hyperlink ref="H98" r:id="rId260" xr:uid="{92F9F7B7-53F6-3D49-A588-D6509EEDAC3A}"/>
+    <hyperlink ref="G99" r:id="rId261" xr:uid="{03D6DC4B-7586-5B4B-8C3D-5FA33E4F0570}"/>
+    <hyperlink ref="H99" r:id="rId262" xr:uid="{309B9543-4CCE-7743-83D6-4CE736ECF6D7}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v15:08:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v08:10:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FF1CF-5EFE-074B-8E1B-7D9A2F994CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E392CC-9E9C-D64B-B826-F7DC4B0B4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$AC$63:$AD$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="506">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2410,6 +2419,64 @@
 preschooler who had allegedly passed away from COVID-19 at KK Women’s and
 Children’s Hospital (KKH), and that the death was deliberately not reported. "</t>
   </si>
+  <si>
+    <t>Jolovan Wham Twitter Post 1</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-mha-8Oct2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually081021</t>
+  </si>
+  <si>
+    <t>Jolovan Wham</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE
+FALSEHOODS AND MANIPULATION ACT 2019 ON FALSEHOODS REGARDING
+MINISTER FOR HOME AFFAIRS AND MINISTER FOR LAW MR K SHANMUGAM’S
+COMMENTS IN PARLIAMENT ON 4 OCTOBER 2021
+The Ministry of Home Affairs (MHA) is aware of falsehoods circulated online by Jolovan
+Wham on Twitter, which misrepresented what the Minister for Home Affairs and Law, Mr K
+Shanmugam, had said in Parliament on 4 October 2021.
+2. The Minister for Home Affairs has instructed the POFMA Office to issue a Correction
+Direction to Mr Jolovan Wham, for a Tweet dated 6 October 2021 as the Tweet communicates
+the falsehood that the Minister for Home Affairs adopts the view that the rule of law does not
+operate anywhere in the real world, including in Singapore.
+3. He will be required to publish the correction notice on his online platform.
+Clarifications Regarding Falsehoods
+4. On 7 October 2021, MHA issued letters to nine persons, namely Lim Tean, Andrew
+Loh, Kirsten Han, Martyn See, Julie O’Connor, Jolovan Wham, Kokila Annamalai, Lynn Lee
+and Facebook page Wake Up Singapore who had published false posts which misrepresented
+what the Minister had said in Parliament on 4 October 2021. The posts suggested that Minister
+Shanmugam had said, in Parliament, that the Rule of Law does not operate in Singapore.
+5. The Minister had repeatedly affirmed, in Parliament, the importance of the Rule of Law
+for Singapore and the Government’s strong and continued commitment to the Rule of Law.
+He had said there are some countries around the world where the Rule of Law is a concept
+for lawyers, but does not operate in the real world, and their societies live in utter misery. He
+used this as a contrast to how the Rule of Law is applied in Singapore.
+6. Eight of the nine persons have since apologised for what they did and/or corrected
+their posts. Only Mr Jolovan Wham has not published the clarifications. He has been issued a
+POFMA Correction Direction today.
+7. For the facts of the case, please refer to the Factually article “Clarifications on Minister
+K Shanmugam’s comments during the Second Reading of Foreign Interference
+(Countermeasures) Bill” at https://www.gov.sg/article/factually081021.
+MINISTRY OF HOME AFFAIRS
+8 OCTOBER 2021</t>
+  </si>
+  <si>
+    <t>On 7 October 2021, The Ministry of Home Affairs (MHA) issued letters to nine persons, namely Lim Tean, Andrew Loh, Kirsten Han, Martyn See, Julie O’Connor, Jolovan Wham, Kokila Annamalai, Lynn Lee and Facebook page Wake Up Singapore for having published false posts which misrepresented what the Minister for Home Affairs and Law, Mr K Shanmugam, had said in Parliament on 4 October 2021. The posts suggested that Minister Shanmugam had said, in Parliament, that that the Rule of Law does not operate in Singapore.
+These statements by the nine persons are false. The Minister had repeatedly affirmed, in Parliament, the importance of the Rule of Law for Singapore and the Government’s strong and continued commitment to the Rule of Law. He had said there are some countries around the world where the Rule of Law is a concept for lawyers, but does not operate in the real world, and their societies live in utter misery. He used this as a contrast to how the Rule of Law is applied in Singapore.
+MHA issued letters to these nine persons requiring them to correct the false statements and apologise.
+Eight of the nine persons have since apologised for what they did and/or corrected their posts.
+Only Mr Jolovan Wham has not published the clarifications. He has been issued a POFMA Correction Direction today.</t>
+  </si>
+  <si>
+    <t>Original source: https://mothership.sg/2021/10/shanmugam-changed-views/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jolovanwham/status/1445628384847937539</t>
+  </si>
 </sst>
 </file>
 
@@ -2418,7 +2485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2500,12 +2567,6 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2547,7 +2608,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2663,9 +2724,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2938,10 +2996,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,10 +3224,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$14</c:f>
+              <c:f>Summary!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3206,15 +3264,18 @@
                 <c:pt idx="11">
                   <c:v>44409</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$14</c:f>
+              <c:f>Summary!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3246,6 +3307,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3283,10 +3347,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$14</c:f>
+              <c:f>Summary!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3323,15 +3387,18 @@
                 <c:pt idx="11">
                   <c:v>44409</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$14</c:f>
+              <c:f>Summary!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3366,6 +3433,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3754,7 +3824,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,7 +4236,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -4667,7 +4737,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8775,7 +8845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="W40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="K17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
@@ -8840,11 +8910,12 @@
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B13)</f>
-        <v>40</v>
+        <f>SUM(B3:B15)</f>
+        <v>42</v>
       </c>
       <c r="AN3" s="7">
-        <v>43</v>
+        <f>SUM(C3:C15)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -8958,7 +9029,7 @@
         <v>464</v>
       </c>
       <c r="Z8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="25"/>
       <c r="AH8" s="26"/>
@@ -8984,7 +9055,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9062,7 +9133,7 @@
       <c r="AI13" s="25"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>44409</v>
       </c>
       <c r="B14">
@@ -9080,6 +9151,18 @@
       <c r="AI14" s="26"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>44470</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="AG15" s="26"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="26"/>
@@ -9209,7 +9292,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9259,7 +9342,7 @@
         <v>417</v>
       </c>
       <c r="L42" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V42" s="25"/>
       <c r="W42" s="26"/>
@@ -10581,11 +10664,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL99"/>
+  <dimension ref="A1:IL100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17645,10 +17728,10 @@
       <c r="F99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G99" s="39" t="s">
+      <c r="G99" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="H99" s="39" t="s">
+      <c r="H99" s="23" t="s">
         <v>494</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -17692,6 +17775,77 @@
       </c>
       <c r="AB99" s="3">
         <v>44426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>40</v>
+      </c>
+      <c r="B100" s="5">
+        <v>84</v>
+      </c>
+      <c r="C100" s="5">
+        <v>81</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44477</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+      <c r="P100" s="1">
+        <v>1</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W100" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y100" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>44477</v>
       </c>
     </row>
   </sheetData>
@@ -17960,6 +18114,9 @@
     <hyperlink ref="H98" r:id="rId260" xr:uid="{92F9F7B7-53F6-3D49-A588-D6509EEDAC3A}"/>
     <hyperlink ref="G99" r:id="rId261" xr:uid="{03D6DC4B-7586-5B4B-8C3D-5FA33E4F0570}"/>
     <hyperlink ref="H99" r:id="rId262" xr:uid="{309B9543-4CCE-7743-83D6-4CE736ECF6D7}"/>
+    <hyperlink ref="G100" r:id="rId263" xr:uid="{78DD68F6-F51C-6742-BC06-FBFA4A2E2CD8}"/>
+    <hyperlink ref="H100" r:id="rId264" xr:uid="{E1152D0C-9F8F-AF44-947D-F1BF02601B4F}"/>
+    <hyperlink ref="Y100" r:id="rId265" xr:uid="{B31AFDD3-1FBE-924D-93AC-863920EA8ACC}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v08:10:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v09:10:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E392CC-9E9C-D64B-B826-F7DC4B0B4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD85585-A9F3-6047-8C70-D5E40F5F9F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="518">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2476,6 +2476,127 @@
   </si>
   <si>
     <t>https://twitter.com/jolovanwham/status/1445628384847937539</t>
+  </si>
+  <si>
+    <t>SDP Appeal</t>
+  </si>
+  <si>
+    <t>Minister for Manpower Instructs POFMA Office to Issue Correction Direction</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-mom-8Oct2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually-corrections-on-falsehoods-posted-by-sdp</t>
+  </si>
+  <si>
+    <t>MEDIA STATEMENT ON COURT OF APPEAL’S JUDGMENT ON
+SINGAPORE DEMOCRATIC PARTY’S POFMA APPEAL
+The Minister for Manpower (MOM) has issued a new Correction Direction (CD)
+under the Protection from Online Falsehoods and Manipulation Act 2019 (“POFMA”)
+to the Singapore Democratic Party (SDP) in relation to the false statement of fact
+contained in SDP’s 2 December 2019 Facebook post, following the Court of Appeal’s
+judgment on SDP’s appeal.
+2 The SDP was issued three CDs on 14 December 2019 for falsehoods on their
+Facebook posts and an article on their website titled “SDP Population Policy: Hire
+S’poreans First, Retrench S’poreans last”.
+3 The subject statement identified in three of the CDs was “Local PMET
+retrenchment has been increasing” (“first subject statement”). An additional subject
+statement identified in the third CD was “Local PMET employment has gone down”
+(“second subject statement”).
+4 The SDP applied to the High Court, and thereafter appealed to the Court of
+Appeal (CA), to set aside the CDs. The CA upheld all three CDs in respect of the
+first subject statement, and dismissed the SDP’s appeal in this regard. This
+statement was false as shown by MOM’s data, which SDP did not challenge.
+5 The CA allowed a part of the SDP’s appeal with respect to the third CD in
+relation to the second subject statement. This is because the CA found that the term
+“Local PMET employment” used in the infographic in SDP’s 2 December 2019
+Facebook is to be understood as referring only to Singapore citizen PMETs, instead of
+both Singapore citizens and permanent residents.
+6 However, even if we consider only the employment of Singapore citizens in
+PMET jobs, SDP’s statement that such employment has gone down is still
+completely false. The number of Singapore citizens employed in PMETs jobs has
+increased steadily from 2015 to 2019 (see Chart 1). As such, the Minister for
+Manpower has instructed the POFMA Office to issue a Correction Direction to the SDP
+in relation to this false statement of fact found in SDP’s 2 December 2019
+Facebook post.
+Chart 1: Number of Singapore Citizens in PMET Employment
+Source: Comprehensive Labour Force Survey 2015- 2019, Manpower Research &amp; Statistics Department,
+MOM
+7 For facts of the case, please refer to the Factually article here.
+## End of Release ##</t>
+  </si>
+  <si>
+    <t>The Singapore Democratic Party (SDP) published two Facebook posts and an article on the SDP’s website regarding Singapore’s population policy that contain falsehoods. In addition, SDP paid for both posts to be boosted as advertisements on Facebook. Both posts are linked to an article on the SDP’s website titled, “SDP Population Policy: Hire S’poreans First, Retrench S’poreans last”.
+One of the Facebook posts includes a graphical illustration depicting plunging “Local PMET Employment”. In the Court of Appeal’s judgment in The Online Citizen Pte Ltd v Attorney-General and another appeal and other matters [2021] SGCA 96 (“CA Judgment”), it has been held that the reference to “Local PMET Employment” in this graphic is to Singapore Citizen PMET employment.
+It is wrong that Singapore Citizen PMET employment has decreased. As reported in the Ministry of Manpower’s Comprehensive Labour Force Survey, Singapore Citizen PMET employment has risen steadily since 2015.
+The article on the SDP’s website titled, “SDP Population Policy: Hire S’poreans First, Retrench S’poreans last”, contains the statement: “The SDP’s proposal comes amidst a rising proportion of Singapore PMETs getting retrenched”.
+This statement is also wrong. There is no rising trend of local PMET retrenchments. As noted in the CA Judgment, the SDP has accepted that “local PMET” in the context of this article refers to Singapore Citizen PMETs and Permanent Resident PMETs. The number of local PMETs retrenched in 2018 was, in fact, the lowest since 2014. Local PMETs retrenched, as a proportion of all local PMET employees, has also declined since 2015.
+POFMA has been used to place the facts alongside the falsehoods.
+FALSEHOODS
+The following are falsehoods in SDP’s Facebook posts, advertisements, and website.
+Falsehood #1: The claim that Singapore Citizen PMET employment has been going down
+SGP1
+[Screenshot from SDP’s Facebook post]
+As found in the CA Judgment, “Local PMET” in this graphic refers to “Singapore Citizen PMETs”. This graphic depicts the number of Singapore Citizen PMETs employed as having fallen sharply. This is false.
+Fact #1:  the number of Singapore Citizen PMETs employed has increased from about 0.93 million in 2015 to about 1.05 million in 2019. 
+The Ministry of Manpower (MOM)’s Comprehensive Labour Force Survey (CLFS) shows that Singapore Citizen PMET employment has risen steadily since 2015. 
+Source: Comprehensive Labour Force Survey, Manpower Research &amp; Statistics Department, MOM
+It should be noted that MOM does not usually decompose resident labour market statistics into Singapore Citizens and Permanent Residents. Singapore Citizens make up a large majority of the labour force, at about 85%. The Permanent Resident population has also remained stable over time at about 0.5 million. These two facts taken together means that for the most part, resident data mirrors citizen data, and having citizen data in addition to resident data provides little additional information.
+Falsehood #2 - The claim that Singaporean PMET retrenchment has been going up. 
+The SDP website states that the party’s “proposal comes amidst a rising proportion of Singapore PMETs getting retrenched”. This statement is false. As found in the CA Judgment, the SDP has, by its statement, asserted that local PMET retrenchment has been increasing, in numerical terms. As noted in the CA Judgment, the SDP has accepted that “local PMETs” in relation to the SDP’s website article refers to Singapore Citizen PMETs and Permanent Resident PMETs.  
+Fact #2a: There has been no rising trend of local retrenchments since 2015.
+capture 2
+Source: Labour Market Survey, Manpower Research &amp; Statistics Department, MOM
+Fact #2b: There has been no rising trend of local PMET retrenchment since 2015. The number of retrenched local PMETs has declined from 6,460 in 2015 to 5,360 in 2018, the lowest since 2014.
+capture 3
+Source: Labour Market Survey, Manpower Research &amp; Statistics Department, MOM
+Fact #2c: The number of local PMETs retrenched as a share of all local PMET employees has also declined since 2015. 
+capture 4
+Source: Labour Market Survey, Manpower Research &amp; Statistics Department, MOM
+CLARIFICATION ON FOREIGN PMETS
+SDP’s graph above also depicts the number of foreign PMETs as having increased sharply in recent years.
+The number of Employment Pass (EP) holders has historically fluctuated depending on economic conditions.  EP qualifying salaries are also regularly adjusted to safeguard employment of local PMETs.  As a result, local PMET employment has continued to grow while the number of EP holders in Singapore remained stable, ranging from 187,900 in 2015 to 185,800 in 2018. The figure as of Jun 2019 is 189,000. 
+ capture 5
+Source: Ministry of Manpower
+SDP’s statements seek to mislead Singaporeans
+The Singapore economy is continuing to create jobs despite the economic headwinds. Singapore Citizen PMET employment has increased consistently. There is no rising trend of retrenchment, whether amongst PMETs or otherwise.
+Given the current uncertain economic climate, it is understandable that some Singaporeans feel anxious about employment prospects and retrenchments. This makes it all the more critical that public debate on the important issue of jobs is based on accurate facts, and not distortions or falsehoods.
+These false and misleading statements by the SDP have a singular objective – to stoke fear and anxiety among local PMETs. It is important to set the facts straight so that Singaporeans are not misled.</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/322502513454/photos/p.10158356099068455/10158356099068455/</t>
+  </si>
+  <si>
+    <t>Minister for Home Affairs Instructs POFMA Office to Issue Targeted Correction Direction</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-mha-9Oct2021-01.pdf</t>
+  </si>
+  <si>
+    <t>MINISTER FOR HOME AFFAIRS INSTRUCTS POFMA OFFICE TO ISSUE TARGETED
+CORRECTION DIRECTION TO TWITTER
+The Minister for Home Affairs has instructed the POFMA Office to issue a Targeted
+Correction Direction1
+(TCD) to Twitter, following Mr Jolovan Wham’s non-compliance with the
+Correction Order2
+(CD) issued to him on 8 October 2021.
+2. The TCD requires Twitter to alert users who had seen Mr Wham’s Tweet, that it
+contains false claims about Minister Shanmugam’s views on the rule of law. Mr Wham’s Tweet
+dated 6 October 2021 communicated the falsehood that the Minister for Home Affairs adopts
+the view that the rule of law does not operate anywhere in the real world, including in
+Singapore.
+3. For the facts of the case, please refer to the Factually article “Clarifications on Minister
+K Shanmugam’s comments during the Second Reading of Foreign Interference
+(Countermeasures) Bill” at https://www.gov.sg/article/factually081021.
+MINISTRY OF HOME AFFAIRS
+9 OCTOBER 2021</t>
+  </si>
+  <si>
+    <t>Minister for Manpower (Tan See Leng)</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +3117,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
@@ -3310,7 +3431,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,10 +3942,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4142,9 +4263,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$33:$K$50</c:f>
+              <c:f>Summary!$K$33:$K$51</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
@@ -4199,15 +4320,18 @@
                 <c:pt idx="17">
                   <c:v>Minister for Health (Ong Ye Kung)</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>Minister for Manpower (Tan See Leng)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$33:$L$50</c:f>
+              <c:f>Summary!$L$33:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4236,7 +4360,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -4261,6 +4385,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8845,8 +8972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="K17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView topLeftCell="O31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8911,7 +9038,7 @@
       </c>
       <c r="AM3" s="7">
         <f>SUM(B3:B15)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN3" s="7">
         <f>SUM(C3:C15)</f>
@@ -9155,7 +9282,7 @@
         <v>44470</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -9276,7 +9403,7 @@
         <v>388</v>
       </c>
       <c r="B36" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>425</v>
@@ -9292,7 +9419,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9342,7 +9469,7 @@
         <v>417</v>
       </c>
       <c r="L42" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V42" s="25"/>
       <c r="W42" s="26"/>
@@ -9432,10 +9559,16 @@
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
+      <c r="K51" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
       <c r="AC51" s="26"/>
       <c r="AD51" s="26"/>
     </row>
@@ -10664,11 +10797,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL100"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X100" sqref="X100"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17846,6 +17979,136 @@
       </c>
       <c r="AB100" s="3">
         <v>44477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>41</v>
+      </c>
+      <c r="B101" s="5">
+        <v>85</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" s="3">
+        <v>44477</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+      <c r="P101" s="1">
+        <v>1</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y101" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>42</v>
+      </c>
+      <c r="B102" s="5">
+        <v>86</v>
+      </c>
+      <c r="C102" s="5">
+        <v>81</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44478</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>1</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y102" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>44478</v>
       </c>
     </row>
   </sheetData>
@@ -18117,6 +18380,12 @@
     <hyperlink ref="G100" r:id="rId263" xr:uid="{78DD68F6-F51C-6742-BC06-FBFA4A2E2CD8}"/>
     <hyperlink ref="H100" r:id="rId264" xr:uid="{E1152D0C-9F8F-AF44-947D-F1BF02601B4F}"/>
     <hyperlink ref="Y100" r:id="rId265" xr:uid="{B31AFDD3-1FBE-924D-93AC-863920EA8ACC}"/>
+    <hyperlink ref="G101" r:id="rId266" xr:uid="{83FEF1C6-3C23-7244-B797-45D9EEF36191}"/>
+    <hyperlink ref="H101" r:id="rId267" xr:uid="{7303CEE7-6166-3B4B-96F9-26C0B2ABDBFE}"/>
+    <hyperlink ref="Y101" r:id="rId268" xr:uid="{2BA829D1-BF4B-1B43-B6F0-D747AD4158BE}"/>
+    <hyperlink ref="G102" r:id="rId269" xr:uid="{01793EA6-2324-AB4C-99F2-2B83B7F41FA5}"/>
+    <hyperlink ref="H102" r:id="rId270" xr:uid="{69C13A3F-94F5-A94C-A481-B84E535D7D92}"/>
+    <hyperlink ref="Y102" r:id="rId271" xr:uid="{27C781C2-DDDA-5E46-B0C6-EBE97DDAE117}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v09:10:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v25:10:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD85585-A9F3-6047-8C70-D5E40F5F9F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511FD50-B021-644C-BBB6-3884F25C3498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="525">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2597,6 +2597,48 @@
   </si>
   <si>
     <t>Minister for Manpower (Tan See Leng)</t>
+  </si>
+  <si>
+    <t>Truth Warriors Website</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-moh-24Oct2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually241021</t>
+  </si>
+  <si>
+    <t>Truth Warriors</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT ON FALSEHOODS ON EFFECTIVENESS OF COVID-19 VACCINES AND CLARIFICATIONS ON IVERMECTIN
+Many of the materials published on the “Truth Warriors” website mislead people into thinking that COVID-19 vaccines are not effective in reducing transmission rates of COVID-19, and promote the safety and efficacy of ivermectin in preventing viral infections and treating COVID-19. These materials are from unverified and dubious sources, and individuals who heed the advice of “Truth Warriors” can endanger themselves and the people around them.
+2. The Minister for Health has instructed the Protection from Online Falsehoods and Manipulation Act (POFMA) Office to issue a Correction Direction to the “Truth Warriors” website for these falsehoods. The website is required to publish the correction notice at the top of each webpage containing the falsehoods.
+3. The Government takes a serious view of the deliberate communication of these falsehoods, and criminal investigations will be conducted.
+Corrections and clarifications on falsehoods regarding COVID-19 on “Truth Warriors” website
+4.
+In particular, the website has published false claims stating that:
+i. The most vaccinated countries have the most cases and deaths per million population and the least vaccinated countries have the fewest cases and deaths per million population; and
+ii. Vaccines do not prevent the transmission of COVID-19.
+5.
+evidence shows categorically that vaccines reduce COVID-19 infection, as well as serious illness and mortality rates from COVID-19 infection. The latest data does not support the claim that countries with the highest vaccination rates also have the highest cases/deaths per million population. While some countries with the lowest vaccination rates also have low reported COVID-19 deaths, this is likely due to poor record collection for both vaccinations and deaths.
+6. While the vaccines do not completely stop viral transmission, vaccines do reduce the risk of transmission. Vaccinated persons are less likely to transmit the virus than unvaccinated persons. Furthermore, while the vaccine on its own does not kill the
+These claims are false. As of 23 October 2021, the weight of international
+1
+virus, it is false to suggest that the effect of the vaccine on the immune system does not lead to the killing of the virus. The vaccines cause the body to produce antibodies and immune cells that act against the virus and, in effect, kill it.
+7. For facts of the case, please refer to the Factually article “Corrections and Clarifications regarding content about COVID-19 by “Truth Warriors” website at https://www.gov.sg/article/factually241021”.</t>
+  </si>
+  <si>
+    <t>Additional clarifications
+8. The website also claimed that ivermectin prevents COVID-19 infection, and that it is safe and effective in treating COVID-19, even for pregnant women. MOH and Health Sciences Authority (HSA) are aware that there are members of the public trying to import or use ivermectin for the prevention or treatment of COVID-19. Ivermectin is a prescription-only medicine registered in Singapore specifically for the treatment of parasitic worm infections. It is not an anti-viral medicine and is not approved by HSA for preventing or treating COVID-19.
+9. Self-medicating with ivermectin can be dangerous to one’s health. Side-effects associated with ivermectin include vomiting, diarrhoea, stomach pain, neurologic adverse events (dizziness, seizures, confusion), sudden drop in blood pressure, severe skin rash potentially requiring hospitalisation, and liver injury (hepatitis). Ivermectin can also interact with other medications used, such as blood thinners.
+10. HSA takes a serious view against those engaged in the illegal sale and supply of medicines, including ivermectin, and will take strong enforcement action against such persons. Anyone convicted of the illegal sale of these medicines faces a penalty fine of up to $50,000 and/or imprisonment for a period of up to two years under the Health Products Act.
+11. The website also shares user-collated and unverified data on suspected vaccine injuries in Singapore, citing the “SG Suspected Vaccine Injuries” Telegram chat as its source. We advise members of the public not to speculate and/or spread misinformation which may cause public alarm, and to refer to credible sources of information instead.
+12. Please visit www.moh.gov.sg for the latest information on COVID-19 and COVID-19 vaccinations. For vaccine SAE statistics, please refer to HSA and its Safety Updates published monthly. For information regarding ivermectin and consumer safety, please visit www.hsa.gov.sg.
+MINISTRY OF HEALTH 24 OCTOBER 2021</t>
+  </si>
+  <si>
+    <t>https://www.truthwarriors.info/</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3162,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,7 +3599,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,7 +3652,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3798,7 +3840,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="5400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3945,7 +3987,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +4040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4025,53 +4067,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-                <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="318368608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4156,7 +4157,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4384,7 +4385,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -4450,7 +4451,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4477,53 +4478,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="312264288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4608,7 +4568,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="5400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4852,7 +4812,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -4909,7 +4869,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7796,9 +7756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141111</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>70557</xdr:rowOff>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7825,16 +7785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139697</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302682</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>564444</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>508000</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8972,8 +8932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="O31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView topLeftCell="I2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9041,8 +9001,7 @@
         <v>44</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C15)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9062,7 +9021,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -9182,7 +9141,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9285,10 +9244,11 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <f>SUM(B15:C15)</f>
+        <v>4</v>
       </c>
       <c r="AG15" s="26"/>
       <c r="AH15" s="26"/>
@@ -9419,7 +9379,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9554,7 +9514,7 @@
         <v>468</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
@@ -10797,11 +10757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IL103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T103" sqref="T103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18109,6 +18069,71 @@
       </c>
       <c r="AB102" s="3">
         <v>44478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>43</v>
+      </c>
+      <c r="B103" s="5">
+        <v>87</v>
+      </c>
+      <c r="C103" s="5">
+        <v>82</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="E103" s="3">
+        <v>44493</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P103" s="1">
+        <v>1</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y103" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>44494</v>
       </c>
     </row>
   </sheetData>
@@ -18386,6 +18411,9 @@
     <hyperlink ref="G102" r:id="rId269" xr:uid="{01793EA6-2324-AB4C-99F2-2B83B7F41FA5}"/>
     <hyperlink ref="H102" r:id="rId270" xr:uid="{69C13A3F-94F5-A94C-A481-B84E535D7D92}"/>
     <hyperlink ref="Y102" r:id="rId271" xr:uid="{27C781C2-DDDA-5E46-B0C6-EBE97DDAE117}"/>
+    <hyperlink ref="G103" r:id="rId272" xr:uid="{6CF0796C-292E-4244-B6F9-ACDA3C0E8983}"/>
+    <hyperlink ref="H103" r:id="rId273" xr:uid="{B7BDF2A1-ADB2-9545-B7D9-7147B9E1928F}"/>
+    <hyperlink ref="Y103" r:id="rId274" xr:uid="{1438B136-A2C8-2446-9A89-00019A95BBB7}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v25:10:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511FD50-B021-644C-BBB6-3884F25C3498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743DE0C-F176-9942-BC12-4C02726C2058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="527">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2599,9 +2599,6 @@
     <t>Minister for Manpower (Tan See Leng)</t>
   </si>
   <si>
-    <t>Truth Warriors Website</t>
-  </si>
-  <si>
     <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-moh-24Oct2021-01.pdf</t>
   </si>
   <si>
@@ -2638,7 +2635,16 @@
 MINISTRY OF HEALTH 24 OCTOBER 2021</t>
   </si>
   <si>
-    <t>https://www.truthwarriors.info/</t>
+    <t>Truth Warriors Website Article 1</t>
+  </si>
+  <si>
+    <t>Truth Warriors Website Article 2</t>
+  </si>
+  <si>
+    <t>https://www.truthwarriors.info/l/two-top-virologists-frightening-warnings-about-covid-injections-ignored-by-government-and-big-media/</t>
+  </si>
+  <si>
+    <t>https://www.truthwarriors.info/l/most-vaccinated-countries-have-most-covid-cases/</t>
   </si>
 </sst>
 </file>
@@ -3006,7 +3012,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3066,7 +3072,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3082,6 +3088,40 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9E2A-CD45-9DAA-01F207A1CA22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9E2A-CD45-9DAA-01F207A1CA22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3162,7 +3202,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,7 +3329,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3302,7 +3342,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="3600" b="1">
+              <a:rPr lang="en-GB" sz="2800" b="1">
                 <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
@@ -3310,14 +3350,14 @@
               <a:t>POFMA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" sz="3600" b="1" baseline="0">
+              <a:rPr lang="en-GB" sz="2800" b="1" baseline="0">
                 <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
                 <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t> Use by Month</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:endParaRPr lang="en-GB" sz="2800" b="1">
               <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
               <a:ea typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
               <a:cs typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
@@ -3338,7 +3378,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3500,7 +3540,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4812,7 +4852,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -8932,8 +8972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9001,7 +9041,8 @@
         <v>44</v>
       </c>
       <c r="AN3" s="7">
-        <v>44</v>
+        <f>SUM(C3:C15)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9021,7 +9062,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -9141,7 +9182,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -10757,11 +10798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL103"/>
+  <dimension ref="A1:IL104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T103" sqref="T103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18082,7 +18123,7 @@
         <v>82</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E103" s="3">
         <v>44493</v>
@@ -18091,10 +18132,10 @@
         <v>45</v>
       </c>
       <c r="G103" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H103" s="23" t="s">
         <v>519</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>520</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>34</v>
@@ -18103,7 +18144,7 @@
         <v>147</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>21</v>
@@ -18112,10 +18153,10 @@
         <v>1</v>
       </c>
       <c r="T103" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="U103" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>75</v>
@@ -18124,7 +18165,7 @@
         <v>97</v>
       </c>
       <c r="Y103" s="23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z103" s="1" t="s">
         <v>67</v>
@@ -18133,7 +18174,72 @@
         <v>66</v>
       </c>
       <c r="AB103" s="3">
-        <v>44494</v>
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>43</v>
+      </c>
+      <c r="B104" s="5">
+        <v>87</v>
+      </c>
+      <c r="C104" s="5">
+        <v>83</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="E104" s="3">
+        <v>44493</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P104" s="1">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y104" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>44495</v>
       </c>
     </row>
   </sheetData>
@@ -18414,6 +18520,9 @@
     <hyperlink ref="G103" r:id="rId272" xr:uid="{6CF0796C-292E-4244-B6F9-ACDA3C0E8983}"/>
     <hyperlink ref="H103" r:id="rId273" xr:uid="{B7BDF2A1-ADB2-9545-B7D9-7147B9E1928F}"/>
     <hyperlink ref="Y103" r:id="rId274" xr:uid="{1438B136-A2C8-2446-9A89-00019A95BBB7}"/>
+    <hyperlink ref="G104" r:id="rId275" xr:uid="{F568B58A-C7F8-F343-B443-C7F9B04683AA}"/>
+    <hyperlink ref="H104" r:id="rId276" xr:uid="{61DE6F9A-3E20-1D41-9C1C-13BFCB7C5727}"/>
+    <hyperlink ref="Y104" r:id="rId277" xr:uid="{4CC37D54-F9FE-DA4E-A591-83015548EDA4}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v25:10:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v01:12:2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743DE0C-F176-9942-BC12-4C02726C2058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EF811-C003-6F47-844D-D06D1A18A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="460" windowWidth="19560" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="542">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2645,6 +2645,78 @@
   </si>
   <si>
     <t>https://www.truthwarriors.info/l/most-vaccinated-countries-have-most-covid-cases/</t>
+  </si>
+  <si>
+    <t>Cheah Kit Sun Website Article 1</t>
+  </si>
+  <si>
+    <t>Minister For Health Instructs Pofma Office To Issue Correction Directions</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-pofma-29Nov2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually291121</t>
+  </si>
+  <si>
+    <t>Cheah Kit Sun</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT ON FALSEHOODS ON COVID-19 VACCINES
+There are false and misleading statements about COVID-19 vaccines contained in a blog post by Cheah Kit Sun titled ‘Do Not Participate In A Society that Rejects You’, published on Wednesday, 20 October 2021 on various online locations, which was shared by Goh Meng Seng on Facebook (20 October 2021). It is important to correct these falsehoods, especially given the on-going vaccine booster exercise.
+2. The Minister for Health has instructed the Protection from Online Falsehoods and Manipulation Act (POFMA) Office to issue Correction Directions to Cheah Kit Sun and Goh Meng Seng for spreading those falsehoods. Cheah and Goh are required to publish the correction notices as specified by POFMA Office for each webpage and social media post containing the falsehoods.
+Corrections and clarifications on falsehoods regarding content about COVID-19 vaccines in a blog post by Cheah Kit Sun
+3. In particular, the blog post misleads people into thinking that the COVID vaccines are the most dangerous developed recently as they have caused a substantially higher rate of death and serious injury compared to all other vaccines over the last 10 years.
+4. These claims are false. COVID-19 vaccines approved for use in Singapore are safe. They have been assessed to be safe and effective internationally by reputable health and scientific agencies, and in Singapore by both the Health Sciences Authority (HSA) and the Expert Committee on COVID-19 Vaccination (EC19V). As of 31 October 2021, the serious adverse event incidence rate reported by healthcare professionals to HSA is 0.006% of total doses administered. Thus far, no deaths have been attributed to the COVID-19 vaccines. The benefits of receiving COVID-19 vaccines continue to far outweigh the risks of vaccination.
+5. The United States’ Vaccine Adverse Event Reporting System (VAERS)1 data do not support the claim that COVID-19 vaccines have caused a substantially higher rate of serious injury and death.
+6. First, COVID-19 vaccines have been given to a very large proportion of the US population in 2021, while the other vaccines have been given to substantially fewer
+1 The Vaccine Adverse Event Reporting System is co-managed by the Centers for Disease Control and Prevention (CDC) and the U.S Food and Drug Administration (FDA).
+ 1
+individuals in any given year. Thus, it is misleading to compare the absolute number of reported adverse events and deaths for COVID-19 and non-COVID vaccines.
+7. Second, there is much higher surveillance and awareness of adverse event reporting for COVID-19 vaccines, compared with other vaccines.
+8. Third, any member of the public may report adverse events and deaths to the VAERS system, regardless whether it is caused by vaccines or other factors. The reports are not required to be verified. They often lack details and sometimes contain errors. No proof is required that the adverse event or death was caused by the vaccine. And adverse events need not be serious; they include mild side effects such as rash/cold/headaches.
+9. The post has been written to falsely exaggerate the dangers of COVID-19 vaccines, and to discourage people from taking them. If people believe these falsehoods, there could be serious health consequences for those who then remain unvaccinated. As stated earlier, the evidence so far is that serious adverse events have been reported in only 0.006% of total doses administered.
+10. For facts of the case, please refer to the Factually article “Corrections and Clarifications regarding content about COVID-19 vaccines in a blog post by Cheah Kit Sun at https://www.gov.sg/article/factually291121”.
+11. MOH advises the public not to speculate and/or spread misinformation which may cause public alarm, and to refer to credible sources of information instead. Please visit www.moh.gov.sg for the latest information on COVID-19 and COVID-19 vaccinations. For vaccine SAE statistics, please refer to HSA and its Safety Updates published monthly.
+MINISTRY OF HEALTH 29 NOVEMBER 2021</t>
+  </si>
+  <si>
+    <t>There are false and misleading statements about COVID-19 vaccines contained in a  blog post by Cheah Kit Sun titled  ‘Do Not Participate In A Society that Rejects You’, published on Wednesday, 20 October 2021 on various online locations, which was shared by Goh Meng Seng on Facebook (20 October 2021). It is important to correct these falsehoods, especially given the on-going vaccine booster exercise.
+In particular, the blog post misleads people into thinking that the COVID vaccines are the most dangerous developed recently as they have caused a substantially higher rate of death and serious injury compared to all other vaccines over the last 10 years.
+Here are the facts.
+Fact #1: COVID-19 vaccines approved for use in Singapore are safe. The serious adverse event incidence rate reported by healthcare professionals to HSA is 0.006% of total doses administered.
+COVID-19 vaccines approved for use in Singapore are safe. They have been assessed to be safe and effective internationally by reputable health and scientific agencies, and in Singapore by both the Health Sciences Authority (HSA) and the Expert Committee on COVID-19 Vaccination (EC19V). As of 31 October 2021, the serious adverse event incidence rate reported by healthcare professionals to HSA is 0.006% of total doses administered. Thus far, no deaths have been attributed to the COVID-19 vaccines. The benefits of receiving COVID-19 vaccines continue to far outweigh the risks of vaccination.
+Fact #2: The United States’ Vaccine Adverse Event Reporting System (VAERS)1 data do not support the claim that COVID-19 vaccines have caused a substantially higher rate of serious injury and death.
+First, COVID-19 vaccines have been given to a very large proportion of the US population in 2021, while the other vaccines have been given to substantially fewer individuals in any given year. Thus, it is misleading to compare the absolute number of reported adverse events and deaths for COVID-19 and non-COVID vaccines.
+Second, there is much higher surveillance and awareness of adverse event reporting for COVID-19 vaccines, compared with other vaccines.
+Third,  any member of the public may report adverse events and deaths to the VAERS system, regardless whether it is caused by vaccines or other factors. The reports are not required to be verified. They often lack details and sometimes contain errors. No proof is required that the adverse event or death was caused by the vaccine. And adverse events need not be serious; they include mild side effects such as rash/cold/headaches.
+The post has been written to falsely exaggerate the dangers of COVID-19 vaccines, and to discourage people from taking them. If people believe these falsehoods, there could be serious health consequences for those who then remain unvaccinated. As stated earlier, the evidence so far is that serious adverse events have been reported in only 0.006% of total doses administered.
+MOH advises the public not to speculate and/or spread misinformation which may cause public alarm, and to refer to credible sources of information instead. Please visit www.moh.gov.sg for the latest information on COVID-19 and COVID-19 vaccinations. For vaccine SAE statistics, please refer to HSA and its Safety Updates published monthly. 
+1 The Vaccine Adverse Event Reporting System is co-managed by the Centers for Disease Control and Prevention (CDC) and the U.S Food and Drug Administration (FDA).</t>
+  </si>
+  <si>
+    <t>https://www.benjamincheah.com/2021/10/20/do-not-participate-in-a-society-that-rejects-you/</t>
+  </si>
+  <si>
+    <t>Cheah Kit Sun Twitter Post 1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/thebencheah/status/1450824016181166089</t>
+  </si>
+  <si>
+    <t>Cheah Kit Sun Facebook Post 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/benjamin.cheah.7/posts/4373233709381146</t>
+  </si>
+  <si>
+    <t>Post was initially published on 20 October</t>
+  </si>
+  <si>
+    <t>shared the initial post on Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gohmengseng.freedom/posts/10224021069127724</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2849,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2896,6 +2968,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3202,7 +3277,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,10 +3502,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$15</c:f>
+              <c:f>Summary!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3470,15 +3545,18 @@
                 <c:pt idx="12">
                   <c:v>44470</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$15</c:f>
+              <c:f>Summary!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3550,10 +3628,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$15</c:f>
+              <c:f>Summary!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3593,15 +3671,18 @@
                 <c:pt idx="12">
                   <c:v>44470</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$15</c:f>
+              <c:f>Summary!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3640,6 +3721,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,7 +4111,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4425,7 +4509,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -4849,10 +4933,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -4864,7 +4948,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,8 +9056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9031,18 +9115,18 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B15)</f>
+        <f>SUM(B3:B16)</f>
         <v>44</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C15)</f>
-        <v>43</v>
+        <f>SUM(C3:C16)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9062,7 +9146,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -9156,7 +9240,7 @@
         <v>464</v>
       </c>
       <c r="Z8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="25"/>
       <c r="AH8" s="26"/>
@@ -9182,7 +9266,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9296,6 +9380,16 @@
       <c r="AI15" s="26"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A16" s="39">
+        <v>44501</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>SUM(B16:C16)</f>
+        <v>2</v>
+      </c>
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
       <c r="AI16" s="25"/>
@@ -9420,7 +9514,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9555,7 +9649,7 @@
         <v>468</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
@@ -10798,11 +10892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL104"/>
+  <dimension ref="A1:IL108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D104" sqref="D104"/>
+      <selection pane="topRight" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18240,6 +18334,263 @@
       </c>
       <c r="AB104" s="3">
         <v>44495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>44</v>
+      </c>
+      <c r="B105" s="5">
+        <v>88</v>
+      </c>
+      <c r="C105" s="5">
+        <v>84</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E105" s="3">
+        <v>44529</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y105" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB105" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="5">
+        <v>44</v>
+      </c>
+      <c r="B106" s="5">
+        <v>88</v>
+      </c>
+      <c r="C106" s="5">
+        <v>85</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E106" s="3">
+        <v>44529</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G106" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y106" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>44</v>
+      </c>
+      <c r="B107" s="5">
+        <v>88</v>
+      </c>
+      <c r="C107" s="5">
+        <v>86</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E107" s="3">
+        <v>44529</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G107" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y107" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB107" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="5">
+        <v>44</v>
+      </c>
+      <c r="B108" s="5">
+        <v>89</v>
+      </c>
+      <c r="C108" s="5">
+        <v>87</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" s="3">
+        <v>44529</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+      <c r="P108" s="1">
+        <v>1</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y108" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA108" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>44531</v>
       </c>
     </row>
   </sheetData>
@@ -18523,6 +18874,18 @@
     <hyperlink ref="G104" r:id="rId275" xr:uid="{F568B58A-C7F8-F343-B443-C7F9B04683AA}"/>
     <hyperlink ref="H104" r:id="rId276" xr:uid="{61DE6F9A-3E20-1D41-9C1C-13BFCB7C5727}"/>
     <hyperlink ref="Y104" r:id="rId277" xr:uid="{4CC37D54-F9FE-DA4E-A591-83015548EDA4}"/>
+    <hyperlink ref="G105" r:id="rId278" xr:uid="{06DE48B2-1560-884D-B83A-022B946EAA3C}"/>
+    <hyperlink ref="H105" r:id="rId279" xr:uid="{9F1E4ABB-CA30-2142-94CF-226C1ACF52F3}"/>
+    <hyperlink ref="Y105" r:id="rId280" xr:uid="{651028BA-D032-E84B-BC8F-D7FCB561DA97}"/>
+    <hyperlink ref="Y106" r:id="rId281" xr:uid="{6207EEAC-839C-7540-B51A-B5AFCBE639A0}"/>
+    <hyperlink ref="G106" r:id="rId282" xr:uid="{03862A75-D91E-3046-B0FE-B29EA9FF642F}"/>
+    <hyperlink ref="H106" r:id="rId283" xr:uid="{806DCA30-6195-C045-969B-C398802BC0EA}"/>
+    <hyperlink ref="Y107" r:id="rId284" xr:uid="{2CD24A37-9462-E34A-BB46-9A1AEE64A02B}"/>
+    <hyperlink ref="G107" r:id="rId285" xr:uid="{36881FF9-6814-CF4B-AE08-2393FF54EB58}"/>
+    <hyperlink ref="H107" r:id="rId286" xr:uid="{5C7611C8-A3A1-C44E-B0DE-A846A4DF09C7}"/>
+    <hyperlink ref="G108" r:id="rId287" xr:uid="{54BE7CE9-2295-3E43-977C-2277DB1D2612}"/>
+    <hyperlink ref="H108" r:id="rId288" xr:uid="{E7DB7FE3-6652-154F-94F1-B0391A3A2BCA}"/>
+    <hyperlink ref="Y108" r:id="rId289" xr:uid="{564F072C-7707-5041-8874-85D2AF45632B}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v01:12:2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v13:02:2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EF811-C003-6F47-844D-D06D1A18A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B399EB7-C647-0243-AE68-845FA1E2944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="460" windowWidth="19560" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="565">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2717,6 +2717,177 @@
   </si>
   <si>
     <t>https://www.facebook.com/gohmengseng.freedom/posts/10224021069127724</t>
+  </si>
+  <si>
+    <t>Minister for Health Instructs POFMA Office to Issue Correction Direction 3 Dec 2021</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-moh-3Dec2021-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually031221</t>
+  </si>
+  <si>
+    <t>FOR IMMEDIATE REPORTING
+ISSUANCE OF CORRECTION DIRECTION UNDER THE
+PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION
+ACT ON FALSEHOODS ON COVID-19 AND THE OMICRON
+VARIANT
+A video posted by Goh Meng Seng on 27 November 2021 on various online
+locations on Facebook contained false and egregious claims about the Omicron
+variant of the COVID-19 virus. In particular, there is currently no basis to conclude that:
+(i) The COVID-19 and HIV viruses could combine and become another airborne virus; and
+(ii) Omicron is vaccine-resistant, and vaccines are totally useless against it.
+2. The Minister for Health has instructed the Protection from Online Falsehoods
+and Manipulation Act (POFMA) Office to issue a Correction Direction to Goh Meng
+Seng for these falsehoods. Goh is required to publish the correction notices as
+specified by POFMA Office for each Facebook post containing the falsehoods.
+Corrections and clarifications on falsehoods regarding COVID-19 and the
+Omicron variant in Facebook posts by Goh Meng Seng
+3. The Facebook post is misleading and seeks to sow public confusion about the
+COVID-19 virus as well as mistrust of COVID-19 vaccines in stating that:
+i. The COVID-19 and HIV viruses could combine and become another
+virus which has the characteristics of the HIV and COVID-19 viruses;
+ii. The COVID-19 and HIV viruses could combine in a fully vaccinated
+patient to become an airborne HIV virus which is vaccine resistant;
+iii. It has been scientifically established that the Omicron variant is most
+probably the combination of the HIV and COVID-19 viruses, which
+combination had happened before 4 June 2021; and
+iv. The currently available vaccines are totally useless against the
+Omicron variant.
+4. These claims are false and without any scientific basis. Genetic recombination
+(that is, the exchange of genetic information) of viruses is known to occur only in
+genetically related viruses. The HIV and SARS-CoV-2 viruses are not related, and it
+is implausible in biological terms that these viruses can undergo genetic recombination.
+To date, there is also no scientific evidence that such a recombination between HIV
+and SARS-CoV-2 has occurred, contrary to Goh’s assertion. 
+5. The claim that HIV might become transmissible by droplets in the air is also
+unfounded. Viruses simply do not change drastically enough to take on vastly different
+properties. HIV is transmitted via bodily fluids, e.g., blood, semen, or vaginal
+secretions, and will remain to be so.
+6. There is simply no scientific evidence to make the claim that the Omicron
+variant is a combination of the HIV and COVID-19 viruses.
+7. There is no evidence to suggest that the currently available COVID-19 vaccines
+are totally useless against the Omicron variant.
+8. Studies are ongoing, and there is currently insufficient data on how the Omicron
+variant affects vaccine effectiveness. Most scientists believe that existing vaccines will
+retain some effectiveness against the Omicron variant, but protection may be less due
+to the large number of mutations in the Omicron variant.
+9. For facts of the case, please refer to the Factually article “Corrections and
+Clarifications on falsehoods regarding content about COVID-19 and the Omicron
+variant in a Facebook post by Goh Meng Seng” at
+https://www.gov.sg/article/factually031221”.
+10. The Government takes a serious view of these falsehoods and a police report
+has been made in relation to the video.
+11. We advise members of the public not to speculate and/or spread misinformation
+which may cause public alarm, and to refer to credible sources of information instead.
+Please visit www.moh.gov.sg for the latest information on COVID-19 and COVID-19
+vaccinations.
+MINISTRY OF HEALTH
+3 DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>A video posted by Goh Meng Seng on 27 November 2021 on various online locations on Facebook contained false and egregious claims about the Omicron variant of the COVID-19 virus. In particular, there is currently no basis to conclude that:
+(i) The COVID-19 and HIV viruses could combine and become another air-borne virus; and
+(ii) Omicron is vaccine-resistant, and vaccines are totally useless against it.
+Here are the facts.
+Fact #1: The COVID-19 and HIV viruses cannot combine and become another virus which has the characteristics of the HIV and COVID-19 viruses.
+Genetic recombination (that is, the exchange of genetic information) of viruses is known to occur only in genetically related viruses. The HIV and SARS-CoV-2 viruses are not related, and it is implausible in biological terms that these viruses can undergo genetic recombination. To date, there is also no scientific evidence that such a recombination between HIV and SARS-CoV-2 has occurred, contrary to Goh’s assertion.
+Fact #2: The COVID-19 and HIV viruses cannot combine in a fully vaccinated patient to become an airborne HIV virus which is vaccine resistant.
+The claim that HIV might become transmissible by droplets in the air is also unfounded. Viruses simply do not change drastically enough to take on vastly different properties.  HIV is transmitted via bodily fluids, e.g., blood, semen, or vaginal secretions, and will remain to be so.
+Fact #3: The Omicron variant is not a combination of the HIV and COVID-19 viruses.
+There is simply no scientific evidence to make that claim.
+Fact #4: There is no evidence to suggest that the currently available COVID-19 vaccines are totally useless against the Omicron variant.
+Studies are ongoing, and there is currently insufficient data on how the Omicron variant affects vaccine effectiveness. Most scientists believe that existing vaccines will retain some effectiveness against the Omicron variant, but protection may be less due to the large number of mutations in the Omicron variant.
+We advise members of the public not to speculate and/or spread misinformation which may cause public alarm, and to refer to credible sources of information instead. Please visit www.moh.gov.sg for the latest information on COVID-19 and COVID-19 vaccinations.</t>
+  </si>
+  <si>
+    <t>shared the initial video on Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100063775027237</t>
+  </si>
+  <si>
+    <t>Inaccessible</t>
+  </si>
+  <si>
+    <t>Goh Meng Seng Facebook Post 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100057774472615</t>
+  </si>
+  <si>
+    <t>The press release indicates that the video was posted "on various online locations on Facebook." As these posts cannot currently be found, it is unclear how many distinct social media posts were affected by this POFMA use.</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore Instagram Post 1</t>
+  </si>
+  <si>
+    <t>Minister in the PMO and Leader of the House Instructs POFMA Office To Issue Correction…</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-ind-12Feb2022-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually120222</t>
+  </si>
+  <si>
+    <t>The Minister in the Prime Minister’s Office and Leader of the House</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore</t>
+  </si>
+  <si>
+    <t>PRESS RELEASE
+ ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT TO WAKE UP,
+SINGAPORE
+The Minister in the Prime Minister’s Office and Leader of the House has instructed the POFMA Office to issue a Correction Direction to ‘Wake Up, Singapore’ in relation to its Facebook and Instagram posts dated 10 February 2022. It will be required to carry correction notices on its Facebook and Instagram pages, stating that the posts contain a false statement of fact.
+2. Wake Up, Singapore’s posts contained a false statement that the Committee of Privileges recommended that Mr Pritam Singh and Mr Muhamad Faisal Bin Abdul Manap be referred for criminal proceedings, even though there was no finding by the Committee that they lied. In making this false statement, the posts suggested that the Committee had recommended referring Mr Singh and Mr Faisal to the Public Prosecutor without basis. The posts published by Wake Up, Singapore misrepresent the Committee’s findings and muddy the waters as to the proper role of the Committee.
+3. For the facts of the case, please refer to the Factually article “Corrections and Clarifications on falsehoods by Wake Up, Singapore regarding the recommendations of the Committee of Privileges” at https://www.gov.sg/article/factually120222.
+12 February 2022</t>
+  </si>
+  <si>
+    <t>1. On 10 February 2022, Wake Up Singapore published posts on its Instagram and Facebook accounts (“the posts”) which contain a false statement of fact.
+Falsehood
+2. The posts falsely convey that the Committee of Privileges (“the Committee”) recommended that Mr Pritam Singh (“Mr Singh”) and Mr Muhamad Faisal Bin Abdul Manap (“Mr Faisal”) be referred for criminal proceedings, even though there was no finding by the Committee that they lied.
+3. This is false in various respects.
+4. The Committee expressly found that Mr Singh, Ms Lim and Mr Faisal had lied in their evidence before the Committee.
+5. The Committee’s recommendation that Mr Singh be referred to the Public Prosecutor was based on this finding which it made, that Mr Singh had lied on oath (which is a possible offence of perjury).
+6. The Committee did not recommend referring Mr Faisal Manap to the Public Prosecutor for lying to the Committee. The Committee recommended referring Mr Faisal for repeatedly refusing to answer relevant questions put to him by the Committee.
+Facts
+7. In the report that the Committee presented to Parliament on 10 February 2022 (Parl. 13 of 2022) regarding the complaint against Ms Raeesah Khan (“Ms Khan”) for the Untruth spoken in Parliament (“the report”), the Committee had expressly found that Mr Singh, Ms Sylvia Lim (“Ms Lim”) and Mr Faisal had lied in their testimony before the Committee:
+“… in reaching our findings above, we are satisfied that Mr Singh (and to a lesser extent, Mr Faisal and Ms Lim), have been untruthful in their evidence, under oath, to this Committee. This may amount to perjury, a serious criminal offence, in respect of which, various consequences could follow. We elaborate on that below.”1
+“Based on the evidence before this Committee, we are satisfied that Mr Singh had told untruths to this Committee.”2
+“We are satisfied, on the evidence, that Mr Singh lied on affirmation…”3
+“Based on the evidence available to us, we are likewise satisfied that Ms Lim and Mr Faisal have lied about the 8 Aug meeting.”4
+“They [Ms Lim and Mr Faisal] did not tell the truth to this Committee about that meeting.”5
+8. The Committee found that Mr Singh (and to a lesser extent, Mr Faisal and Ms Lim) were untruthful in their evidence, under oath, to the Committee.
+9. The Committee found that Mr Singh lied to the Committee on the key points, as to what had happened, and tried to conceal his involvement in Ms Khan’s Untruth.
+10. The Committee found that Mr Singh lied in order to put the entire blame on Ms Khan – when, in fact, she had, from 8 August 2021, followed his advice and guidance. He said two other witnesses, Ms Loh Pei Ying (“Ms Loh”) and Mr Yudhishthra Nathan (“Mr Nathan”) (Workers’ Party cadre members), lied. He said this, in an attempt to save himself, and avoid responsibility for his own conduct. The Committee found that Ms Loh and Mr Nathan were honest and credible witnesses, who spoke the truth.   
+11. The Committee found that contrary to his evidence, Mr Singh was the operating brain, the primary cause for: (1) why Ms Khan did not clarify the Untruth immediately after 8 August 2021, and (2) why Ms Khan repeated the Untruth in Parliament on 4 October 2021. This was consequent on its findings that:
+On 8 August 2021, when Ms Khan confessed the Untruth to Mr Singh, Ms Lim and Mr Faisal, Mr Singh told Ms Khan to “take it to the grave”, i.e. take the Untruth to the grave. (The Committee also found that Ms Lim and Mr Faisal lied to the Committee about the 8 August 2021 meeting.)
+On 3 October 2021, Mr Singh guided Ms Khan to maintain the Untruth in Parliament, if the matter came up the next day. He told Ms Khan that if she were to retain or continue with the narrative (the Untruth), “there would be no judgment” on her.
+After Ms Khan confessed in Parliament, and when there was adverse public reaction, Mr Singh, as the Secretary-General of Workers’ Party (and Ms Lim and Mr Faisal) engineered a Disciplinary Panel (comprised only of themselves). He advised Ms Khan to lie, then held the Disciplinary Inquiry to ostensibly find out why she had lied. The Disciplinary Inquiry suppressed the fact that Mr Singh, Ms Lim and Mr Faisal had known and been involved in Ms Khan’s Untruth, for 3 months, and covered up Mr Singh’s role, in guiding Ms Khan to continue with the Untruth on 4 October 2021.  
+12. Parliament has the power to impose penalties on Mr Singh, based on the Committee’s findings that he lied on oath (which is an offence under the Parliament (Privileges, Immunities and Powers) Act 1962).
+13. The Committee however has recommended referring Mr Singh’s conduct to the Public Prosecutor, so that Mr Singh will have the opportunity to defend and vindicate himself, with legal counsel, if criminal charges are brought, and so that a court can look at the matter afresh, and consider any further evidence that may emerge, and decide whether any charge(s) have been proved, or not proved, beyond reasonable doubt.
+14. The Committee also found that Mr Faisal deliberately refused to answer a question put by the Committee. He refused eight times, even though he was told that such refusal to answer may be an offence. He has been referred to the Public Prosecutor for his conduct, in refusing to answer.
+1 Para 221(2)
+2 Para 231
+3 Para 233(1)
+4 Para 234
+5 Para 226</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CZyi9lglvf8/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wakeupSG/posts/2175602369272043</t>
+  </si>
+  <si>
+    <t>Minister in the Prime Minister's Office and Leader of the House (Indranee Rajah)</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +3020,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2968,9 +3139,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3274,10 +3442,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,10 +3670,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$16</c:f>
+              <c:f>Summary!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3548,15 +3716,21 @@
                 <c:pt idx="13">
                   <c:v>44501</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$16</c:f>
+              <c:f>Summary!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3593,6 +3767,9 @@
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3628,10 +3805,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$16</c:f>
+              <c:f>Summary!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3674,15 +3851,21 @@
                 <c:pt idx="13">
                   <c:v>44501</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$16</c:f>
+              <c:f>Summary!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3724,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,7 +4297,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,9 +4574,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$33:$K$51</c:f>
+              <c:f>Summary!$K$33:$K$52</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
@@ -4448,15 +4634,18 @@
                 <c:pt idx="18">
                   <c:v>Minister for Manpower (Tan See Leng)</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>Minister in the Prime Minister's Office and Leader of the House (Indranee Rajah)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$33:$L$51</c:f>
+              <c:f>Summary!$L$33:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4509,9 +4698,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4933,7 +5125,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
@@ -4945,7 +5137,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -9056,8 +9248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9115,18 +9307,18 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B16)</f>
-        <v>44</v>
+        <f>SUM(B3:B18)</f>
+        <v>45</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C16)</f>
-        <v>45</v>
+        <f>SUM(C3:C18)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9215,7 +9407,7 @@
         <v>453</v>
       </c>
       <c r="Z7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -9266,7 +9458,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9395,11 +9587,31 @@
       <c r="AI16" s="25"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A17" s="39">
+        <v>44531</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>SUM(B17:C17)</f>
+        <v>1</v>
+      </c>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A18" s="39">
+        <v>44593</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>SUM(B18:C18)</f>
+        <v>1</v>
+      </c>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
@@ -9514,7 +9726,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9649,7 +9861,7 @@
         <v>468</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
@@ -9667,10 +9879,16 @@
       <c r="AC51" s="26"/>
       <c r="AD51" s="26"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
+      <c r="K52" t="s">
+        <v>564</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
       <c r="AC52" s="26"/>
       <c r="AD52" s="26"/>
     </row>
@@ -10892,11 +11110,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL108"/>
+  <dimension ref="A1:IL112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C107" sqref="C107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18355,10 +18573,10 @@
       <c r="F105" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G105" s="40" t="s">
+      <c r="G105" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="23" t="s">
         <v>530</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -18385,7 +18603,7 @@
       <c r="X105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y105" s="40" t="s">
+      <c r="Y105" s="23" t="s">
         <v>534</v>
       </c>
       <c r="Z105" s="1" t="s">
@@ -18417,10 +18635,10 @@
       <c r="F106" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G106" s="40" t="s">
+      <c r="G106" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H106" s="40" t="s">
+      <c r="H106" s="23" t="s">
         <v>530</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -18447,7 +18665,7 @@
       <c r="X106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y106" s="40" t="s">
+      <c r="Y106" s="23" t="s">
         <v>536</v>
       </c>
       <c r="Z106" s="1" t="s">
@@ -18479,10 +18697,10 @@
       <c r="F107" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="G107" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="23" t="s">
         <v>530</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -18509,7 +18727,7 @@
       <c r="X107" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y107" s="40" t="s">
+      <c r="Y107" s="23" t="s">
         <v>538</v>
       </c>
       <c r="Z107" s="1" t="s">
@@ -18541,10 +18759,10 @@
       <c r="F108" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G108" s="40" t="s">
+      <c r="G108" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H108" s="40" t="s">
+      <c r="H108" s="23" t="s">
         <v>530</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -18580,7 +18798,7 @@
       <c r="X108" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y108" s="40" t="s">
+      <c r="Y108" s="23" t="s">
         <v>541</v>
       </c>
       <c r="Z108" s="1" t="s">
@@ -18591,6 +18809,272 @@
       </c>
       <c r="AB108" s="3">
         <v>44531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="5">
+        <v>45</v>
+      </c>
+      <c r="B109" s="5">
+        <v>90</v>
+      </c>
+      <c r="C109" s="5">
+        <v>88</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E109" s="3">
+        <v>44533</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+      <c r="P109" s="1">
+        <v>1</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y109" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z109" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA109" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB109" s="3">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>45</v>
+      </c>
+      <c r="B110" s="5">
+        <v>90</v>
+      </c>
+      <c r="C110" s="5">
+        <v>89</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E110" s="3">
+        <v>44533</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1">
+        <v>1</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y110" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA110" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="5">
+        <v>46</v>
+      </c>
+      <c r="B111" s="5">
+        <v>91</v>
+      </c>
+      <c r="C111" s="5">
+        <v>90</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E111" s="3">
+        <v>44604</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P111" s="1">
+        <v>1</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y111" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB111" s="3">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="5">
+        <v>46</v>
+      </c>
+      <c r="B112" s="5">
+        <v>91</v>
+      </c>
+      <c r="C112" s="5">
+        <v>91</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="E112" s="3">
+        <v>44604</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P112" s="1">
+        <v>1</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y112" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>44604</v>
       </c>
     </row>
   </sheetData>
@@ -18886,6 +19370,18 @@
     <hyperlink ref="G108" r:id="rId287" xr:uid="{54BE7CE9-2295-3E43-977C-2277DB1D2612}"/>
     <hyperlink ref="H108" r:id="rId288" xr:uid="{E7DB7FE3-6652-154F-94F1-B0391A3A2BCA}"/>
     <hyperlink ref="Y108" r:id="rId289" xr:uid="{564F072C-7707-5041-8874-85D2AF45632B}"/>
+    <hyperlink ref="G109" r:id="rId290" xr:uid="{83881E24-5C03-7240-A4AD-4853A3FE0024}"/>
+    <hyperlink ref="H109" r:id="rId291" xr:uid="{12060693-AC9D-B84F-90B8-CAC1B5ABC330}"/>
+    <hyperlink ref="Y109" r:id="rId292" xr:uid="{2E9A25AF-F473-4B42-B03D-A60EB4D9CAE1}"/>
+    <hyperlink ref="G110" r:id="rId293" xr:uid="{2D5DBED2-C75C-214F-B89C-D53930F42A54}"/>
+    <hyperlink ref="H110" r:id="rId294" xr:uid="{487487BC-47FD-2646-8D3B-CE7773BC179A}"/>
+    <hyperlink ref="Y110" r:id="rId295" xr:uid="{7929F9E4-4F19-5549-B181-FF7AF912ECDB}"/>
+    <hyperlink ref="G111" r:id="rId296" xr:uid="{E42063A6-562E-9245-AB5A-B816EBC5207E}"/>
+    <hyperlink ref="H111" r:id="rId297" xr:uid="{E9AF7BD5-8EF5-874F-9050-7C5BD7F173EE}"/>
+    <hyperlink ref="Y112" r:id="rId298" xr:uid="{AFDF2E1D-CC81-504D-B3CA-854ED58DC32E}"/>
+    <hyperlink ref="Y111" r:id="rId299" xr:uid="{897C3BE6-4141-944D-B7DB-92805F132A1E}"/>
+    <hyperlink ref="G112" r:id="rId300" xr:uid="{9F171947-6E46-604B-B277-CB37D2CA8056}"/>
+    <hyperlink ref="H112" r:id="rId301" xr:uid="{85974CBA-6621-C342-9B3F-2D0E1B221004}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v13:02:2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v28:03:2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B399EB7-C647-0243-AE68-845FA1E2944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861C788-0495-3545-845E-9399B1282FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="574">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2888,6 +2888,46 @@
   </si>
   <si>
     <t>Minister in the Prime Minister's Office and Leader of the House (Indranee Rajah)</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore Instagram Post 2</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore Website Article 1</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore Facebook Post 2</t>
+  </si>
+  <si>
+    <t>Minister for Health Instructs POFMA Office to Issue Correction Direction 27 Mar 2022</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-moh-27Mar2022-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually260322</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE FALSEHOODS AND MANIPULATION ACT 2019 ON FALSEHOODS REGARDING PATIENT WHO ALLEGEDLY SUFFERED MISCARRIAGE AFTER FOUR HOUR WAIT AT KKH
+The Ministry of Health (MOH) is aware that “Wake Up, Singapore” (WUSG) had posted allegations across its website, Facebook, and Instagram pages on 23 March 2022, which claimed that a COVID-positive patient who was 20 weeks pregnant had suffered a miscarriage after waiting four hours to see a doctor at KK Women’s and Children’s Hospital (KKH) A&amp;E department in February 2022. These allegations are false.
+2. KKH had identified the patient in question based on a screenshot of a hospital bill accompanying WUSG’s posts, which contained discrepancies with the patient’s account of events. Subsequent investigations by KKH have confirmed that the patient had been seen by a doctor within an hour of her arrival at KKH in February 2022, and did not suffer any miscarriage.
+3. On 25 March 2022, WUSG published further posts on its Facebook and Instagram pages, stating that they have been informed by the patient that her recollection was false, and that WUSG “may have been fed lies at every turn”. WUSG has also apologised to KKH for publishing these allegations.
+4. Notwithstanding WUSG’s apology, the allegations are serious and have been circulated to various other platforms. This could lead to the erosion of public trust in the credibility and professionalism of our healthcare system and institutions. Accordingly, the Minister for Health has instructed the Protection from Online Falsehoods and Manipulation Act (POFMA) Office to issue a Correction Direction to “Wake Up, Singapore” in respect of the falsehoods, to ensure that the public is provided with the full facts. “Wake Up, Singapore” is required to publish the correction notices as specified by the POFMA Office for each webpage and social media post containing the falsehoods.
+5. The Government takes a serious view of these falsehoods, which appear to have been fabricated. The matter has been referred to the relevant authorities for investigation. KKH had also lodged a Police Report on 25 March 2022.
+6. For facts of the case, please refer to the Factually article “Corrections regarding patient who allegedly suffered miscarriage after four-hour wait at KKH at https://www.gov.sg/article/factually260322”.
+7. We urge the public not to spread unsubstantiated information, which may cause public alarm.
+MINISTRY OF HEALTH 27 MARCH 2022</t>
+  </si>
+  <si>
+    <t>The Ministry of Health (MOH) is aware that “Wake Up, Singapore” (WUSG) had posted allegations across its website, Facebook, and Instagram pages on 23 March 2022, which claimed that a COVID-positive patient who was 20 weeks pregnant had suffered a miscarriage after waiting four hours to see a doctor at KK Women’s and Children’s Hospital (KKH) A&amp;E department in February 2022. These allegations are false. 
+Facts of the case: 
+KKH had identified the patient in question based on a screenshot of a hospital bill accompanying WUSG’s posts, which contained discrepancies with the patient’s account of events. 
+Subsequent investigations by KKH have confirmed that the patient had been seen by a doctor within an hour of her arrival at KKH in February 2022, and did not suffer any miscarriage.
+On 25 March 2022, WUSG published further posts on its Facebook and Instagram pages, stating that they have been informed by the patient that her recollection was false, and that WUSG “may have been fed lies at every turn”. WUSG has also apologised to KKH for publishing these allegations.
+The allegations are serious and have been circulated to various other platforms. This could lead to the erosion of public trust in the credibility and professionalism of our healthcare system and institutions. Accordingly, the Minister for Health has instructed the Protection from Online Falsehoods and Manipulation Act (POFMA) Office to issue a Correction Direction to “Wake Up, Singapore” in respect of the falsehoods, to ensure that the public is provided with the full facts. “Wake Up, Singapore” is required to publish the correction notices as specified by the POFMA Office for each webpage and social media post containing the falsehoods.</t>
+  </si>
+  <si>
+    <t>Wake Up Singapore were the first to post allegations submitted to them by another social media user</t>
   </si>
 </sst>
 </file>
@@ -3445,7 +3485,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4337,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,7 +4738,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -5125,10 +5165,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -5137,7 +5177,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -9248,8 +9288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9307,18 +9347,18 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B18)</f>
+        <f>SUM(B3:B19)</f>
         <v>45</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C18)</f>
-        <v>46</v>
+        <f>SUM(C3:C19)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9338,7 +9378,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -9407,7 +9447,7 @@
         <v>453</v>
       </c>
       <c r="Z7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
@@ -9458,7 +9498,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9617,6 +9657,16 @@
       <c r="AI18" s="26"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A19" s="39">
+        <v>44621</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>SUM(B19:C19)</f>
+        <v>1</v>
+      </c>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
       <c r="AI19" s="25"/>
@@ -9726,7 +9776,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9861,7 +9911,7 @@
         <v>468</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC50" s="26"/>
       <c r="AD50" s="26"/>
@@ -11110,11 +11160,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL112"/>
+  <dimension ref="A1:IL115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19075,6 +19125,192 @@
       </c>
       <c r="AB112" s="3">
         <v>44604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>47</v>
+      </c>
+      <c r="B113" s="5">
+        <v>92</v>
+      </c>
+      <c r="C113" s="5">
+        <v>92</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="E113" s="3">
+        <v>44619</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P113" s="1">
+        <v>1</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB113" s="3">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
+        <v>47</v>
+      </c>
+      <c r="B114" s="5">
+        <v>92</v>
+      </c>
+      <c r="C114" s="5">
+        <v>93</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="E114" s="3">
+        <v>44619</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P114" s="1">
+        <v>1</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB114" s="3">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>47</v>
+      </c>
+      <c r="B115" s="5">
+        <v>92</v>
+      </c>
+      <c r="C115" s="5">
+        <v>94</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E115" s="3">
+        <v>44619</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P115" s="1">
+        <v>1</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z115" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB115" s="3">
+        <v>44620</v>
       </c>
     </row>
   </sheetData>
@@ -19382,6 +19618,12 @@
     <hyperlink ref="Y111" r:id="rId299" xr:uid="{897C3BE6-4141-944D-B7DB-92805F132A1E}"/>
     <hyperlink ref="G112" r:id="rId300" xr:uid="{9F171947-6E46-604B-B277-CB37D2CA8056}"/>
     <hyperlink ref="H112" r:id="rId301" xr:uid="{85974CBA-6621-C342-9B3F-2D0E1B221004}"/>
+    <hyperlink ref="G113" r:id="rId302" xr:uid="{7AEDBA27-9719-DC4E-BFD5-D041D5AA373B}"/>
+    <hyperlink ref="H113" r:id="rId303" xr:uid="{A68C0A7A-CC0D-764D-9B26-D2B00B853930}"/>
+    <hyperlink ref="G114" r:id="rId304" xr:uid="{C41771F5-D548-8849-9AAA-E76CBE2CF250}"/>
+    <hyperlink ref="G115" r:id="rId305" xr:uid="{0867EEC8-A31C-4E48-B0E4-A2B0F237A31F}"/>
+    <hyperlink ref="H114" r:id="rId306" xr:uid="{A5076124-C4BB-5B40-B2D7-0BCD18D2A64C}"/>
+    <hyperlink ref="H115" r:id="rId307" xr:uid="{CA9DFC5B-A8A1-B140-A205-DDBD3D87E708}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v28:03:2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v01:04:2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861C788-0495-3545-845E-9399B1282FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A763EB4-C870-CC4B-A61E-EACCD9CD4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="582">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2928,6 +2928,41 @@
   </si>
   <si>
     <t>Wake Up Singapore were the first to post allegations submitted to them by another social media user</t>
+  </si>
+  <si>
+    <t>Private User's Facebook Post</t>
+  </si>
+  <si>
+    <t>POFMA Office issues warning to woman for COVID 19 falsehood</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-pofma-31Mar2022-01.pdf</t>
+  </si>
+  <si>
+    <t>POFMA Office</t>
+  </si>
+  <si>
+    <t>Conditional Warning</t>
+  </si>
+  <si>
+    <t>Facebook user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Media Statement
+POFMA Office issues warning to woman for COVID-19 falsehood
+Singapore – 31 March 2022: The POFMA Office has issued a conditional warning to a 47-year-old Singaporean woman for making a statement knowing or having reason to believe that it is false and likely to harm the public interest.
+On 14 August 2021, she made a false statement on Facebook that a three-year-old pre- schooler had passed away from COVID-19 at KK Women’s and Children’s Hospital (KKH), and that the death was deliberately not reported. The falsehood caused public alarm and ran counter to efforts to combat the COVID-19 virus. On 15 August 2021, a POFMA direction was issued to Facebook to carry a Correction Notice to all Facebook users in Singapore1 to inform them of the falsehood. For facts of the case, please refer to the Factually article “Corrections and Clarifications Regarding Falsehoods on alleged death of three-year-old girl from COVID-19” at https://www.gov.sg/article/factually150821.
+Investigations revealed that she had concocted the falsehood based on hearsay from an acquaintance. She was aware that no such death of a pre-schooler had been reported and yet went ahead to post the falsehood. Investigations also revealed that she had taken steps to evade identification by using a social media account with a fictitious name to post the false statement, and further falsely represented that she “[had] permission from [the] girl’s mummy to post on FB”.
+Online falsehoods that sow public confusion affects lives and harms society. The Government takes a serious view of the deliberate communication of these false statements.
+For facts of the case, please refer to the Factually article “Corrections and Clarifications Regarding Falsehoods on alleged death of three-year-old girl from COVID-19 at https://www.gov.sg/article/factually150821
+ After considering all aspects of the case, the POFMA Office issued a 24-month conditional warning to the woman. If she reoffends during this period, she can be prosecuted for the original crime. An offence under section 7 of the POFMA carries a fine of up to $50,000, an imprisonment term of up to 5 years, or both.
+Correction directions are POFMA’s primary tools that require a notice next to the original post, with a link to Government’s clarifications. The clarification sets out the facts without the original post being removed. Readers can therefore read both the original post and the facts.
+Since POFMA took effect in Oct 2019, the majority of cases where POFMA has been invoked involve COVID-19 falsehoods. Statistics on POFMA cases are available on the POFMA website.
+About the POFMA Office
+The POFMA Office, situated within the Infocomm Media Development Authority (IMDA), is responsible for the administration of the Protection from Online Falsehoods and Manipulation Act (POFMA). For more information about POFMA Office, visit www.pofmaoffice.gov.sg.</t>
+  </si>
+  <si>
+    <t>Follow-up to correction direction issued on 15 August 2021</t>
   </si>
 </sst>
 </file>
@@ -3485,7 +3520,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,10 +3745,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$18</c:f>
+              <c:f>Summary!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3762,15 +3797,18 @@
                 <c:pt idx="15">
                   <c:v>44593</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>44621</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$18</c:f>
+              <c:f>Summary!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3845,10 +3883,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$18</c:f>
+              <c:f>Summary!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3897,15 +3935,18 @@
                 <c:pt idx="15">
                   <c:v>44593</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>44621</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$18</c:f>
+              <c:f>Summary!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3950,6 +3991,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,9 +4341,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$33:$A$37</c:f>
+              <c:f>Summary!$A$33:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>General Correction Direction</c:v>
                 </c:pt>
@@ -4315,15 +4359,18 @@
                 <c:pt idx="4">
                   <c:v>Correction Direction</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Conditional Warning</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$33:$B$37</c:f>
+              <c:f>Summary!$B$33:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4338,6 +4385,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,9 +4664,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$K$33:$K$52</c:f>
+              <c:f>Summary!$K$33:$K$53</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Alternate Authority for Minister for Manpower (Aubeck Kam)</c:v>
                 </c:pt>
@@ -4677,15 +4727,18 @@
                 <c:pt idx="19">
                   <c:v>Minister in the Prime Minister's Office and Leader of the House (Indranee Rajah)</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>POFMA Office</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$L$33:$L$52</c:f>
+              <c:f>Summary!$L$33:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4744,6 +4797,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9288,8 +9344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView topLeftCell="J29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9358,7 +9414,7 @@
       </c>
       <c r="AN3" s="7">
         <f>SUM(C3:C19)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -9586,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>SUM(B14:C14)</f>
+        <f t="shared" ref="D14:D19" si="0">SUM(B14:C14)</f>
         <v>1</v>
       </c>
       <c r="AG14" s="25"/>
@@ -9604,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <f>SUM(B15:C15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AG15" s="26"/>
@@ -9619,7 +9675,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <f>SUM(B16:C16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AG16" s="25"/>
@@ -9634,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>SUM(B17:C17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG17" s="25"/>
@@ -9649,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f>SUM(B18:C18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG18" s="26"/>
@@ -9661,11 +9717,11 @@
         <v>44621</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <f>SUM(B19:C19)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
@@ -9786,6 +9842,12 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="28" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
       <c r="K38" s="7" t="s">
         <v>413</v>
       </c>
@@ -9942,10 +10004,16 @@
       <c r="AC52" s="26"/>
       <c r="AD52" s="26"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
+      <c r="K53" t="s">
+        <v>577</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
       <c r="AC53" s="26"/>
       <c r="AD53" s="26"/>
     </row>
@@ -11160,11 +11228,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL115"/>
+  <dimension ref="A1:IL116"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18216,7 +18284,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E99" s="3">
         <v>44423</v>
@@ -19311,6 +19379,68 @@
       </c>
       <c r="AB115" s="3">
         <v>44620</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>48</v>
+      </c>
+      <c r="B116" s="5">
+        <v>93</v>
+      </c>
+      <c r="C116" s="5">
+        <v>80</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="E116" s="3">
+        <v>44651</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S116" s="1">
+        <v>1</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>44652</v>
       </c>
     </row>
   </sheetData>
@@ -19624,6 +19754,8 @@
     <hyperlink ref="G115" r:id="rId305" xr:uid="{0867EEC8-A31C-4E48-B0E4-A2B0F237A31F}"/>
     <hyperlink ref="H114" r:id="rId306" xr:uid="{A5076124-C4BB-5B40-B2D7-0BCD18D2A64C}"/>
     <hyperlink ref="H115" r:id="rId307" xr:uid="{CA9DFC5B-A8A1-B140-A205-DDBD3D87E708}"/>
+    <hyperlink ref="G116" r:id="rId308" xr:uid="{F0F5490D-3418-5A49-8AF7-7696DF182DE0}"/>
+    <hyperlink ref="H116" r:id="rId309" xr:uid="{07903BEC-553A-8545-BE84-CF8E72F27B3D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v01:04:2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v22:04:2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A763EB4-C870-CC4B-A61E-EACCD9CD4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDA59D-54F5-EC45-B068-E48CAB9D08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="598">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -2963,6 +2963,81 @@
   </si>
   <si>
     <t>Follow-up to correction direction issued on 15 August 2021</t>
+  </si>
+  <si>
+    <t>The Independent Singapore Website Article 2</t>
+  </si>
+  <si>
+    <t>The Independent Singapore Facebook Post 2</t>
+  </si>
+  <si>
+    <t>The Independent Singapore Tweet 1</t>
+  </si>
+  <si>
+    <t>Minister of Law Instructs POFMA Office to Issue Correction Directions 22 April 2022</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-mlaw-22Apr2022-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually220422</t>
+  </si>
+  <si>
+    <t>Minister of Law</t>
+  </si>
+  <si>
+    <t>Toh Shih Han</t>
+  </si>
+  <si>
+    <t>Issuance of Correction Direction under the Protection from Online Falsehoods and Manipulation Act to “The Independent Singapore”
+On 21 April 2022, “The Independent Singapore” (“TISG”) published an article with the headline “K Shanmugam says he may step down as Singapore’s Minister of Law and Home Affairs” on its website, Facebook page and Twitter account. The headline was clickbait, giving the false impression that the Minister for Law and Home Affairs said he may be stepping down from his ministerial positions. The author of the article, Mr Toh Han Shih (“Mr Toh”), also shared TISG’s article on his Twitter account on 21 April 2022.
+2. Additionally, the first paragraph of the article stated that the Minister “revealed” in an interview with Vanakkam Malaysia that he may step down as Singapore’s Minister for Law and Home Affairs, but gave no specific time as to when he might do so. Again, this gave the false impression that the Minister said he may be stepping down from his ministerial positions.
+3. The Minister for Law has instructed for Correction Directions, under the Protection from Online Falsehoods and Manipulation Act (POFMA), to be issued to TISG and Mr Toh. TISG and Mr Toh will be required to carry correction notices on their online platforms that published the article, stating that it contains a false statement of fact.
+Clarifications on the False Statement
+4. The Minister did not say during the video interview with Vanakkam Malaysia that he may be stepping down from his ministerial positions or that he is contemplating doing so.
+5. In the interview mentioned in the article, the Minister said that:
+a. He considers serving people a privilege, which not everyone gets a chance to do.
+b. He must be ready to leave when he no longer has the people’s support. c. He should be ready to move on when there are capable leaders to
+replace him.
+d. He has maintained transparency in both his words and actions and will
+continue to do that, and if he can no longer continue to do so, he will leave his ministerial posts.
+6. It is quite false to state, from the interview, that the Minister said that he may be
+stepping down from his positions. In addition, viewing the whole video will show that
+the Minister, when he spoke about his own views, also intended his comments to be of general application, for persons holding Ministerial appointments (when seen in the context of past comments of the PAP leadership, and history of the PAP).
+7. The headline “K Shanmugam says he may step down as Singapore’s Minister of Law and Home Affairs” was deceptive clickbait, with the falsity repeated in the first paragraph of the article.
+Publication of a Correction Notice
+8. As required by the Correction Directions, TISG and Mr Toh must publish a correction notice alongside the posts. The correction notice provides a link to the Factually article, which lays out the facts and clarifications on the matter, at the following link: https://www.gov.sg/article/factually220422
+MINISTRY OF LAW 22 April 2022</t>
+  </si>
+  <si>
+    <t>On 21 April 2022, “The Independent Singapore” (“TISG”) published an article on its website, Facebook page and Twitter account, containing a false statement. The author of the article, Mr Toh Han Shih (“Mr Toh”), also shared TISG’s article on his Twitter account on 21 April 2022.
+The article had the headline “K Shanmugam says he may step down as Singapore’s Minister of Law and Home Affairs”. The headline was clickbait, giving the false impression that the Minister for Law and Home Affairs said he may be stepping down from his ministerial positions.
+The first paragraph of the article further stated that the Minister had “revealed” in a video interview with Vanakkam Malaysia that “he may step down as a minister, but gave no specific time as to when he might do so”. This again gave the false impression that the Minister said he may be stepping down from his ministerial positions.
+Facts
+The Minister did not say during the video interview with Vanakkam Malaysia that he may be stepping down from his ministerial positions or that he is contemplating doing so.
+Instead, in reply to the interviewer’s question, “Have you ever felt politics is not allowing you to be true to yourself and regretted about it?”, the Minister had reaffirmed his willingness and desire to serve Singapore.
+In his response, the Minister stated:
+“… I consider serving people as a privilege. Not everyone will get the chance. … I am here as a minister because of people’s support and love. The moment when there is no support, I must be ready to leave. … When there are capable leaders to replace me then I should be ready to move on too. Only then will the country progress. … I have maintained transparency in both my words and actions. I clearly tell the public what are the challenges and what do we need to do to overcome them. I will continue to do that. The moment when I feel I can’t keep to that anymore, I will leave my ministerial posts.”
+It is quite false to state that the Minister had said that he may be stepping down from his Ministerial posts. In addition, viewing the whole video will show that the Minister, when he spoke about his own views, also intended his comments to be of general application, for persons holding Ministerial appointments (when seen in the context of past comments of the PAP leadership, and history of the PAP).
+The Minister for Law has instructed the Protection from Online Falsehoods and Manipulation Act (POFMA) Office to issue Correction Directions to TISG and Mr Toh in respect of the falsehoods. The Correction Directions require recipients to insert a notice against the original post, with a link to the Government’s clarification.</t>
+  </si>
+  <si>
+    <t>Author of the article</t>
+  </si>
+  <si>
+    <t>https://theindependent.sg/k-shanmugam-says-he-may-step-down-as-singapores-minister-of-law-and-home-affairs/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TheIndependentSG/posts/2452039451604349</t>
+  </si>
+  <si>
+    <t>https://twitter.com/IndependentSG/status/1517030295794597888</t>
+  </si>
+  <si>
+    <t>Toh Han Shih Tweet 1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/tohhanshih/status/1517035091603881985</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3170,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3207,13 +3282,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3517,7 +3586,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48</c:v>
@@ -3745,10 +3814,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$19</c:f>
+              <c:f>Summary!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3800,15 +3869,18 @@
                 <c:pt idx="16">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$19</c:f>
+              <c:f>Summary!$B$3:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3848,6 +3920,9 @@
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3883,10 +3958,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$19</c:f>
+              <c:f>Summary!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3938,15 +4013,18 @@
                 <c:pt idx="16">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$19</c:f>
+              <c:f>Summary!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4384,7 +4462,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -4770,7 +4848,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
@@ -5221,10 +5299,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -5236,7 +5314,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9344,8 +9422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView topLeftCell="J29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9403,17 +9481,17 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B19)</f>
-        <v>45</v>
+        <f>SUM(B3:B20)</f>
+        <v>47</v>
       </c>
       <c r="AN3" s="7">
-        <f>SUM(C3:C19)</f>
+        <f>SUM(C3:C20)</f>
         <v>48</v>
       </c>
     </row>
@@ -9434,7 +9512,7 @@
         <v>21</v>
       </c>
       <c r="Z4" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG4" s="25"/>
       <c r="AH4" s="26"/>
@@ -9524,11 +9602,11 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="37" t="s">
         <v>464</v>
       </c>
       <c r="Z8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="25"/>
       <c r="AH8" s="26"/>
@@ -9554,7 +9632,7 @@
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9632,16 +9710,16 @@
       <c r="AI13" s="25"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A14" s="39">
+      <c r="A14" s="9">
         <v>44409</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <f t="shared" ref="D14:D19" si="0">SUM(B14:C14)</f>
         <v>1</v>
       </c>
@@ -9650,16 +9728,16 @@
       <c r="AI14" s="26"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A15" s="39">
+      <c r="A15" s="9">
         <v>44470</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -9668,13 +9746,14 @@
       <c r="AI15" s="26"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A16" s="39">
+      <c r="A16" s="9">
         <v>44501</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -9683,13 +9762,14 @@
       <c r="AI16" s="25"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A17" s="39">
+      <c r="A17" s="9">
         <v>44531</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9698,13 +9778,14 @@
       <c r="AI17" s="26"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A18" s="39">
+      <c r="A18" s="9">
         <v>44593</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9713,13 +9794,14 @@
       <c r="AI18" s="26"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A19" s="39">
+      <c r="A19" s="9">
         <v>44621</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -9728,6 +9810,17 @@
       <c r="AI19" s="25"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <f>SUM(B20:C20)</f>
+        <v>2</v>
+      </c>
       <c r="AG20" s="25"/>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
@@ -9832,7 +9925,7 @@
         <v>386</v>
       </c>
       <c r="B37" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>426</v>
@@ -9898,7 +9991,7 @@
         <v>418</v>
       </c>
       <c r="L43" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="14" x14ac:dyDescent="0.15">
@@ -9972,7 +10065,7 @@
       <c r="K50" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="7">
         <v>9</v>
       </c>
       <c r="AC50" s="26"/>
@@ -9985,7 +10078,7 @@
       <c r="K51" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="7">
         <v>1</v>
       </c>
       <c r="AC51" s="26"/>
@@ -9995,10 +10088,10 @@
       <c r="A52" s="33"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
-      <c r="K52" t="s">
+      <c r="K52" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="7">
         <v>1</v>
       </c>
       <c r="AC52" s="26"/>
@@ -10008,10 +10101,10 @@
       <c r="A53" s="33"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
-      <c r="K53" t="s">
+      <c r="K53" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="7">
         <v>1</v>
       </c>
       <c r="AC53" s="26"/>
@@ -11228,11 +11321,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL116"/>
+  <dimension ref="A1:IL120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19441,6 +19534,257 @@
       </c>
       <c r="AB116" s="3">
         <v>44652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <v>49</v>
+      </c>
+      <c r="B117" s="5">
+        <v>94</v>
+      </c>
+      <c r="C117" s="5">
+        <v>95</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="E117" s="3">
+        <v>44673</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y117" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB117" s="3">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
+        <v>49</v>
+      </c>
+      <c r="B118" s="5">
+        <v>94</v>
+      </c>
+      <c r="C118" s="5">
+        <v>96</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E118" s="3">
+        <v>44673</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y118" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>49</v>
+      </c>
+      <c r="B119" s="5">
+        <v>94</v>
+      </c>
+      <c r="C119" s="5">
+        <v>97</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E119" s="3">
+        <v>44673</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N119" s="1">
+        <v>1</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y119" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB119" s="3">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
+        <v>49</v>
+      </c>
+      <c r="B120" s="5">
+        <v>95</v>
+      </c>
+      <c r="C120" s="5">
+        <v>98</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E120" s="3">
+        <v>44673</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y120" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>44673</v>
       </c>
     </row>
   </sheetData>
@@ -19756,6 +20100,18 @@
     <hyperlink ref="H115" r:id="rId307" xr:uid="{CA9DFC5B-A8A1-B140-A205-DDBD3D87E708}"/>
     <hyperlink ref="G116" r:id="rId308" xr:uid="{F0F5490D-3418-5A49-8AF7-7696DF182DE0}"/>
     <hyperlink ref="H116" r:id="rId309" xr:uid="{07903BEC-553A-8545-BE84-CF8E72F27B3D}"/>
+    <hyperlink ref="G117" r:id="rId310" xr:uid="{F07FA7D3-758B-6240-9893-2ABDD9646CAE}"/>
+    <hyperlink ref="H117" r:id="rId311" xr:uid="{FAF0717E-3FC4-3145-A41B-09FA60AD387B}"/>
+    <hyperlink ref="G118" r:id="rId312" xr:uid="{0A6319FB-A4FB-E44C-8F68-7224FC733BED}"/>
+    <hyperlink ref="G119" r:id="rId313" xr:uid="{91B2CE31-141F-9948-9385-5A1285D3CCA5}"/>
+    <hyperlink ref="G120" r:id="rId314" xr:uid="{6D223922-CC59-454A-9CEF-8C14CD22C756}"/>
+    <hyperlink ref="H118" r:id="rId315" xr:uid="{CC30D4B0-260A-CA48-8ADC-1D40873BBB06}"/>
+    <hyperlink ref="H119" r:id="rId316" xr:uid="{331E3C9C-5086-D44C-850B-977F25BA77B1}"/>
+    <hyperlink ref="H120" r:id="rId317" xr:uid="{B725D28C-F089-2440-A94B-CB7D08CCA318}"/>
+    <hyperlink ref="Y117" r:id="rId318" xr:uid="{EBA68E25-B778-9847-A006-787212F4F4E4}"/>
+    <hyperlink ref="Y118" r:id="rId319" xr:uid="{338F3BE8-D792-5A47-8F42-470BAEA07FF2}"/>
+    <hyperlink ref="Y119" r:id="rId320" xr:uid="{A949EFF4-B0DA-7747-9F73-C5D18F29F93C}"/>
+    <hyperlink ref="Y120" r:id="rId321" xr:uid="{9C8CCF44-14EA-7F4B-A0BC-EB1FB40FEE07}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/POFMA'ed Dataset.xlsx
+++ b/POFMA'ed Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v22:04:2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Google Drive/POFMA/v12:05:2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDA59D-54F5-EC45-B068-E48CAB9D08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8453EE5-1609-B248-B5A5-C6CEA736FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="25440" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="606">
   <si>
     <t>Date of Press Release</t>
   </si>
@@ -1463,9 +1463,6 @@
   </si>
   <si>
     <t>Say No to PAP Facebook Post 1</t>
-  </si>
-  <si>
-    <t>Mr Glibert Goh Facebook Post 1</t>
   </si>
   <si>
     <t>The Independent Singapore Website Article 1</t>
@@ -3038,6 +3035,78 @@
   </si>
   <si>
     <t>https://twitter.com/tohhanshih/status/1517035091603881985</t>
+  </si>
+  <si>
+    <t>Gilbert Goh Facebook Post 1</t>
+  </si>
+  <si>
+    <t>Gilbert Goh Facebook Post 2</t>
+  </si>
+  <si>
+    <t>Minister for Social and Family Development Instructs POFMA Office to Issue Correction Direction</t>
+  </si>
+  <si>
+    <t>https://www.pofmaoffice.gov.sg/files/media-releases/pofma-pr-msf-12may2022-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.sg/article/factually120522</t>
+  </si>
+  <si>
+    <t>Minister of Social and Family Development</t>
+  </si>
+  <si>
+    <t>12 May 2022
+ISSUANCE OF CORRECTION DIRECTION UNDER THE PROTECTION FROM ONLINE
+FALSEHOODS AND MANIPULATION ACT REGARDING FALSEHOOD ABOUT WOMAN
+WHO CLAIMED TO HAVE NO ONE TO TURN TO FOR URGENT FINANCIAL HELP
+The Minister for Social and Family Development has instructed the POFMA Office to
+issue a Correction Direction1
+(CD) to correct a Facebook post made by Gilbert Goh on 24 April
+2022. Goh will be required to carry a correction notice alongside his post.
+Correction and clarification regarding falsehood posted by Gilbert Goh
+2 On 24 April 2022, Goh published on Facebook an appeal he purportedly received from
+“A”, who claimed that there is “no one [she] can turn to” for help and that she needed urgent
+financial assistance for herself and her partner, as well as adult diapers, transportation, and
+food. Goh’s post gave the impression that “A” and her partner have not received any
+assistance from the Ministry of Social and Family Development (MSF) and other agencies.
+This is false.
+3 “A” is known to MSF as Mdm A.
+ Mdm A has been receiving ComCare assistance from MSF since June 2015 without
+any break in monthly assistance. Mdm A’s last ComCare assistance period was from
+December 2021 to April 2022, before the current renewal from May 2022 to August
+2022. Also, her monthly payout was increased from May 2022 onwards.
+ Her partner has been receiving ComCare assistance for various periods since June
+2015. His last assistance period was from October 2021 to March 2022. It was
+renewed from April to September 2022.
+4 Besides MSF, Mdm A and her partner are also receiving financial and non-financial
+assistance from various other agencies and community partners, including the Agency for
+Integrated Care, MUIS (Islamic Religious Council of Singapore), Tan Tock Seng Hospital, THK
+Family Service Centre @ MacPherson and Home Nursing Foundation. Together, the financial
+assistance that Mdm A and her partner are currently receiving from MSF and other agencies
+amounts to more than $2,000 each month. This assistance includes cash, rental assistance,
+assistance for service and conservancy charges, utility assistance and Public Healthcare
+Assistance.
+5 Mdm A had not reached out to MSF for additional help before the Facebook post was
+published.
+6 The false statement in Goh’s post gives the impression that MSF and other agencies
+are not aware of, or are not doing anything about, Mdm A’s situation. This is not the case, and it is important to set the facts straight. Such false statements erode public trust and lead to
+misunderstanding about the support and assistance being extended to needy families by MSF
+and other agencies.
+7 MSF and other agencies are continuing to do our utmost to support and assist families
+in need. If members of the public come across individuals and families who require financial
+or social support, they may call the ComCare hotline at 1800-222-0000 or approach the
+nearest SSO (www.msf.gov.sg/ssolocator) or Family Service Centre (FSC)
+(www.msf.gov.sg/fsclocator).
+1 A Correction Direction is a Direction issued to a person (“the recipient”) who has communicated a falsehood that affects the public interest. It requires the recipient to publish a correction notice, providing access to the correct facts. The CD does not require the recipient to take down their post or make edits to their content.
+– END –
+ISSUED BY
+MINISTRY OF SOCIAL AND FAMILY DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/goh.gilbert/posts/10161889277528975</t>
+  </si>
+  <si>
+    <t>Minister of Social and Family Development (Masagos Zulkifli)</t>
   </si>
 </sst>
 </file>
@@ -3586,7 +3655,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48</c:v>
@@ -3814,10 +3883,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$20</c:f>
+              <c:f>Summary!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -3872,15 +3941,18 @@
                 <c:pt idx="17">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>44682</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$3:$B$20</c:f>
+              <c:f>Summary!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3923,6 +3995,9 @@
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3958,10 +4033,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$3:$A$20</c:f>
+              <c:f>Summary!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43770</c:v>
                 </c:pt>
@@ -4016,15 +4091,18 @@
                 <c:pt idx="17">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>44682</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$20</c:f>
+              <c:f>Summary!$C$3:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4462,7 +4540,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -5299,7 +5377,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -9422,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B4095C-E4A6-4A40-8225-35A463C27F07}">
   <dimension ref="A2:AN287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9454,7 +9532,7 @@
         <v>6</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7" t="s">
@@ -9481,14 +9559,13 @@
         <v>17</v>
       </c>
       <c r="Z3" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL3" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AM3" s="7">
-        <f>SUM(B3:B20)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN3" s="7">
         <f>SUM(C3:C20)</f>
@@ -9555,7 +9632,7 @@
         <v>6</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z6" s="8">
         <v>3</v>
@@ -9578,7 +9655,7 @@
         <v>3</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z7" s="7">
         <v>5</v>
@@ -9603,7 +9680,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="Y8" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z8" s="7">
         <v>5</v>
@@ -9628,11 +9705,11 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="Y9" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Z9" s="8">
         <f>SUM(Z3:Z8)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" s="26"/>
       <c r="AH9" s="26"/>
@@ -9826,6 +9903,17 @@
       <c r="AI20" s="26"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>44682</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <f>SUM(B21:C21)</f>
+        <v>1</v>
+      </c>
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="26"/>
@@ -9858,13 +9946,13 @@
     </row>
     <row r="33" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B33" s="8">
         <v>5</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L33" s="7">
         <v>5</v>
@@ -9874,13 +9962,13 @@
     </row>
     <row r="34" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7">
         <v>2</v>
@@ -9890,13 +9978,13 @@
     </row>
     <row r="35" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B35" s="8">
         <v>4</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L35" s="7">
         <v>5</v>
@@ -9906,13 +9994,13 @@
     </row>
     <row r="36" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" s="8">
         <v>13</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L36" s="7">
         <v>3</v>
@@ -9922,13 +10010,13 @@
     </row>
     <row r="37" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L37" s="7">
         <v>5</v>
@@ -9936,13 +10024,13 @@
     </row>
     <row r="38" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L38" s="7">
         <v>8</v>
@@ -9950,7 +10038,7 @@
     </row>
     <row r="39" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K39" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L39" s="7">
         <v>4</v>
@@ -9958,7 +10046,7 @@
     </row>
     <row r="40" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K40" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L40" s="7">
         <v>6</v>
@@ -9968,7 +10056,7 @@
     </row>
     <row r="41" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K41" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L41" s="7">
         <v>11</v>
@@ -9978,7 +10066,7 @@
     </row>
     <row r="42" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K42" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L42" s="7">
         <v>13</v>
@@ -9988,7 +10076,7 @@
     </row>
     <row r="43" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K43" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L43" s="7">
         <v>6</v>
@@ -9996,7 +10084,7 @@
     </row>
     <row r="44" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K44" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L44" s="7">
         <v>6</v>
@@ -10004,7 +10092,7 @@
     </row>
     <row r="45" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="K45" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L45" s="7">
         <v>2</v>
@@ -10014,7 +10102,7 @@
     </row>
     <row r="46" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="K46" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L46" s="7">
         <v>2</v>
@@ -10024,7 +10112,7 @@
     </row>
     <row r="47" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="K47" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
@@ -10037,7 +10125,7 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="K48" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L48" s="7">
         <v>3</v>
@@ -10050,7 +10138,7 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="K49" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L49" s="7">
         <v>1</v>
@@ -10063,7 +10151,7 @@
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="K50" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L50" s="7">
         <v>9</v>
@@ -10076,7 +10164,7 @@
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="K51" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L51" s="7">
         <v>1</v>
@@ -10089,7 +10177,7 @@
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="K52" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L52" s="7">
         <v>1</v>
@@ -10102,7 +10190,7 @@
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="K53" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L53" s="7">
         <v>1</v>
@@ -10110,10 +10198,16 @@
       <c r="AC53" s="26"/>
       <c r="AD53" s="26"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
+      <c r="K54" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1</v>
+      </c>
       <c r="AC54" s="26"/>
       <c r="AD54" s="26"/>
     </row>
@@ -11321,11 +11415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IL120"/>
+  <dimension ref="A1:IL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11381,22 +11475,22 @@
         <v>189</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>317</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>318</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>7</v>
@@ -11571,7 +11665,7 @@
         <v>159</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>66</v>
@@ -12097,7 +12191,7 @@
         <v>72</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA10" s="15" t="s">
         <v>100</v>
@@ -12359,7 +12453,7 @@
         <v>31</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>66</v>
@@ -12927,7 +13021,7 @@
         <v>159</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA21" s="15" t="s">
         <v>66</v>
@@ -13081,7 +13175,7 @@
         <v>159</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>66</v>
@@ -13233,7 +13327,7 @@
         <v>159</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA25" s="15" t="s">
         <v>66</v>
@@ -13271,7 +13365,7 @@
         <v>31</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>66</v>
@@ -13329,7 +13423,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="E27" s="14">
         <v>43887</v>
@@ -13401,7 +13495,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="14">
         <v>43887</v>
@@ -13473,7 +13567,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" s="14">
         <v>43887</v>
@@ -13545,7 +13639,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="14">
         <v>43908</v>
@@ -13601,7 +13695,7 @@
         <v>87</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA30" s="16" t="s">
         <v>154</v>
@@ -13621,7 +13715,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31" s="14">
         <v>43908</v>
@@ -13677,7 +13771,7 @@
         <v>87</v>
       </c>
       <c r="Z31" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA31" s="16" t="s">
         <v>154</v>
@@ -13697,7 +13791,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E32" s="14">
         <v>43908</v>
@@ -13773,7 +13867,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33" s="14">
         <v>43908</v>
@@ -13976,7 +14070,7 @@
         <v>65</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X35" s="15" t="s">
         <v>97</v>
@@ -13985,7 +14079,7 @@
         <v>234</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA35" s="16"/>
       <c r="AB35" s="14">
@@ -14054,7 +14148,7 @@
         <v>65</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X36" s="15" t="s">
         <v>97</v>
@@ -14063,7 +14157,7 @@
         <v>66</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA36" s="16"/>
       <c r="AB36" s="14">
@@ -14289,7 +14383,7 @@
         <v>91</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA39" s="16"/>
       <c r="AB39" s="14">
@@ -14535,7 +14629,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E43" s="14">
         <v>43940</v>
@@ -14609,7 +14703,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44" s="14">
         <v>43940</v>
@@ -14812,7 +14906,7 @@
         <v>194</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA46" s="16" t="s">
         <v>66</v>
@@ -14832,7 +14926,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E47" s="14">
         <v>43956</v>
@@ -14889,7 +14983,7 @@
         <v>233</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA47" s="1" t="s">
         <v>66</v>
@@ -14983,7 +15077,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E49" s="14">
         <v>43956</v>
@@ -15105,7 +15199,7 @@
         <v>239</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>66</v>
@@ -15173,7 +15267,7 @@
         <v>238</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA51" s="1" t="s">
         <v>66</v>
@@ -15208,7 +15302,7 @@
         <v>31</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>66</v>
@@ -15238,7 +15332,7 @@
         <v>246</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA52" s="1" t="s">
         <v>66</v>
@@ -15273,7 +15367,7 @@
         <v>31</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>66</v>
@@ -15303,7 +15397,7 @@
         <v>238</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA53" s="1" t="s">
         <v>66</v>
@@ -15323,22 +15417,22 @@
         <v>43</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E54" s="3">
         <v>43964</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="I54" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>147</v>
@@ -15347,10 +15441,10 @@
         <v>66</v>
       </c>
       <c r="L54" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -15359,10 +15453,10 @@
         <v>1</v>
       </c>
       <c r="T54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>75</v>
@@ -15371,7 +15465,7 @@
         <v>152</v>
       </c>
       <c r="Y54" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>67</v>
@@ -15394,34 +15488,34 @@
         <v>43</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E55" s="3">
         <v>43964</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="H55" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="I55" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
@@ -15430,10 +15524,10 @@
         <v>1</v>
       </c>
       <c r="T55" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>75</v>
@@ -15442,7 +15536,7 @@
         <v>152</v>
       </c>
       <c r="Y55" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z55" s="1" t="s">
         <v>67</v>
@@ -15465,22 +15559,22 @@
         <v>44</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E56" s="3">
         <v>43978</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="H56" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>147</v>
@@ -15489,7 +15583,7 @@
         <v>43</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>17</v>
@@ -15504,10 +15598,10 @@
         <v>1</v>
       </c>
       <c r="T56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>75</v>
@@ -15516,10 +15610,10 @@
         <v>152</v>
       </c>
       <c r="Y56" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA56" s="1" t="s">
         <v>66</v>
@@ -15539,22 +15633,22 @@
         <v>44</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="3">
         <v>43978</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="H57" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>148</v>
@@ -15569,25 +15663,25 @@
         <v>1</v>
       </c>
       <c r="T57" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="U57" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y57" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA57" s="1" t="s">
         <v>66</v>
@@ -15607,16 +15701,16 @@
         <v>45</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E58" s="3">
         <v>43979</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="23" t="s">
         <v>311</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>312</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>31</v>
@@ -15628,7 +15722,7 @@
         <v>43</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>17</v>
@@ -15643,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>75</v>
@@ -15652,10 +15746,10 @@
         <v>152</v>
       </c>
       <c r="Y58" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA58" s="1" t="s">
         <v>66</v>
@@ -15675,7 +15769,7 @@
         <v>45</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E59" s="3">
         <v>43981</v>
@@ -15684,19 +15778,19 @@
         <v>48</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>17</v>
@@ -15711,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>75</v>
@@ -15720,10 +15814,10 @@
         <v>152</v>
       </c>
       <c r="Y59" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA59" s="1" t="s">
         <v>66</v>
@@ -15743,22 +15837,22 @@
         <v>46</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E60" s="3">
         <v>44011</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>147</v>
@@ -15767,7 +15861,7 @@
         <v>43</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>17</v>
@@ -15782,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>75</v>
@@ -15791,7 +15885,7 @@
         <v>97</v>
       </c>
       <c r="Y60" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>77</v>
@@ -15814,22 +15908,22 @@
         <v>47</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E61" s="3">
         <v>44011</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>147</v>
@@ -15850,19 +15944,19 @@
         <v>1</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W61" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y61" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>77</v>
@@ -15885,22 +15979,22 @@
         <v>46</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E62" s="3">
         <v>44011</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>148</v>
@@ -15912,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>113</v>
@@ -15921,7 +16015,7 @@
         <v>97</v>
       </c>
       <c r="Y62" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>77</v>
@@ -15944,22 +16038,22 @@
         <v>47</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E63" s="3">
         <v>44011</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>148</v>
@@ -15971,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>113</v>
@@ -15980,7 +16074,7 @@
         <v>97</v>
       </c>
       <c r="Y63" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>77</v>
@@ -16003,28 +16097,28 @@
         <v>48</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E64" s="3">
         <v>44014</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G64" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="H64" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="H64" s="23" t="s">
-        <v>337</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>17</v>
@@ -16036,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>75</v>
@@ -16045,7 +16139,7 @@
         <v>152</v>
       </c>
       <c r="Y64" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>67</v>
@@ -16068,22 +16162,22 @@
         <v>49</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E65" s="3">
         <v>44014</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="H65" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="H65" s="23" t="s">
-        <v>337</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>147</v>
@@ -16092,7 +16186,7 @@
         <v>24</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -16101,19 +16195,19 @@
         <v>1</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y65" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>67</v>
@@ -16136,28 +16230,28 @@
         <v>50</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="3">
         <v>44015</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G66" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="I66" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>17</v>
@@ -16166,16 +16260,16 @@
         <v>1</v>
       </c>
       <c r="T66" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>152</v>
@@ -16187,7 +16281,7 @@
         <v>65</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB66" s="3">
         <v>44017</v>
@@ -16204,28 +16298,28 @@
         <v>51</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="3">
         <v>44015</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G67" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="I67" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>17</v>
@@ -16234,16 +16328,16 @@
         <v>1</v>
       </c>
       <c r="T67" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>152</v>
@@ -16255,7 +16349,7 @@
         <v>65</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB67" s="3">
         <v>44017</v>
@@ -16272,28 +16366,28 @@
         <v>52</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="3">
         <v>44015</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G68" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="I68" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>17</v>
@@ -16302,16 +16396,16 @@
         <v>1</v>
       </c>
       <c r="T68" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>152</v>
@@ -16323,7 +16417,7 @@
         <v>65</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB68" s="3">
         <v>44017</v>
@@ -16340,28 +16434,28 @@
         <v>53</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E69" s="3">
         <v>44015</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G69" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="I69" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>17</v>
@@ -16373,22 +16467,22 @@
         <v>1</v>
       </c>
       <c r="T69" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U69" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y69" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>67</v>
@@ -16411,22 +16505,22 @@
         <v>54</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E70" s="3">
         <v>44016</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G70" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H70" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="I70" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>147</v>
@@ -16441,19 +16535,19 @@
         <v>1</v>
       </c>
       <c r="T70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y70" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>67</v>
@@ -16476,22 +16570,22 @@
         <v>55</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E71" s="3">
         <v>44016</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G71" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H71" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="I71" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>147</v>
@@ -16506,19 +16600,19 @@
         <v>1</v>
       </c>
       <c r="T71" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U71" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y71" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>67</v>
@@ -16541,28 +16635,28 @@
         <v>56</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72" s="3">
         <v>44016</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G72" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H72" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="I72" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>17</v>
@@ -16574,16 +16668,16 @@
         <v>1</v>
       </c>
       <c r="T72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y72" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>77</v>
@@ -16606,22 +16700,22 @@
         <v>57</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E73" s="3">
         <v>44016</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G73" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H73" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="I73" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>147</v>
@@ -16639,16 +16733,16 @@
         <v>1</v>
       </c>
       <c r="T73" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="Y73" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>67</v>
@@ -16671,28 +16765,28 @@
         <v>58</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74" s="3">
         <v>44016</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G74" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H74" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="I74" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>17</v>
@@ -16704,19 +16798,19 @@
         <v>1</v>
       </c>
       <c r="T74" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U74" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y74" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>67</v>
@@ -16736,25 +16830,25 @@
         <v>65</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="E75" s="3">
         <v>44016</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G75" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="I75" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>148</v>
@@ -16769,16 +16863,16 @@
         <v>1</v>
       </c>
       <c r="T75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U75" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>113</v>
       </c>
       <c r="Y75" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z75" s="1" t="s">
         <v>66</v>
@@ -16801,22 +16895,22 @@
         <v>51</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E76" s="3">
         <v>44016</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="G76" s="23" t="s">
-        <v>380</v>
-      </c>
       <c r="H76" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>148</v>
@@ -16831,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>113</v>
@@ -16843,7 +16937,7 @@
         <v>65</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB76" s="3">
         <v>44017</v>
@@ -16860,52 +16954,52 @@
         <v>59</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77" s="3">
         <v>44017</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G77" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H77" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="I77" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P77" s="1">
         <v>1</v>
       </c>
       <c r="T77" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U77" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y77" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>67</v>
@@ -16928,22 +17022,22 @@
         <v>60</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E78" s="3">
         <v>44017</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G78" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H78" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="I78" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>147</v>
@@ -16958,22 +17052,22 @@
         <v>1</v>
       </c>
       <c r="T78" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U78" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y78" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z78" s="1" t="s">
         <v>67</v>
@@ -16996,22 +17090,22 @@
         <v>61</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" s="3">
         <v>44017</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G79" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H79" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="I79" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>147</v>
@@ -17026,22 +17120,22 @@
         <v>1</v>
       </c>
       <c r="T79" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U79" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X79" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y79" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z79" s="1" t="s">
         <v>67</v>
@@ -17064,28 +17158,28 @@
         <v>62</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E80" s="3">
         <v>44017</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G80" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H80" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="I80" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>21</v>
@@ -17094,22 +17188,22 @@
         <v>1</v>
       </c>
       <c r="T80" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U80" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y80" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z80" s="1" t="s">
         <v>67</v>
@@ -17132,28 +17226,28 @@
         <v>63</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E81" s="3">
         <v>44017</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G81" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="H81" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="I81" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>21</v>
@@ -17165,22 +17259,22 @@
         <v>1</v>
       </c>
       <c r="T81" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U81" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X81" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y81" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z81" s="1" t="s">
         <v>67</v>
@@ -17203,7 +17297,7 @@
         <v>64</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E82" s="3">
         <v>44301</v>
@@ -17212,10 +17306,10 @@
         <v>38</v>
       </c>
       <c r="G82" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H82" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>34</v>
@@ -17224,7 +17318,7 @@
         <v>147</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>17</v>
@@ -17236,22 +17330,22 @@
         <v>1</v>
       </c>
       <c r="T82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U82" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y82" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Z82" s="1" t="s">
         <v>67</v>
@@ -17274,7 +17368,7 @@
         <v>65</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E83" s="3">
         <v>44301</v>
@@ -17283,10 +17377,10 @@
         <v>38</v>
       </c>
       <c r="G83" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H83" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>34</v>
@@ -17295,10 +17389,10 @@
         <v>147</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>17</v>
@@ -17310,22 +17404,22 @@
         <v>1</v>
       </c>
       <c r="T83" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U83" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V83" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y83" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z83" s="1" t="s">
         <v>67</v>
@@ -17348,7 +17442,7 @@
         <v>66</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E84" s="3">
         <v>44301</v>
@@ -17357,10 +17451,10 @@
         <v>38</v>
       </c>
       <c r="G84" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H84" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>34</v>
@@ -17369,7 +17463,7 @@
         <v>147</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>17</v>
@@ -17381,22 +17475,22 @@
         <v>1</v>
       </c>
       <c r="T84" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U84" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X84" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y84" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z84" s="1" t="s">
         <v>67</v>
@@ -17419,7 +17513,7 @@
         <v>67</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E85" s="3">
         <v>44301</v>
@@ -17428,10 +17522,10 @@
         <v>38</v>
       </c>
       <c r="G85" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H85" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>34</v>
@@ -17440,10 +17534,10 @@
         <v>147</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>17</v>
@@ -17455,22 +17549,22 @@
         <v>1</v>
       </c>
       <c r="T85" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U85" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y85" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z85" s="1" t="s">
         <v>67</v>
@@ -17493,7 +17587,7 @@
         <v>68</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E86" s="3">
         <v>44301</v>
@@ -17502,10 +17596,10 @@
         <v>38</v>
       </c>
       <c r="G86" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H86" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>34</v>
@@ -17514,7 +17608,7 @@
         <v>147</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>17</v>
@@ -17523,22 +17617,22 @@
         <v>1</v>
       </c>
       <c r="T86" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U86" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y86" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>67</v>
@@ -17561,7 +17655,7 @@
         <v>69</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E87" s="3">
         <v>44301</v>
@@ -17570,10 +17664,10 @@
         <v>38</v>
       </c>
       <c r="G87" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H87" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>432</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>34</v>
@@ -17582,7 +17676,7 @@
         <v>147</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>21</v>
@@ -17591,22 +17685,22 @@
         <v>1</v>
       </c>
       <c r="T87" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U87" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y87" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z87" s="1" t="s">
         <v>67</v>
@@ -17629,19 +17723,19 @@
         <v>70</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E88" s="3">
         <v>44323</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="H88" s="23" t="s">
         <v>450</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>451</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>37</v>
@@ -17650,7 +17744,7 @@
         <v>147</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>17</v>
@@ -17659,16 +17753,16 @@
         <v>1</v>
       </c>
       <c r="T88" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="U88" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="V88" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>97</v>
@@ -17697,19 +17791,19 @@
         <v>71</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E89" s="3">
         <v>44323</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G89" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="H89" s="23" t="s">
         <v>450</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>451</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>37</v>
@@ -17718,25 +17812,25 @@
         <v>147</v>
       </c>
       <c r="L89" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="P89" s="1">
         <v>1</v>
       </c>
       <c r="T89" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="U89" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X89" s="1" t="s">
         <v>97</v>
@@ -17762,22 +17856,22 @@
         <v>76</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E90" s="3">
         <v>44336</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="G90" s="23" t="s">
+      <c r="H90" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>34</v>
@@ -17795,16 +17889,16 @@
         <v>1</v>
       </c>
       <c r="T90" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U90" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X90" s="1" t="s">
         <v>97</v>
@@ -17830,22 +17924,22 @@
         <v>77</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E91" s="3">
         <v>44336</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G91" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="G91" s="23" t="s">
+      <c r="H91" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="H91" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>34</v>
@@ -17854,25 +17948,25 @@
         <v>150</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q91" s="1">
         <v>1</v>
       </c>
       <c r="T91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U91" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="V91" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X91" s="1" t="s">
         <v>97</v>
@@ -17898,22 +17992,22 @@
         <v>78</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E92" s="3">
         <v>44336</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="H92" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>34</v>
@@ -17931,16 +18025,16 @@
         <v>1</v>
       </c>
       <c r="T92" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U92" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="V92" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>97</v>
@@ -17969,19 +18063,19 @@
         <v>75</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E93" s="3">
         <v>44337</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G93" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G93" s="23" t="s">
+      <c r="H93" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>14</v>
@@ -17990,25 +18084,25 @@
         <v>147</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S93" s="1">
         <v>1</v>
       </c>
       <c r="T93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U93" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>152</v>
@@ -18017,10 +18111,10 @@
         <v>66</v>
       </c>
       <c r="Z93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA93" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="AA93" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="AB93" s="3">
         <v>44340</v>
@@ -18037,19 +18131,19 @@
         <v>76</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E94" s="3">
         <v>44337</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G94" s="23" t="s">
+      <c r="H94" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>14</v>
@@ -18058,7 +18152,7 @@
         <v>147</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>17</v>
@@ -18067,22 +18161,22 @@
         <v>1</v>
       </c>
       <c r="T94" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U94" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y94" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>77</v>
@@ -18105,19 +18199,19 @@
         <v>77</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E95" s="3">
         <v>44337</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="H95" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>14</v>
@@ -18126,7 +18220,7 @@
         <v>147</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>21</v>
@@ -18135,22 +18229,22 @@
         <v>1</v>
       </c>
       <c r="T95" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U95" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y95" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Z95" s="1" t="s">
         <v>67</v>
@@ -18173,19 +18267,19 @@
         <v>78</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E96" s="3">
         <v>44337</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G96" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="H96" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>14</v>
@@ -18203,22 +18297,22 @@
         <v>1</v>
       </c>
       <c r="T96" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U96" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y96" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z96" s="1" t="s">
         <v>67</v>
@@ -18241,19 +18335,19 @@
         <v>79</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E97" s="3">
         <v>44337</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G97" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G97" s="23" t="s">
+      <c r="H97" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>14</v>
@@ -18265,28 +18359,28 @@
         <v>28</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N97" s="1">
         <v>1</v>
       </c>
       <c r="T97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V97" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X97" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y97" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z97" s="1" t="s">
         <v>67</v>
@@ -18306,7 +18400,7 @@
         <v>82</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>17</v>
@@ -18315,13 +18409,13 @@
         <v>44337</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G98" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="H98" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="H98" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>14</v>
@@ -18339,16 +18433,16 @@
         <v>1</v>
       </c>
       <c r="T98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U98" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="V98" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X98" s="1" t="s">
         <v>152</v>
@@ -18377,7 +18471,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E99" s="3">
         <v>44423</v>
@@ -18386,10 +18480,10 @@
         <v>33</v>
       </c>
       <c r="G99" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="H99" s="23" t="s">
         <v>493</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>494</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>34</v>
@@ -18407,16 +18501,16 @@
         <v>1</v>
       </c>
       <c r="T99" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="U99" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>113</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X99" s="1" t="s">
         <v>97</v>
@@ -18445,7 +18539,7 @@
         <v>81</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E100" s="3">
         <v>44477</v>
@@ -18454,10 +18548,10 @@
         <v>13</v>
       </c>
       <c r="G100" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="H100" s="23" t="s">
         <v>499</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>14</v>
@@ -18466,10 +18560,10 @@
         <v>147</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -18478,22 +18572,22 @@
         <v>1</v>
       </c>
       <c r="T100" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="U100" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="X100" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y100" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z100" s="1" t="s">
         <v>67</v>
@@ -18513,22 +18607,22 @@
         <v>85</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E101" s="3">
         <v>44477</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G101" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="H101" s="23" t="s">
         <v>508</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>509</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>19</v>
@@ -18546,10 +18640,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="U101" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="V101" s="1" t="s">
         <v>75</v>
@@ -18558,7 +18652,7 @@
         <v>152</v>
       </c>
       <c r="Y101" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z101" s="1" t="s">
         <v>67</v>
@@ -18581,19 +18675,19 @@
         <v>81</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E102" s="3">
         <v>44478</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G102" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>515</v>
-      </c>
       <c r="H102" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>14</v>
@@ -18602,19 +18696,19 @@
         <v>148</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>113</v>
@@ -18623,7 +18717,7 @@
         <v>152</v>
       </c>
       <c r="Y102" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z102" s="1" t="s">
         <v>67</v>
@@ -18646,7 +18740,7 @@
         <v>82</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E103" s="3">
         <v>44493</v>
@@ -18655,10 +18749,10 @@
         <v>45</v>
       </c>
       <c r="G103" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="H103" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>519</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>34</v>
@@ -18667,7 +18761,7 @@
         <v>147</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>21</v>
@@ -18676,10 +18770,10 @@
         <v>1</v>
       </c>
       <c r="T103" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U103" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>75</v>
@@ -18688,7 +18782,7 @@
         <v>97</v>
       </c>
       <c r="Y103" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Z103" s="1" t="s">
         <v>67</v>
@@ -18711,7 +18805,7 @@
         <v>83</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E104" s="3">
         <v>44493</v>
@@ -18720,10 +18814,10 @@
         <v>45</v>
       </c>
       <c r="G104" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="H104" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>519</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>34</v>
@@ -18732,7 +18826,7 @@
         <v>147</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>21</v>
@@ -18741,10 +18835,10 @@
         <v>1</v>
       </c>
       <c r="T104" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U104" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>75</v>
@@ -18753,7 +18847,7 @@
         <v>97</v>
       </c>
       <c r="Y104" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Z104" s="1" t="s">
         <v>67</v>
@@ -18776,19 +18870,19 @@
         <v>84</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E105" s="3">
         <v>44529</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G105" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="H105" s="23" t="s">
         <v>529</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>530</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>34</v>
@@ -18797,16 +18891,16 @@
         <v>147</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T105" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U105" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="U105" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>75</v>
@@ -18815,13 +18909,13 @@
         <v>97</v>
       </c>
       <c r="Y105" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z105" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB105" s="3">
         <v>44531</v>
@@ -18838,19 +18932,19 @@
         <v>85</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E106" s="3">
         <v>44529</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G106" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="H106" s="23" t="s">
         <v>529</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>530</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>34</v>
@@ -18859,16 +18953,16 @@
         <v>147</v>
       </c>
       <c r="K106" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="T106" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="T106" s="1" t="s">
+      <c r="U106" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>75</v>
@@ -18877,13 +18971,13 @@
         <v>97</v>
       </c>
       <c r="Y106" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z106" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB106" s="3">
         <v>44531</v>
@@ -18900,19 +18994,19 @@
         <v>86</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E107" s="3">
         <v>44529</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G107" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="H107" s="23" t="s">
         <v>529</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>530</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>34</v>
@@ -18921,16 +19015,16 @@
         <v>147</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T107" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U107" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>75</v>
@@ -18939,13 +19033,13 @@
         <v>97</v>
       </c>
       <c r="Y107" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Z107" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB107" s="3">
         <v>44531</v>
@@ -18962,19 +19056,19 @@
         <v>87</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E108" s="3">
         <v>44529</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G108" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="H108" s="23" t="s">
         <v>529</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>530</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>34</v>
@@ -18983,7 +19077,7 @@
         <v>147</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>17</v>
@@ -18995,28 +19089,28 @@
         <v>1</v>
       </c>
       <c r="T108" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U108" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="V108" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X108" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y108" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Z108" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB108" s="3">
         <v>44531</v>
@@ -19033,19 +19127,19 @@
         <v>88</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E109" s="3">
         <v>44533</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="H109" s="23" t="s">
         <v>543</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>544</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>34</v>
@@ -19054,7 +19148,7 @@
         <v>147</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>17</v>
@@ -19066,28 +19160,28 @@
         <v>1</v>
       </c>
       <c r="T109" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U109" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="U109" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="V109" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X109" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y109" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z109" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="Z109" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="AA109" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB109" s="3">
         <v>44604</v>
@@ -19104,19 +19198,19 @@
         <v>89</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E110" s="3">
         <v>44533</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G110" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="H110" s="23" t="s">
         <v>543</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>544</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>34</v>
@@ -19125,7 +19219,7 @@
         <v>147</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>17</v>
@@ -19137,28 +19231,28 @@
         <v>1</v>
       </c>
       <c r="T110" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U110" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="V110" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X110" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Y110" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA110" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="Z110" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA110" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="AB110" s="3">
         <v>44604</v>
@@ -19175,28 +19269,28 @@
         <v>90</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E111" s="3">
         <v>44604</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G111" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="H111" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="I111" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>17</v>
@@ -19205,10 +19299,10 @@
         <v>1</v>
       </c>
       <c r="T111" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U111" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="U111" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="V111" s="1" t="s">
         <v>75</v>
@@ -19217,7 +19311,7 @@
         <v>152</v>
       </c>
       <c r="Y111" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z111" s="1" t="s">
         <v>67</v>
@@ -19237,40 +19331,40 @@
         <v>91</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E112" s="3">
         <v>44604</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G112" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="H112" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="I112" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P112" s="1">
         <v>1</v>
       </c>
       <c r="T112" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U112" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>75</v>
@@ -19279,7 +19373,7 @@
         <v>152</v>
       </c>
       <c r="Y112" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z112" s="1" t="s">
         <v>67</v>
@@ -19299,19 +19393,19 @@
         <v>92</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E113" s="3">
         <v>44619</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G113" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="H113" s="23" t="s">
         <v>569</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>570</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>34</v>
@@ -19320,7 +19414,7 @@
         <v>147</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>17</v>
@@ -19329,16 +19423,16 @@
         <v>1</v>
       </c>
       <c r="T113" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U113" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="V113" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="X113" s="1" t="s">
         <v>97</v>
@@ -19361,19 +19455,19 @@
         <v>93</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E114" s="3">
         <v>44619</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G114" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="H114" s="23" t="s">
         <v>569</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>570</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>34</v>
@@ -19382,25 +19476,25 @@
         <v>147</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P114" s="1">
         <v>1</v>
       </c>
       <c r="T114" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U114" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="U114" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="V114" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="X114" s="1" t="s">
         <v>97</v>
@@ -19423,19 +19517,19 @@
         <v>94</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E115" s="3">
         <v>44619</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G115" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="H115" s="23" t="s">
         <v>569</v>
-      </c>
-      <c r="H115" s="23" t="s">
-        <v>570</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>34</v>
@@ -19444,7 +19538,7 @@
         <v>147</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>21</v>
@@ -19453,22 +19547,22 @@
         <v>1</v>
       </c>
       <c r="T115" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U115" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="V115" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W115" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="X115" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AB115" s="3">
         <v>44620</v>
@@ -19485,28 +19579,28 @@
         <v>80</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E116" s="3">
         <v>44651</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G116" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="G116" s="23" t="s">
+      <c r="H116" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H116" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>17</v>
@@ -19515,16 +19609,16 @@
         <v>1</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V116" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W116" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X116" s="1" t="s">
         <v>97</v>
@@ -19547,22 +19641,22 @@
         <v>95</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E117" s="3">
         <v>44673</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G117" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="H117" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="I117" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>147</v>
@@ -19577,10 +19671,10 @@
         <v>1</v>
       </c>
       <c r="T117" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U117" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="U117" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>75</v>
@@ -19589,7 +19683,7 @@
         <v>152</v>
       </c>
       <c r="Y117" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Z117" s="1" t="s">
         <v>67</v>
@@ -19609,22 +19703,22 @@
         <v>96</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E118" s="3">
         <v>44673</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G118" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="H118" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="I118" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>147</v>
@@ -19639,10 +19733,10 @@
         <v>1</v>
       </c>
       <c r="T118" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U118" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>75</v>
@@ -19651,7 +19745,7 @@
         <v>152</v>
       </c>
       <c r="Y118" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Z118" s="1" t="s">
         <v>67</v>
@@ -19671,22 +19765,22 @@
         <v>97</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E119" s="3">
         <v>44673</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G119" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="H119" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="I119" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>147</v>
@@ -19695,16 +19789,16 @@
         <v>52</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N119" s="1">
         <v>1</v>
       </c>
       <c r="T119" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U119" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="U119" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>75</v>
@@ -19713,7 +19807,7 @@
         <v>152</v>
       </c>
       <c r="Y119" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z119" s="1" t="s">
         <v>67</v>
@@ -19733,58 +19827,123 @@
         <v>98</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E120" s="3">
         <v>44673</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G120" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="G120" s="23" t="s">
+      <c r="H120" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="I120" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N120" s="1">
         <v>1</v>
       </c>
       <c r="T120" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U120" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="U120" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X120" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Y120" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z120" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB120" s="3">
         <v>44673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="5">
+        <v>50</v>
+      </c>
+      <c r="B121" s="5">
+        <v>96</v>
+      </c>
+      <c r="C121" s="5">
+        <v>99</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="E121" s="3">
+        <v>44693</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" s="1">
+        <v>1</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y121" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB121" s="3">
+        <v>44693</v>
       </c>
     </row>
   </sheetData>
@@ -20112,6 +20271,9 @@
     <hyperlink ref="Y118" r:id="rId319" xr:uid="{338F3BE8-D792-5A47-8F42-470BAEA07FF2}"/>
     <hyperlink ref="Y119" r:id="rId320" xr:uid="{A949EFF4-B0DA-7747-9F73-C5D18F29F93C}"/>
     <hyperlink ref="Y120" r:id="rId321" xr:uid="{9C8CCF44-14EA-7F4B-A0BC-EB1FB40FEE07}"/>
+    <hyperlink ref="G121" r:id="rId322" xr:uid="{160223F7-668D-8C4B-B40C-F93263D69499}"/>
+    <hyperlink ref="H121" r:id="rId323" xr:uid="{096B3D45-B976-DE45-8FFD-18511F99DC45}"/>
+    <hyperlink ref="Y121" r:id="rId324" xr:uid="{1C9A376C-D57F-E441-828D-23861E2F19E8}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
